--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="1082">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1081">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -4015,37 +4015,8 @@
   </si>
   <si>
     <t xml:space="preserve">Erects an ethereal shield from your in front of you that absorbs incoming magical attacks.
-Shielding charm provides a magical AC by 10+PP against all incoming spells, but does not protect against physical damage, or the aftereffects of magic (i.e. a nearby explosion). This AC is eroded by all damage-causing effects.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character greater than 10</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, the AC provided is equal to the character level + $2 \times PP$.</t>
-    </r>
+Casting this spell initiates a `Brace’ action and, in addition to the Resist check, adds (1d4 +PP) to your Block stat against magical attacks. 
+This shield has a health of (10 +$5\times$PP). If a spell would cause the shield to drop to 0HP, the shield fails, and half the remaining damage is dealt to the caster. </t>
   </si>
   <si>
     <t xml:space="preserve">Magical Stability Ward</t>
@@ -4063,37 +4034,7 @@
     <t xml:space="preserve">tueormaxima</t>
   </si>
   <si>
-    <t xml:space="preserve">Individual Ward (see Lesser Ward) that protects against 50 damage. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character greater than 14</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, the ward protection is equal to four times the character level. </t>
-    </r>
+    <t xml:space="preserve">Individual Ward (see Lesser Ward) that protects against (50+5$\times$PP) damage. </t>
   </si>
   <si>
     <t xml:space="preserve">Minefield Ward</t>
@@ -4111,7 +4052,10 @@
     <t xml:space="preserve">repente</t>
   </si>
   <si>
-    <t xml:space="preserve">A more powerful version of the shielding charm (see protego for full description) with AC 25+$2\times$PP, but rather than spells being absorbed by the shield, they are reflected back at the caster. Mirror shield also defends against physical attacks.</t>
+    <t xml:space="preserve">Erects an ethereal shield from your in front of you that absorbs incoming attacks of all kinds.
+Casting this spell initiates a `Brace’ action and, in addition to the Resist check, adds (1d4 +PP) to your Block stat against magical and physical attacks. 
+This shield has a health of (10 +$5\times$PP). If a spell would cause the shield to drop to 0HP, the shield fails, and half the remaining damage is dealt to the caster. 
+On a successful block of a spell that the caster knows, they may perform an accuracy check to `reflect\apos{} the spell back at the original caster. This costs no additional FP to do, and on a failed attempt, the spell is reflected in a random direction. Reflected spells still drain the shield\apos{}s HP. </t>
   </si>
   <si>
     <t xml:space="preserve">Privacy Ward</t>
@@ -4120,7 +4064,7 @@
     <t xml:space="preserve">muffliato</t>
   </si>
   <si>
-    <t xml:space="preserve">A buzzing sound fills the ears of anyone trying to listen in on your conversations whilst you are in the warded area. Lasts for one hour, and has a radius of 2m.</t>
+    <t xml:space="preserve">Prevents sound from inside a region (2+PP)m in radius being heard from the outside. When inside the region, sound from both inside and outside may be heard. </t>
   </si>
   <si>
     <t xml:space="preserve">Reinforce Shield</t>
@@ -4168,37 +4112,15 @@
     <t xml:space="preserve">1 year</t>
   </si>
   <si>
-    <t xml:space="preserve">Prevents objects from passing over the edge of the ward. Usually cast on doorways and entrances. The ward is immune to all physical damage, but can only survive 8 points of spell damage. </t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">When cast by a character greater than 12</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">th</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="8"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve"> level, ward strength is equal to character level. </t>
-    </r>
+    <t xml:space="preserve">Prevents objects from passing over the edge of the ward. Usually cast on doorways and entrances. The ward is immune to all physical damage, but can only survive (8+$2\times$PP) points of spell damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You may teleport yourself and up to PP additional passengers to a place you are intimitaely familiar with. Passengers must be in physical contact with you the moment this spell is cast. 
+This spell may be cast without the use of a wand. 
+If anything happens to the caster in the turn that this spell is cast which would disrupt a Focus spell, all passengers become splinched and take 2d12 force damage. </t>
   </si>
 </sst>
 </file>
@@ -4503,12 +4425,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -4582,34 +4504,32 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:GD273"/>
+  <dimension ref="A1:GD274"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B81" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A81" activeCellId="0" sqref="A81"/>
-      <selection pane="bottomRight" activeCell="I88" activeCellId="0" sqref="I88"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="B263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="L269" activeCellId="0" sqref="L269"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="10" style="1" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="55.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="36.42"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="35" min="16" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="37" min="36" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="56" min="38" style="1" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="57" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="58" style="0" width="5.01"/>
@@ -4617,19 +4537,19 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="67" style="0" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="78" min="68" style="1" width="2.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="79" style="1" width="4.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="80" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="81" min="81" style="1" width="3.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="82" style="0" width="5.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="17.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="83" style="0" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="102" min="84" style="2" width="3.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="103" min="103" style="2" width="4.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="104" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="124" min="105" style="1" width="2.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="125" min="125" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="125" min="125" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="166" min="126" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="185" min="167" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="185" min="167" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="186" min="186" style="1" width="9"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="187" style="1" width="8.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="187" style="1" width="8.71"/>
   </cols>
   <sheetData>
     <row r="1" s="6" customFormat="true" ht="12.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -41627,7 +41547,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="264" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="264" customFormat="false" ht="78.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A264" s="11" t="s">
         <v>1044</v>
       </c>
@@ -41658,13 +41578,11 @@
       <c r="L264" s="11" t="s">
         <v>1047</v>
       </c>
-      <c r="M264" s="19" t="s">
-        <v>1048</v>
-      </c>
+      <c r="M264" s="19"/>
     </row>
     <row r="265" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>453</v>
@@ -41673,7 +41591,7 @@
         <v>1002</v>
       </c>
       <c r="D265" s="1" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E265" s="1" t="s">
         <v>359</v>
@@ -41688,12 +41606,12 @@
         <v>5</v>
       </c>
       <c r="L265" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="266" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A266" s="11" t="s">
         <v>1051</v>
-      </c>
-    </row>
-    <row r="266" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A266" s="11" t="s">
-        <v>1052</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>453</v>
@@ -41702,7 +41620,7 @@
         <v>1002</v>
       </c>
       <c r="D266" s="11" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="E266" s="11" t="s">
         <v>359</v>
@@ -41720,15 +41638,13 @@
       <c r="J266" s="11"/>
       <c r="K266" s="11"/>
       <c r="L266" s="11" t="s">
-        <v>1054</v>
-      </c>
-      <c r="M266" s="19" t="s">
-        <v>1055</v>
-      </c>
+        <v>1053</v>
+      </c>
+      <c r="M266" s="19"/>
     </row>
     <row r="267" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>453</v>
@@ -41737,7 +41653,7 @@
         <v>1002</v>
       </c>
       <c r="D267" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="E267" s="11" t="s">
         <v>359</v>
@@ -41759,7 +41675,7 @@
         <v>10</v>
       </c>
       <c r="L267" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N267" s="1" t="n">
         <v>1</v>
@@ -42254,9 +42170,9 @@
         <v>52.5</v>
       </c>
     </row>
-    <row r="268" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="268" customFormat="false" ht="169.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="11" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>453</v>
@@ -42265,7 +42181,7 @@
         <v>1002</v>
       </c>
       <c r="D268" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E268" s="11" t="s">
         <v>98</v>
@@ -42283,12 +42199,12 @@
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
       <c r="L268" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
     </row>
-    <row r="269" customFormat="false" ht="36" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="269" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>453</v>
@@ -42297,7 +42213,7 @@
         <v>1002</v>
       </c>
       <c r="D269" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E269" s="11" t="s">
         <v>359</v>
@@ -42315,12 +42231,12 @@
       <c r="J269" s="11"/>
       <c r="K269" s="11"/>
       <c r="L269" s="11" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
     </row>
     <row r="270" customFormat="false" ht="72" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>453</v>
@@ -42329,7 +42245,7 @@
         <v>1002</v>
       </c>
       <c r="D270" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="E270" s="11" t="s">
         <v>98</v>
@@ -42338,7 +42254,7 @@
         <v>59</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="H270" s="11"/>
       <c r="I270" s="11" t="n">
@@ -42347,15 +42263,15 @@
       <c r="J270" s="11"/>
       <c r="K270" s="11"/>
       <c r="L270" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="M270" s="1" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="271" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>453</v>
@@ -42364,7 +42280,7 @@
         <v>1002</v>
       </c>
       <c r="D271" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="E271" s="11" t="s">
         <v>29</v>
@@ -42373,7 +42289,7 @@
         <v>59</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H271" s="11" t="s">
         <v>31</v>
@@ -42384,12 +42300,12 @@
       <c r="J271" s="11"/>
       <c r="K271" s="11"/>
       <c r="L271" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
     </row>
-    <row r="272" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="272" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="1" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>453</v>
@@ -42398,7 +42314,7 @@
         <v>1002</v>
       </c>
       <c r="D272" s="1" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="E272" s="1" t="s">
         <v>98</v>
@@ -42410,15 +42326,15 @@
         <v>946</v>
       </c>
       <c r="I272" s="11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L272" s="1" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>453</v>
@@ -42427,7 +42343,7 @@
         <v>1002</v>
       </c>
       <c r="D273" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="E273" s="11" t="s">
         <v>359</v>
@@ -42437,7 +42353,7 @@
       </c>
       <c r="G273" s="11"/>
       <c r="H273" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="I273" s="11" t="n">
         <v>3</v>
@@ -42445,10 +42361,31 @@
       <c r="J273" s="11"/>
       <c r="K273" s="11"/>
       <c r="L273" s="11" t="s">
+        <v>1078</v>
+      </c>
+      <c r="M273" s="19"/>
+    </row>
+    <row r="274" customFormat="false" ht="95.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A274" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C274" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="E274" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F274" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I274" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L274" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="M273" s="19" t="s">
-        <v>1081</v>
       </c>
     </row>
   </sheetData>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="1081">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="1086">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -4121,6 +4121,21 @@
     <t xml:space="preserve">You may teleport yourself and up to PP additional passengers to a place you are intimitaely familiar with. Passengers must be in physical contact with you the moment this spell is cast. 
 This spell may be cast without the use of a wand. 
 If anything happens to the caster in the turn that this spell is cast which would disrupt a Focus spell, all passengers become splinched and take 2d12 force damage. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Temporal Vortex</t>
+  </si>
+  <si>
+    <t xml:space="preserve">qortina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Concentration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Target a non-sapient being or object within range, and send it spinning forward or backward in time by (1+PP) days per round. Plants will grow and age, food will rot and wilt (or, rotten food may become fresh again), and weapons will rust and grow dull. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell may be cast as a master level spell, in which case the units are changed to {\it years}, rather than days. </t>
   </si>
 </sst>
 </file>
@@ -4504,12 +4519,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:GD274"/>
+  <dimension ref="A1:GD275"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="2" topLeftCell="B263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="L269" activeCellId="0" sqref="L269"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="2" topLeftCell="B269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A275" activeCellId="0" sqref="A275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -42388,6 +42403,35 @@
         <v>1080</v>
       </c>
     </row>
+    <row r="275" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A275" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>1082</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F275" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I275" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="L275" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="M275" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:EO2"/>
   <mergeCells count="23">

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA6BD38-C0C7-4C87-93A9-585DA042D869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034FFF5-6CD5-4A97-82E7-20C3FE54451D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1731,9 +1731,6 @@
   </si>
   <si>
     <t>Flame dragon</t>
-  </si>
-  <si>
-    <t>SPR</t>
   </si>
   <si>
     <t xml:space="preserve">Summons a cursed fire that consumes everything that it touches, and actively seeks to destroy living beings as if it were a living being. Fire may send out up to 1d4 tendrils per turn to strike at a target (caster performs an accuracy check for every atack), doing (1+PP)d8 fire damage to all it touches.
@@ -3353,9 +3350,6 @@
     <t>Scarlet bolt</t>
   </si>
   <si>
-    <t xml:space="preserve">The target is Stunned for 5 turns. Stunned characters cannot move or speak, but may take a major action to perform a Resist check to end the spell. </t>
-  </si>
-  <si>
     <t>Suggestion</t>
   </si>
   <si>
@@ -3769,6 +3763,12 @@
   </si>
   <si>
     <t xml:space="preserve">Perform a ritual in which all members of a group mix their blood in the centre of  a pentagram, binding them together. For the duration of the spell, whenever all members of this group work together to complete a task, gain a bonus to the group check equal to the number of people in the pact + PP. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target is Paralyzed for 10 turns. Stunned characters cannot move or speak, but may take a major action to perform a Resist check to end the spell. </t>
+  </si>
+  <si>
+    <t>10 turns</t>
   </si>
 </sst>
 </file>
@@ -3985,14 +3985,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4379,10 +4379,10 @@
   <dimension ref="A1:AMJ277"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="D270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
-      <selection pane="bottomRight" activeCell="K276" sqref="K276"/>
+      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4428,127 +4428,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="22" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="22" t="s">
+      <c r="G1" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="20" t="s">
+      <c r="O1" s="21" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="20" t="s">
+      <c r="Q1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-      <c r="U1" s="20"/>
-      <c r="V1" s="20"/>
-      <c r="W1" s="20"/>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="20"/>
-      <c r="AB1" s="20"/>
-      <c r="AC1" s="20"/>
-      <c r="AD1" s="20"/>
-      <c r="AE1" s="20"/>
-      <c r="AF1" s="20"/>
-      <c r="AG1" s="20"/>
-      <c r="AH1" s="20"/>
-      <c r="AI1" s="20"/>
-      <c r="AJ1" s="20"/>
+      <c r="R1" s="21"/>
+      <c r="S1" s="21"/>
+      <c r="T1" s="21"/>
+      <c r="U1" s="21"/>
+      <c r="V1" s="21"/>
+      <c r="W1" s="21"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="21"/>
+      <c r="AB1" s="21"/>
+      <c r="AC1" s="21"/>
+      <c r="AD1" s="21"/>
+      <c r="AE1" s="21"/>
+      <c r="AF1" s="21"/>
+      <c r="AG1" s="21"/>
+      <c r="AH1" s="21"/>
+      <c r="AI1" s="21"/>
+      <c r="AJ1" s="21"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="20" t="s">
+      <c r="AL1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="20" t="s">
+      <c r="AM1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="20"/>
-      <c r="AO1" s="20"/>
-      <c r="AP1" s="20"/>
-      <c r="AQ1" s="20"/>
-      <c r="AR1" s="20"/>
-      <c r="AS1" s="20"/>
-      <c r="AT1" s="20"/>
-      <c r="AU1" s="20"/>
-      <c r="AV1" s="20"/>
-      <c r="AW1" s="20"/>
-      <c r="AX1" s="20"/>
-      <c r="AY1" s="20"/>
-      <c r="AZ1" s="20"/>
-      <c r="BA1" s="20"/>
-      <c r="BB1" s="20"/>
-      <c r="BC1" s="20"/>
-      <c r="BD1" s="20"/>
-      <c r="BE1" s="20"/>
-      <c r="BF1" s="20"/>
+      <c r="AN1" s="21"/>
+      <c r="AO1" s="21"/>
+      <c r="AP1" s="21"/>
+      <c r="AQ1" s="21"/>
+      <c r="AR1" s="21"/>
+      <c r="AS1" s="21"/>
+      <c r="AT1" s="21"/>
+      <c r="AU1" s="21"/>
+      <c r="AV1" s="21"/>
+      <c r="AW1" s="21"/>
+      <c r="AX1" s="21"/>
+      <c r="AY1" s="21"/>
+      <c r="AZ1" s="21"/>
+      <c r="BA1" s="21"/>
+      <c r="BB1" s="21"/>
+      <c r="BC1" s="21"/>
+      <c r="BD1" s="21"/>
+      <c r="BE1" s="21"/>
+      <c r="BF1" s="21"/>
       <c r="BG1" s="3"/>
-      <c r="BH1" s="20" t="s">
+      <c r="BH1" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="BI1" s="20"/>
-      <c r="BJ1" s="20"/>
-      <c r="BK1" s="20"/>
-      <c r="BL1" s="20"/>
-      <c r="BM1" s="20"/>
-      <c r="BN1" s="20"/>
-      <c r="BO1" s="20"/>
-      <c r="BP1" s="20"/>
-      <c r="BQ1" s="20"/>
-      <c r="BR1" s="20"/>
-      <c r="BS1" s="20"/>
-      <c r="BT1" s="20"/>
-      <c r="BU1" s="20"/>
-      <c r="BV1" s="20"/>
-      <c r="BW1" s="20"/>
-      <c r="BX1" s="20"/>
-      <c r="BY1" s="20"/>
-      <c r="BZ1" s="20"/>
-      <c r="CA1" s="20"/>
-      <c r="CC1" s="20" t="s">
+      <c r="BI1" s="21"/>
+      <c r="BJ1" s="21"/>
+      <c r="BK1" s="21"/>
+      <c r="BL1" s="21"/>
+      <c r="BM1" s="21"/>
+      <c r="BN1" s="21"/>
+      <c r="BO1" s="21"/>
+      <c r="BP1" s="21"/>
+      <c r="BQ1" s="21"/>
+      <c r="BR1" s="21"/>
+      <c r="BS1" s="21"/>
+      <c r="BT1" s="21"/>
+      <c r="BU1" s="21"/>
+      <c r="BV1" s="21"/>
+      <c r="BW1" s="21"/>
+      <c r="BX1" s="21"/>
+      <c r="BY1" s="21"/>
+      <c r="BZ1" s="21"/>
+      <c r="CA1" s="21"/>
+      <c r="CC1" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="CE1" s="21" t="s">
+      <c r="CE1" s="22" t="s">
         <v>20</v>
       </c>
       <c r="CF1" s="5" t="s">
@@ -4614,89 +4614,89 @@
       <c r="CZ1" s="7">
         <v>7</v>
       </c>
-      <c r="DB1" s="20" t="s">
+      <c r="DB1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="DC1" s="20"/>
-      <c r="DD1" s="20"/>
-      <c r="DE1" s="20"/>
-      <c r="DF1" s="20"/>
-      <c r="DG1" s="20"/>
-      <c r="DH1" s="20"/>
-      <c r="DI1" s="20"/>
-      <c r="DJ1" s="20"/>
-      <c r="DK1" s="20"/>
-      <c r="DL1" s="20"/>
-      <c r="DM1" s="20"/>
-      <c r="DN1" s="20"/>
-      <c r="DO1" s="20"/>
-      <c r="DP1" s="20"/>
-      <c r="DQ1" s="20"/>
-      <c r="DR1" s="20"/>
-      <c r="DS1" s="20"/>
-      <c r="DT1" s="20"/>
-      <c r="DU1" s="20"/>
-      <c r="DW1" s="20" t="s">
+      <c r="DC1" s="21"/>
+      <c r="DD1" s="21"/>
+      <c r="DE1" s="21"/>
+      <c r="DF1" s="21"/>
+      <c r="DG1" s="21"/>
+      <c r="DH1" s="21"/>
+      <c r="DI1" s="21"/>
+      <c r="DJ1" s="21"/>
+      <c r="DK1" s="21"/>
+      <c r="DL1" s="21"/>
+      <c r="DM1" s="21"/>
+      <c r="DN1" s="21"/>
+      <c r="DO1" s="21"/>
+      <c r="DP1" s="21"/>
+      <c r="DQ1" s="21"/>
+      <c r="DR1" s="21"/>
+      <c r="DS1" s="21"/>
+      <c r="DT1" s="21"/>
+      <c r="DU1" s="21"/>
+      <c r="DW1" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="DX1" s="20"/>
-      <c r="DY1" s="20"/>
-      <c r="DZ1" s="20"/>
-      <c r="EA1" s="20"/>
-      <c r="EB1" s="20"/>
-      <c r="EC1" s="20"/>
-      <c r="ED1" s="20"/>
-      <c r="EE1" s="20"/>
-      <c r="EF1" s="20"/>
-      <c r="EG1" s="20"/>
-      <c r="EH1" s="20"/>
-      <c r="EI1" s="20"/>
-      <c r="EJ1" s="20"/>
-      <c r="EK1" s="20"/>
-      <c r="EL1" s="20"/>
-      <c r="EM1" s="20"/>
-      <c r="EN1" s="20"/>
-      <c r="EO1" s="20"/>
-      <c r="EP1" s="20"/>
-      <c r="ER1" s="20" t="s">
+      <c r="DX1" s="21"/>
+      <c r="DY1" s="21"/>
+      <c r="DZ1" s="21"/>
+      <c r="EA1" s="21"/>
+      <c r="EB1" s="21"/>
+      <c r="EC1" s="21"/>
+      <c r="ED1" s="21"/>
+      <c r="EE1" s="21"/>
+      <c r="EF1" s="21"/>
+      <c r="EG1" s="21"/>
+      <c r="EH1" s="21"/>
+      <c r="EI1" s="21"/>
+      <c r="EJ1" s="21"/>
+      <c r="EK1" s="21"/>
+      <c r="EL1" s="21"/>
+      <c r="EM1" s="21"/>
+      <c r="EN1" s="21"/>
+      <c r="EO1" s="21"/>
+      <c r="EP1" s="21"/>
+      <c r="ER1" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="ES1" s="20"/>
-      <c r="ET1" s="20"/>
-      <c r="EU1" s="20"/>
-      <c r="EV1" s="20"/>
-      <c r="EW1" s="20"/>
-      <c r="EX1" s="20"/>
-      <c r="EY1" s="20"/>
-      <c r="EZ1" s="20"/>
-      <c r="FA1" s="20"/>
-      <c r="FB1" s="20"/>
-      <c r="FC1" s="20"/>
-      <c r="FD1" s="20"/>
-      <c r="FE1" s="20"/>
-      <c r="FF1" s="20"/>
-      <c r="FG1" s="20"/>
-      <c r="FH1" s="20"/>
-      <c r="FI1" s="20"/>
-      <c r="FJ1" s="20"/>
-      <c r="FK1" s="20"/>
+      <c r="ES1" s="21"/>
+      <c r="ET1" s="21"/>
+      <c r="EU1" s="21"/>
+      <c r="EV1" s="21"/>
+      <c r="EW1" s="21"/>
+      <c r="EX1" s="21"/>
+      <c r="EY1" s="21"/>
+      <c r="EZ1" s="21"/>
+      <c r="FA1" s="21"/>
+      <c r="FB1" s="21"/>
+      <c r="FC1" s="21"/>
+      <c r="FD1" s="21"/>
+      <c r="FE1" s="21"/>
+      <c r="FF1" s="21"/>
+      <c r="FG1" s="21"/>
+      <c r="FH1" s="21"/>
+      <c r="FI1" s="21"/>
+      <c r="FJ1" s="21"/>
+      <c r="FK1" s="21"/>
     </row>
     <row r="2" spans="1:187" s="4" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+      <c r="N2" s="21"/>
+      <c r="O2" s="21"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="4">
         <v>1</v>
@@ -4759,7 +4759,7 @@
         <v>20</v>
       </c>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="20"/>
+      <c r="AL2" s="21"/>
       <c r="AM2" s="4">
         <v>1</v>
       </c>
@@ -4880,8 +4880,8 @@
       <c r="CA2" s="4">
         <v>20</v>
       </c>
-      <c r="CC2" s="20"/>
-      <c r="CE2" s="21"/>
+      <c r="CC2" s="21"/>
+      <c r="CE2" s="22"/>
       <c r="CF2" s="5" t="s">
         <v>25</v>
       </c>
@@ -5266,7 +5266,7 @@
     </row>
     <row r="4" spans="1:187" ht="36">
       <c r="A4" s="9" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -5275,7 +5275,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>46</v>
@@ -5291,10 +5291,10 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="M4" s="9" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="ER4" s="1">
         <f t="shared" si="0"/>
@@ -5577,7 +5577,7 @@
         <v>225</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -6801,7 +6801,7 @@
     </row>
     <row r="8" spans="1:187" ht="60">
       <c r="A8" s="8" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>38</v>
@@ -6810,7 +6810,7 @@
         <v>138</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>46</v>
@@ -6820,7 +6820,7 @@
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="I8" s="8">
         <v>3</v>
@@ -6831,7 +6831,7 @@
         <v>225</v>
       </c>
       <c r="M8" s="8" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="N8" s="10"/>
       <c r="ER8" s="1">
@@ -6917,7 +6917,7 @@
     </row>
     <row r="9" spans="1:187" ht="72">
       <c r="A9" s="8" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>94</v>
@@ -6926,7 +6926,7 @@
         <v>95</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>30</v>
@@ -6945,10 +6945,10 @@
         <v>225</v>
       </c>
       <c r="M9" s="8" t="s">
+        <v>852</v>
+      </c>
+      <c r="N9" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="N9" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="ER9" s="1">
         <f t="shared" si="0"/>
@@ -7033,7 +7033,7 @@
     </row>
     <row r="10" spans="1:187" ht="33.950000000000003" customHeight="1">
       <c r="A10" s="8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>94</v>
@@ -7042,7 +7042,7 @@
         <v>95</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>46</v>
@@ -7051,7 +7051,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="H10" s="8"/>
       <c r="I10" s="8">
@@ -7063,10 +7063,10 @@
         <v>225</v>
       </c>
       <c r="M10" s="8" t="s">
+        <v>861</v>
+      </c>
+      <c r="N10" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="N10" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="O10" s="1">
         <v>1</v>
@@ -7637,7 +7637,7 @@
     </row>
     <row r="11" spans="1:187" ht="33.950000000000003" customHeight="1">
       <c r="A11" s="9" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>38</v>
@@ -7646,7 +7646,7 @@
         <v>138</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>46</v>
@@ -7655,7 +7655,7 @@
         <v>31</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H11" s="9"/>
       <c r="I11" s="9">
@@ -7667,10 +7667,10 @@
         <v>225</v>
       </c>
       <c r="M11" s="9" t="s">
+        <v>938</v>
+      </c>
+      <c r="N11" s="19" t="s">
         <v>939</v>
-      </c>
-      <c r="N11" s="19" t="s">
-        <v>940</v>
       </c>
       <c r="ER11" s="1">
         <f t="shared" si="0"/>
@@ -7872,7 +7872,7 @@
     </row>
     <row r="13" spans="1:187" ht="33.950000000000003" customHeight="1">
       <c r="A13" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -7881,7 +7881,7 @@
         <v>39</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E13" s="8" t="s">
         <v>46</v>
@@ -7890,7 +7890,7 @@
         <v>55</v>
       </c>
       <c r="G13" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8">
@@ -7904,10 +7904,10 @@
         <v>413</v>
       </c>
       <c r="M13" s="8" t="s">
+        <v>644</v>
+      </c>
+      <c r="N13" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="N13" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="O13" s="1">
         <v>1</v>
@@ -8600,7 +8600,7 @@
     </row>
     <row r="15" spans="1:187" ht="33.950000000000003" customHeight="1">
       <c r="A15" s="8" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>52</v>
@@ -8609,7 +8609,7 @@
         <v>53</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E15" s="8" t="s">
         <v>46</v>
@@ -8618,7 +8618,7 @@
         <v>55</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="H15" s="8"/>
       <c r="I15" s="8">
@@ -8630,7 +8630,7 @@
         <v>148</v>
       </c>
       <c r="M15" s="8" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="ER15" s="1">
         <f t="shared" si="0"/>
@@ -8715,7 +8715,7 @@
     </row>
     <row r="16" spans="1:187" ht="33.950000000000003" customHeight="1">
       <c r="A16" s="8" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>27</v>
@@ -8724,7 +8724,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E16" s="8" t="s">
         <v>30</v>
@@ -8734,7 +8734,7 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I16" s="8">
         <v>3</v>
@@ -8742,10 +8742,10 @@
       <c r="J16" s="8"/>
       <c r="K16" s="8"/>
       <c r="L16" s="8" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="M16" s="8" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="BR16" s="2"/>
       <c r="BS16" s="2"/>
@@ -8841,7 +8841,7 @@
     </row>
     <row r="17" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -8850,7 +8850,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>30</v>
@@ -8859,10 +8859,10 @@
         <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I17" s="11">
         <v>2</v>
@@ -8873,7 +8873,7 @@
         <v>148</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="N17" s="12"/>
       <c r="ER17" s="1">
@@ -8959,7 +8959,7 @@
     </row>
     <row r="18" spans="1:167" ht="48">
       <c r="A18" s="8" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>52</v>
@@ -8968,7 +8968,7 @@
         <v>53</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="E18" s="8" t="s">
         <v>46</v>
@@ -8986,10 +8986,10 @@
       <c r="J18" s="8"/>
       <c r="K18" s="8"/>
       <c r="L18" s="8" t="s">
+        <v>904</v>
+      </c>
+      <c r="M18" s="8" t="s">
         <v>905</v>
-      </c>
-      <c r="M18" s="8" t="s">
-        <v>906</v>
       </c>
       <c r="ER18" s="1">
         <f t="shared" si="0"/>
@@ -9074,7 +9074,7 @@
     </row>
     <row r="19" spans="1:167" ht="48">
       <c r="A19" s="8" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>66</v>
@@ -9083,7 +9083,7 @@
         <v>67</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="E19" s="8" t="s">
         <v>30</v>
@@ -9099,13 +9099,13 @@
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="8" t="s">
+        <v>892</v>
+      </c>
+      <c r="M19" s="8" t="s">
         <v>893</v>
       </c>
-      <c r="M19" s="8" t="s">
+      <c r="N19" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="N19" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="ER19" s="1">
         <f t="shared" si="0"/>
@@ -10032,7 +10032,7 @@
     </row>
     <row r="23" spans="1:167" ht="48">
       <c r="A23" s="8" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>132</v>
@@ -10041,7 +10041,7 @@
         <v>133</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E23" s="8" t="s">
         <v>46</v>
@@ -10050,10 +10050,10 @@
         <v>55</v>
       </c>
       <c r="G23" s="8" t="s">
+        <v>595</v>
+      </c>
+      <c r="H23" s="8" t="s">
         <v>596</v>
-      </c>
-      <c r="H23" s="8" t="s">
-        <v>597</v>
       </c>
       <c r="I23" s="8">
         <v>1</v>
@@ -10064,7 +10064,7 @@
         <v>129</v>
       </c>
       <c r="M23" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="ER23" s="1">
         <f t="shared" si="0"/>
@@ -10149,7 +10149,7 @@
     </row>
     <row r="24" spans="1:167" ht="36">
       <c r="A24" s="8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>66</v>
@@ -10158,7 +10158,7 @@
         <v>119</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>46</v>
@@ -10167,10 +10167,10 @@
         <v>31</v>
       </c>
       <c r="G24" s="8" t="s">
+        <v>868</v>
+      </c>
+      <c r="H24" s="8" t="s">
         <v>869</v>
-      </c>
-      <c r="H24" s="8" t="s">
-        <v>870</v>
       </c>
       <c r="I24" s="11">
         <v>1</v>
@@ -10181,7 +10181,7 @@
         <v>129</v>
       </c>
       <c r="M24" s="8" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="N24" s="12"/>
       <c r="ER24" s="1">
@@ -10267,7 +10267,7 @@
     </row>
     <row r="25" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A25" s="9" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>132</v>
@@ -10276,7 +10276,7 @@
         <v>216</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>46</v>
@@ -10294,10 +10294,10 @@
       <c r="J25" s="9"/>
       <c r="K25" s="9"/>
       <c r="L25" s="9" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="M25" s="9" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="ER25" s="1">
         <f t="shared" si="0"/>
@@ -10502,7 +10502,7 @@
     </row>
     <row r="27" spans="1:167" ht="36">
       <c r="A27" s="8" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>38</v>
@@ -10511,7 +10511,7 @@
         <v>39</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E27" s="8" t="s">
         <v>46</v>
@@ -10520,7 +10520,7 @@
         <v>55</v>
       </c>
       <c r="G27" s="8" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="H27" s="8"/>
       <c r="I27" s="8">
@@ -10536,7 +10536,7 @@
         <v>153</v>
       </c>
       <c r="M27" s="8" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="N27" s="10"/>
       <c r="O27" s="1">
@@ -11956,7 +11956,7 @@
     </row>
     <row r="31" spans="1:167" ht="36">
       <c r="A31" s="9" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>132</v>
@@ -11965,7 +11965,7 @@
         <v>216</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="E31" s="9" t="s">
         <v>46</v>
@@ -11975,7 +11975,7 @@
       </c>
       <c r="G31" s="9"/>
       <c r="H31" s="9" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I31" s="9">
         <v>5</v>
@@ -11986,7 +11986,7 @@
         <v>381</v>
       </c>
       <c r="M31" s="9" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="ER31" s="1">
         <f t="shared" si="0"/>
@@ -12071,7 +12071,7 @@
     </row>
     <row r="32" spans="1:167" ht="44.25" customHeight="1">
       <c r="A32" s="8" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>52</v>
@@ -12080,7 +12080,7 @@
         <v>80</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="E32" s="8" t="s">
         <v>82</v>
@@ -12101,7 +12101,7 @@
         <v>153</v>
       </c>
       <c r="M32" s="8" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="O32" s="1">
         <v>1</v>
@@ -12678,7 +12678,7 @@
     </row>
     <row r="33" spans="1:167" ht="72">
       <c r="A33" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>38</v>
@@ -12687,7 +12687,7 @@
         <v>39</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="E33" s="8" t="s">
         <v>30</v>
@@ -12696,7 +12696,7 @@
         <v>31</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="H33" s="8"/>
       <c r="I33" s="8">
@@ -12710,10 +12710,10 @@
         <v>153</v>
       </c>
       <c r="M33" s="8" t="s">
+        <v>805</v>
+      </c>
+      <c r="N33" s="10" t="s">
         <v>806</v>
-      </c>
-      <c r="N33" s="10" t="s">
-        <v>807</v>
       </c>
       <c r="O33" s="1">
         <v>1</v>
@@ -13290,7 +13290,7 @@
     </row>
     <row r="34" spans="1:167" ht="36">
       <c r="A34" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>60</v>
@@ -13299,7 +13299,7 @@
         <v>61</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E34" s="8" t="s">
         <v>46</v>
@@ -13315,13 +13315,13 @@
       <c r="J34" s="8"/>
       <c r="K34" s="8"/>
       <c r="L34" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="M34" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="M34" s="8" t="s">
+      <c r="N34" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="N34" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="ER34" s="1">
         <f t="shared" si="0"/>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="36" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A36" s="9" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>60</v>
@@ -14026,7 +14026,7 @@
         <v>61</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E36" s="9" t="s">
         <v>46</v>
@@ -14035,7 +14035,7 @@
         <v>55</v>
       </c>
       <c r="G36" s="9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="H36" s="9" t="s">
         <v>262</v>
@@ -14051,7 +14051,7 @@
         <v>42</v>
       </c>
       <c r="M36" s="9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="ER36" s="1">
         <f t="shared" si="80"/>
@@ -14136,7 +14136,7 @@
     </row>
     <row r="37" spans="1:167" ht="60">
       <c r="A37" s="8" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>66</v>
@@ -14145,7 +14145,7 @@
         <v>119</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E37" s="8" t="s">
         <v>46</v>
@@ -14154,7 +14154,7 @@
         <v>31</v>
       </c>
       <c r="G37" s="8" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="H37" s="11"/>
       <c r="I37" s="11">
@@ -14170,7 +14170,7 @@
         <v>42</v>
       </c>
       <c r="M37" s="8" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="N37" s="12"/>
       <c r="O37" s="1">
@@ -14863,7 +14863,7 @@
     </row>
     <row r="39" spans="1:167" ht="48">
       <c r="A39" s="8" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>94</v>
@@ -14872,7 +14872,7 @@
         <v>222</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E39" s="8" t="s">
         <v>46</v>
@@ -14884,7 +14884,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="8" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I39" s="8">
         <v>3</v>
@@ -14895,7 +14895,7 @@
         <v>42</v>
       </c>
       <c r="M39" s="8" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="N39" s="12"/>
       <c r="ER39" s="1">
@@ -14981,7 +14981,7 @@
     </row>
     <row r="40" spans="1:167" ht="37.5" customHeight="1">
       <c r="A40" s="8" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>94</v>
@@ -14990,7 +14990,7 @@
         <v>222</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="E40" s="8" t="s">
         <v>30</v>
@@ -15002,7 +15002,7 @@
         <v>0</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I40" s="8">
         <v>3</v>
@@ -15015,7 +15015,7 @@
         <v>42</v>
       </c>
       <c r="M40" s="8" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="O40" s="1">
         <v>1</v>
@@ -15592,7 +15592,7 @@
     </row>
     <row r="41" spans="1:167" ht="48">
       <c r="A41" s="8" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>132</v>
@@ -15601,7 +15601,7 @@
         <v>133</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E41" s="8" t="s">
         <v>46</v>
@@ -15622,10 +15622,10 @@
         <v>42</v>
       </c>
       <c r="M41" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="N41" s="16" t="s">
         <v>547</v>
-      </c>
-      <c r="N41" s="16" t="s">
-        <v>548</v>
       </c>
       <c r="ER41" s="1">
         <f t="shared" si="80"/>
@@ -15710,7 +15710,7 @@
     </row>
     <row r="42" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A42" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>132</v>
@@ -15719,7 +15719,7 @@
         <v>133</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E42" s="8" t="s">
         <v>30</v>
@@ -15738,10 +15738,10 @@
         <v>42</v>
       </c>
       <c r="M42" s="8" t="s">
+        <v>609</v>
+      </c>
+      <c r="N42" s="16" t="s">
         <v>610</v>
-      </c>
-      <c r="N42" s="16" t="s">
-        <v>611</v>
       </c>
       <c r="ER42" s="1">
         <f t="shared" si="80"/>
@@ -15826,7 +15826,7 @@
     </row>
     <row r="43" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A43" s="8" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>132</v>
@@ -15835,7 +15835,7 @@
         <v>216</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="E43" s="8" t="s">
         <v>30</v>
@@ -15854,7 +15854,7 @@
         <v>42</v>
       </c>
       <c r="M43" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="ER43" s="1">
         <f t="shared" si="80"/>
@@ -15939,7 +15939,7 @@
     </row>
     <row r="44" spans="1:167" ht="48">
       <c r="A44" s="8" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>38</v>
@@ -15948,7 +15948,7 @@
         <v>39</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E44" s="8" t="s">
         <v>46</v>
@@ -15967,7 +15967,7 @@
         <v>42</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="N44" s="10"/>
       <c r="O44" s="1">
@@ -16545,7 +16545,7 @@
     </row>
     <row r="45" spans="1:167" ht="60">
       <c r="A45" s="1" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>132</v>
@@ -16554,7 +16554,7 @@
         <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>140</v>
@@ -16563,7 +16563,7 @@
         <v>55</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="I45" s="8">
         <v>5</v>
@@ -16572,7 +16572,7 @@
         <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="ER45" s="1">
         <f t="shared" si="80"/>
@@ -17013,7 +17013,7 @@
     </row>
     <row r="49" spans="1:167" ht="36">
       <c r="A49" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>38</v>
@@ -17022,7 +17022,7 @@
         <v>39</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E49" s="8" t="s">
         <v>46</v>
@@ -17043,7 +17043,7 @@
         <v>255</v>
       </c>
       <c r="M49" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="N49" s="10"/>
       <c r="O49" s="1">
@@ -17737,7 +17737,7 @@
     </row>
     <row r="51" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A51" s="9" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -17746,7 +17746,7 @@
         <v>138</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="E51" s="9" t="s">
         <v>46</v>
@@ -17756,7 +17756,7 @@
       </c>
       <c r="G51" s="9"/>
       <c r="H51" s="9" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="I51" s="9">
         <v>2</v>
@@ -17767,7 +17767,7 @@
         <v>255</v>
       </c>
       <c r="M51" s="9" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="N51" s="10"/>
       <c r="ER51" s="1">
@@ -17853,7 +17853,7 @@
     </row>
     <row r="52" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>60</v>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="I52" s="9">
         <v>4</v>
@@ -17881,7 +17881,7 @@
         <v>255</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="ER52" s="1">
         <f t="shared" si="80"/>
@@ -18721,10 +18721,10 @@
         <v>34</v>
       </c>
       <c r="L55" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="M55" s="8" t="s">
         <v>496</v>
-      </c>
-      <c r="M55" s="8" t="s">
-        <v>497</v>
       </c>
       <c r="O55" s="1">
         <v>1</v>
@@ -19220,7 +19220,7 @@
     </row>
     <row r="56" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A56" s="8" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>38</v>
@@ -19229,7 +19229,7 @@
         <v>138</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E56" s="8" t="s">
         <v>46</v>
@@ -19238,10 +19238,10 @@
         <v>55</v>
       </c>
       <c r="G56" s="8" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>183</v>
+        <v>1071</v>
       </c>
       <c r="I56" s="8">
         <v>2</v>
@@ -19253,10 +19253,10 @@
         <v>34</v>
       </c>
       <c r="L56" s="8" t="s">
-        <v>496</v>
+        <v>111</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>944</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="57" spans="1:167" ht="33.950000000000003" customHeight="1">
@@ -19420,7 +19420,7 @@
     </row>
     <row r="61" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A61" s="8" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>132</v>
@@ -19429,7 +19429,7 @@
         <v>216</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E61" s="8" t="s">
         <v>46</v>
@@ -19441,7 +19441,7 @@
         <v>376</v>
       </c>
       <c r="H61" s="8" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I61" s="8">
         <v>3</v>
@@ -19456,15 +19456,15 @@
         <v>111</v>
       </c>
       <c r="M61" s="8" t="s">
+        <v>529</v>
+      </c>
+      <c r="N61" s="16" t="s">
         <v>530</v>
-      </c>
-      <c r="N61" s="16" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="62" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>132</v>
@@ -19473,7 +19473,7 @@
         <v>216</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>46</v>
@@ -19500,7 +19500,7 @@
         <v>219</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="N62" s="16"/>
       <c r="O62" s="1">
@@ -21238,7 +21238,7 @@
     </row>
     <row r="70" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A70" s="8" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>38</v>
@@ -21247,7 +21247,7 @@
         <v>39</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E70" s="8" t="s">
         <v>46</v>
@@ -21256,7 +21256,7 @@
         <v>31</v>
       </c>
       <c r="G70" s="8" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H70" s="8" t="s">
         <v>173</v>
@@ -21270,7 +21270,7 @@
         <v>111</v>
       </c>
       <c r="M70" s="8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="O70" s="1">
         <v>1</v>
@@ -21767,7 +21767,7 @@
     </row>
     <row r="71" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A71" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>38</v>
@@ -21777,10 +21777,10 @@
       </c>
       <c r="D71" s="8"/>
       <c r="E71" s="15" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F71" s="15" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G71" s="15"/>
       <c r="H71" s="15" t="s">
@@ -21795,12 +21795,12 @@
         <v>111</v>
       </c>
       <c r="M71" s="8" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="72" spans="1:146" ht="24">
       <c r="A72" s="9" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>27</v>
@@ -21809,7 +21809,7 @@
         <v>160</v>
       </c>
       <c r="D72" s="9" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="E72" s="9" t="s">
         <v>46</v>
@@ -21819,7 +21819,7 @@
       </c>
       <c r="G72" s="9"/>
       <c r="H72" s="9" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I72" s="9">
         <v>1</v>
@@ -21830,12 +21830,12 @@
         <v>111</v>
       </c>
       <c r="M72" s="9" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="73" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A73" s="8" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>60</v>
@@ -21844,7 +21844,7 @@
         <v>98</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E73" s="8" t="s">
         <v>46</v>
@@ -21863,12 +21863,12 @@
         <v>111</v>
       </c>
       <c r="M73" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="74" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A74" s="8" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>132</v>
@@ -21877,7 +21877,7 @@
         <v>133</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="E74" s="8" t="s">
         <v>46</v>
@@ -21887,7 +21887,7 @@
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="8" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="I74" s="8">
         <v>5</v>
@@ -21898,12 +21898,12 @@
         <v>219</v>
       </c>
       <c r="M74" s="8" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="75" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A75" s="8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>132</v>
@@ -21913,10 +21913,10 @@
       </c>
       <c r="D75" s="8"/>
       <c r="E75" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F75" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
@@ -21929,15 +21929,15 @@
         <v>219</v>
       </c>
       <c r="M75" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="N75" s="1" t="s">
         <v>771</v>
-      </c>
-      <c r="N75" s="1" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="76" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A76" s="8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>132</v>
@@ -21946,7 +21946,7 @@
         <v>216</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="E76" s="8" t="s">
         <v>46</v>
@@ -21965,12 +21965,12 @@
         <v>219</v>
       </c>
       <c r="M76" s="8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="77" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A77" s="8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>132</v>
@@ -21979,7 +21979,7 @@
         <v>133</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E77" s="8" t="s">
         <v>46</v>
@@ -21989,7 +21989,7 @@
       </c>
       <c r="G77" s="8"/>
       <c r="H77" s="8" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="I77" s="8">
         <v>3</v>
@@ -22000,12 +22000,12 @@
         <v>111</v>
       </c>
       <c r="M77" s="8" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="78" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A78" s="9" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>132</v>
@@ -22014,7 +22014,7 @@
         <v>133</v>
       </c>
       <c r="D78" s="9" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="E78" s="9" t="s">
         <v>46</v>
@@ -22024,7 +22024,7 @@
       </c>
       <c r="G78" s="9"/>
       <c r="H78" s="9" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="I78" s="9">
         <v>3</v>
@@ -22035,12 +22035,12 @@
         <v>111</v>
       </c>
       <c r="M78" s="9" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="79" spans="1:146" ht="87.75" customHeight="1">
       <c r="A79" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>94</v>
@@ -22049,7 +22049,7 @@
         <v>222</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E79" s="8" t="s">
         <v>46</v>
@@ -22058,7 +22058,7 @@
         <v>55</v>
       </c>
       <c r="G79" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="H79" s="8"/>
       <c r="I79" s="8">
@@ -22071,10 +22071,10 @@
         <v>34</v>
       </c>
       <c r="L79" s="8" t="s">
+        <v>668</v>
+      </c>
+      <c r="M79" s="8" t="s">
         <v>669</v>
-      </c>
-      <c r="M79" s="8" t="s">
-        <v>670</v>
       </c>
       <c r="O79" s="1">
         <v>1</v>
@@ -22571,7 +22571,7 @@
     </row>
     <row r="80" spans="1:146" ht="74.25" customHeight="1">
       <c r="A80" s="8" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>132</v>
@@ -22580,7 +22580,7 @@
         <v>216</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="E80" s="8" t="s">
         <v>46</v>
@@ -22596,15 +22596,15 @@
       <c r="J80" s="8"/>
       <c r="K80" s="8"/>
       <c r="L80" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="M80" s="8" t="s">
         <v>739</v>
-      </c>
-      <c r="M80" s="8" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="81" spans="1:146" ht="63" customHeight="1">
       <c r="A81" s="9" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>38</v>
@@ -22613,7 +22613,7 @@
         <v>138</v>
       </c>
       <c r="D81" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E81" s="9" t="s">
         <v>30</v>
@@ -22623,21 +22623,21 @@
       </c>
       <c r="G81" s="9"/>
       <c r="H81" s="9" t="s">
+        <v>828</v>
+      </c>
+      <c r="I81" s="9">
+        <v>3</v>
+      </c>
+      <c r="L81" s="9" t="s">
+        <v>738</v>
+      </c>
+      <c r="M81" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="I81" s="9">
-        <v>3</v>
-      </c>
-      <c r="L81" s="9" t="s">
-        <v>739</v>
-      </c>
-      <c r="M81" s="1" t="s">
-        <v>830</v>
       </c>
     </row>
     <row r="82" spans="1:146" ht="60" customHeight="1">
       <c r="A82" s="8" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>132</v>
@@ -22646,7 +22646,7 @@
         <v>216</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E82" s="8" t="s">
         <v>46</v>
@@ -22658,7 +22658,7 @@
         <v>397</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I82" s="8">
         <v>2</v>
@@ -22666,13 +22666,13 @@
       <c r="J82" s="8"/>
       <c r="K82" s="8"/>
       <c r="L82" s="8" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M82" s="8" t="s">
+        <v>879</v>
+      </c>
+      <c r="N82" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="N82" s="1" t="s">
-        <v>881</v>
       </c>
     </row>
     <row r="83" spans="1:146" ht="33.950000000000003" customHeight="1">
@@ -25548,7 +25548,7 @@
     </row>
     <row r="108" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A108" s="8" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>38</v>
@@ -25557,7 +25557,7 @@
         <v>39</v>
       </c>
       <c r="D108" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>46</v>
@@ -25566,7 +25566,7 @@
         <v>55</v>
       </c>
       <c r="G108" s="8" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="H108" s="8"/>
       <c r="I108" s="8">
@@ -25578,7 +25578,7 @@
       </c>
       <c r="L108" s="8"/>
       <c r="M108" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O108" s="1">
         <v>1</v>
@@ -26075,7 +26075,7 @@
     </row>
     <row r="109" spans="1:146" ht="84">
       <c r="A109" s="8" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>27</v>
@@ -26085,13 +26085,13 @@
       </c>
       <c r="D109" s="8"/>
       <c r="E109" s="8" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="F109" s="8" t="s">
         <v>55</v>
       </c>
       <c r="G109" s="8" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="H109" s="8">
         <v>3</v>
@@ -26107,10 +26107,10 @@
       </c>
       <c r="L109" s="8"/>
       <c r="M109" s="8" t="s">
+        <v>534</v>
+      </c>
+      <c r="N109" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="N109" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="O109" s="1">
         <v>1</v>
@@ -26606,7 +26606,7 @@
     </row>
     <row r="110" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A110" s="9" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>38</v>
@@ -26615,7 +26615,7 @@
         <v>138</v>
       </c>
       <c r="D110" s="9" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E110" s="15" t="s">
         <v>30</v>
@@ -26624,7 +26624,7 @@
         <v>31</v>
       </c>
       <c r="G110" s="15" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="H110" s="15"/>
       <c r="I110" s="9">
@@ -26636,15 +26636,15 @@
       </c>
       <c r="L110" s="9"/>
       <c r="M110" s="9" t="s">
+        <v>576</v>
+      </c>
+      <c r="N110" s="1" t="s">
         <v>577</v>
-      </c>
-      <c r="N110" s="1" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="111" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A111" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>27</v>
@@ -26653,7 +26653,7 @@
         <v>160</v>
       </c>
       <c r="D111" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>46</v>
@@ -26662,7 +26662,7 @@
         <v>55</v>
       </c>
       <c r="G111" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="H111" s="8"/>
       <c r="I111" s="8">
@@ -26674,12 +26674,12 @@
       </c>
       <c r="L111" s="8"/>
       <c r="M111" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A112" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>66</v>
@@ -26688,7 +26688,7 @@
         <v>119</v>
       </c>
       <c r="D112" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>46</v>
@@ -26709,10 +26709,10 @@
       </c>
       <c r="L112" s="8"/>
       <c r="M112" s="8" t="s">
+        <v>648</v>
+      </c>
+      <c r="N112" s="1" t="s">
         <v>649</v>
-      </c>
-      <c r="N112" s="1" t="s">
-        <v>650</v>
       </c>
       <c r="O112" s="1">
         <v>1</v>
@@ -27207,7 +27207,7 @@
     </row>
     <row r="113" spans="1:146">
       <c r="A113" s="8" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>27</v>
@@ -27216,7 +27216,7 @@
         <v>160</v>
       </c>
       <c r="D113" s="8" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>46</v>
@@ -27225,7 +27225,7 @@
         <v>55</v>
       </c>
       <c r="G113" s="8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H113" s="8"/>
       <c r="I113" s="9">
@@ -27239,7 +27239,7 @@
       </c>
       <c r="L113" s="8"/>
       <c r="M113" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="O113" s="1">
         <v>1</v>
@@ -27736,7 +27736,7 @@
     </row>
     <row r="114" spans="1:146" ht="48">
       <c r="A114" s="9" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>38</v>
@@ -27745,7 +27745,7 @@
         <v>39</v>
       </c>
       <c r="D114" s="9" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E114" s="9" t="s">
         <v>30</v>
@@ -27766,7 +27766,7 @@
       </c>
       <c r="L114" s="9"/>
       <c r="M114" s="9" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="O114" s="1">
         <v>1</v>
@@ -28021,7 +28021,7 @@
         <v>4</v>
       </c>
       <c r="CF114" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="CG114" s="2">
         <f t="shared" si="204"/>
@@ -28266,7 +28266,7 @@
     </row>
     <row r="115" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A115" s="8" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>38</v>
@@ -28275,7 +28275,7 @@
         <v>138</v>
       </c>
       <c r="D115" s="8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>30</v>
@@ -28300,12 +28300,12 @@
       </c>
       <c r="L115" s="8"/>
       <c r="M115" s="8" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="116" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A116" s="9" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>27</v>
@@ -28314,7 +28314,7 @@
         <v>160</v>
       </c>
       <c r="D116" s="9" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E116" s="9" t="s">
         <v>46</v>
@@ -28323,7 +28323,7 @@
         <v>55</v>
       </c>
       <c r="G116" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="H116" s="9"/>
       <c r="I116" s="9">
@@ -28337,7 +28337,7 @@
       </c>
       <c r="L116" s="9"/>
       <c r="M116" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="O116" s="1">
         <v>1</v>
@@ -28815,7 +28815,7 @@
     </row>
     <row r="117" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A117" s="8" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>38</v>
@@ -28824,7 +28824,7 @@
         <v>138</v>
       </c>
       <c r="D117" s="8" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>46</v>
@@ -28847,12 +28847,12 @@
       </c>
       <c r="L117" s="8"/>
       <c r="M117" s="8" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="118" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A118" s="9" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>38</v>
@@ -28861,7 +28861,7 @@
         <v>39</v>
       </c>
       <c r="D118" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E118" s="9" t="s">
         <v>46</v>
@@ -28870,7 +28870,7 @@
         <v>55</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="H118" s="9"/>
       <c r="I118" s="9">
@@ -28884,7 +28884,7 @@
       </c>
       <c r="L118" s="9"/>
       <c r="M118" s="9" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="O118" s="1">
         <v>1</v>
@@ -29381,7 +29381,7 @@
     </row>
     <row r="119" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A119" s="8" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>38</v>
@@ -29390,7 +29390,7 @@
         <v>39</v>
       </c>
       <c r="D119" s="8" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="E119" s="8" t="s">
         <v>46</v>
@@ -29413,7 +29413,7 @@
       </c>
       <c r="L119" s="8"/>
       <c r="M119" s="8" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="N119" s="10"/>
       <c r="O119" s="1">
@@ -29911,7 +29911,7 @@
     </row>
     <row r="120" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A120" s="8" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>52</v>
@@ -29920,7 +29920,7 @@
         <v>53</v>
       </c>
       <c r="D120" s="8" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E120" s="8" t="s">
         <v>46</v>
@@ -29929,7 +29929,7 @@
         <v>55</v>
       </c>
       <c r="G120" s="8" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="H120" s="8"/>
       <c r="I120" s="8">
@@ -29941,7 +29941,7 @@
       </c>
       <c r="L120" s="8"/>
       <c r="M120" s="8" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="N120" s="10"/>
       <c r="O120" s="1">
@@ -30439,7 +30439,7 @@
     </row>
     <row r="121" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>38</v>
@@ -30448,7 +30448,7 @@
         <v>138</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>46</v>
@@ -30457,10 +30457,10 @@
         <v>31</v>
       </c>
       <c r="G121" s="15" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="H121" s="15" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="I121" s="9">
         <v>4</v>
@@ -30473,7 +30473,7 @@
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="9" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="122" spans="1:146" ht="33.950000000000003" customHeight="1">
@@ -35494,7 +35494,7 @@
     </row>
     <row r="182" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A182" s="8" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>94</v>
@@ -35503,7 +35503,7 @@
         <v>95</v>
       </c>
       <c r="D182" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E182" s="8" t="s">
         <v>30</v>
@@ -35522,13 +35522,13 @@
       <c r="K182" s="8"/>
       <c r="L182" s="8"/>
       <c r="M182" s="8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="N182" s="12"/>
     </row>
     <row r="183" spans="1:146" ht="48">
       <c r="A183" s="9" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>66</v>
@@ -35537,16 +35537,16 @@
         <v>67</v>
       </c>
       <c r="D183" s="9" t="s">
+        <v>505</v>
+      </c>
+      <c r="E183" s="9" t="s">
         <v>506</v>
-      </c>
-      <c r="E183" s="9" t="s">
-        <v>507</v>
       </c>
       <c r="F183" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G183" s="9" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H183" s="13"/>
       <c r="I183" s="13">
@@ -35556,15 +35556,15 @@
       <c r="K183" s="13"/>
       <c r="L183" s="13"/>
       <c r="M183" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="N183" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="N183" s="1" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="184" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A184" s="8" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>60</v>
@@ -35573,7 +35573,7 @@
         <v>61</v>
       </c>
       <c r="D184" s="8" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E184" s="8" t="s">
         <v>46</v>
@@ -35583,7 +35583,7 @@
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="8" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I184" s="8">
         <v>3</v>
@@ -35592,15 +35592,15 @@
       <c r="K184" s="8"/>
       <c r="L184" s="8"/>
       <c r="M184" s="8" t="s">
+        <v>517</v>
+      </c>
+      <c r="N184" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="N184" s="1" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="185" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A185" s="8" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>94</v>
@@ -35609,7 +35609,7 @@
         <v>222</v>
       </c>
       <c r="D185" s="8" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E185" s="8" t="s">
         <v>46</v>
@@ -35626,7 +35626,7 @@
       <c r="K185" s="8"/>
       <c r="L185" s="8"/>
       <c r="M185" s="8" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="N185" s="12"/>
       <c r="BX185" s="2"/>
@@ -35637,7 +35637,7 @@
     </row>
     <row r="186" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A186" s="8" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>94</v>
@@ -35646,7 +35646,7 @@
         <v>95</v>
       </c>
       <c r="D186" s="8" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E186" s="8" t="s">
         <v>191</v>
@@ -35655,7 +35655,7 @@
         <v>47</v>
       </c>
       <c r="G186" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H186" s="8"/>
       <c r="I186" s="8">
@@ -35665,15 +35665,15 @@
       <c r="K186" s="8"/>
       <c r="L186" s="8"/>
       <c r="M186" s="8" t="s">
+        <v>538</v>
+      </c>
+      <c r="N186" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="N186" s="1" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="187" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A187" s="8" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>60</v>
@@ -35682,7 +35682,7 @@
         <v>61</v>
       </c>
       <c r="D187" s="8" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E187" s="8" t="s">
         <v>46</v>
@@ -35699,12 +35699,12 @@
       <c r="K187" s="8"/>
       <c r="L187" s="8"/>
       <c r="M187" s="8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="188" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A188" s="8" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>94</v>
@@ -35713,7 +35713,7 @@
         <v>95</v>
       </c>
       <c r="D188" s="8" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E188" s="8" t="s">
         <v>46</v>
@@ -35722,7 +35722,7 @@
         <v>31</v>
       </c>
       <c r="G188" s="8" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="H188" s="8"/>
       <c r="I188" s="8">
@@ -35732,7 +35732,7 @@
       <c r="K188" s="8"/>
       <c r="L188" s="8"/>
       <c r="M188" s="8" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="N188" s="12"/>
       <c r="BX188" s="2"/>
@@ -35743,7 +35743,7 @@
     </row>
     <row r="189" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A189" s="8" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>66</v>
@@ -35752,7 +35752,7 @@
         <v>67</v>
       </c>
       <c r="D189" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E189" s="8" t="s">
         <v>46</v>
@@ -35761,7 +35761,7 @@
         <v>55</v>
       </c>
       <c r="G189" s="8" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="H189" s="8" t="s">
         <v>209</v>
@@ -35773,13 +35773,13 @@
       <c r="K189" s="11"/>
       <c r="L189" s="11"/>
       <c r="M189" s="8" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="N189" s="12"/>
     </row>
     <row r="190" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A190" s="8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>94</v>
@@ -35788,7 +35788,7 @@
         <v>95</v>
       </c>
       <c r="D190" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E190" s="8" t="s">
         <v>46</v>
@@ -35807,13 +35807,13 @@
       <c r="K190" s="8"/>
       <c r="L190" s="8"/>
       <c r="M190" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N190" s="12"/>
     </row>
     <row r="191" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A191" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>52</v>
@@ -35822,7 +35822,7 @@
         <v>53</v>
       </c>
       <c r="D191" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E191" s="8" t="s">
         <v>46</v>
@@ -35841,12 +35841,12 @@
       <c r="K191" s="8"/>
       <c r="L191" s="8"/>
       <c r="M191" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="192" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A192" s="8" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>38</v>
@@ -35855,7 +35855,7 @@
         <v>39</v>
       </c>
       <c r="D192" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E192" s="8" t="s">
         <v>46</v>
@@ -35864,7 +35864,7 @@
         <v>55</v>
       </c>
       <c r="G192" s="8" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="H192" s="8" t="s">
         <v>173</v>
@@ -35878,7 +35878,7 @@
       <c r="K192" s="8"/>
       <c r="L192" s="8"/>
       <c r="M192" s="8" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="N192" s="10"/>
       <c r="O192" s="1">
@@ -36376,7 +36376,7 @@
     </row>
     <row r="193" spans="1:146" ht="60">
       <c r="A193" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>52</v>
@@ -36385,7 +36385,7 @@
         <v>80</v>
       </c>
       <c r="D193" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E193" s="8" t="s">
         <v>82</v>
@@ -36402,12 +36402,12 @@
       <c r="K193" s="8"/>
       <c r="L193" s="8"/>
       <c r="M193" s="8" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="194" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A194" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>94</v>
@@ -36416,7 +36416,7 @@
         <v>222</v>
       </c>
       <c r="D194" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E194" s="8" t="s">
         <v>46</v>
@@ -36425,7 +36425,7 @@
         <v>63</v>
       </c>
       <c r="G194" s="8" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="H194" s="8" t="s">
         <v>471</v>
@@ -36437,15 +36437,15 @@
       <c r="K194" s="8"/>
       <c r="L194" s="8"/>
       <c r="M194" s="8" t="s">
+        <v>584</v>
+      </c>
+      <c r="N194" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="N194" s="1" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="195" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A195" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>60</v>
@@ -36454,7 +36454,7 @@
         <v>61</v>
       </c>
       <c r="D195" s="8" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E195" s="8" t="s">
         <v>46</v>
@@ -36463,7 +36463,7 @@
         <v>47</v>
       </c>
       <c r="G195" s="8" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H195" s="8"/>
       <c r="I195" s="8">
@@ -36473,12 +36473,12 @@
       <c r="K195" s="8"/>
       <c r="L195" s="8"/>
       <c r="M195" s="8" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="196" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A196" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>38</v>
@@ -36487,7 +36487,7 @@
         <v>39</v>
       </c>
       <c r="D196" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E196" s="8" t="s">
         <v>46</v>
@@ -36508,7 +36508,7 @@
       <c r="K196" s="8"/>
       <c r="L196" s="8"/>
       <c r="M196" s="8" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N196" s="10"/>
       <c r="O196" s="1">
@@ -37006,7 +37006,7 @@
     </row>
     <row r="197" spans="1:146" ht="36">
       <c r="A197" s="8" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>94</v>
@@ -37015,7 +37015,7 @@
         <v>222</v>
       </c>
       <c r="D197" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E197" s="8" t="s">
         <v>30</v>
@@ -37032,7 +37032,7 @@
       <c r="K197" s="8"/>
       <c r="L197" s="8"/>
       <c r="M197" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="N197" s="12"/>
       <c r="BX197" s="2"/>
@@ -37043,7 +37043,7 @@
     </row>
     <row r="198" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A198" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>132</v>
@@ -37052,7 +37052,7 @@
         <v>133</v>
       </c>
       <c r="D198" s="8" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="E198" s="8" t="s">
         <v>30</v>
@@ -37069,13 +37069,13 @@
       <c r="K198" s="8"/>
       <c r="L198" s="8"/>
       <c r="M198" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="N198" s="16"/>
     </row>
     <row r="199" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A199" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>132</v>
@@ -37084,7 +37084,7 @@
         <v>133</v>
       </c>
       <c r="D199" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E199" s="8" t="s">
         <v>46</v>
@@ -37093,7 +37093,7 @@
         <v>55</v>
       </c>
       <c r="G199" s="8" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="H199" s="8" t="s">
         <v>57</v>
@@ -37105,12 +37105,12 @@
       <c r="K199" s="8"/>
       <c r="L199" s="8"/>
       <c r="M199" s="8" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="200" spans="1:146" ht="36">
       <c r="A200" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>66</v>
@@ -37119,7 +37119,7 @@
         <v>67</v>
       </c>
       <c r="D200" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="E200" s="8" t="s">
         <v>46</v>
@@ -37138,13 +37138,13 @@
       <c r="K200" s="8"/>
       <c r="L200" s="8"/>
       <c r="M200" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="N200" s="12"/>
     </row>
     <row r="201" spans="1:146" ht="48">
       <c r="A201" s="8" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>52</v>
@@ -37153,7 +37153,7 @@
         <v>80</v>
       </c>
       <c r="D201" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="E201" s="8" t="s">
         <v>82</v>
@@ -37163,7 +37163,7 @@
       </c>
       <c r="G201" s="8"/>
       <c r="H201" s="8" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I201" s="8">
         <v>4</v>
@@ -37172,12 +37172,12 @@
       <c r="K201" s="8"/>
       <c r="L201" s="8"/>
       <c r="M201" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="202" spans="1:146" ht="24">
       <c r="A202" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>66</v>
@@ -37186,7 +37186,7 @@
         <v>67</v>
       </c>
       <c r="D202" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="E202" s="8" t="s">
         <v>46</v>
@@ -37205,13 +37205,13 @@
       <c r="K202" s="8"/>
       <c r="L202" s="8"/>
       <c r="M202" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="N202" s="12"/>
     </row>
     <row r="203" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A203" s="15" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>52</v>
@@ -37220,7 +37220,7 @@
         <v>80</v>
       </c>
       <c r="D203" s="15" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E203" s="15" t="s">
         <v>82</v>
@@ -37239,12 +37239,12 @@
       <c r="K203" s="15"/>
       <c r="L203" s="15"/>
       <c r="M203" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="204" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A204" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>94</v>
@@ -37253,7 +37253,7 @@
         <v>95</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E204" s="8" t="s">
         <v>46</v>
@@ -37262,7 +37262,7 @@
         <v>31</v>
       </c>
       <c r="G204" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="H204" s="8"/>
       <c r="I204" s="8">
@@ -37272,7 +37272,7 @@
       <c r="K204" s="8"/>
       <c r="L204" s="8"/>
       <c r="M204" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="N204" s="12"/>
       <c r="BX204" s="2"/>
@@ -37283,7 +37283,7 @@
     </row>
     <row r="205" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A205" s="9" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>94</v>
@@ -37292,7 +37292,7 @@
         <v>95</v>
       </c>
       <c r="D205" s="9" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="E205" s="9" t="s">
         <v>46</v>
@@ -37302,7 +37302,7 @@
       </c>
       <c r="G205" s="9"/>
       <c r="H205" s="9" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I205" s="9">
         <v>3</v>
@@ -37311,13 +37311,13 @@
       <c r="K205" s="9"/>
       <c r="L205" s="9"/>
       <c r="M205" s="9" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="N205" s="12"/>
     </row>
     <row r="206" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A206" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>52</v>
@@ -37326,7 +37326,7 @@
         <v>80</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="E206" s="8" t="s">
         <v>82</v>
@@ -37345,15 +37345,15 @@
       <c r="K206" s="8"/>
       <c r="L206" s="8"/>
       <c r="M206" s="8" t="s">
+        <v>659</v>
+      </c>
+      <c r="N206" s="10" t="s">
         <v>660</v>
-      </c>
-      <c r="N206" s="10" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="207" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A207" s="9" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="B207" s="1" t="s">
         <v>94</v>
@@ -37362,7 +37362,7 @@
         <v>95</v>
       </c>
       <c r="D207" s="9" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="E207" s="9" t="s">
         <v>30</v>
@@ -37379,15 +37379,15 @@
       <c r="K207" s="9"/>
       <c r="L207" s="9"/>
       <c r="M207" s="9" t="s">
+        <v>663</v>
+      </c>
+      <c r="N207" s="12" t="s">
         <v>664</v>
-      </c>
-      <c r="N207" s="12" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="208" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A208" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>94</v>
@@ -37396,7 +37396,7 @@
         <v>95</v>
       </c>
       <c r="D208" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E208" s="8" t="s">
         <v>46</v>
@@ -37405,7 +37405,7 @@
         <v>47</v>
       </c>
       <c r="G208" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H208" s="8"/>
       <c r="I208" s="8">
@@ -37415,13 +37415,13 @@
       <c r="K208" s="8"/>
       <c r="L208" s="8"/>
       <c r="M208" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="N208" s="12"/>
     </row>
     <row r="209" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A209" s="8" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>94</v>
@@ -37430,7 +37430,7 @@
         <v>95</v>
       </c>
       <c r="D209" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E209" s="8" t="s">
         <v>30</v>
@@ -37447,13 +37447,13 @@
       <c r="K209" s="8"/>
       <c r="L209" s="8"/>
       <c r="M209" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N209" s="12"/>
     </row>
     <row r="210" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A210" s="8" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B210" s="1" t="s">
         <v>52</v>
@@ -37462,7 +37462,7 @@
         <v>80</v>
       </c>
       <c r="D210" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E210" s="8" t="s">
         <v>30</v>
@@ -37471,7 +37471,7 @@
         <v>63</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H210" s="8"/>
       <c r="I210" s="8">
@@ -37481,13 +37481,13 @@
       <c r="K210" s="8"/>
       <c r="L210" s="8"/>
       <c r="M210" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="N210" s="10"/>
     </row>
     <row r="211" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A211" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B211" s="1" t="s">
         <v>52</v>
@@ -37496,7 +37496,7 @@
         <v>80</v>
       </c>
       <c r="D211" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E211" s="8" t="s">
         <v>82</v>
@@ -37515,12 +37515,12 @@
       <c r="K211" s="8"/>
       <c r="L211" s="8"/>
       <c r="M211" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="212" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A212" s="9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>52</v>
@@ -37529,7 +37529,7 @@
         <v>53</v>
       </c>
       <c r="D212" s="9" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="E212" s="9" t="s">
         <v>46</v>
@@ -37548,12 +37548,12 @@
       <c r="K212" s="9"/>
       <c r="L212" s="9"/>
       <c r="M212" s="9" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="213" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A213" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>52</v>
@@ -37562,7 +37562,7 @@
         <v>80</v>
       </c>
       <c r="D213" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="E213" s="8" t="s">
         <v>82</v>
@@ -37581,13 +37581,13 @@
       <c r="K213" s="8"/>
       <c r="L213" s="8"/>
       <c r="M213" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="N213" s="10"/>
     </row>
     <row r="214" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A214" s="8" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>94</v>
@@ -37596,7 +37596,7 @@
         <v>95</v>
       </c>
       <c r="D214" s="8" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="E214" s="8" t="s">
         <v>30</v>
@@ -37613,15 +37613,15 @@
       <c r="K214" s="8"/>
       <c r="L214" s="8"/>
       <c r="M214" s="8" t="s">
+        <v>700</v>
+      </c>
+      <c r="N214" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="N214" s="1" t="s">
-        <v>702</v>
       </c>
     </row>
     <row r="215" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A215" s="9" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>94</v>
@@ -37630,7 +37630,7 @@
         <v>95</v>
       </c>
       <c r="D215" s="9" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="E215" s="9" t="s">
         <v>30</v>
@@ -37647,13 +37647,13 @@
       <c r="K215" s="9"/>
       <c r="L215" s="9"/>
       <c r="M215" s="9" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="N215" s="12"/>
     </row>
     <row r="216" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A216" s="9" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>52</v>
@@ -37662,7 +37662,7 @@
         <v>53</v>
       </c>
       <c r="D216" s="9" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E216" s="9" t="s">
         <v>46</v>
@@ -37681,15 +37681,15 @@
       <c r="K216" s="9"/>
       <c r="L216" s="9"/>
       <c r="M216" s="9" t="s">
+        <v>714</v>
+      </c>
+      <c r="N216" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="N216" s="1" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="217" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A217" s="8" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>38</v>
@@ -37698,7 +37698,7 @@
         <v>39</v>
       </c>
       <c r="D217" s="8" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="E217" s="8" t="s">
         <v>46</v>
@@ -37717,7 +37717,7 @@
       <c r="K217" s="8"/>
       <c r="L217" s="8"/>
       <c r="M217" s="8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="O217" s="1">
         <v>1</v>
@@ -38214,7 +38214,7 @@
     </row>
     <row r="218" spans="1:146" ht="36">
       <c r="A218" s="8" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>52</v>
@@ -38223,7 +38223,7 @@
         <v>53</v>
       </c>
       <c r="D218" s="8" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="E218" s="8" t="s">
         <v>30</v>
@@ -38242,12 +38242,12 @@
       <c r="K218" s="8"/>
       <c r="L218" s="8"/>
       <c r="M218" s="8" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="219" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A219" s="8" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>52</v>
@@ -38256,7 +38256,7 @@
         <v>80</v>
       </c>
       <c r="D219" s="8" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="E219" s="8" t="s">
         <v>30</v>
@@ -38265,7 +38265,7 @@
         <v>47</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="H219" s="8"/>
       <c r="I219" s="8">
@@ -38275,12 +38275,12 @@
       <c r="K219" s="8"/>
       <c r="L219" s="8"/>
       <c r="M219" s="8" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="220" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A220" s="8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>60</v>
@@ -38289,10 +38289,10 @@
         <v>61</v>
       </c>
       <c r="D220" s="8" t="s">
+        <v>733</v>
+      </c>
+      <c r="E220" s="8" t="s">
         <v>734</v>
-      </c>
-      <c r="E220" s="8" t="s">
-        <v>735</v>
       </c>
       <c r="F220" s="8" t="s">
         <v>63</v>
@@ -38306,12 +38306,12 @@
       <c r="K220" s="8"/>
       <c r="L220" s="8"/>
       <c r="M220" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="221" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A221" s="9" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>132</v>
@@ -38320,7 +38320,7 @@
         <v>133</v>
       </c>
       <c r="D221" s="9" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E221" s="9" t="s">
         <v>46</v>
@@ -38339,12 +38339,12 @@
       <c r="K221" s="8"/>
       <c r="L221" s="9"/>
       <c r="M221" s="9" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="222" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A222" s="8" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>60</v>
@@ -38353,10 +38353,10 @@
         <v>98</v>
       </c>
       <c r="D222" s="8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="E222" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F222" s="8" t="s">
         <v>47</v>
@@ -38372,12 +38372,12 @@
       <c r="K222" s="8"/>
       <c r="L222" s="8"/>
       <c r="M222" s="8" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="223" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A223" s="8" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>60</v>
@@ -38386,7 +38386,7 @@
         <v>98</v>
       </c>
       <c r="D223" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E223" s="8" t="s">
         <v>348</v>
@@ -38405,12 +38405,12 @@
       <c r="K223" s="8"/>
       <c r="L223" s="8"/>
       <c r="M223" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="224" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A224" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>52</v>
@@ -38419,7 +38419,7 @@
         <v>53</v>
       </c>
       <c r="D224" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E224" s="8" t="s">
         <v>30</v>
@@ -38436,15 +38436,15 @@
       <c r="K224" s="8"/>
       <c r="L224" s="8"/>
       <c r="M224" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="N224" s="10" t="s">
         <v>760</v>
-      </c>
-      <c r="N224" s="10" t="s">
-        <v>761</v>
       </c>
     </row>
     <row r="225" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A225" s="8" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>132</v>
@@ -38453,7 +38453,7 @@
         <v>216</v>
       </c>
       <c r="D225" s="8" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="E225" s="8" t="s">
         <v>46</v>
@@ -38470,13 +38470,13 @@
       <c r="K225" s="8"/>
       <c r="L225" s="8"/>
       <c r="M225" s="8" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="N225" s="12"/>
     </row>
     <row r="226" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A226" s="9" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>27</v>
@@ -38485,7 +38485,7 @@
         <v>160</v>
       </c>
       <c r="D226" s="9" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="E226" s="9" t="s">
         <v>46</v>
@@ -38504,7 +38504,7 @@
       <c r="K226" s="9"/>
       <c r="L226" s="9"/>
       <c r="M226" s="9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BR226" s="2"/>
       <c r="BS226" s="2"/>
@@ -38520,7 +38520,7 @@
     </row>
     <row r="227" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A227" s="9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>60</v>
@@ -38529,10 +38529,10 @@
         <v>61</v>
       </c>
       <c r="D227" s="9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="E227" s="9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F227" s="9" t="s">
         <v>63</v>
@@ -38548,12 +38548,12 @@
       <c r="K227" s="9"/>
       <c r="L227" s="9"/>
       <c r="M227" s="9" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="228" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A228" s="8" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>60</v>
@@ -38562,10 +38562,10 @@
         <v>61</v>
       </c>
       <c r="D228" s="8" t="s">
+        <v>779</v>
+      </c>
+      <c r="E228" s="8" t="s">
         <v>780</v>
-      </c>
-      <c r="E228" s="8" t="s">
-        <v>781</v>
       </c>
       <c r="F228" s="8" t="s">
         <v>63</v>
@@ -38579,15 +38579,15 @@
       <c r="K228" s="8"/>
       <c r="L228" s="8"/>
       <c r="M228" s="8" t="s">
+        <v>781</v>
+      </c>
+      <c r="N228" s="1" t="s">
         <v>782</v>
-      </c>
-      <c r="N228" s="1" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="229" spans="1:146" ht="24">
       <c r="A229" s="8" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>66</v>
@@ -38597,7 +38597,7 @@
       </c>
       <c r="D229" s="11"/>
       <c r="E229" s="8" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="F229" s="8" t="s">
         <v>47</v>
@@ -38611,13 +38611,13 @@
       <c r="K229" s="11"/>
       <c r="L229" s="11"/>
       <c r="M229" s="8" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="N229" s="12"/>
     </row>
     <row r="230" spans="1:146" ht="24">
       <c r="A230" s="8" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>66</v>
@@ -38626,7 +38626,7 @@
         <v>67</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="E230" s="8" t="s">
         <v>46</v>
@@ -38635,10 +38635,10 @@
         <v>55</v>
       </c>
       <c r="G230" s="8" t="s">
+        <v>788</v>
+      </c>
+      <c r="H230" s="8" t="s">
         <v>789</v>
-      </c>
-      <c r="H230" s="8" t="s">
-        <v>790</v>
       </c>
       <c r="I230" s="8">
         <v>1</v>
@@ -38647,13 +38647,13 @@
       <c r="K230" s="8"/>
       <c r="L230" s="8"/>
       <c r="M230" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="N230" s="12"/>
     </row>
     <row r="231" spans="1:146" ht="36">
       <c r="A231" s="8" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>52</v>
@@ -38662,7 +38662,7 @@
         <v>80</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="E231" s="8" t="s">
         <v>82</v>
@@ -38681,12 +38681,12 @@
       <c r="K231" s="8"/>
       <c r="L231" s="8"/>
       <c r="M231" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="232" spans="1:146" ht="48">
       <c r="A232" s="9" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>60</v>
@@ -38710,12 +38710,12 @@
       <c r="K232" s="8"/>
       <c r="L232" s="9"/>
       <c r="M232" s="9" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="233" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A233" s="8" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>52</v>
@@ -38724,7 +38724,7 @@
         <v>80</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="E233" s="8" t="s">
         <v>30</v>
@@ -38733,7 +38733,7 @@
         <v>47</v>
       </c>
       <c r="G233" s="8" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H233" s="8"/>
       <c r="I233" s="8">
@@ -38743,15 +38743,15 @@
       <c r="K233" s="8"/>
       <c r="L233" s="8"/>
       <c r="M233" s="8" t="s">
+        <v>810</v>
+      </c>
+      <c r="N233" s="1" t="s">
         <v>811</v>
-      </c>
-      <c r="N233" s="1" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="234" spans="1:146" ht="24">
       <c r="A234" s="8" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>60</v>
@@ -38760,7 +38760,7 @@
         <v>61</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="E234" s="8" t="s">
         <v>46</v>
@@ -38777,13 +38777,13 @@
       <c r="K234" s="8"/>
       <c r="L234" s="8"/>
       <c r="M234" s="8" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="N234" s="12"/>
     </row>
     <row r="235" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A235" s="8" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>52</v>
@@ -38792,7 +38792,7 @@
         <v>80</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E235" s="8" t="s">
         <v>46</v>
@@ -38801,7 +38801,7 @@
         <v>47</v>
       </c>
       <c r="G235" s="8" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="H235" s="8" t="s">
         <v>57</v>
@@ -38813,12 +38813,12 @@
       <c r="K235" s="8"/>
       <c r="L235" s="8"/>
       <c r="M235" s="8" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="236" spans="1:146" ht="51" customHeight="1">
       <c r="A236" s="9" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>66</v>
@@ -38827,7 +38827,7 @@
         <v>67</v>
       </c>
       <c r="D236" s="9" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E236" s="9" t="s">
         <v>30</v>
@@ -38844,13 +38844,13 @@
       <c r="K236" s="13"/>
       <c r="L236" s="13"/>
       <c r="M236" s="9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N236" s="12"/>
     </row>
     <row r="237" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A237" s="8" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>60</v>
@@ -38876,15 +38876,15 @@
       <c r="K237" s="8"/>
       <c r="L237" s="8"/>
       <c r="M237" s="8" t="s">
+        <v>834</v>
+      </c>
+      <c r="N237" s="10" t="s">
         <v>835</v>
-      </c>
-      <c r="N237" s="10" t="s">
-        <v>836</v>
       </c>
     </row>
     <row r="238" spans="1:146" ht="36">
       <c r="A238" s="8" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>60</v>
@@ -38893,7 +38893,7 @@
         <v>98</v>
       </c>
       <c r="D238" s="8" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E238" s="8" t="s">
         <v>46</v>
@@ -38910,12 +38910,12 @@
       <c r="K238" s="8"/>
       <c r="L238" s="8"/>
       <c r="M238" s="8" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="239" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A239" s="8" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>27</v>
@@ -38924,7 +38924,7 @@
         <v>28</v>
       </c>
       <c r="D239" s="8" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E239" s="8" t="s">
         <v>46</v>
@@ -38943,7 +38943,7 @@
       <c r="K239" s="8"/>
       <c r="L239" s="8"/>
       <c r="M239" s="8" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="O239" s="1">
         <v>1</v>
@@ -39440,7 +39440,7 @@
     </row>
     <row r="240" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A240" s="8" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>27</v>
@@ -39449,7 +39449,7 @@
         <v>28</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E240" s="8" t="s">
         <v>30</v>
@@ -39458,7 +39458,7 @@
         <v>63</v>
       </c>
       <c r="G240" s="8" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="H240" s="8"/>
       <c r="I240" s="8">
@@ -39468,12 +39468,12 @@
       <c r="K240" s="8"/>
       <c r="L240" s="8"/>
       <c r="M240" s="8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="241" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A241" s="8" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>132</v>
@@ -39482,7 +39482,7 @@
         <v>216</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E241" s="8" t="s">
         <v>46</v>
@@ -39491,7 +39491,7 @@
         <v>47</v>
       </c>
       <c r="G241" s="8" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="H241" s="8"/>
       <c r="I241" s="8">
@@ -39501,12 +39501,12 @@
       <c r="K241" s="8"/>
       <c r="L241" s="8"/>
       <c r="M241" s="8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="242" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A242" s="8" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>27</v>
@@ -39515,7 +39515,7 @@
         <v>28</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E242" s="8" t="s">
         <v>46</v>
@@ -39534,12 +39534,12 @@
       <c r="K242" s="8"/>
       <c r="L242" s="8"/>
       <c r="M242" s="8" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="243" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A243" s="8" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>66</v>
@@ -39548,7 +39548,7 @@
         <v>119</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E243" s="8" t="s">
         <v>46</v>
@@ -39557,7 +39557,7 @@
         <v>47</v>
       </c>
       <c r="G243" s="8" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="H243" s="8" t="s">
         <v>57</v>
@@ -39569,15 +39569,15 @@
       <c r="K243" s="11"/>
       <c r="L243" s="11"/>
       <c r="M243" s="8" t="s">
+        <v>884</v>
+      </c>
+      <c r="N243" s="19" t="s">
         <v>885</v>
-      </c>
-      <c r="N243" s="19" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="244" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A244" s="8" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>94</v>
@@ -39586,7 +39586,7 @@
         <v>222</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="E244" s="8" t="s">
         <v>46</v>
@@ -39605,13 +39605,13 @@
       <c r="K244" s="8"/>
       <c r="L244" s="8"/>
       <c r="M244" s="8" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="N244" s="12"/>
     </row>
     <row r="245" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A245" s="8" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>27</v>
@@ -39620,7 +39620,7 @@
         <v>160</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="E245" s="8" t="s">
         <v>46</v>
@@ -39629,7 +39629,7 @@
         <v>63</v>
       </c>
       <c r="G245" s="8" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="H245" s="8"/>
       <c r="I245" s="9">
@@ -39639,12 +39639,12 @@
       <c r="K245" s="8"/>
       <c r="L245" s="8"/>
       <c r="M245" s="8" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="246" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A246" s="8" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>94</v>
@@ -39653,7 +39653,7 @@
         <v>222</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="E246" s="8" t="s">
         <v>46</v>
@@ -39670,7 +39670,7 @@
       <c r="K246" s="8"/>
       <c r="L246" s="8"/>
       <c r="M246" s="8" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="N246" s="12"/>
       <c r="BX246" s="2"/>
@@ -39681,7 +39681,7 @@
     </row>
     <row r="247" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A247" s="8" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>60</v>
@@ -39690,7 +39690,7 @@
         <v>98</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E247" s="8" t="s">
         <v>348</v>
@@ -39700,7 +39700,7 @@
       </c>
       <c r="G247" s="8"/>
       <c r="H247" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I247" s="8">
         <v>1</v>
@@ -39709,12 +39709,12 @@
       <c r="K247" s="8"/>
       <c r="L247" s="8"/>
       <c r="M247" s="8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="248" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A248" s="8" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>94</v>
@@ -39723,7 +39723,7 @@
         <v>95</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E248" s="8" t="s">
         <v>46</v>
@@ -39742,13 +39742,13 @@
       <c r="K248" s="8"/>
       <c r="L248" s="8"/>
       <c r="M248" s="8" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="N248" s="12"/>
     </row>
     <row r="249" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A249" s="8" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>52</v>
@@ -39757,7 +39757,7 @@
         <v>53</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E249" s="8" t="s">
         <v>46</v>
@@ -39776,12 +39776,12 @@
       <c r="K249" s="8"/>
       <c r="L249" s="8"/>
       <c r="M249" s="8" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="250" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A250" s="8" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>66</v>
@@ -39790,7 +39790,7 @@
         <v>67</v>
       </c>
       <c r="D250" s="8" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E250" s="8" t="s">
         <v>46</v>
@@ -39809,7 +39809,7 @@
       <c r="K250" s="11"/>
       <c r="L250" s="11"/>
       <c r="M250" s="8" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="N250" s="12"/>
       <c r="O250" s="1">
@@ -40307,7 +40307,7 @@
     </row>
     <row r="251" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A251" s="9" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>94</v>
@@ -40316,7 +40316,7 @@
         <v>95</v>
       </c>
       <c r="D251" s="9" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E251" s="9" t="s">
         <v>46</v>
@@ -40325,7 +40325,7 @@
         <v>55</v>
       </c>
       <c r="G251" s="9" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="H251" s="9"/>
       <c r="I251" s="9">
@@ -40335,13 +40335,13 @@
       <c r="K251" s="9"/>
       <c r="L251" s="9"/>
       <c r="M251" s="9" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="N251" s="12"/>
     </row>
     <row r="252" spans="1:146" ht="36">
       <c r="A252" s="8" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>66</v>
@@ -40350,7 +40350,7 @@
         <v>67</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="E252" s="8" t="s">
         <v>46</v>
@@ -40359,7 +40359,7 @@
         <v>47</v>
       </c>
       <c r="G252" s="8" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="H252" s="8" t="s">
         <v>77</v>
@@ -40371,12 +40371,12 @@
       <c r="K252" s="8"/>
       <c r="L252" s="8"/>
       <c r="M252" s="8" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="253" spans="1:146" ht="36">
       <c r="A253" s="8" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>52</v>
@@ -40385,7 +40385,7 @@
         <v>80</v>
       </c>
       <c r="D253" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="E253" s="8" t="s">
         <v>30</v>
@@ -40404,12 +40404,12 @@
       <c r="K253" s="8"/>
       <c r="L253" s="8"/>
       <c r="M253" s="8" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="254" spans="1:146" ht="48">
       <c r="A254" s="8" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>66</v>
@@ -40418,7 +40418,7 @@
         <v>119</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E254" s="8" t="s">
         <v>348</v>
@@ -40428,7 +40428,7 @@
       </c>
       <c r="G254" s="11"/>
       <c r="H254" s="8" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="I254" s="11">
         <v>4</v>
@@ -40437,13 +40437,13 @@
       <c r="K254" s="11"/>
       <c r="L254" s="11"/>
       <c r="M254" s="8" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="N254" s="12"/>
     </row>
     <row r="255" spans="1:146" ht="60">
       <c r="A255" s="8" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>66</v>
@@ -40452,7 +40452,7 @@
         <v>119</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E255" s="8" t="s">
         <v>30</v>
@@ -40473,12 +40473,12 @@
       <c r="K255" s="11"/>
       <c r="L255" s="11"/>
       <c r="M255" s="8" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="256" spans="1:146" ht="48">
       <c r="A256" s="8" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>94</v>
@@ -40487,7 +40487,7 @@
         <v>95</v>
       </c>
       <c r="D256" s="8" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="E256" s="8" t="s">
         <v>30</v>
@@ -40504,15 +40504,15 @@
       <c r="K256" s="8"/>
       <c r="L256" s="8"/>
       <c r="M256" s="8" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="N256" s="12" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
     </row>
     <row r="257" spans="1:146" ht="36">
       <c r="A257" s="8" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>66</v>
@@ -40521,7 +40521,7 @@
         <v>119</v>
       </c>
       <c r="D257" s="8" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E257" s="8" t="s">
         <v>46</v>
@@ -40540,10 +40540,10 @@
       <c r="K257" s="11"/>
       <c r="L257" s="11"/>
       <c r="M257" s="8" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="N257" s="1" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="O257" s="1">
         <v>1</v>
@@ -41039,7 +41039,7 @@
     </row>
     <row r="258" spans="1:146" ht="60">
       <c r="A258" s="8" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>27</v>
@@ -41063,12 +41063,12 @@
       <c r="K258" s="8"/>
       <c r="L258" s="8"/>
       <c r="M258" s="8" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="259" spans="1:146" ht="48">
       <c r="A259" s="8" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>60</v>
@@ -41077,7 +41077,7 @@
         <v>98</v>
       </c>
       <c r="D259" s="8" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="E259" s="8" t="s">
         <v>100</v>
@@ -41096,12 +41096,12 @@
       <c r="K259" s="8"/>
       <c r="L259" s="8"/>
       <c r="M259" s="8" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
     </row>
     <row r="260" spans="1:146" ht="36">
       <c r="A260" s="8" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>94</v>
@@ -41110,7 +41110,7 @@
         <v>95</v>
       </c>
       <c r="D260" s="8" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="E260" s="8" t="s">
         <v>46</v>
@@ -41119,7 +41119,7 @@
         <v>31</v>
       </c>
       <c r="G260" s="8" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="H260" s="8"/>
       <c r="I260" s="8">
@@ -41129,13 +41129,13 @@
       <c r="K260" s="8"/>
       <c r="L260" s="8"/>
       <c r="M260" s="8" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N260" s="12"/>
     </row>
     <row r="261" spans="1:146" ht="48">
       <c r="A261" s="8" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>60</v>
@@ -41144,10 +41144,10 @@
         <v>61</v>
       </c>
       <c r="D261" s="8" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F261" s="8" t="s">
         <v>31</v>
@@ -41161,15 +41161,15 @@
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
       <c r="M261" s="8" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="N261" s="1" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="262" spans="1:146" ht="48">
       <c r="A262" s="8" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>60</v>
@@ -41185,7 +41185,7 @@
         <v>47</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="H262" s="8"/>
       <c r="I262" s="8">
@@ -41195,12 +41195,12 @@
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="8" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="263" spans="1:146" ht="48">
       <c r="A263" s="8" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>52</v>
@@ -41209,7 +41209,7 @@
         <v>80</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>82</v>
@@ -41219,7 +41219,7 @@
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="8" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="I263" s="8">
         <v>3</v>
@@ -41228,13 +41228,13 @@
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
       <c r="M263" s="8" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="N263" s="10"/>
     </row>
     <row r="264" spans="1:146" ht="78.400000000000006" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>132</v>
@@ -41243,7 +41243,7 @@
         <v>133</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>30</v>
@@ -41260,12 +41260,12 @@
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
       <c r="M264" s="8" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="265" spans="1:146" ht="48">
       <c r="A265" s="8" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>27</v>
@@ -41274,7 +41274,7 @@
         <v>160</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>30</v>
@@ -41291,7 +41291,7 @@
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
       <c r="M265" s="8" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="O265" s="1">
         <v>1</v>
@@ -41788,7 +41788,7 @@
     </row>
     <row r="266" spans="1:146" ht="36">
       <c r="A266" s="8" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>66</v>
@@ -41797,7 +41797,7 @@
         <v>67</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>46</v>
@@ -41816,13 +41816,13 @@
       <c r="K266" s="11"/>
       <c r="L266" s="11"/>
       <c r="M266" s="8" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="N266" s="12"/>
     </row>
     <row r="267" spans="1:146" ht="36">
       <c r="A267" s="8" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>66</v>
@@ -41831,7 +41831,7 @@
         <v>67</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>46</v>
@@ -41848,13 +41848,13 @@
       <c r="K267" s="11"/>
       <c r="L267" s="11"/>
       <c r="M267" s="8" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="N267" s="12"/>
     </row>
     <row r="268" spans="1:146" ht="36">
       <c r="A268" s="8" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>60</v>
@@ -41863,7 +41863,7 @@
         <v>98</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>348</v>
@@ -41882,12 +41882,12 @@
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="8" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="269" spans="1:146" ht="24">
       <c r="A269" s="8" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>52</v>
@@ -41896,7 +41896,7 @@
         <v>53</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>100</v>
@@ -41905,7 +41905,7 @@
         <v>31</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="H269" s="8"/>
       <c r="I269" s="8">
@@ -41915,12 +41915,12 @@
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
       <c r="M269" s="8" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="270" spans="1:146" ht="48">
       <c r="A270" s="8" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>66</v>
@@ -41929,7 +41929,7 @@
         <v>67</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>46</v>
@@ -41946,13 +41946,13 @@
       <c r="K270" s="11"/>
       <c r="L270" s="11"/>
       <c r="M270" s="8" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="N270" s="12"/>
     </row>
     <row r="271" spans="1:146" ht="60">
       <c r="A271" s="8" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>27</v>
@@ -41961,7 +41961,7 @@
         <v>28</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>46</v>
@@ -41980,12 +41980,12 @@
       <c r="K271" s="8"/>
       <c r="L271" s="8"/>
       <c r="M271" s="8" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="272" spans="1:146" ht="36">
       <c r="A272" s="8" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>27</v>
@@ -41994,7 +41994,7 @@
         <v>28</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>329</v>
@@ -42003,7 +42003,7 @@
         <v>31</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="H272" s="8"/>
       <c r="I272" s="8">
@@ -42013,12 +42013,12 @@
       <c r="K272" s="8"/>
       <c r="L272" s="8"/>
       <c r="M272" s="8" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="273" spans="1:146" ht="36">
       <c r="A273" s="8" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>94</v>
@@ -42027,7 +42027,7 @@
         <v>95</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>46</v>
@@ -42036,7 +42036,7 @@
         <v>31</v>
       </c>
       <c r="G273" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="H273" s="8"/>
       <c r="I273" s="8">
@@ -42046,13 +42046,13 @@
       <c r="K273" s="8"/>
       <c r="L273" s="8"/>
       <c r="M273" s="8" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="N273" s="12"/>
     </row>
     <row r="274" spans="1:146" ht="72">
       <c r="A274" s="8" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>27</v>
@@ -42062,7 +42062,7 @@
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F274" s="8" t="s">
         <v>63</v>
@@ -42078,12 +42078,12 @@
       <c r="K274" s="8"/>
       <c r="L274" s="8"/>
       <c r="M274" s="8" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="275" spans="1:146" ht="48">
       <c r="A275" s="8" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>66</v>
@@ -42092,7 +42092,7 @@
         <v>119</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>46</v>
@@ -42109,15 +42109,15 @@
       <c r="K275" s="11"/>
       <c r="L275" s="11"/>
       <c r="M275" s="8" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="N275" s="1" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="276" spans="1:146" ht="24">
       <c r="A276" s="8" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>27</v>
@@ -42126,7 +42126,7 @@
         <v>160</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>46</v>
@@ -42135,7 +42135,7 @@
         <v>31</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H276" s="8"/>
       <c r="I276" s="8">
@@ -42147,7 +42147,7 @@
       <c r="K276" s="8"/>
       <c r="L276" s="8"/>
       <c r="M276" s="8" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="N276" s="14"/>
       <c r="O276" s="1">
@@ -42626,7 +42626,7 @@
     </row>
     <row r="277" spans="1:146" ht="60">
       <c r="A277" s="1" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>27</v>
@@ -42635,7 +42635,7 @@
         <v>28</v>
       </c>
       <c r="E277" s="1" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="F277" s="1" t="s">
         <v>63</v>
@@ -42647,7 +42647,7 @@
         <v>1</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
     </row>
   </sheetData>
@@ -42657,11 +42657,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="DB1:DU1"/>
+    <mergeCell ref="DW1:EP1"/>
+    <mergeCell ref="ER1:FK1"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:AJ1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:BF1"/>
+    <mergeCell ref="BH1:CA1"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -42671,16 +42676,11 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:AJ1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:BF1"/>
-    <mergeCell ref="BH1:CA1"/>
-    <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="CE1:CE2"/>
-    <mergeCell ref="DB1:DU1"/>
-    <mergeCell ref="DW1:EP1"/>
-    <mergeCell ref="ER1:FK1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8034FFF5-6CD5-4A97-82E7-20C3FE54451D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE49D444-3F47-4338-9AEA-986C3857AE0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-90" windowWidth="29040" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1072">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2429" uniqueCount="1071">
   <si>
     <t>Name</t>
   </si>
@@ -3525,9 +3527,6 @@
   </si>
   <si>
     <t>qortina</t>
-  </si>
-  <si>
-    <t>Concentration</t>
   </si>
   <si>
     <t xml:space="preserve">Target a non-sapient being or object within range, and send it spinning forward or backward in time by (1+PP) days per round. Plants will grow and age, food will rot and wilt (or, rotten food may become fresh again), and weapons will rust and grow dull. </t>
@@ -3985,14 +3984,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4382,7 +4381,7 @@
       <pane xSplit="1" ySplit="2" topLeftCell="B51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A120" sqref="A120"/>
-      <selection pane="bottomRight" activeCell="L56" sqref="L56"/>
+      <selection pane="bottomRight" activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4428,127 +4427,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" s="4" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="20" t="s">
+      <c r="A1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="20" t="s">
+      <c r="G1" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="20" t="s">
         <v>14</v>
       </c>
       <c r="P1" s="3"/>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="21"/>
-      <c r="S1" s="21"/>
-      <c r="T1" s="21"/>
-      <c r="U1" s="21"/>
-      <c r="V1" s="21"/>
-      <c r="W1" s="21"/>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="21"/>
-      <c r="AB1" s="21"/>
-      <c r="AC1" s="21"/>
-      <c r="AD1" s="21"/>
-      <c r="AE1" s="21"/>
-      <c r="AF1" s="21"/>
-      <c r="AG1" s="21"/>
-      <c r="AH1" s="21"/>
-      <c r="AI1" s="21"/>
-      <c r="AJ1" s="21"/>
+      <c r="R1" s="20"/>
+      <c r="S1" s="20"/>
+      <c r="T1" s="20"/>
+      <c r="U1" s="20"/>
+      <c r="V1" s="20"/>
+      <c r="W1" s="20"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="20"/>
+      <c r="AB1" s="20"/>
+      <c r="AC1" s="20"/>
+      <c r="AD1" s="20"/>
+      <c r="AE1" s="20"/>
+      <c r="AF1" s="20"/>
+      <c r="AG1" s="20"/>
+      <c r="AH1" s="20"/>
+      <c r="AI1" s="20"/>
+      <c r="AJ1" s="20"/>
       <c r="AK1" s="3"/>
-      <c r="AL1" s="21" t="s">
+      <c r="AL1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="AM1" s="21" t="s">
+      <c r="AM1" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AN1" s="21"/>
-      <c r="AO1" s="21"/>
-      <c r="AP1" s="21"/>
-      <c r="AQ1" s="21"/>
-      <c r="AR1" s="21"/>
-      <c r="AS1" s="21"/>
-      <c r="AT1" s="21"/>
-      <c r="AU1" s="21"/>
-      <c r="AV1" s="21"/>
-      <c r="AW1" s="21"/>
-      <c r="AX1" s="21"/>
-      <c r="AY1" s="21"/>
-      <c r="AZ1" s="21"/>
-      <c r="BA1" s="21"/>
-      <c r="BB1" s="21"/>
-      <c r="BC1" s="21"/>
-      <c r="BD1" s="21"/>
-      <c r="BE1" s="21"/>
-      <c r="BF1" s="21"/>
+      <c r="AN1" s="20"/>
+      <c r="AO1" s="20"/>
+      <c r="AP1" s="20"/>
+      <c r="AQ1" s="20"/>
+      <c r="AR1" s="20"/>
+      <c r="AS1" s="20"/>
+      <c r="AT1" s="20"/>
+      <c r="AU1" s="20"/>
+      <c r="AV1" s="20"/>
+      <c r="AW1" s="20"/>
+      <c r="AX1" s="20"/>
+      <c r="AY1" s="20"/>
+      <c r="AZ1" s="20"/>
+      <c r="BA1" s="20"/>
+      <c r="BB1" s="20"/>
+      <c r="BC1" s="20"/>
+      <c r="BD1" s="20"/>
+      <c r="BE1" s="20"/>
+      <c r="BF1" s="20"/>
       <c r="BG1" s="3"/>
-      <c r="BH1" s="21" t="s">
+      <c r="BH1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="BI1" s="21"/>
-      <c r="BJ1" s="21"/>
-      <c r="BK1" s="21"/>
-      <c r="BL1" s="21"/>
-      <c r="BM1" s="21"/>
-      <c r="BN1" s="21"/>
-      <c r="BO1" s="21"/>
-      <c r="BP1" s="21"/>
-      <c r="BQ1" s="21"/>
-      <c r="BR1" s="21"/>
-      <c r="BS1" s="21"/>
-      <c r="BT1" s="21"/>
-      <c r="BU1" s="21"/>
-      <c r="BV1" s="21"/>
-      <c r="BW1" s="21"/>
-      <c r="BX1" s="21"/>
-      <c r="BY1" s="21"/>
-      <c r="BZ1" s="21"/>
-      <c r="CA1" s="21"/>
-      <c r="CC1" s="21" t="s">
+      <c r="BI1" s="20"/>
+      <c r="BJ1" s="20"/>
+      <c r="BK1" s="20"/>
+      <c r="BL1" s="20"/>
+      <c r="BM1" s="20"/>
+      <c r="BN1" s="20"/>
+      <c r="BO1" s="20"/>
+      <c r="BP1" s="20"/>
+      <c r="BQ1" s="20"/>
+      <c r="BR1" s="20"/>
+      <c r="BS1" s="20"/>
+      <c r="BT1" s="20"/>
+      <c r="BU1" s="20"/>
+      <c r="BV1" s="20"/>
+      <c r="BW1" s="20"/>
+      <c r="BX1" s="20"/>
+      <c r="BY1" s="20"/>
+      <c r="BZ1" s="20"/>
+      <c r="CA1" s="20"/>
+      <c r="CC1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="CE1" s="22" t="s">
+      <c r="CE1" s="21" t="s">
         <v>20</v>
       </c>
       <c r="CF1" s="5" t="s">
@@ -4614,89 +4613,89 @@
       <c r="CZ1" s="7">
         <v>7</v>
       </c>
-      <c r="DB1" s="21" t="s">
+      <c r="DB1" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="DC1" s="21"/>
-      <c r="DD1" s="21"/>
-      <c r="DE1" s="21"/>
-      <c r="DF1" s="21"/>
-      <c r="DG1" s="21"/>
-      <c r="DH1" s="21"/>
-      <c r="DI1" s="21"/>
-      <c r="DJ1" s="21"/>
-      <c r="DK1" s="21"/>
-      <c r="DL1" s="21"/>
-      <c r="DM1" s="21"/>
-      <c r="DN1" s="21"/>
-      <c r="DO1" s="21"/>
-      <c r="DP1" s="21"/>
-      <c r="DQ1" s="21"/>
-      <c r="DR1" s="21"/>
-      <c r="DS1" s="21"/>
-      <c r="DT1" s="21"/>
-      <c r="DU1" s="21"/>
-      <c r="DW1" s="21" t="s">
+      <c r="DC1" s="20"/>
+      <c r="DD1" s="20"/>
+      <c r="DE1" s="20"/>
+      <c r="DF1" s="20"/>
+      <c r="DG1" s="20"/>
+      <c r="DH1" s="20"/>
+      <c r="DI1" s="20"/>
+      <c r="DJ1" s="20"/>
+      <c r="DK1" s="20"/>
+      <c r="DL1" s="20"/>
+      <c r="DM1" s="20"/>
+      <c r="DN1" s="20"/>
+      <c r="DO1" s="20"/>
+      <c r="DP1" s="20"/>
+      <c r="DQ1" s="20"/>
+      <c r="DR1" s="20"/>
+      <c r="DS1" s="20"/>
+      <c r="DT1" s="20"/>
+      <c r="DU1" s="20"/>
+      <c r="DW1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="DX1" s="21"/>
-      <c r="DY1" s="21"/>
-      <c r="DZ1" s="21"/>
-      <c r="EA1" s="21"/>
-      <c r="EB1" s="21"/>
-      <c r="EC1" s="21"/>
-      <c r="ED1" s="21"/>
-      <c r="EE1" s="21"/>
-      <c r="EF1" s="21"/>
-      <c r="EG1" s="21"/>
-      <c r="EH1" s="21"/>
-      <c r="EI1" s="21"/>
-      <c r="EJ1" s="21"/>
-      <c r="EK1" s="21"/>
-      <c r="EL1" s="21"/>
-      <c r="EM1" s="21"/>
-      <c r="EN1" s="21"/>
-      <c r="EO1" s="21"/>
-      <c r="EP1" s="21"/>
-      <c r="ER1" s="21" t="s">
+      <c r="DX1" s="20"/>
+      <c r="DY1" s="20"/>
+      <c r="DZ1" s="20"/>
+      <c r="EA1" s="20"/>
+      <c r="EB1" s="20"/>
+      <c r="EC1" s="20"/>
+      <c r="ED1" s="20"/>
+      <c r="EE1" s="20"/>
+      <c r="EF1" s="20"/>
+      <c r="EG1" s="20"/>
+      <c r="EH1" s="20"/>
+      <c r="EI1" s="20"/>
+      <c r="EJ1" s="20"/>
+      <c r="EK1" s="20"/>
+      <c r="EL1" s="20"/>
+      <c r="EM1" s="20"/>
+      <c r="EN1" s="20"/>
+      <c r="EO1" s="20"/>
+      <c r="EP1" s="20"/>
+      <c r="ER1" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="ES1" s="21"/>
-      <c r="ET1" s="21"/>
-      <c r="EU1" s="21"/>
-      <c r="EV1" s="21"/>
-      <c r="EW1" s="21"/>
-      <c r="EX1" s="21"/>
-      <c r="EY1" s="21"/>
-      <c r="EZ1" s="21"/>
-      <c r="FA1" s="21"/>
-      <c r="FB1" s="21"/>
-      <c r="FC1" s="21"/>
-      <c r="FD1" s="21"/>
-      <c r="FE1" s="21"/>
-      <c r="FF1" s="21"/>
-      <c r="FG1" s="21"/>
-      <c r="FH1" s="21"/>
-      <c r="FI1" s="21"/>
-      <c r="FJ1" s="21"/>
-      <c r="FK1" s="21"/>
+      <c r="ES1" s="20"/>
+      <c r="ET1" s="20"/>
+      <c r="EU1" s="20"/>
+      <c r="EV1" s="20"/>
+      <c r="EW1" s="20"/>
+      <c r="EX1" s="20"/>
+      <c r="EY1" s="20"/>
+      <c r="EZ1" s="20"/>
+      <c r="FA1" s="20"/>
+      <c r="FB1" s="20"/>
+      <c r="FC1" s="20"/>
+      <c r="FD1" s="20"/>
+      <c r="FE1" s="20"/>
+      <c r="FF1" s="20"/>
+      <c r="FG1" s="20"/>
+      <c r="FH1" s="20"/>
+      <c r="FI1" s="20"/>
+      <c r="FJ1" s="20"/>
+      <c r="FK1" s="20"/>
     </row>
     <row r="2" spans="1:187" s="4" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="20"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="21"/>
-      <c r="O2" s="21"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
       <c r="P2" s="3"/>
       <c r="Q2" s="4">
         <v>1</v>
@@ -4759,7 +4758,7 @@
         <v>20</v>
       </c>
       <c r="AK2" s="3"/>
-      <c r="AL2" s="21"/>
+      <c r="AL2" s="20"/>
       <c r="AM2" s="4">
         <v>1</v>
       </c>
@@ -4880,8 +4879,8 @@
       <c r="CA2" s="4">
         <v>20</v>
       </c>
-      <c r="CC2" s="21"/>
-      <c r="CE2" s="22"/>
+      <c r="CC2" s="20"/>
+      <c r="CE2" s="21"/>
       <c r="CF2" s="5" t="s">
         <v>25</v>
       </c>
@@ -5266,7 +5265,7 @@
     </row>
     <row r="4" spans="1:187" ht="36">
       <c r="A4" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>38</v>
@@ -5275,7 +5274,7 @@
         <v>138</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="E4" s="9" t="s">
         <v>46</v>
@@ -5291,10 +5290,10 @@
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="M4" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="M4" s="9" t="s">
-        <v>1066</v>
       </c>
       <c r="ER4" s="1">
         <f t="shared" si="0"/>
@@ -5577,7 +5576,7 @@
         <v>225</v>
       </c>
       <c r="M6" s="8" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="O6" s="1">
         <v>1</v>
@@ -8841,7 +8840,7 @@
     </row>
     <row r="17" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A17" s="8" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>66</v>
@@ -8850,7 +8849,7 @@
         <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>30</v>
@@ -8859,7 +8858,7 @@
         <v>55</v>
       </c>
       <c r="G17" s="8" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>596</v>
@@ -8873,7 +8872,7 @@
         <v>148</v>
       </c>
       <c r="M17" s="8" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="N17" s="12"/>
       <c r="ER17" s="1">
@@ -16545,7 +16544,7 @@
     </row>
     <row r="45" spans="1:167" ht="60">
       <c r="A45" s="1" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>132</v>
@@ -16554,7 +16553,7 @@
         <v>133</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="E45" s="1" t="s">
         <v>140</v>
@@ -16563,7 +16562,7 @@
         <v>55</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="I45" s="8">
         <v>5</v>
@@ -16572,7 +16571,7 @@
         <v>42</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="ER45" s="1">
         <f t="shared" si="80"/>
@@ -17853,7 +17852,7 @@
     </row>
     <row r="52" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A52" s="9" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>60</v>
@@ -17870,7 +17869,7 @@
       </c>
       <c r="G52" s="9"/>
       <c r="H52" s="9" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="I52" s="9">
         <v>4</v>
@@ -17881,7 +17880,7 @@
         <v>255</v>
       </c>
       <c r="M52" s="9" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="ER52" s="1">
         <f t="shared" si="80"/>
@@ -19241,7 +19240,7 @@
         <v>942</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="I56" s="8">
         <v>2</v>
@@ -19256,7 +19255,7 @@
         <v>111</v>
       </c>
       <c r="M56" s="8" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
     </row>
     <row r="57" spans="1:167" ht="33.950000000000003" customHeight="1">
@@ -19464,7 +19463,7 @@
     </row>
     <row r="62" spans="1:167" ht="33.950000000000003" customHeight="1">
       <c r="A62" s="8" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>132</v>
@@ -19473,7 +19472,7 @@
         <v>216</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="E62" s="8" t="s">
         <v>46</v>
@@ -19500,7 +19499,7 @@
         <v>219</v>
       </c>
       <c r="M62" s="8" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="N62" s="16"/>
       <c r="O62" s="1">
@@ -30439,7 +30438,7 @@
     </row>
     <row r="121" spans="1:146" ht="33.950000000000003" customHeight="1">
       <c r="A121" s="9" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>38</v>
@@ -30448,7 +30447,7 @@
         <v>138</v>
       </c>
       <c r="D121" s="9" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="E121" s="15" t="s">
         <v>46</v>
@@ -30457,10 +30456,10 @@
         <v>31</v>
       </c>
       <c r="G121" s="15" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H121" s="15" t="s">
         <v>1062</v>
-      </c>
-      <c r="H121" s="15" t="s">
-        <v>1063</v>
       </c>
       <c r="I121" s="9">
         <v>4</v>
@@ -30473,7 +30472,7 @@
       </c>
       <c r="L121" s="9"/>
       <c r="M121" s="9" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="122" spans="1:146" ht="33.950000000000003" customHeight="1">
@@ -41147,7 +41146,7 @@
         <v>991</v>
       </c>
       <c r="E261" s="8" t="s">
-        <v>992</v>
+        <v>30</v>
       </c>
       <c r="F261" s="8" t="s">
         <v>31</v>
@@ -41161,15 +41160,15 @@
       <c r="K261" s="8"/>
       <c r="L261" s="8"/>
       <c r="M261" s="8" t="s">
+        <v>992</v>
+      </c>
+      <c r="N261" s="1" t="s">
         <v>993</v>
-      </c>
-      <c r="N261" s="1" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="262" spans="1:146" ht="48">
       <c r="A262" s="8" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>60</v>
@@ -41185,7 +41184,7 @@
         <v>47</v>
       </c>
       <c r="G262" s="8" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="H262" s="8"/>
       <c r="I262" s="8">
@@ -41195,12 +41194,12 @@
       <c r="K262" s="8"/>
       <c r="L262" s="8"/>
       <c r="M262" s="8" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="263" spans="1:146" ht="48">
       <c r="A263" s="8" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>52</v>
@@ -41209,7 +41208,7 @@
         <v>80</v>
       </c>
       <c r="D263" s="8" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="E263" s="8" t="s">
         <v>82</v>
@@ -41219,7 +41218,7 @@
       </c>
       <c r="G263" s="8"/>
       <c r="H263" s="8" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I263" s="8">
         <v>3</v>
@@ -41228,13 +41227,13 @@
       <c r="K263" s="8"/>
       <c r="L263" s="8"/>
       <c r="M263" s="8" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="N263" s="10"/>
     </row>
     <row r="264" spans="1:146" ht="78.400000000000006" customHeight="1">
       <c r="A264" s="8" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>132</v>
@@ -41243,7 +41242,7 @@
         <v>133</v>
       </c>
       <c r="D264" s="8" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="E264" s="8" t="s">
         <v>30</v>
@@ -41260,12 +41259,12 @@
       <c r="K264" s="8"/>
       <c r="L264" s="8"/>
       <c r="M264" s="8" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="265" spans="1:146" ht="48">
       <c r="A265" s="8" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>27</v>
@@ -41274,7 +41273,7 @@
         <v>160</v>
       </c>
       <c r="D265" s="8" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E265" s="8" t="s">
         <v>30</v>
@@ -41291,7 +41290,7 @@
       <c r="K265" s="8"/>
       <c r="L265" s="8"/>
       <c r="M265" s="8" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="O265" s="1">
         <v>1</v>
@@ -41788,7 +41787,7 @@
     </row>
     <row r="266" spans="1:146" ht="36">
       <c r="A266" s="8" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>66</v>
@@ -41797,7 +41796,7 @@
         <v>67</v>
       </c>
       <c r="D266" s="8" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="E266" s="8" t="s">
         <v>46</v>
@@ -41816,13 +41815,13 @@
       <c r="K266" s="11"/>
       <c r="L266" s="11"/>
       <c r="M266" s="8" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="N266" s="12"/>
     </row>
     <row r="267" spans="1:146" ht="36">
       <c r="A267" s="8" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>66</v>
@@ -41831,7 +41830,7 @@
         <v>67</v>
       </c>
       <c r="D267" s="8" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="E267" s="8" t="s">
         <v>46</v>
@@ -41848,13 +41847,13 @@
       <c r="K267" s="11"/>
       <c r="L267" s="11"/>
       <c r="M267" s="8" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="N267" s="12"/>
     </row>
     <row r="268" spans="1:146" ht="36">
       <c r="A268" s="8" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>60</v>
@@ -41863,7 +41862,7 @@
         <v>98</v>
       </c>
       <c r="D268" s="8" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="E268" s="8" t="s">
         <v>348</v>
@@ -41882,12 +41881,12 @@
       <c r="K268" s="8"/>
       <c r="L268" s="8"/>
       <c r="M268" s="8" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
     </row>
     <row r="269" spans="1:146" ht="24">
       <c r="A269" s="8" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>52</v>
@@ -41896,7 +41895,7 @@
         <v>53</v>
       </c>
       <c r="D269" s="8" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="E269" s="8" t="s">
         <v>100</v>
@@ -41905,7 +41904,7 @@
         <v>31</v>
       </c>
       <c r="G269" s="8" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="H269" s="8"/>
       <c r="I269" s="8">
@@ -41915,12 +41914,12 @@
       <c r="K269" s="8"/>
       <c r="L269" s="8"/>
       <c r="M269" s="8" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="270" spans="1:146" ht="48">
       <c r="A270" s="8" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>66</v>
@@ -41929,7 +41928,7 @@
         <v>67</v>
       </c>
       <c r="D270" s="8" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="E270" s="8" t="s">
         <v>46</v>
@@ -41946,13 +41945,13 @@
       <c r="K270" s="11"/>
       <c r="L270" s="11"/>
       <c r="M270" s="8" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="N270" s="12"/>
     </row>
     <row r="271" spans="1:146" ht="60">
       <c r="A271" s="8" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>27</v>
@@ -41961,7 +41960,7 @@
         <v>28</v>
       </c>
       <c r="D271" s="8" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="E271" s="8" t="s">
         <v>46</v>
@@ -41980,12 +41979,12 @@
       <c r="K271" s="8"/>
       <c r="L271" s="8"/>
       <c r="M271" s="8" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="272" spans="1:146" ht="36">
       <c r="A272" s="8" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>27</v>
@@ -41994,7 +41993,7 @@
         <v>28</v>
       </c>
       <c r="D272" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="E272" s="8" t="s">
         <v>329</v>
@@ -42003,7 +42002,7 @@
         <v>31</v>
       </c>
       <c r="G272" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H272" s="8"/>
       <c r="I272" s="8">
@@ -42013,12 +42012,12 @@
       <c r="K272" s="8"/>
       <c r="L272" s="8"/>
       <c r="M272" s="8" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="273" spans="1:146" ht="36">
       <c r="A273" s="8" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>94</v>
@@ -42027,7 +42026,7 @@
         <v>95</v>
       </c>
       <c r="D273" s="8" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="E273" s="8" t="s">
         <v>46</v>
@@ -42046,13 +42045,13 @@
       <c r="K273" s="8"/>
       <c r="L273" s="8"/>
       <c r="M273" s="8" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="N273" s="12"/>
     </row>
     <row r="274" spans="1:146" ht="72">
       <c r="A274" s="8" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>27</v>
@@ -42078,12 +42077,12 @@
       <c r="K274" s="8"/>
       <c r="L274" s="8"/>
       <c r="M274" s="8" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="275" spans="1:146" ht="48">
       <c r="A275" s="8" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>66</v>
@@ -42092,7 +42091,7 @@
         <v>119</v>
       </c>
       <c r="D275" s="8" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="E275" s="8" t="s">
         <v>46</v>
@@ -42109,15 +42108,15 @@
       <c r="K275" s="11"/>
       <c r="L275" s="11"/>
       <c r="M275" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="N275" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="N275" s="1" t="s">
-        <v>1052</v>
       </c>
     </row>
     <row r="276" spans="1:146" ht="24">
       <c r="A276" s="8" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>27</v>
@@ -42126,7 +42125,7 @@
         <v>160</v>
       </c>
       <c r="D276" s="8" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="E276" s="8" t="s">
         <v>46</v>
@@ -42135,7 +42134,7 @@
         <v>31</v>
       </c>
       <c r="G276" s="8" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="H276" s="8"/>
       <c r="I276" s="8">
@@ -42147,7 +42146,7 @@
       <c r="K276" s="8"/>
       <c r="L276" s="8"/>
       <c r="M276" s="8" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="N276" s="14"/>
       <c r="O276" s="1">
@@ -42626,7 +42625,7 @@
     </row>
     <row r="277" spans="1:146" ht="60">
       <c r="A277" s="1" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>27</v>
@@ -42647,7 +42646,7 @@
         <v>1</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
     </row>
   </sheetData>
@@ -42657,16 +42656,11 @@
     </sortState>
   </autoFilter>
   <mergeCells count="24">
-    <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="CE1:CE2"/>
-    <mergeCell ref="DB1:DU1"/>
-    <mergeCell ref="DW1:EP1"/>
-    <mergeCell ref="ER1:FK1"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="Q1:AJ1"/>
-    <mergeCell ref="AL1:AL2"/>
-    <mergeCell ref="AM1:BF1"/>
-    <mergeCell ref="BH1:CA1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
     <mergeCell ref="K1:K2"/>
     <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
@@ -42676,11 +42670,16 @@
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
     <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="Q1:AJ1"/>
+    <mergeCell ref="AL1:AL2"/>
+    <mergeCell ref="AM1:BF1"/>
+    <mergeCell ref="BH1:CA1"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="DB1:DU1"/>
+    <mergeCell ref="DW1:EP1"/>
+    <mergeCell ref="ER1:FK1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -3463,7 +3463,7 @@
     <t xml:space="preserve">(4+PP) turns</t>
   </si>
   <si>
-    <t xml:space="preserve">Necrotic energy seeps up from the ground, into the target, causing them to undergo a severe physical degradation, reducing their Athletics score by (4+PP) for the duration of the spell. 
+    <t xml:space="preserve">Necrotic energy seeps up from the ground, into the target, causing them to undergo a severe physical degradation, reducing their \attPhys{} score by (4+PP) for the duration of the spell. 
 This effect is negated on a successful Resist. </t>
   </si>
 </sst>
@@ -3860,42 +3860,42 @@
   <dimension ref="A1:GF1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B178" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B268" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A178" activeCellId="0" sqref="A178"/>
-      <selection pane="bottomRight" activeCell="D184" activeCellId="0" sqref="D184"/>
+      <selection pane="bottomLeft" activeCell="A268" activeCellId="0" sqref="A268"/>
+      <selection pane="bottomRight" activeCell="M274" activeCellId="0" sqref="M274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="19.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="8.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="55.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="36.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="10.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="16" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="58" min="21" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="60" min="59" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="61" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="69" min="69" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="80" min="70" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="81" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="84" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="86" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="2" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="94" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="106" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="83" min="81" style="1" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="85" min="84" style="0" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="86" style="2" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="93" min="93" style="2" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="105" min="94" style="2" width="10.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="147" min="106" style="1" width="10.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="168" min="148" style="1" width="4.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="187" min="169" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="188" min="188" style="1" width="9"/>
@@ -15684,7 +15684,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="273" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="273" customFormat="false" ht="53.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A273" s="13" t="s">
         <v>1052</v>
       </c>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72ABDE54-1E12-4687-9461-DC2619FE258B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68943CE1-F8B3-4FA9-9739-F9B299FB33CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2261" uniqueCount="992">
   <si>
     <t>Name</t>
   </si>
@@ -2652,9 +2652,6 @@
     <t xml:space="preserve">ictus </t>
   </si>
   <si>
-    <t>Stings the target for (1+1PP)d4 poison damage.</t>
-  </si>
-  <si>
     <t>Stoneskin</t>
   </si>
   <si>
@@ -2831,9 +2828,6 @@
     <t>sol maxima</t>
   </si>
   <si>
-    <t>A bolt of magic explodes on contact with a solid {\it or} astral object, releasing a searing white light that does (2+PP)d4 Holy Damage.</t>
-  </si>
-  <si>
     <t>Suppress Intelligence</t>
   </si>
   <si>
@@ -2978,9 +2972,6 @@
     <t>lubricor</t>
   </si>
   <si>
-    <t xml:space="preserve">FIN </t>
-  </si>
-  <si>
     <t>If the target is moving this turn cycle and fails to Resist, they go sprawling onto the ground taking 1 bludgeoning damage, and take the {\it Prone Position} status.</t>
   </si>
   <si>
@@ -3287,10 +3278,16 @@
     <t>Contact Shock</t>
   </si>
   <si>
-    <t xml:space="preserve">Hurl shadows at your enemy, dealing 2d4 necrotic damage. </t>
-  </si>
-  <si>
     <t>Gain 1d4 additional necrotic damage for each additional spell level.</t>
+  </si>
+  <si>
+    <t>Stings the target for 2+1d4 poison damage.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You concentrate, and the nearby shadows flock to your wand, curling around like an evil candy floss, before launching themselves at your target, dealing 2d4 necrotic damage. </t>
+  </si>
+  <si>
+    <t>A bolt of magic explodes on contact with a solid {\it or} astral object, releasing a searing white light that does (2+PP)d4 Celestial Damage.</t>
   </si>
 </sst>
 </file>
@@ -3523,14 +3520,14 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3917,10 +3914,10 @@
   <dimension ref="A1:AMJ273"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="Q11" sqref="Q11"/>
+      <selection pane="bottomRight" activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -3958,81 +3955,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:187" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="24" t="s">
+        <v>953</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q1" s="3" t="s">
         <v>956</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="R1" s="3" t="s">
         <v>957</v>
       </c>
-      <c r="P1" s="3" t="s">
+      <c r="S1" s="3" t="s">
         <v>958</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>959</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>960</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>961</v>
       </c>
       <c r="T1" s="5"/>
       <c r="U1" s="5" t="s">
+        <v>959</v>
+      </c>
+      <c r="V1" s="5" t="s">
+        <v>960</v>
+      </c>
+      <c r="W1" s="5" t="s">
+        <v>961</v>
+      </c>
+      <c r="X1" s="5" t="s">
         <v>962</v>
       </c>
-      <c r="V1" s="5" t="s">
+      <c r="Y1" s="5" t="s">
         <v>963</v>
       </c>
-      <c r="W1" s="5" t="s">
+      <c r="Z1" s="5" t="s">
         <v>964</v>
-      </c>
-      <c r="X1" s="5" t="s">
-        <v>965</v>
-      </c>
-      <c r="Y1" s="5" t="s">
-        <v>966</v>
-      </c>
-      <c r="Z1" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="AA1" s="5">
         <v>1</v>
@@ -4099,8 +4096,8 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
-      <c r="CC1" s="23"/>
-      <c r="CE1" s="24"/>
+      <c r="CC1" s="24"/>
+      <c r="CE1" s="25"/>
       <c r="CF1" s="7"/>
       <c r="CG1" s="8"/>
       <c r="CH1" s="8"/>
@@ -4122,96 +4119,96 @@
       <c r="CX1" s="8"/>
       <c r="CY1" s="8"/>
       <c r="CZ1" s="9"/>
-      <c r="DB1" s="23"/>
-      <c r="DC1" s="23"/>
-      <c r="DD1" s="23"/>
-      <c r="DE1" s="23"/>
-      <c r="DF1" s="23"/>
-      <c r="DG1" s="23"/>
-      <c r="DH1" s="23"/>
-      <c r="DI1" s="23"/>
-      <c r="DJ1" s="23"/>
-      <c r="DK1" s="23"/>
-      <c r="DL1" s="23"/>
-      <c r="DM1" s="23"/>
-      <c r="DN1" s="23"/>
-      <c r="DO1" s="23"/>
-      <c r="DP1" s="23"/>
-      <c r="DQ1" s="23"/>
-      <c r="DR1" s="23"/>
-      <c r="DS1" s="23"/>
-      <c r="DT1" s="23"/>
-      <c r="DU1" s="23"/>
-      <c r="DW1" s="23"/>
-      <c r="DX1" s="23"/>
-      <c r="DY1" s="23"/>
-      <c r="DZ1" s="23"/>
-      <c r="EA1" s="23"/>
-      <c r="EB1" s="23"/>
-      <c r="EC1" s="23"/>
-      <c r="ED1" s="23"/>
-      <c r="EE1" s="23"/>
-      <c r="EF1" s="23"/>
-      <c r="EG1" s="23"/>
-      <c r="EH1" s="23"/>
-      <c r="EI1" s="23"/>
-      <c r="EJ1" s="23"/>
-      <c r="EK1" s="23"/>
-      <c r="EL1" s="23"/>
-      <c r="EM1" s="23"/>
-      <c r="EN1" s="23"/>
-      <c r="EO1" s="23"/>
-      <c r="EP1" s="23"/>
-      <c r="ER1" s="23"/>
-      <c r="ES1" s="23"/>
-      <c r="ET1" s="23"/>
-      <c r="EU1" s="23"/>
-      <c r="EV1" s="23"/>
-      <c r="EW1" s="23"/>
-      <c r="EX1" s="23"/>
-      <c r="EY1" s="23"/>
-      <c r="EZ1" s="23"/>
-      <c r="FA1" s="23"/>
-      <c r="FB1" s="23"/>
-      <c r="FC1" s="23"/>
-      <c r="FD1" s="23"/>
-      <c r="FE1" s="23"/>
-      <c r="FF1" s="23"/>
-      <c r="FG1" s="23"/>
-      <c r="FH1" s="23"/>
-      <c r="FI1" s="23"/>
-      <c r="FJ1" s="23"/>
-      <c r="FK1" s="23"/>
+      <c r="DB1" s="24"/>
+      <c r="DC1" s="24"/>
+      <c r="DD1" s="24"/>
+      <c r="DE1" s="24"/>
+      <c r="DF1" s="24"/>
+      <c r="DG1" s="24"/>
+      <c r="DH1" s="24"/>
+      <c r="DI1" s="24"/>
+      <c r="DJ1" s="24"/>
+      <c r="DK1" s="24"/>
+      <c r="DL1" s="24"/>
+      <c r="DM1" s="24"/>
+      <c r="DN1" s="24"/>
+      <c r="DO1" s="24"/>
+      <c r="DP1" s="24"/>
+      <c r="DQ1" s="24"/>
+      <c r="DR1" s="24"/>
+      <c r="DS1" s="24"/>
+      <c r="DT1" s="24"/>
+      <c r="DU1" s="24"/>
+      <c r="DW1" s="24"/>
+      <c r="DX1" s="24"/>
+      <c r="DY1" s="24"/>
+      <c r="DZ1" s="24"/>
+      <c r="EA1" s="24"/>
+      <c r="EB1" s="24"/>
+      <c r="EC1" s="24"/>
+      <c r="ED1" s="24"/>
+      <c r="EE1" s="24"/>
+      <c r="EF1" s="24"/>
+      <c r="EG1" s="24"/>
+      <c r="EH1" s="24"/>
+      <c r="EI1" s="24"/>
+      <c r="EJ1" s="24"/>
+      <c r="EK1" s="24"/>
+      <c r="EL1" s="24"/>
+      <c r="EM1" s="24"/>
+      <c r="EN1" s="24"/>
+      <c r="EO1" s="24"/>
+      <c r="EP1" s="24"/>
+      <c r="ER1" s="24"/>
+      <c r="ES1" s="24"/>
+      <c r="ET1" s="24"/>
+      <c r="EU1" s="24"/>
+      <c r="EV1" s="24"/>
+      <c r="EW1" s="24"/>
+      <c r="EX1" s="24"/>
+      <c r="EY1" s="24"/>
+      <c r="EZ1" s="24"/>
+      <c r="FA1" s="24"/>
+      <c r="FB1" s="24"/>
+      <c r="FC1" s="24"/>
+      <c r="FD1" s="24"/>
+      <c r="FE1" s="24"/>
+      <c r="FF1" s="24"/>
+      <c r="FG1" s="24"/>
+      <c r="FH1" s="24"/>
+      <c r="FI1" s="24"/>
+      <c r="FJ1" s="24"/>
+      <c r="FK1" s="24"/>
     </row>
     <row r="2" spans="1:187" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24"/>
       <c r="O2" s="4" t="s">
+        <v>954</v>
+      </c>
+      <c r="P2" s="6" t="s">
+        <v>955</v>
+      </c>
+      <c r="Q2" s="6" t="s">
+        <v>956</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>957</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>958</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>959</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>960</v>
-      </c>
-      <c r="S2" s="6" t="s">
-        <v>961</v>
       </c>
       <c r="T2" s="10"/>
       <c r="U2" s="10" t="str">
@@ -4292,9 +4289,9 @@
       <c r="BZ2" s="10"/>
       <c r="CA2" s="10"/>
       <c r="CB2" s="10"/>
-      <c r="CC2" s="23"/>
+      <c r="CC2" s="24"/>
       <c r="CD2" s="10"/>
-      <c r="CE2" s="24"/>
+      <c r="CE2" s="25"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
@@ -4343,13 +4340,13 @@
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="M3" s="19" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="N3" s="1">
         <v>1</v>
@@ -4456,7 +4453,7 @@
         <v>249</v>
       </c>
       <c r="M4" s="15" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="N4" s="1">
         <v>1</v>
@@ -4540,10 +4537,10 @@
       </c>
       <c r="K5" s="11"/>
       <c r="L5" s="11" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="M5" s="15" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="N5" s="1">
         <v>1</v>
@@ -4627,10 +4624,10 @@
       </c>
       <c r="K6" s="11"/>
       <c r="L6" s="11" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="N6" s="1">
         <v>1</v>
@@ -4685,7 +4682,7 @@
     </row>
     <row r="7" spans="1:187" ht="36">
       <c r="A7" s="11" t="s">
-        <v>973</v>
+        <v>970</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -4703,7 +4700,7 @@
         <v>18</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="11" t="s">
@@ -4714,10 +4711,10 @@
       </c>
       <c r="K7" s="11"/>
       <c r="L7" s="11" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="M7" s="13" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="N7" s="1">
         <v>1</v>
@@ -4803,10 +4800,10 @@
         <v>278</v>
       </c>
       <c r="L8" s="11" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="M8" s="1" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="N8" s="1">
         <v>1</v>
@@ -4890,10 +4887,10 @@
       </c>
       <c r="K9" s="11"/>
       <c r="L9" s="11" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="M9" s="1" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="N9" s="1">
         <v>1</v>
@@ -4975,10 +4972,10 @@
         <v>369</v>
       </c>
       <c r="L10" s="11" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="M10" s="15" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="N10" s="1">
         <v>1</v>
@@ -5031,7 +5028,7 @@
       <c r="CE10" s="2"/>
       <c r="CF10" s="2"/>
     </row>
-    <row r="11" spans="1:187" ht="24">
+    <row r="11" spans="1:187" ht="36">
       <c r="A11" s="11" t="s">
         <v>718</v>
       </c>
@@ -5062,10 +5059,10 @@
       </c>
       <c r="K11" s="11"/>
       <c r="L11" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="M11" s="1" t="s">
-        <v>992</v>
+        <v>988</v>
       </c>
       <c r="N11" s="1">
         <v>1</v>
@@ -5120,7 +5117,7 @@
     </row>
     <row r="12" spans="1:187" ht="48">
       <c r="A12" s="11" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>31</v>
@@ -5230,13 +5227,13 @@
       </c>
       <c r="K13" s="12"/>
       <c r="L13" s="12" t="s">
-        <v>795</v>
+        <v>989</v>
       </c>
       <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="O13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P13" s="1">
         <v>1</v>
@@ -5252,27 +5249,27 @@
       </c>
       <c r="U13" s="1">
         <f t="shared" si="2"/>
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="V13" s="1">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" si="4"/>
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="X13" s="1">
         <f t="shared" si="5"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Y13" s="1">
         <f t="shared" si="6"/>
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="Z13" s="1">
         <f t="shared" si="7"/>
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BF13" s="1"/>
       <c r="BG13" s="1"/>
@@ -5283,9 +5280,9 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
     </row>
-    <row r="14" spans="1:187" ht="24">
+    <row r="14" spans="1:187" ht="36">
       <c r="A14" s="11" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>38</v>
@@ -5303,7 +5300,7 @@
         <v>41</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
@@ -5312,7 +5309,7 @@
       </c>
       <c r="K14" s="11"/>
       <c r="L14" s="11" t="s">
-        <v>845</v>
+        <v>991</v>
       </c>
       <c r="M14" s="13"/>
       <c r="N14" s="1">
@@ -5353,7 +5350,7 @@
     </row>
     <row r="15" spans="1:187" ht="36">
       <c r="A15" s="11" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>21</v>
@@ -5371,7 +5368,7 @@
         <v>41</v>
       </c>
       <c r="G15" s="11" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="H15" s="11"/>
       <c r="I15" s="11" t="s">
@@ -5381,10 +5378,10 @@
         <v>20</v>
       </c>
       <c r="K15" s="11" t="s">
-        <v>892</v>
+        <v>417</v>
       </c>
       <c r="L15" s="11" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="N15" s="1">
         <v>1</v>
@@ -5416,7 +5413,7 @@
     </row>
     <row r="16" spans="1:187" ht="24">
       <c r="A16" s="11" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>14</v>
@@ -5434,7 +5431,7 @@
         <v>18</v>
       </c>
       <c r="G16" s="11" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="H16" s="11"/>
       <c r="I16" s="11" t="s">
@@ -5443,7 +5440,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="11"/>
       <c r="L16" s="11" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="M16" s="17"/>
       <c r="N16" s="1">
@@ -5505,10 +5502,10 @@
       </c>
       <c r="K17" s="11"/>
       <c r="L17" s="11" t="s">
-        <v>952</v>
+        <v>949</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>951</v>
+        <v>948</v>
       </c>
       <c r="N17" s="1">
         <v>1</v>
@@ -5584,7 +5581,7 @@
         <v>26</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>968</v>
+        <v>965</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="11"/>
@@ -5592,10 +5589,10 @@
         <v>369</v>
       </c>
       <c r="L18" s="11" t="s">
-        <v>970</v>
+        <v>967</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>969</v>
+        <v>966</v>
       </c>
       <c r="N18" s="1">
         <v>1</v>
@@ -6333,7 +6330,7 @@
     </row>
     <row r="29" spans="1:84" ht="36">
       <c r="A29" s="12" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>21</v>
@@ -6351,7 +6348,7 @@
         <v>41</v>
       </c>
       <c r="G29" s="12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>151</v>
@@ -6362,7 +6359,7 @@
       </c>
       <c r="K29" s="12"/>
       <c r="L29" s="12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="M29" s="13"/>
       <c r="N29" s="1">
@@ -6403,7 +6400,7 @@
     </row>
     <row r="30" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A30" s="12" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>112</v>
@@ -6421,7 +6418,7 @@
         <v>18</v>
       </c>
       <c r="G30" s="12" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="H30" s="18" t="s">
         <v>155</v>
@@ -6429,10 +6426,10 @@
       <c r="I30" s="12"/>
       <c r="J30" s="12"/>
       <c r="K30" s="12" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="L30" s="12" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="M30" s="19"/>
       <c r="N30" s="1">
@@ -6465,7 +6462,7 @@
     </row>
     <row r="31" spans="1:84" ht="48">
       <c r="A31" s="12" t="s">
-        <v>953</v>
+        <v>950</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>21</v>
@@ -6492,10 +6489,10 @@
         <v>417</v>
       </c>
       <c r="L31" s="12" t="s">
-        <v>954</v>
+        <v>951</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>955</v>
+        <v>952</v>
       </c>
       <c r="N31" s="1">
         <v>1</v>
@@ -6579,10 +6576,10 @@
       </c>
       <c r="K32" s="12"/>
       <c r="L32" s="12" t="s">
-        <v>971</v>
+        <v>968</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>972</v>
+        <v>969</v>
       </c>
       <c r="N32" s="1">
         <v>1</v>
@@ -7473,7 +7470,7 @@
     </row>
     <row r="45" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A45" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>50</v>
@@ -7491,7 +7488,7 @@
         <v>41</v>
       </c>
       <c r="G45" s="11" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="H45" s="11" t="s">
         <v>388</v>
@@ -7504,7 +7501,7 @@
       </c>
       <c r="K45" s="14"/>
       <c r="L45" s="11" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="N45" s="1">
         <v>1</v>
@@ -7544,7 +7541,7 @@
     </row>
     <row r="46" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A46" s="11" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>14</v>
@@ -7562,14 +7559,14 @@
         <v>18</v>
       </c>
       <c r="G46" s="11" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
       <c r="J46" s="11"/>
       <c r="K46" s="11"/>
       <c r="L46" s="11" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="N46" s="1">
         <v>1</v>
@@ -7609,7 +7606,7 @@
     </row>
     <row r="47" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A47" s="11" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>38</v>
@@ -7627,10 +7624,10 @@
         <v>28</v>
       </c>
       <c r="G47" s="11" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="I47" s="11" t="s">
         <v>20</v>
@@ -7638,7 +7635,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="11"/>
       <c r="L47" s="11" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="M47" s="13"/>
       <c r="N47" s="1">
@@ -8215,7 +8212,7 @@
     </row>
     <row r="56" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A56" s="11" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>50</v>
@@ -8233,7 +8230,7 @@
         <v>18</v>
       </c>
       <c r="G56" s="11" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="H56" s="14"/>
       <c r="I56" s="14" t="s">
@@ -8244,7 +8241,7 @@
       </c>
       <c r="K56" s="11"/>
       <c r="L56" s="11" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="M56" s="15"/>
       <c r="N56" s="1">
@@ -11260,7 +11257,7 @@
     </row>
     <row r="103" spans="1:84" ht="54.75" customHeight="1">
       <c r="A103" s="12" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>45</v>
@@ -11278,7 +11275,7 @@
         <v>28</v>
       </c>
       <c r="G103" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="H103" s="12" t="s">
         <v>180</v>
@@ -11287,7 +11284,7 @@
       <c r="J103" s="12"/>
       <c r="K103" s="12"/>
       <c r="L103" s="12" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="U103" s="1">
         <f t="shared" si="8"/>
@@ -11324,7 +11321,7 @@
     </row>
     <row r="104" spans="1:84" ht="61.5" customHeight="1">
       <c r="A104" s="11" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>45</v>
@@ -11347,7 +11344,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="11"/>
       <c r="L104" s="11" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="U104" s="1">
         <f t="shared" si="8"/>
@@ -11384,7 +11381,7 @@
     </row>
     <row r="105" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A105" s="11" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>112</v>
@@ -11402,14 +11399,14 @@
         <v>18</v>
       </c>
       <c r="G105" s="11" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
       <c r="J105" s="11"/>
       <c r="K105" s="11"/>
       <c r="L105" s="11" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="U105" s="1">
         <f t="shared" si="8"/>
@@ -11446,7 +11443,7 @@
     </row>
     <row r="106" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A106" s="12" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>31</v>
@@ -11464,7 +11461,7 @@
         <v>18</v>
       </c>
       <c r="G106" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="H106" s="18"/>
       <c r="I106" s="12"/>
@@ -11473,7 +11470,7 @@
         <v>336</v>
       </c>
       <c r="L106" s="12" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="U106" s="1">
         <f t="shared" si="8"/>
@@ -11510,7 +11507,7 @@
     </row>
     <row r="107" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A107" s="11" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>14</v>
@@ -11535,7 +11532,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
       <c r="L107" s="11" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="U107" s="1">
         <f t="shared" si="8"/>
@@ -13271,10 +13268,10 @@
       <c r="J134" s="11"/>
       <c r="K134" s="11"/>
       <c r="L134" s="11" t="s">
-        <v>949</v>
+        <v>946</v>
       </c>
       <c r="M134" s="15" t="s">
-        <v>950</v>
+        <v>947</v>
       </c>
       <c r="U134" s="1">
         <f t="shared" si="14"/>
@@ -14150,7 +14147,7 @@
     </row>
     <row r="148" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A148" s="12" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>50</v>
@@ -14168,7 +14165,7 @@
         <v>28</v>
       </c>
       <c r="G148" s="12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H148" s="12" t="s">
         <v>60</v>
@@ -14177,7 +14174,7 @@
       <c r="J148" s="12"/>
       <c r="K148" s="12"/>
       <c r="L148" s="12" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="U148" s="1">
         <f t="shared" si="14"/>
@@ -14214,7 +14211,7 @@
     </row>
     <row r="149" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A149" s="11" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>38</v>
@@ -14232,14 +14229,14 @@
         <v>28</v>
       </c>
       <c r="G149" s="11" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="H149" s="11"/>
       <c r="I149" s="11"/>
       <c r="J149" s="11"/>
       <c r="K149" s="11"/>
       <c r="L149" s="11" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="U149" s="1">
         <f t="shared" si="14"/>
@@ -14276,7 +14273,7 @@
     </row>
     <row r="150" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A150" s="11" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>21</v>
@@ -14294,7 +14291,7 @@
         <v>18</v>
       </c>
       <c r="G150" s="11" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="H150" s="11"/>
       <c r="I150" s="11"/>
@@ -14303,7 +14300,7 @@
         <v>235</v>
       </c>
       <c r="L150" s="11" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M150" s="22"/>
       <c r="U150" s="1">
@@ -14341,7 +14338,7 @@
     </row>
     <row r="151" spans="1:84" ht="36">
       <c r="A151" s="11" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>21</v>
@@ -14359,10 +14356,10 @@
         <v>41</v>
       </c>
       <c r="G151" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="H151" s="11" t="s">
         <v>806</v>
-      </c>
-      <c r="H151" s="11" t="s">
-        <v>807</v>
       </c>
       <c r="I151" s="11" t="s">
         <v>20</v>
@@ -14374,7 +14371,7 @@
         <v>93</v>
       </c>
       <c r="L151" s="11" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U151" s="1">
         <f t="shared" si="14"/>
@@ -14411,7 +14408,7 @@
     </row>
     <row r="152" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A152" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>50</v>
@@ -14429,7 +14426,7 @@
         <v>28</v>
       </c>
       <c r="G152" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H152" s="11" t="s">
         <v>388</v>
@@ -14438,10 +14435,10 @@
       <c r="J152" s="14"/>
       <c r="K152" s="14"/>
       <c r="L152" s="11" t="s">
+        <v>834</v>
+      </c>
+      <c r="M152" s="1" t="s">
         <v>835</v>
-      </c>
-      <c r="M152" s="1" t="s">
-        <v>836</v>
       </c>
       <c r="U152" s="1">
         <f t="shared" si="14"/>
@@ -14478,7 +14475,7 @@
     </row>
     <row r="153" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A153" s="11" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>50</v>
@@ -14496,7 +14493,7 @@
         <v>41</v>
       </c>
       <c r="G153" s="11" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="H153" s="11" t="s">
         <v>501</v>
@@ -14504,10 +14501,10 @@
       <c r="I153" s="14"/>
       <c r="J153" s="14"/>
       <c r="K153" s="11" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="L153" s="11" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="M153" s="15"/>
       <c r="U153" s="1">
@@ -14545,7 +14542,7 @@
     </row>
     <row r="154" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A154" s="11" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>50</v>
@@ -14563,7 +14560,7 @@
         <v>41</v>
       </c>
       <c r="G154" s="11" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="H154" s="11" t="s">
         <v>56</v>
@@ -14572,7 +14569,7 @@
       <c r="J154" s="14"/>
       <c r="K154" s="14"/>
       <c r="L154" s="11" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="M154" s="15"/>
       <c r="U154" s="1">
@@ -14610,7 +14607,7 @@
     </row>
     <row r="155" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A155" s="12" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>14</v>
@@ -14628,7 +14625,7 @@
         <v>35</v>
       </c>
       <c r="G155" s="12" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
       <c r="H155" s="12" t="s">
         <v>388</v>
@@ -14637,7 +14634,7 @@
       <c r="J155" s="12"/>
       <c r="K155" s="12"/>
       <c r="L155" s="12" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="U155" s="1">
         <f t="shared" si="14"/>
@@ -14666,7 +14663,7 @@
     </row>
     <row r="156" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A156" s="1" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>31</v>
@@ -14684,7 +14681,7 @@
         <v>35</v>
       </c>
       <c r="G156" s="1" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="H156" s="1" t="s">
         <v>29</v>
@@ -14693,7 +14690,7 @@
         <v>278</v>
       </c>
       <c r="L156" s="1" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="U156" s="1">
         <f t="shared" si="14"/>
@@ -17185,7 +17182,7 @@
     </row>
     <row r="195" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A195" s="12" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>112</v>
@@ -17203,10 +17200,10 @@
         <v>41</v>
       </c>
       <c r="G195" s="12" t="s">
+        <v>812</v>
+      </c>
+      <c r="H195" s="12" t="s">
         <v>813</v>
-      </c>
-      <c r="H195" s="12" t="s">
-        <v>814</v>
       </c>
       <c r="I195" s="12"/>
       <c r="J195" s="12"/>
@@ -17214,7 +17211,7 @@
         <v>93</v>
       </c>
       <c r="L195" s="12" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="U195" s="1">
         <f t="shared" si="14"/>
@@ -17251,7 +17248,7 @@
     </row>
     <row r="196" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A196" s="11" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>31</v>
@@ -17269,17 +17266,17 @@
         <v>35</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
       <c r="J196" s="11"/>
       <c r="K196" s="11"/>
       <c r="L196" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="M196" s="15" t="s">
         <v>831</v>
-      </c>
-      <c r="M196" s="15" t="s">
-        <v>832</v>
       </c>
       <c r="U196" s="1">
         <f t="shared" ref="U196:U259" si="20">IF(AA$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AA$1-$D196),0)</f>
@@ -17316,7 +17313,7 @@
     </row>
     <row r="197" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A197" s="11" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>14</v>
@@ -17334,7 +17331,7 @@
         <v>41</v>
       </c>
       <c r="G197" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="H197" s="11" t="s">
         <v>501</v>
@@ -17342,10 +17339,10 @@
       <c r="I197" s="11"/>
       <c r="J197" s="11"/>
       <c r="K197" s="11" t="s">
+        <v>838</v>
+      </c>
+      <c r="L197" s="11" t="s">
         <v>839</v>
-      </c>
-      <c r="L197" s="11" t="s">
-        <v>840</v>
       </c>
       <c r="U197" s="1">
         <f t="shared" si="20"/>
@@ -17382,7 +17379,7 @@
     </row>
     <row r="198" spans="1:84" ht="52.5" customHeight="1">
       <c r="A198" s="11" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>112</v>
@@ -17400,7 +17397,7 @@
         <v>28</v>
       </c>
       <c r="G198" s="11" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="H198" s="11" t="s">
         <v>29</v>
@@ -17411,7 +17408,7 @@
         <v>299</v>
       </c>
       <c r="L198" s="11" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="U198" s="1">
         <f t="shared" si="20"/>
@@ -17448,7 +17445,7 @@
     </row>
     <row r="199" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A199" s="11" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>45</v>
@@ -17466,17 +17463,17 @@
         <v>18</v>
       </c>
       <c r="G199" s="11" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
       <c r="J199" s="11"/>
       <c r="K199" s="11"/>
       <c r="L199" s="11" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="M199" s="1" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="U199" s="1">
         <f t="shared" si="20"/>
@@ -17513,7 +17510,7 @@
     </row>
     <row r="200" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A200" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>38</v>
@@ -17531,16 +17528,16 @@
         <v>41</v>
       </c>
       <c r="G200" s="12" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="H200" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="I200" s="12"/>
       <c r="J200" s="12"/>
       <c r="K200" s="12"/>
       <c r="L200" s="12" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="M200" s="13"/>
       <c r="U200" s="1">
@@ -17578,7 +17575,7 @@
     </row>
     <row r="201" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A201" s="11" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>50</v>
@@ -17596,14 +17593,14 @@
         <v>41</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="H201" s="14"/>
       <c r="I201" s="14"/>
       <c r="J201" s="14"/>
       <c r="K201" s="14"/>
       <c r="L201" s="11" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="M201" s="15"/>
       <c r="U201" s="1">
@@ -17633,7 +17630,7 @@
     </row>
     <row r="202" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A202" s="11" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>31</v>
@@ -17651,14 +17648,14 @@
         <v>18</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="M202" s="15"/>
       <c r="U202" s="1">
@@ -17688,7 +17685,7 @@
     </row>
     <row r="203" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A203" s="12" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="B203" s="1" t="s">
         <v>50</v>
@@ -17706,7 +17703,7 @@
         <v>18</v>
       </c>
       <c r="G203" s="12" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="H203" s="16"/>
       <c r="I203" s="16"/>
@@ -17715,7 +17712,7 @@
         <v>102</v>
       </c>
       <c r="L203" s="12" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="U203" s="1">
         <f t="shared" si="20"/>
@@ -17744,7 +17741,7 @@
     </row>
     <row r="204" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A204" s="12" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="B204" s="1" t="s">
         <v>31</v>
@@ -17762,7 +17759,7 @@
         <v>18</v>
       </c>
       <c r="G204" s="12" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="H204" s="12"/>
       <c r="I204" s="12"/>
@@ -17771,7 +17768,7 @@
         <v>278</v>
       </c>
       <c r="L204" s="12" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="U204" s="1">
         <f t="shared" si="20"/>
@@ -19986,7 +19983,7 @@
     </row>
     <row r="239" spans="1:84" ht="48">
       <c r="A239" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>50</v>
@@ -20004,16 +20001,16 @@
         <v>35</v>
       </c>
       <c r="G239" s="11" t="s">
+        <v>816</v>
+      </c>
+      <c r="H239" s="11" t="s">
         <v>817</v>
-      </c>
-      <c r="H239" s="11" t="s">
-        <v>818</v>
       </c>
       <c r="I239" s="14"/>
       <c r="J239" s="14"/>
       <c r="K239" s="14"/>
       <c r="L239" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M239" s="15"/>
       <c r="U239" s="1">
@@ -20051,7 +20048,7 @@
     </row>
     <row r="240" spans="1:84" ht="78.400000000000006" customHeight="1">
       <c r="A240" s="12" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B240" s="1" t="s">
         <v>14</v>
@@ -20074,7 +20071,7 @@
       <c r="J240" s="12"/>
       <c r="K240" s="12"/>
       <c r="L240" s="12" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="U240" s="1">
         <f t="shared" si="20"/>
@@ -20111,7 +20108,7 @@
     </row>
     <row r="241" spans="1:84" ht="60">
       <c r="A241" s="11" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>45</v>
@@ -20130,7 +20127,7 @@
       </c>
       <c r="G241" s="11"/>
       <c r="H241" s="11" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="I241" s="11"/>
       <c r="J241" s="11"/>
@@ -20138,7 +20135,7 @@
         <v>220</v>
       </c>
       <c r="L241" s="11" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="U241" s="1">
         <f t="shared" si="20"/>
@@ -20175,7 +20172,7 @@
     </row>
     <row r="242" spans="1:84" ht="48">
       <c r="A242" s="11" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>31</v>
@@ -20193,7 +20190,7 @@
         <v>18</v>
       </c>
       <c r="G242" s="11" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="H242" s="11" t="s">
         <v>42</v>
@@ -20202,7 +20199,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="11"/>
       <c r="L242" s="11" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="U242" s="1">
         <f t="shared" si="20"/>
@@ -20231,7 +20228,7 @@
     </row>
     <row r="243" spans="1:84" ht="60">
       <c r="A243" s="11" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>21</v>
@@ -20249,10 +20246,10 @@
         <v>18</v>
       </c>
       <c r="G243" s="11" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="H243" s="11" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="I243" s="11"/>
       <c r="J243" s="11"/>
@@ -20260,7 +20257,7 @@
         <v>235</v>
       </c>
       <c r="L243" s="11" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="U243" s="1">
         <f t="shared" si="20"/>
@@ -21315,7 +21312,7 @@
     </row>
     <row r="260" spans="1:84" ht="48">
       <c r="A260" s="11" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>31</v>
@@ -21333,7 +21330,7 @@
         <v>35</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="H260" s="11" t="s">
         <v>69</v>
@@ -21342,7 +21339,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
       <c r="L260" s="11" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="U260" s="1">
         <f t="shared" ref="U260:U273" si="26">IF(AA$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AA$1-$D260),0)</f>
@@ -21379,7 +21376,7 @@
     </row>
     <row r="261" spans="1:84" ht="36">
       <c r="A261" s="11" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>31</v>
@@ -21397,14 +21394,14 @@
         <v>18</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="H261" s="11"/>
       <c r="I261" s="11"/>
       <c r="J261" s="11"/>
       <c r="K261" s="11"/>
       <c r="L261" s="11" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="M261" s="15"/>
       <c r="U261" s="1">
@@ -21442,7 +21439,7 @@
     </row>
     <row r="262" spans="1:84" ht="216">
       <c r="A262" s="1" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>31</v>
@@ -21460,13 +21457,13 @@
         <v>18</v>
       </c>
       <c r="G262" s="1" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="K262" s="1" t="s">
         <v>278</v>
       </c>
       <c r="L262" s="1" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="U262" s="1">
         <f t="shared" si="26"/>
@@ -21503,7 +21500,7 @@
     </row>
     <row r="263" spans="1:84" ht="60">
       <c r="A263" s="1" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>112</v>
@@ -21521,16 +21518,16 @@
         <v>41</v>
       </c>
       <c r="G263" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="H263" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="K263" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="L263" s="1" t="s">
         <v>895</v>
-      </c>
-      <c r="H263" s="1" t="s">
-        <v>896</v>
-      </c>
-      <c r="K263" s="1" t="s">
-        <v>897</v>
-      </c>
-      <c r="L263" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="U263" s="1">
         <f t="shared" si="26"/>
@@ -21559,7 +21556,7 @@
     </row>
     <row r="264" spans="1:84" ht="36">
       <c r="A264" s="11" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>50</v>
@@ -21577,14 +21574,14 @@
         <v>35</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="H264" s="14"/>
       <c r="I264" s="14"/>
       <c r="J264" s="14"/>
       <c r="K264" s="14"/>
       <c r="L264" s="11" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="M264" s="15"/>
       <c r="U264" s="1">
@@ -21614,7 +21611,7 @@
     </row>
     <row r="265" spans="1:84" ht="36">
       <c r="A265" s="11" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>45</v>
@@ -21632,7 +21629,7 @@
         <v>35</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="H265" s="11" t="s">
         <v>42</v>
@@ -21641,7 +21638,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="11"/>
       <c r="L265" s="11" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="U265" s="1">
         <f t="shared" si="26"/>
@@ -21670,7 +21667,7 @@
     </row>
     <row r="266" spans="1:84" ht="24">
       <c r="A266" s="11" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>38</v>
@@ -21688,14 +21685,14 @@
         <v>18</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="H266" s="11"/>
       <c r="I266" s="11"/>
       <c r="J266" s="11"/>
       <c r="K266" s="11"/>
       <c r="L266" s="11" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="U266" s="1">
         <f t="shared" si="26"/>
@@ -21724,7 +21721,7 @@
     </row>
     <row r="267" spans="1:84" ht="36">
       <c r="A267" s="11" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>14</v>
@@ -21742,14 +21739,14 @@
         <v>18</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="H267" s="11"/>
       <c r="I267" s="11"/>
       <c r="J267" s="11"/>
       <c r="K267" s="11"/>
       <c r="L267" s="11" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="26"/>
@@ -22082,7 +22079,7 @@
     </row>
     <row r="273" spans="1:84" ht="168">
       <c r="A273" s="1" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>31</v>
@@ -22100,13 +22097,13 @@
         <v>35</v>
       </c>
       <c r="G273" s="1" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="K273" s="1" t="s">
         <v>235</v>
       </c>
       <c r="L273" s="1" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="U273" s="1">
         <f t="shared" si="26"/>
@@ -22148,25 +22145,25 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
+    <mergeCell ref="DB1:DU1"/>
+    <mergeCell ref="DW1:EP1"/>
+    <mergeCell ref="ER1:FK1"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="CE1:CE2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="CE1:CE2"/>
-    <mergeCell ref="DB1:DU1"/>
-    <mergeCell ref="DW1:EP1"/>
-    <mergeCell ref="ER1:FK1"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2349" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2355" uniqueCount="1037">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -3351,6 +3351,14 @@
   <si>
     <t xml:space="preserve">If the spell makes contact with the target, kills them instantly. 
 When encountering shields and other protective barriers, deals 10d10 damage to them. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacrifice\apos{}s Shield</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You allow the next strike made against you to kill you, and banish your soul to the Eldritch domains. In return, your sacrifice and love fuels a charm so powerful it cannot be resisted or overcome by force alone. 
+You may nominate an individual sapient being. That individual cannot be harmed by the being which killed you. Any attempt by your killer to harm your nominated individual simply reflects the charm back upon you. 
+This spell does not need a casting check to cast. </t>
   </si>
 </sst>
 </file>
@@ -3722,14 +3730,14 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:FK278"/>
+  <dimension ref="A1:FK279"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E273" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A273" activeCellId="0" sqref="A273"/>
-      <selection pane="bottomRight" activeCell="L281" activeCellId="0" sqref="L281"/>
+      <selection pane="bottomRight" activeCell="L279" activeCellId="0" sqref="L279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22821,6 +22829,29 @@
         <v>0</v>
       </c>
     </row>
+    <row r="279" customFormat="false" ht="94.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A279" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C279" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D279" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E279" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F279" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="L279" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:EP292"/>
   <mergeCells count="19">

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{019503A6-5FCF-4B98-A45A-0A094DE731C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97881D53-35AE-44D6-9AD0-553A1CBF42FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <definedName name="_FilterDatabase_0" localSheetId="0">Sheet1!$A$2:$EP$2</definedName>
     <definedName name="corp" localSheetId="0">Sheet1!$A$2:$N$215</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2363" uniqueCount="1041">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2373" uniqueCount="1044">
   <si>
     <t>Name</t>
   </si>
@@ -3382,6 +3382,15 @@
   </si>
   <si>
     <t>\additional{2d6}{Bludgeoning}</t>
+  </si>
+  <si>
+    <t>Prank</t>
+  </si>
+  <si>
+    <t>riddikulus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summon a funny hat onto an individual, or conjure a note with a funny message and stick it to their back. You conjure something to change the appearance of your target with the express intention of making them look as stupid as possible. </t>
   </si>
 </sst>
 </file>
@@ -3592,13 +3601,13 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3983,13 +3992,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK280"/>
+  <dimension ref="A1:AMK281"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E138" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E279" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
-      <selection pane="bottomRight" activeCell="L145" sqref="L145"/>
+      <selection pane="bottomRight" activeCell="K282" sqref="K282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4027,46 +4036,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -4168,8 +4177,8 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
-      <c r="CC1" s="24"/>
-      <c r="CE1" s="23"/>
+      <c r="CC1" s="25"/>
+      <c r="CE1" s="24"/>
       <c r="CF1" s="7"/>
       <c r="CG1" s="8"/>
       <c r="CH1" s="8"/>
@@ -4191,82 +4200,82 @@
       <c r="CX1" s="8"/>
       <c r="CY1" s="8"/>
       <c r="CZ1" s="9"/>
-      <c r="DB1" s="24"/>
-      <c r="DC1" s="24"/>
-      <c r="DD1" s="24"/>
-      <c r="DE1" s="24"/>
-      <c r="DF1" s="24"/>
-      <c r="DG1" s="24"/>
-      <c r="DH1" s="24"/>
-      <c r="DI1" s="24"/>
-      <c r="DJ1" s="24"/>
-      <c r="DK1" s="24"/>
-      <c r="DL1" s="24"/>
-      <c r="DM1" s="24"/>
-      <c r="DN1" s="24"/>
-      <c r="DO1" s="24"/>
-      <c r="DP1" s="24"/>
-      <c r="DQ1" s="24"/>
-      <c r="DR1" s="24"/>
-      <c r="DS1" s="24"/>
-      <c r="DT1" s="24"/>
-      <c r="DU1" s="24"/>
-      <c r="DW1" s="24"/>
-      <c r="DX1" s="24"/>
-      <c r="DY1" s="24"/>
-      <c r="DZ1" s="24"/>
-      <c r="EA1" s="24"/>
-      <c r="EB1" s="24"/>
-      <c r="EC1" s="24"/>
-      <c r="ED1" s="24"/>
-      <c r="EE1" s="24"/>
-      <c r="EF1" s="24"/>
-      <c r="EG1" s="24"/>
-      <c r="EH1" s="24"/>
-      <c r="EI1" s="24"/>
-      <c r="EJ1" s="24"/>
-      <c r="EK1" s="24"/>
-      <c r="EL1" s="24"/>
-      <c r="EM1" s="24"/>
-      <c r="EN1" s="24"/>
-      <c r="EO1" s="24"/>
-      <c r="EP1" s="24"/>
-      <c r="ER1" s="24"/>
-      <c r="ES1" s="24"/>
-      <c r="ET1" s="24"/>
-      <c r="EU1" s="24"/>
-      <c r="EV1" s="24"/>
-      <c r="EW1" s="24"/>
-      <c r="EX1" s="24"/>
-      <c r="EY1" s="24"/>
-      <c r="EZ1" s="24"/>
-      <c r="FA1" s="24"/>
-      <c r="FB1" s="24"/>
-      <c r="FC1" s="24"/>
-      <c r="FD1" s="24"/>
-      <c r="FE1" s="24"/>
-      <c r="FF1" s="24"/>
-      <c r="FG1" s="24"/>
-      <c r="FH1" s="24"/>
-      <c r="FI1" s="24"/>
-      <c r="FJ1" s="24"/>
-      <c r="FK1" s="24"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="25"/>
+      <c r="DS1" s="25"/>
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25"/>
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25"/>
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25"/>
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25"/>
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="25"/>
+      <c r="EP1" s="25"/>
+      <c r="ER1" s="25"/>
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25"/>
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25"/>
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="25"/>
+      <c r="EY1" s="25"/>
+      <c r="EZ1" s="25"/>
+      <c r="FA1" s="25"/>
+      <c r="FB1" s="25"/>
+      <c r="FC1" s="25"/>
+      <c r="FD1" s="25"/>
+      <c r="FE1" s="25"/>
+      <c r="FF1" s="25"/>
+      <c r="FG1" s="25"/>
+      <c r="FH1" s="25"/>
+      <c r="FI1" s="25"/>
+      <c r="FJ1" s="25"/>
+      <c r="FK1" s="25"/>
     </row>
     <row r="2" spans="1:167" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
@@ -4361,9 +4370,9 @@
       <c r="BZ2" s="10"/>
       <c r="CA2" s="10"/>
       <c r="CB2" s="10"/>
-      <c r="CC2" s="24"/>
+      <c r="CC2" s="25"/>
       <c r="CD2" s="10"/>
-      <c r="CE2" s="23"/>
+      <c r="CE2" s="24"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
@@ -4419,27 +4428,27 @@
       </c>
       <c r="M3" s="12"/>
       <c r="U3" s="1">
-        <f>IF(AA$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AA$1-$D3),0)</f>
+        <f t="shared" ref="U3:U34" si="1">IF(AA$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AA$1-$D3),0)</f>
         <v>0</v>
       </c>
       <c r="V3" s="1">
-        <f>IF(AB$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AB$1-$D3),0)</f>
+        <f t="shared" ref="V3:V34" si="2">IF(AB$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AB$1-$D3),0)</f>
         <v>0</v>
       </c>
       <c r="W3" s="1">
-        <f>IF(AC$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AC$1-$D3),0)</f>
+        <f t="shared" ref="W3:W34" si="3">IF(AC$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AC$1-$D3),0)</f>
         <v>0</v>
       </c>
       <c r="X3" s="1">
-        <f>IF(AD$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AD$1-$D3),0)</f>
+        <f t="shared" ref="X3:X34" si="4">IF(AD$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AD$1-$D3),0)</f>
         <v>0</v>
       </c>
       <c r="Y3" s="1">
-        <f>IF(AE$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AE$1-$D3),0)</f>
+        <f t="shared" ref="Y3:Y34" si="5">IF(AE$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AE$1-$D3),0)</f>
         <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <f>IF(AF$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AF$1-$D3),0)</f>
+        <f t="shared" ref="Z3:Z34" si="6">IF(AF$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AF$1-$D3),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -4480,27 +4489,27 @@
         <v>905</v>
       </c>
       <c r="U4" s="1">
-        <f>IF(AA$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AA$1-$D4),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V4" s="1">
-        <f>IF(AB$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AB$1-$D4),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W4" s="1">
-        <f>IF(AC$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AC$1-$D4),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X4" s="1">
-        <f>IF(AD$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AD$1-$D4),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y4" s="1">
-        <f>IF(AE$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AE$1-$D4),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <f>IF(AF$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AF$1-$D4),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF4" s="1"/>
@@ -4545,27 +4554,27 @@
         <v>909</v>
       </c>
       <c r="U5" s="1">
-        <f>IF(AA$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AA$1-$D5),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f>IF(AB$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AB$1-$D5),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W5" s="1">
-        <f>IF(AC$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AC$1-$D5),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <f>IF(AD$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AD$1-$D5),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y5" s="1">
-        <f>IF(AE$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AE$1-$D5),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <f>IF(AF$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AF$1-$D5),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF5" s="1"/>
@@ -4612,27 +4621,27 @@
       </c>
       <c r="M6" s="12"/>
       <c r="U6" s="1">
-        <f>IF(AA$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AA$1-$D6),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f>IF(AB$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AB$1-$D6),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <f>IF(AC$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AC$1-$D6),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f>IF(AD$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AD$1-$D6),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f>IF(AE$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AE$1-$D6),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <f>IF(AF$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AF$1-$D6),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF6" s="1"/>
@@ -4677,27 +4686,27 @@
       </c>
       <c r="M7" s="12"/>
       <c r="U7" s="1">
-        <f>IF(AA$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AA$1-$D7),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f>IF(AB$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AB$1-$D7),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f>IF(AC$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AC$1-$D7),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <f>IF(AD$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AD$1-$D7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f>IF(AE$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AE$1-$D7),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <f>IF(AF$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AF$1-$D7),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF7" s="1"/>
@@ -4740,27 +4749,27 @@
       </c>
       <c r="M8" s="12"/>
       <c r="U8" s="1">
-        <f>IF(AA$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AA$1-$D8),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>IF(AB$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AB$1-$D8),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f>IF(AC$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AC$1-$D8),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <f>IF(AD$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AD$1-$D8),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f>IF(AE$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AE$1-$D8),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <f>IF(AF$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AF$1-$D8),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF8" s="1"/>
@@ -4807,27 +4816,27 @@
         <v>946</v>
       </c>
       <c r="U9" s="1">
-        <f>IF(AA$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AA$1-$D9),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V9" s="1">
-        <f>IF(AB$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AB$1-$D9),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W9" s="1">
-        <f>IF(AC$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AC$1-$D9),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X9" s="1">
-        <f>IF(AD$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AD$1-$D9),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y9" s="1">
-        <f>IF(AE$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AE$1-$D9),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <f>IF(AF$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AF$1-$D9),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF9" s="1"/>
@@ -4869,27 +4878,27 @@
         <v>1025</v>
       </c>
       <c r="U10" s="1">
-        <f>IF(AA$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AA$1-$D10),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f>IF(AB$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AB$1-$D10),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f>IF(AC$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AC$1-$D10),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f>IF(AD$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AD$1-$D10),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f>IF(AE$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AE$1-$D10),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <f>IF(AF$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AF$1-$D10),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
@@ -4926,27 +4935,27 @@
       </c>
       <c r="M11" s="12"/>
       <c r="U11" s="1">
-        <f>IF(AA$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AA$1-$D11),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>IF(AB$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AB$1-$D11),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W11" s="1">
-        <f>IF(AC$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AC$1-$D11),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X11" s="1">
-        <f>IF(AD$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AD$1-$D11),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y11" s="1">
-        <f>IF(AE$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AE$1-$D11),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <f>IF(AF$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AF$1-$D11),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF11" s="1"/>
@@ -4991,27 +5000,27 @@
       </c>
       <c r="M12" s="12"/>
       <c r="U12" s="1">
-        <f>IF(AA$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AA$1-$D12),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>IF(AB$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AB$1-$D12),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f>IF(AC$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AC$1-$D12),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f>IF(AD$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AD$1-$D12),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f>IF(AE$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AE$1-$D12),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f>IF(AF$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AF$1-$D12),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF12" s="1"/>
@@ -5054,27 +5063,27 @@
       </c>
       <c r="M13" s="12"/>
       <c r="U13" s="1">
-        <f>IF(AA$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AA$1-$D13),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f>IF(AB$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AB$1-$D13),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f>IF(AC$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AC$1-$D13),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <f>IF(AD$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AD$1-$D13),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f>IF(AE$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AE$1-$D13),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <f>IF(AF$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AF$1-$D13),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF13" s="1"/>
@@ -5118,27 +5127,27 @@
         <v>898</v>
       </c>
       <c r="U14" s="1">
-        <f>IF(AA$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AA$1-$D14),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>IF(AB$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AB$1-$D14),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f>IF(AC$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AC$1-$D14),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f>IF(AD$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AD$1-$D14),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f>IF(AE$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AE$1-$D14),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <f>IF(AF$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AF$1-$D14),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF14" s="1"/>
@@ -5183,27 +5192,27 @@
       </c>
       <c r="M15" s="12"/>
       <c r="U15" s="1">
-        <f>IF(AA$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AA$1-$D15),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>IF(AB$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AB$1-$D15),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f>IF(AC$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AC$1-$D15),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f>IF(AD$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AD$1-$D15),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f>IF(AE$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AE$1-$D15),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <f>IF(AF$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AF$1-$D15),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF15" s="1"/>
@@ -5253,27 +5262,27 @@
         <v>920</v>
       </c>
       <c r="U16" s="1">
-        <f>IF(AA$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AA$1-$D16),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>IF(AB$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AB$1-$D16),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f>IF(AC$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AC$1-$D16),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X16" s="1">
-        <f>IF(AD$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AD$1-$D16),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y16" s="1">
-        <f>IF(AE$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AE$1-$D16),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <f>IF(AF$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AF$1-$D16),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF16" s="1"/>
@@ -5318,27 +5327,27 @@
       </c>
       <c r="M17" s="12"/>
       <c r="U17" s="1">
-        <f>IF(AA$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AA$1-$D17),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>IF(AB$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AB$1-$D17),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f>IF(AC$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AC$1-$D17),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X17" s="1">
-        <f>IF(AD$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AD$1-$D17),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y17" s="1">
-        <f>IF(AE$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AE$1-$D17),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <f>IF(AF$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AF$1-$D17),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF17" s="1"/>
@@ -5383,27 +5392,27 @@
       </c>
       <c r="M18" s="12"/>
       <c r="U18" s="1">
-        <f>IF(AA$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AA$1-$D18),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f>IF(AB$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AB$1-$D18),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f>IF(AC$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AC$1-$D18),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <f>IF(AD$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AD$1-$D18),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <f>IF(AE$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AE$1-$D18),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <f>IF(AF$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AF$1-$D18),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF18" s="1"/>
@@ -5446,27 +5455,27 @@
       </c>
       <c r="M19" s="12"/>
       <c r="U19" s="1">
-        <f>IF(AA$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AA$1-$D19),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f>IF(AB$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AB$1-$D19),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f>IF(AC$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AC$1-$D19),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <f>IF(AD$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AD$1-$D19),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <f>IF(AE$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AE$1-$D19),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f>IF(AF$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AF$1-$D19),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF19" s="1"/>
@@ -5507,27 +5516,27 @@
       </c>
       <c r="M20" s="12"/>
       <c r="U20" s="1">
-        <f>IF(AA$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AA$1-$D20),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f>IF(AB$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AB$1-$D20),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f>IF(AC$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AC$1-$D20),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X20" s="1">
-        <f>IF(AD$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AD$1-$D20),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y20" s="1">
-        <f>IF(AE$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AE$1-$D20),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <f>IF(AF$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AF$1-$D20),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF20" s="1"/>
@@ -5569,27 +5578,27 @@
         <v>901</v>
       </c>
       <c r="U21" s="1">
-        <f>IF(AA$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AA$1-$D21),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f>IF(AB$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AB$1-$D21),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f>IF(AC$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AC$1-$D21),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X21" s="1">
-        <f>IF(AD$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AD$1-$D21),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y21" s="1">
-        <f>IF(AE$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AE$1-$D21),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <f>IF(AF$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AF$1-$D21),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF21" s="1"/>
@@ -5636,27 +5645,27 @@
         <v>916</v>
       </c>
       <c r="U22" s="1">
-        <f>IF(AA$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AA$1-$D22),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f>IF(AB$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AB$1-$D22),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f>IF(AC$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AC$1-$D22),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <f>IF(AD$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AD$1-$D22),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f>IF(AE$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AE$1-$D22),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <f>IF(AF$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AF$1-$D22),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF22" s="1"/>
@@ -5697,27 +5706,27 @@
       </c>
       <c r="M23" s="12"/>
       <c r="U23" s="1">
-        <f>IF(AA$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AA$1-$D23),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f>IF(AB$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AB$1-$D23),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f>IF(AC$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AC$1-$D23),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <f>IF(AD$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AD$1-$D23),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f>IF(AE$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AE$1-$D23),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <f>IF(AF$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AF$1-$D23),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF23" s="1"/>
@@ -5762,27 +5771,27 @@
       </c>
       <c r="M24" s="12"/>
       <c r="U24" s="1">
-        <f>IF(AA$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AA$1-$D24),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <f>IF(AB$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AB$1-$D24),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f>IF(AC$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AC$1-$D24),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <f>IF(AD$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AD$1-$D24),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y24" s="1">
-        <f>IF(AE$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AE$1-$D24),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <f>IF(AF$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AF$1-$D24),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF24" s="1"/>
@@ -5829,27 +5838,27 @@
         <v>953</v>
       </c>
       <c r="U25" s="1">
-        <f>IF(AA$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AA$1-$D25),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f>IF(AB$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AB$1-$D25),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f>IF(AC$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AC$1-$D25),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <f>IF(AD$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AD$1-$D25),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <f>IF(AE$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AE$1-$D25),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <f>IF(AF$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AF$1-$D25),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF25" s="1"/>
@@ -5893,27 +5902,27 @@
         <v>503</v>
       </c>
       <c r="U26" s="1">
-        <f>IF(AA$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AA$1-$D26),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f>IF(AB$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AB$1-$D26),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f>IF(AC$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AC$1-$D26),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f>IF(AD$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AD$1-$D26),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f>IF(AE$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AE$1-$D26),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <f>IF(AF$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AF$1-$D26),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF26" s="1"/>
@@ -5957,27 +5966,27 @@
         <v>510</v>
       </c>
       <c r="U27" s="1">
-        <f>IF(AA$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AA$1-$D27),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f>IF(AB$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AB$1-$D27),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <f>IF(AC$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AC$1-$D27),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <f>IF(AD$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AD$1-$D27),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f>IF(AE$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AE$1-$D27),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <f>IF(AF$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AF$1-$D27),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF27" s="1"/>
@@ -6019,27 +6028,27 @@
         <v>1026</v>
       </c>
       <c r="U28" s="1">
-        <f>IF(AA$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AA$1-$D28),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <f>IF(AB$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AB$1-$D28),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <f>IF(AC$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AC$1-$D28),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <f>IF(AD$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AD$1-$D28),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <f>IF(AE$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AE$1-$D28),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <f>IF(AF$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AF$1-$D28),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF28" s="1"/>
@@ -6083,27 +6092,27 @@
         <v>523</v>
       </c>
       <c r="U29" s="1">
-        <f>IF(AA$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AA$1-$D29),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <f>IF(AB$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AB$1-$D29),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <f>IF(AC$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AC$1-$D29),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <f>IF(AD$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AD$1-$D29),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <f>IF(AE$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AE$1-$D29),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f>IF(AF$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AF$1-$D29),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF29" s="1"/>
@@ -6150,27 +6159,27 @@
       </c>
       <c r="M30" s="17"/>
       <c r="U30" s="1">
-        <f>IF(AA$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AA$1-$D30),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <f>IF(AB$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AB$1-$D30),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <f>IF(AC$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AC$1-$D30),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <f>IF(AD$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AD$1-$D30),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <f>IF(AE$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AE$1-$D30),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <f>IF(AF$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AF$1-$D30),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF30" s="1"/>
@@ -6215,27 +6224,27 @@
       </c>
       <c r="M31" s="17"/>
       <c r="U31" s="1">
-        <f>IF(AA$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AA$1-$D31),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f>IF(AB$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AB$1-$D31),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f>IF(AC$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AC$1-$D31),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X31" s="1">
-        <f>IF(AD$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AD$1-$D31),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <f>IF(AE$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AE$1-$D31),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <f>IF(AF$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AF$1-$D31),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF31" s="1"/>
@@ -6281,27 +6290,27 @@
         <v>514</v>
       </c>
       <c r="U32" s="1">
-        <f>IF(AA$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AA$1-$D32),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f>IF(AB$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AB$1-$D32),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <f>IF(AC$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AC$1-$D32),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <f>IF(AD$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AD$1-$D32),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <f>IF(AE$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AE$1-$D32),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <f>IF(AF$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AF$1-$D32),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF32" s="1"/>
@@ -6343,27 +6352,27 @@
         <v>519</v>
       </c>
       <c r="U33" s="1">
-        <f>IF(AA$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AA$1-$D33),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <f>IF(AB$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AB$1-$D33),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <f>IF(AC$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AC$1-$D33),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <f>IF(AD$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AD$1-$D33),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <f>IF(AE$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AE$1-$D33),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f>IF(AF$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AF$1-$D33),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF33" s="1"/>
@@ -6409,27 +6418,27 @@
         <v>538</v>
       </c>
       <c r="U34" s="1">
-        <f>IF(AA$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AA$1-$D34),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f>IF(AB$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AB$1-$D34),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <f>IF(AC$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AC$1-$D34),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <f>IF(AD$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AD$1-$D34),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <f>IF(AE$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AE$1-$D34),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f>IF(AF$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AF$1-$D34),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF34" s="1"/>
@@ -6475,27 +6484,27 @@
         <v>541</v>
       </c>
       <c r="U35" s="1">
-        <f>IF(AA$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AA$1-$D35),0)</f>
+        <f t="shared" ref="U35:U66" si="7">IF(AA$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AA$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <f>IF(AB$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AB$1-$D35),0)</f>
+        <f t="shared" ref="V35:V66" si="8">IF(AB$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AB$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <f>IF(AC$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AC$1-$D35),0)</f>
+        <f t="shared" ref="W35:W66" si="9">IF(AC$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AC$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <f>IF(AD$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AD$1-$D35),0)</f>
+        <f t="shared" ref="X35:X66" si="10">IF(AD$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AD$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <f>IF(AE$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AE$1-$D35),0)</f>
+        <f t="shared" ref="Y35:Y66" si="11">IF(AE$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AE$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <f>IF(AF$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AF$1-$D35),0)</f>
+        <f t="shared" ref="Z35:Z66" si="12">IF(AF$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AF$1-$D35),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -6531,27 +6540,27 @@
         <v>545</v>
       </c>
       <c r="U36" s="1">
-        <f>IF(AA$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AA$1-$D36),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f>IF(AB$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AB$1-$D36),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <f>IF(AC$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AC$1-$D36),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <f>IF(AD$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AD$1-$D36),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <f>IF(AE$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AE$1-$D36),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <f>IF(AF$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AF$1-$D36),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6589,27 +6598,27 @@
         <v>549</v>
       </c>
       <c r="U37" s="1">
-        <f>IF(AA$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AA$1-$D37),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f>IF(AB$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AB$1-$D37),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <f>IF(AC$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AC$1-$D37),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <f>IF(AD$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AD$1-$D37),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <f>IF(AE$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AE$1-$D37),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <f>IF(AF$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AF$1-$D37),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF37" s="1"/>
@@ -6653,27 +6662,27 @@
         <v>507</v>
       </c>
       <c r="U38" s="1">
-        <f>IF(AA$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AA$1-$D38),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f>IF(AB$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AB$1-$D38),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f>IF(AC$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AC$1-$D38),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <f>IF(AD$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AD$1-$D38),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f>IF(AE$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AE$1-$D38),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <f>IF(AF$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AF$1-$D38),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF38" s="1"/>
@@ -6719,27 +6728,27 @@
         <v>529</v>
       </c>
       <c r="U39" s="1">
-        <f>IF(AA$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AA$1-$D39),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f>IF(AB$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AB$1-$D39),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f>IF(AC$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AC$1-$D39),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <f>IF(AD$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AD$1-$D39),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f>IF(AE$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AE$1-$D39),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <f>IF(AF$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AF$1-$D39),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF39" s="1"/>
@@ -6785,27 +6794,27 @@
         <v>533</v>
       </c>
       <c r="U40" s="1">
-        <f>IF(AA$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AA$1-$D40),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f>IF(AB$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AB$1-$D40),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f>IF(AC$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AC$1-$D40),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <f>IF(AD$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AD$1-$D40),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f>IF(AE$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AE$1-$D40),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <f>IF(AF$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AF$1-$D40),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF40" s="1"/>
@@ -6852,27 +6861,27 @@
       </c>
       <c r="M41" s="12"/>
       <c r="U41" s="1">
-        <f>IF(AA$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AA$1-$D41),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f>IF(AB$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AB$1-$D41),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f>IF(AC$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AC$1-$D41),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <f>IF(AD$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AD$1-$D41),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f>IF(AE$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AE$1-$D41),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f>IF(AF$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AF$1-$D41),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF41" s="1"/>
@@ -6917,27 +6926,27 @@
       </c>
       <c r="M42" s="12"/>
       <c r="U42" s="1">
-        <f>IF(AA$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AA$1-$D42),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f>IF(AB$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AB$1-$D42),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f>IF(AC$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AC$1-$D42),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <f>IF(AD$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AD$1-$D42),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f>IF(AE$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AE$1-$D42),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <f>IF(AF$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AF$1-$D42),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF42" s="1"/>
@@ -6984,27 +6993,27 @@
         <v>982</v>
       </c>
       <c r="U43" s="1">
-        <f>IF(AA$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AA$1-$D43),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f>IF(AB$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AB$1-$D43),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f>IF(AC$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AC$1-$D43),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <f>IF(AD$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AD$1-$D43),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f>IF(AE$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AE$1-$D43),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <f>IF(AF$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AF$1-$D43),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF43" s="1"/>
@@ -7051,27 +7060,27 @@
         <v>996</v>
       </c>
       <c r="U44" s="1">
-        <f>IF(AA$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AA$1-$D44),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f>IF(AB$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AB$1-$D44),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f>IF(AC$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AC$1-$D44),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <f>IF(AD$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AD$1-$D44),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f>IF(AE$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AE$1-$D44),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <f>IF(AF$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AF$1-$D44),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF44" s="1"/>
@@ -7118,27 +7127,27 @@
         <v>1004</v>
       </c>
       <c r="U45" s="1">
-        <f>IF(AA$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AA$1-$D45),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f>IF(AB$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AB$1-$D45),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f>IF(AC$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AC$1-$D45),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <f>IF(AD$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AD$1-$D45),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <f>IF(AE$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AE$1-$D45),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <f>IF(AF$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AF$1-$D45),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF45" s="1"/>
@@ -7183,27 +7192,27 @@
       </c>
       <c r="M46" s="12"/>
       <c r="U46" s="1">
-        <f>IF(AA$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AA$1-$D46),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f>IF(AB$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AB$1-$D46),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f>IF(AC$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AC$1-$D46),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X46" s="1">
-        <f>IF(AD$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AD$1-$D46),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f>IF(AE$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AE$1-$D46),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <f>IF(AF$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AF$1-$D46),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF46" s="1"/>
@@ -7270,27 +7279,27 @@
         <v>4</v>
       </c>
       <c r="U47" s="1">
-        <f>IF(AA$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AA$1-$D47),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f>IF(AB$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AB$1-$D47),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f>IF(AC$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AC$1-$D47),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X47" s="1">
-        <f>IF(AD$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AD$1-$D47),0)</f>
+        <f t="shared" si="10"/>
         <v>25</v>
       </c>
       <c r="Y47" s="1">
-        <f>IF(AE$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AE$1-$D47),0)</f>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="Z47" s="1">
-        <f>IF(AF$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AF$1-$D47),0)</f>
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
       <c r="BF47" s="1"/>
@@ -7337,27 +7346,27 @@
       </c>
       <c r="M48" s="12"/>
       <c r="U48" s="1">
-        <f>IF(AA$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AA$1-$D48),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V48" s="1">
-        <f>IF(AB$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AB$1-$D48),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W48" s="1">
-        <f>IF(AC$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AC$1-$D48),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <f>IF(AD$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AD$1-$D48),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <f>IF(AE$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AE$1-$D48),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <f>IF(AF$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AF$1-$D48),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7394,27 +7403,27 @@
       </c>
       <c r="M49" s="12"/>
       <c r="U49" s="1">
-        <f>IF(AA$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AA$1-$D49),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V49" s="1">
-        <f>IF(AB$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AB$1-$D49),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <f>IF(AC$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AC$1-$D49),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X49" s="1">
-        <f>IF(AD$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AD$1-$D49),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <f>IF(AE$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AE$1-$D49),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <f>IF(AF$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AF$1-$D49),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7473,27 +7482,27 @@
         <v>4</v>
       </c>
       <c r="U50" s="1">
-        <f>IF(AA$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AA$1-$D50),0)</f>
+        <f t="shared" si="7"/>
         <v>5</v>
       </c>
       <c r="V50" s="1">
-        <f>IF(AB$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AB$1-$D50),0)</f>
+        <f t="shared" si="8"/>
         <v>10</v>
       </c>
       <c r="W50" s="1">
-        <f>IF(AC$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AC$1-$D50),0)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="X50" s="1">
-        <f>IF(AD$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AD$1-$D50),0)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="Y50" s="1">
-        <f>IF(AE$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AE$1-$D50),0)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="Z50" s="1">
-        <f>IF(AF$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AF$1-$D50),0)</f>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="BF50" s="1"/>
@@ -7540,27 +7549,27 @@
       </c>
       <c r="M51" s="12"/>
       <c r="U51" s="1">
-        <f>IF(AA$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AA$1-$D51),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V51" s="1">
-        <f>IF(AB$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AB$1-$D51),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <f>IF(AC$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AC$1-$D51),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X51" s="1">
-        <f>IF(AD$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AD$1-$D51),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <f>IF(AE$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AE$1-$D51),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z51" s="1">
-        <f>IF(AF$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AF$1-$D51),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF51" s="1"/>
@@ -7629,27 +7638,27 @@
         <v>4</v>
       </c>
       <c r="U52" s="1">
-        <f>IF(AA$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AA$1-$D52),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V52" s="1">
-        <f>IF(AB$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AB$1-$D52),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f>IF(AC$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AC$1-$D52),0)</f>
+        <f t="shared" si="9"/>
         <v>15</v>
       </c>
       <c r="X52" s="1">
-        <f>IF(AD$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AD$1-$D52),0)</f>
+        <f t="shared" si="10"/>
         <v>20</v>
       </c>
       <c r="Y52" s="1">
-        <f>IF(AE$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AE$1-$D52),0)</f>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="Z52" s="1">
-        <f>IF(AF$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AF$1-$D52),0)</f>
+        <f t="shared" si="12"/>
         <v>30</v>
       </c>
       <c r="BF52" s="1"/>
@@ -7694,27 +7703,27 @@
       </c>
       <c r="M53" s="12"/>
       <c r="U53" s="1">
-        <f>IF(AA$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AA$1-$D53),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f>IF(AB$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AB$1-$D53),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f>IF(AC$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AC$1-$D53),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <f>IF(AD$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AD$1-$D53),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <f>IF(AE$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AE$1-$D53),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z53" s="1">
-        <f>IF(AF$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AF$1-$D53),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF53" s="1"/>
@@ -7759,27 +7768,27 @@
       </c>
       <c r="M54" s="12"/>
       <c r="U54" s="1">
-        <f>IF(AA$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AA$1-$D54),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <f>IF(AB$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AB$1-$D54),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f>IF(AC$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AC$1-$D54),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <f>IF(AD$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AD$1-$D54),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f>IF(AE$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AE$1-$D54),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <f>IF(AF$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AF$1-$D54),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF54" s="1"/>
@@ -7826,27 +7835,27 @@
         <v>975</v>
       </c>
       <c r="U55" s="1">
-        <f>IF(AA$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AA$1-$D55),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f>IF(AB$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AB$1-$D55),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f>IF(AC$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AC$1-$D55),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <f>IF(AD$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AD$1-$D55),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f>IF(AE$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AE$1-$D55),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <f>IF(AF$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AF$1-$D55),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF55" s="1"/>
@@ -7891,27 +7900,27 @@
       </c>
       <c r="M56" s="12"/>
       <c r="U56" s="1">
-        <f>IF(AA$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AA$1-$D56),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V56" s="1">
-        <f>IF(AB$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AB$1-$D56),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W56" s="1">
-        <f>IF(AC$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AC$1-$D56),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X56" s="1">
-        <f>IF(AD$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AD$1-$D56),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y56" s="1">
-        <f>IF(AE$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AE$1-$D56),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z56" s="1">
-        <f>IF(AF$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AF$1-$D56),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF56" s="1"/>
@@ -7958,27 +7967,27 @@
         <v>990</v>
       </c>
       <c r="U57" s="1">
-        <f>IF(AA$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AA$1-$D57),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V57" s="1">
-        <f>IF(AB$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AB$1-$D57),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W57" s="1">
-        <f>IF(AC$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AC$1-$D57),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X57" s="1">
-        <f>IF(AD$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AD$1-$D57),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y57" s="1">
-        <f>IF(AE$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AE$1-$D57),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z57" s="1">
-        <f>IF(AF$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AF$1-$D57),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF57" s="1"/>
@@ -8022,27 +8031,27 @@
         <v>1016</v>
       </c>
       <c r="U58" s="1">
-        <f>IF(AA$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AA$1-$D58),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f>IF(AB$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AB$1-$D58),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W58" s="1">
-        <f>IF(AC$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AC$1-$D58),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X58" s="1">
-        <f>IF(AD$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AD$1-$D58),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y58" s="1">
-        <f>IF(AE$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AE$1-$D58),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z58" s="1">
-        <f>IF(AF$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AF$1-$D58),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8080,27 +8089,27 @@
         <v>614</v>
       </c>
       <c r="U59" s="1">
-        <f>IF(AA$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AA$1-$D59),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f>IF(AB$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AB$1-$D59),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f>IF(AC$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AC$1-$D59),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <f>IF(AD$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AD$1-$D59),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f>IF(AE$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AE$1-$D59),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <f>IF(AF$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AF$1-$D59),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF59" s="1"/>
@@ -8149,27 +8158,27 @@
       </c>
       <c r="M60" s="18"/>
       <c r="U60" s="1">
-        <f>IF(AA$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AA$1-$D60),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f>IF(AB$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AB$1-$D60),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W60" s="1">
-        <f>IF(AC$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AC$1-$D60),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X60" s="1">
-        <f>IF(AD$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AD$1-$D60),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y60" s="1">
-        <f>IF(AE$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AE$1-$D60),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z60" s="1">
-        <f>IF(AF$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AF$1-$D60),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF60" s="1"/>
@@ -8217,27 +8226,27 @@
         <v>637</v>
       </c>
       <c r="U61" s="1">
-        <f>IF(AA$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AA$1-$D61),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V61" s="1">
-        <f>IF(AB$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AB$1-$D61),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W61" s="1">
-        <f>IF(AC$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AC$1-$D61),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X61" s="1">
-        <f>IF(AD$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AD$1-$D61),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y61" s="1">
-        <f>IF(AE$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AE$1-$D61),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z61" s="1">
-        <f>IF(AF$1&gt;=$D61,$O61+$P61*($Q61+1)/2+$R61*($S61+1)/2*(AF$1-$D61),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF61" s="1"/>
@@ -8285,27 +8294,27 @@
         <v>640</v>
       </c>
       <c r="U62" s="1">
-        <f>IF(AA$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AA$1-$D62),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f>IF(AB$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AB$1-$D62),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W62" s="1">
-        <f>IF(AC$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AC$1-$D62),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X62" s="1">
-        <f>IF(AD$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AD$1-$D62),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y62" s="1">
-        <f>IF(AE$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AE$1-$D62),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z62" s="1">
-        <f>IF(AF$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AF$1-$D62),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF62" s="1"/>
@@ -8351,27 +8360,27 @@
         <v>643</v>
       </c>
       <c r="U63" s="1">
-        <f>IF(AA$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AA$1-$D63),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f>IF(AB$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AB$1-$D63),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f>IF(AC$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AC$1-$D63),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <f>IF(AD$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AD$1-$D63),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <f>IF(AE$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AE$1-$D63),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <f>IF(AF$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AF$1-$D63),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF63" s="1"/>
@@ -8421,27 +8430,27 @@
         <v>1</v>
       </c>
       <c r="U64" s="1">
-        <f>IF(AA$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AA$1-$D64),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f>IF(AB$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AB$1-$D64),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f>IF(AC$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AC$1-$D64),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X64" s="1">
-        <f>IF(AD$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AD$1-$D64),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y64" s="1">
-        <f>IF(AE$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AE$1-$D64),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z64" s="1">
-        <f>IF(AF$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AF$1-$D64),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF64" s="1"/>
@@ -8485,27 +8494,27 @@
         <v>658</v>
       </c>
       <c r="U65" s="1">
-        <f>IF(AA$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AA$1-$D65),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f>IF(AB$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AB$1-$D65),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f>IF(AC$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AC$1-$D65),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X65" s="1">
-        <f>IF(AD$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AD$1-$D65),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y65" s="1">
-        <f>IF(AE$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AE$1-$D65),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z65" s="1">
-        <f>IF(AF$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AF$1-$D65),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF65" s="1"/>
@@ -8554,27 +8563,27 @@
         <v>662</v>
       </c>
       <c r="U66" s="1">
-        <f>IF(AA$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AA$1-$D66),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f>IF(AB$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AB$1-$D66),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f>IF(AC$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AC$1-$D66),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X66" s="1">
-        <f>IF(AD$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AD$1-$D66),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y66" s="1">
-        <f>IF(AE$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AE$1-$D66),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z66" s="1">
-        <f>IF(AF$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AF$1-$D66),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8608,27 +8617,27 @@
         <v>664</v>
       </c>
       <c r="U67" s="1">
-        <f>IF(AA$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AA$1-$D67),0)</f>
+        <f t="shared" ref="U67:U98" si="13">IF(AA$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AA$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f>IF(AB$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AB$1-$D67),0)</f>
+        <f t="shared" ref="V67:V98" si="14">IF(AB$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AB$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f>IF(AC$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AC$1-$D67),0)</f>
+        <f t="shared" ref="W67:W98" si="15">IF(AC$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AC$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <f>IF(AD$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AD$1-$D67),0)</f>
+        <f t="shared" ref="X67:X98" si="16">IF(AD$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AD$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f>IF(AE$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AE$1-$D67),0)</f>
+        <f t="shared" ref="Y67:Y98" si="17">IF(AE$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AE$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <f>IF(AF$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AF$1-$D67),0)</f>
+        <f t="shared" ref="Z67:Z98" si="18">IF(AF$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AF$1-$D67),0)</f>
         <v>0</v>
       </c>
       <c r="BF67" s="1"/>
@@ -8676,27 +8685,27 @@
         <v>611</v>
       </c>
       <c r="U68" s="1">
-        <f>IF(AA$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AA$1-$D68),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f>IF(AB$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AB$1-$D68),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f>IF(AC$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AC$1-$D68),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <f>IF(AD$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AD$1-$D68),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f>IF(AE$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AE$1-$D68),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <f>IF(AF$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AF$1-$D68),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF68" s="1"/>
@@ -8740,27 +8749,27 @@
         <v>617</v>
       </c>
       <c r="U69" s="1">
-        <f>IF(AA$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AA$1-$D69),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f>IF(AB$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AB$1-$D69),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f>IF(AC$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AC$1-$D69),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <f>IF(AD$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AD$1-$D69),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f>IF(AE$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AE$1-$D69),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <f>IF(AF$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AF$1-$D69),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF69" s="1"/>
@@ -8806,27 +8815,27 @@
         <v>620</v>
       </c>
       <c r="U70" s="1">
-        <f>IF(AA$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AA$1-$D70),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f>IF(AB$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AB$1-$D70),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f>IF(AC$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AC$1-$D70),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <f>IF(AD$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AD$1-$D70),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f>IF(AE$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AE$1-$D70),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <f>IF(AF$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AF$1-$D70),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF70" s="1"/>
@@ -8872,27 +8881,27 @@
         <v>623</v>
       </c>
       <c r="U71" s="1">
-        <f>IF(AA$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AA$1-$D71),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f>IF(AB$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AB$1-$D71),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f>IF(AC$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AC$1-$D71),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <f>IF(AD$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AD$1-$D71),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <f>IF(AE$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AE$1-$D71),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <f>IF(AF$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AF$1-$D71),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF71" s="1"/>
@@ -8939,27 +8948,27 @@
       </c>
       <c r="M72" s="16"/>
       <c r="U72" s="1">
-        <f>IF(AA$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AA$1-$D72),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f>IF(AB$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AB$1-$D72),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f>IF(AC$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AC$1-$D72),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <f>IF(AD$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AD$1-$D72),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f>IF(AE$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AE$1-$D72),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
-        <f>IF(AF$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AF$1-$D72),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF72" s="1"/>
@@ -9007,27 +9016,27 @@
         <v>629</v>
       </c>
       <c r="U73" s="1">
-        <f>IF(AA$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AA$1-$D73),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f>IF(AB$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AB$1-$D73),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f>IF(AC$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AC$1-$D73),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f>IF(AD$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AD$1-$D73),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f>IF(AE$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AE$1-$D73),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <f>IF(AF$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AF$1-$D73),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF73" s="1"/>
@@ -9073,27 +9082,27 @@
         <v>1031</v>
       </c>
       <c r="U74" s="1">
-        <f>IF(AA$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AA$1-$D74),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f>IF(AB$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AB$1-$D74),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f>IF(AC$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AC$1-$D74),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <f>IF(AD$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AD$1-$D74),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f>IF(AE$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AE$1-$D74),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <f>IF(AF$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AF$1-$D74),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF74" s="1"/>
@@ -9143,27 +9152,27 @@
         <v>646</v>
       </c>
       <c r="U75" s="1">
-        <f>IF(AA$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AA$1-$D75),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <f>IF(AB$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AB$1-$D75),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f>IF(AC$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AC$1-$D75),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <f>IF(AD$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AD$1-$D75),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f>IF(AE$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AE$1-$D75),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
-        <f>IF(AF$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AF$1-$D75),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF75" s="1"/>
@@ -9207,27 +9216,27 @@
         <v>649</v>
       </c>
       <c r="U76" s="1">
-        <f>IF(AA$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AA$1-$D76),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <f>IF(AB$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AB$1-$D76),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f>IF(AC$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AC$1-$D76),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <f>IF(AD$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AD$1-$D76),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f>IF(AE$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AE$1-$D76),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z76" s="1">
-        <f>IF(AF$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AF$1-$D76),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF76" s="1"/>
@@ -9277,27 +9286,27 @@
         <v>652</v>
       </c>
       <c r="U77" s="1">
-        <f>IF(AA$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AA$1-$D77),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <f>IF(AB$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AB$1-$D77),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f>IF(AC$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AC$1-$D77),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <f>IF(AD$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AD$1-$D77),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y77" s="1">
-        <f>IF(AE$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AE$1-$D77),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z77" s="1">
-        <f>IF(AF$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AF$1-$D77),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF77" s="1"/>
@@ -9340,27 +9349,27 @@
       </c>
       <c r="M78" s="12"/>
       <c r="U78" s="1">
-        <f>IF(AA$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AA$1-$D78),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <f>IF(AB$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AB$1-$D78),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W78" s="1">
-        <f>IF(AC$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AC$1-$D78),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X78" s="1">
-        <f>IF(AD$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AD$1-$D78),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y78" s="1">
-        <f>IF(AE$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AE$1-$D78),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z78" s="1">
-        <f>IF(AF$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AF$1-$D78),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF78" s="1"/>
@@ -9402,27 +9411,27 @@
         <v>49</v>
       </c>
       <c r="U79" s="1">
-        <f>IF(AA$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AA$1-$D79),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <f>IF(AB$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AB$1-$D79),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f>IF(AC$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AC$1-$D79),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X79" s="1">
-        <f>IF(AD$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AD$1-$D79),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y79" s="1">
-        <f>IF(AE$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AE$1-$D79),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z79" s="1">
-        <f>IF(AF$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AF$1-$D79),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF79" s="1"/>
@@ -9465,27 +9474,27 @@
       </c>
       <c r="M80" s="12"/>
       <c r="U80" s="1">
-        <f>IF(AA$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AA$1-$D80),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f>IF(AB$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AB$1-$D80),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f>IF(AC$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AC$1-$D80),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <f>IF(AD$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AD$1-$D80),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <f>IF(AE$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AE$1-$D80),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <f>IF(AF$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AF$1-$D80),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF80" s="1"/>
@@ -9552,27 +9561,27 @@
         <v>4</v>
       </c>
       <c r="U81" s="1">
-        <f>IF(AA$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AA$1-$D81),0)</f>
+        <f t="shared" si="13"/>
         <v>5</v>
       </c>
       <c r="V81" s="1">
-        <f>IF(AB$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AB$1-$D81),0)</f>
+        <f t="shared" si="14"/>
         <v>7.5</v>
       </c>
       <c r="W81" s="1">
-        <f>IF(AC$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AC$1-$D81),0)</f>
+        <f t="shared" si="15"/>
         <v>10</v>
       </c>
       <c r="X81" s="1">
-        <f>IF(AD$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AD$1-$D81),0)</f>
+        <f t="shared" si="16"/>
         <v>12.5</v>
       </c>
       <c r="Y81" s="1">
-        <f>IF(AE$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AE$1-$D81),0)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="Z81" s="1">
-        <f>IF(AF$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AF$1-$D81),0)</f>
+        <f t="shared" si="18"/>
         <v>17.5</v>
       </c>
       <c r="BF81" s="1"/>
@@ -9616,27 +9625,27 @@
         <v>60</v>
       </c>
       <c r="U82" s="1">
-        <f>IF(AA$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AA$1-$D82),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f>IF(AB$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AB$1-$D82),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W82" s="1">
-        <f>IF(AC$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AC$1-$D82),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <f>IF(AD$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AD$1-$D82),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y82" s="1">
-        <f>IF(AE$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AE$1-$D82),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z82" s="1">
-        <f>IF(AF$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AF$1-$D82),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF82" s="1"/>
@@ -9681,27 +9690,27 @@
         <v>78</v>
       </c>
       <c r="U83" s="1">
-        <f>IF(AA$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AA$1-$D83),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <f>IF(AB$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AB$1-$D83),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W83" s="1">
-        <f>IF(AC$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AC$1-$D83),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X83" s="1">
-        <f>IF(AD$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AD$1-$D83),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y83" s="1">
-        <f>IF(AE$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AE$1-$D83),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z83" s="1">
-        <f>IF(AF$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AF$1-$D83),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF83" s="1"/>
@@ -9770,27 +9779,27 @@
         <v>6</v>
       </c>
       <c r="U84" s="1">
-        <f>IF(AA$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AA$1-$D84),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V84" s="1">
-        <f>IF(AB$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AB$1-$D84),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W84" s="1">
-        <f>IF(AC$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AC$1-$D84),0)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="X84" s="1">
-        <f>IF(AD$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AD$1-$D84),0)</f>
+        <f t="shared" si="16"/>
         <v>17.5</v>
       </c>
       <c r="Y84" s="1">
-        <f>IF(AE$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AE$1-$D84),0)</f>
+        <f t="shared" si="17"/>
         <v>21</v>
       </c>
       <c r="Z84" s="1">
-        <f>IF(AF$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AF$1-$D84),0)</f>
+        <f t="shared" si="18"/>
         <v>24.5</v>
       </c>
       <c r="BF84" s="1"/>
@@ -9855,27 +9864,27 @@
         <v>10</v>
       </c>
       <c r="U85" s="1">
-        <f>IF(AA$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AA$1-$D85),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f>IF(AB$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AB$1-$D85),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f>IF(AC$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AC$1-$D85),0)</f>
+        <f t="shared" si="15"/>
         <v>16.5</v>
       </c>
       <c r="X85" s="1">
-        <f>IF(AD$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AD$1-$D85),0)</f>
+        <f t="shared" si="16"/>
         <v>22</v>
       </c>
       <c r="Y85" s="1">
-        <f>IF(AE$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AE$1-$D85),0)</f>
+        <f t="shared" si="17"/>
         <v>27.5</v>
       </c>
       <c r="Z85" s="1">
-        <f>IF(AF$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AF$1-$D85),0)</f>
+        <f t="shared" si="18"/>
         <v>33</v>
       </c>
       <c r="BF85" s="1"/>
@@ -9919,27 +9928,27 @@
         <v>114</v>
       </c>
       <c r="U86" s="1">
-        <f>IF(AA$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AA$1-$D86),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <f>IF(AB$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AB$1-$D86),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f>IF(AC$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AC$1-$D86),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X86" s="1">
-        <f>IF(AD$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AD$1-$D86),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <f>IF(AE$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AE$1-$D86),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <f>IF(AF$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AF$1-$D86),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF86" s="1"/>
@@ -10004,27 +10013,27 @@
         <v>12</v>
       </c>
       <c r="U87" s="1">
-        <f>IF(AA$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AA$1-$D87),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V87" s="1">
-        <f>IF(AB$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AB$1-$D87),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W87" s="1">
-        <f>IF(AC$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AC$1-$D87),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X87" s="1">
-        <f>IF(AD$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AD$1-$D87),0)</f>
+        <f t="shared" si="16"/>
         <v>32.5</v>
       </c>
       <c r="Y87" s="1">
-        <f>IF(AE$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AE$1-$D87),0)</f>
+        <f t="shared" si="17"/>
         <v>45.5</v>
       </c>
       <c r="Z87" s="1">
-        <f>IF(AF$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AF$1-$D87),0)</f>
+        <f t="shared" si="18"/>
         <v>58.5</v>
       </c>
       <c r="BF87" s="1"/>
@@ -10086,27 +10095,27 @@
         <v>0</v>
       </c>
       <c r="U88" s="1">
-        <f>IF(AA$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AA$1-$D88),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <f>IF(AB$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AB$1-$D88),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f>IF(AC$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AC$1-$D88),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X88" s="1">
-        <f>IF(AD$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AD$1-$D88),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y88" s="1">
-        <f>IF(AE$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AE$1-$D88),0)</f>
+        <f t="shared" si="17"/>
         <v>52</v>
       </c>
       <c r="Z88" s="1">
-        <f>IF(AF$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AF$1-$D88),0)</f>
+        <f t="shared" si="18"/>
         <v>52</v>
       </c>
       <c r="BF88" s="1"/>
@@ -10168,27 +10177,27 @@
         <v>0</v>
       </c>
       <c r="U89" s="1">
-        <f>IF(AA$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AA$1-$D89),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V89" s="1">
-        <f>IF(AB$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AB$1-$D89),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W89" s="1">
-        <f>IF(AC$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AC$1-$D89),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X89" s="1">
-        <f>IF(AD$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AD$1-$D89),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y89" s="1">
-        <f>IF(AE$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AE$1-$D89),0)</f>
+        <f t="shared" si="17"/>
         <v>45</v>
       </c>
       <c r="Z89" s="1">
-        <f>IF(AF$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AF$1-$D89),0)</f>
+        <f t="shared" si="18"/>
         <v>45</v>
       </c>
     </row>
@@ -10242,27 +10251,27 @@
         <v>0</v>
       </c>
       <c r="U90" s="1">
-        <f>IF(AA$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AA$1-$D90),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V90" s="1">
-        <f>IF(AB$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AB$1-$D90),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W90" s="1">
-        <f>IF(AC$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AC$1-$D90),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X90" s="1">
-        <f>IF(AD$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AD$1-$D90),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y90" s="1">
-        <f>IF(AE$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AE$1-$D90),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z90" s="1">
-        <f>IF(AF$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AF$1-$D90),0)</f>
+        <f t="shared" si="18"/>
         <v>60.5</v>
       </c>
     </row>
@@ -10298,27 +10307,27 @@
         <v>74</v>
       </c>
       <c r="U91" s="1">
-        <f>IF(AA$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AA$1-$D91),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V91" s="1">
-        <f>IF(AB$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AB$1-$D91),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W91" s="1">
-        <f>IF(AC$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AC$1-$D91),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X91" s="1">
-        <f>IF(AD$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AD$1-$D91),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y91" s="1">
-        <f>IF(AE$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AE$1-$D91),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z91" s="1">
-        <f>IF(AF$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AF$1-$D91),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF91" s="1"/>
@@ -10367,27 +10376,27 @@
         <v>1</v>
       </c>
       <c r="U92" s="1">
-        <f>IF(AA$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AA$1-$D92),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <f>IF(AB$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AB$1-$D92),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <f>IF(AC$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AC$1-$D92),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X92" s="1">
-        <f>IF(AD$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AD$1-$D92),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y92" s="1">
-        <f>IF(AE$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AE$1-$D92),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z92" s="1">
-        <f>IF(AF$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AF$1-$D92),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF92" s="1"/>
@@ -10429,27 +10438,27 @@
         <v>98</v>
       </c>
       <c r="U93" s="1">
-        <f>IF(AA$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AA$1-$D93),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V93" s="1">
-        <f>IF(AB$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AB$1-$D93),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W93" s="1">
-        <f>IF(AC$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AC$1-$D93),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X93" s="1">
-        <f>IF(AD$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AD$1-$D93),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y93" s="1">
-        <f>IF(AE$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AE$1-$D93),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z93" s="1">
-        <f>IF(AF$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AF$1-$D93),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF93" s="1"/>
@@ -10491,27 +10500,27 @@
         <v>1030</v>
       </c>
       <c r="U94" s="1">
-        <f>IF(AA$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AA$1-$D94),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <f>IF(AB$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AB$1-$D94),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W94" s="1">
-        <f>IF(AC$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AC$1-$D94),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X94" s="1">
-        <f>IF(AD$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AD$1-$D94),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y94" s="1">
-        <f>IF(AE$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AE$1-$D94),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z94" s="1">
-        <f>IF(AF$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AF$1-$D94),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF94" s="1"/>
@@ -10575,27 +10584,27 @@
         <v>0</v>
       </c>
       <c r="U95" s="1">
-        <f>IF(AA$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AA$1-$D95),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <f>IF(AB$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AB$1-$D95),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f>IF(AC$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AC$1-$D95),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X95" s="1">
-        <f>IF(AD$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AD$1-$D95),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y95" s="1">
-        <f>IF(AE$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AE$1-$D95),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z95" s="1">
-        <f>IF(AF$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AF$1-$D95),0)</f>
+        <f t="shared" si="18"/>
         <v>82.5</v>
       </c>
     </row>
@@ -10649,27 +10658,27 @@
         <v>0</v>
       </c>
       <c r="U96" s="1">
-        <f>IF(AA$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AA$1-$D96),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <f>IF(AB$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AB$1-$D96),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f>IF(AC$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AC$1-$D96),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X96" s="1">
-        <f>IF(AD$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AD$1-$D96),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y96" s="1">
-        <f>IF(AE$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AE$1-$D96),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z96" s="1">
-        <f>IF(AF$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AF$1-$D96),0)</f>
+        <f t="shared" si="18"/>
         <v>67.5</v>
       </c>
     </row>
@@ -10706,27 +10715,27 @@
         <v>69</v>
       </c>
       <c r="U97" s="1">
-        <f>IF(AA$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AA$1-$D97),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <f>IF(AB$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AB$1-$D97),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
-        <f>IF(AC$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AC$1-$D97),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X97" s="1">
-        <f>IF(AD$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AD$1-$D97),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y97" s="1">
-        <f>IF(AE$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AE$1-$D97),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z97" s="1">
-        <f>IF(AF$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AF$1-$D97),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF97" s="1"/>
@@ -10795,27 +10804,27 @@
         <v>12</v>
       </c>
       <c r="U98" s="1">
-        <f>IF(AA$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AA$1-$D98),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V98" s="1">
-        <f>IF(AB$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AB$1-$D98),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <f>IF(AC$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AC$1-$D98),0)</f>
+        <f t="shared" si="15"/>
         <v>19.5</v>
       </c>
       <c r="X98" s="1">
-        <f>IF(AD$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AD$1-$D98),0)</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="Y98" s="1">
-        <f>IF(AE$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AE$1-$D98),0)</f>
+        <f t="shared" si="17"/>
         <v>32.5</v>
       </c>
       <c r="Z98" s="1">
-        <f>IF(AF$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AF$1-$D98),0)</f>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="BF98" s="1"/>
@@ -10878,27 +10887,27 @@
         <v>6</v>
       </c>
       <c r="U99" s="1">
-        <f>IF(AA$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AA$1-$D99),0)</f>
+        <f t="shared" ref="U99:U130" si="19">IF(AA$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AA$1-$D99),0)</f>
         <v>2</v>
       </c>
       <c r="V99" s="1">
-        <f>IF(AB$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AB$1-$D99),0)</f>
+        <f t="shared" ref="V99:V130" si="20">IF(AB$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AB$1-$D99),0)</f>
         <v>5.5</v>
       </c>
       <c r="W99" s="1">
-        <f>IF(AC$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AC$1-$D99),0)</f>
+        <f t="shared" ref="W99:W130" si="21">IF(AC$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AC$1-$D99),0)</f>
         <v>9</v>
       </c>
       <c r="X99" s="1">
-        <f>IF(AD$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AD$1-$D99),0)</f>
+        <f t="shared" ref="X99:X130" si="22">IF(AD$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AD$1-$D99),0)</f>
         <v>12.5</v>
       </c>
       <c r="Y99" s="1">
-        <f>IF(AE$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AE$1-$D99),0)</f>
+        <f t="shared" ref="Y99:Y130" si="23">IF(AE$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AE$1-$D99),0)</f>
         <v>16</v>
       </c>
       <c r="Z99" s="1">
-        <f>IF(AF$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AF$1-$D99),0)</f>
+        <f t="shared" ref="Z99:Z130" si="24">IF(AF$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AF$1-$D99),0)</f>
         <v>19.5</v>
       </c>
       <c r="BF99" s="1"/>
@@ -10965,27 +10974,27 @@
         <v>6</v>
       </c>
       <c r="U100" s="1">
-        <f>IF(AA$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AA$1-$D100),0)</f>
+        <f t="shared" si="19"/>
         <v>3.5</v>
       </c>
       <c r="V100" s="1">
-        <f>IF(AB$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AB$1-$D100),0)</f>
+        <f t="shared" si="20"/>
         <v>7</v>
       </c>
       <c r="W100" s="1">
-        <f>IF(AC$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AC$1-$D100),0)</f>
+        <f t="shared" si="21"/>
         <v>10.5</v>
       </c>
       <c r="X100" s="1">
-        <f>IF(AD$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AD$1-$D100),0)</f>
+        <f t="shared" si="22"/>
         <v>14</v>
       </c>
       <c r="Y100" s="1">
-        <f>IF(AE$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AE$1-$D100),0)</f>
+        <f t="shared" si="23"/>
         <v>17.5</v>
       </c>
       <c r="Z100" s="1">
-        <f>IF(AF$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AF$1-$D100),0)</f>
+        <f t="shared" si="24"/>
         <v>21</v>
       </c>
       <c r="BF100" s="1"/>
@@ -11052,27 +11061,27 @@
         <v>8</v>
       </c>
       <c r="U101" s="1">
-        <f>IF(AA$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AA$1-$D101),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V101" s="1">
-        <f>IF(AB$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AB$1-$D101),0)</f>
+        <f t="shared" si="20"/>
         <v>4.5</v>
       </c>
       <c r="W101" s="1">
-        <f>IF(AC$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AC$1-$D101),0)</f>
+        <f t="shared" si="21"/>
         <v>9</v>
       </c>
       <c r="X101" s="1">
-        <f>IF(AD$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AD$1-$D101),0)</f>
+        <f t="shared" si="22"/>
         <v>13.5</v>
       </c>
       <c r="Y101" s="1">
-        <f>IF(AE$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AE$1-$D101),0)</f>
+        <f t="shared" si="23"/>
         <v>18</v>
       </c>
       <c r="Z101" s="1">
-        <f>IF(AF$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AF$1-$D101),0)</f>
+        <f t="shared" si="24"/>
         <v>22.5</v>
       </c>
       <c r="BF101" s="1"/>
@@ -11135,27 +11144,27 @@
         <v>8</v>
       </c>
       <c r="U102" s="1">
-        <f>IF(AA$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AA$1-$D102),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V102" s="1">
-        <f>IF(AB$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AB$1-$D102),0)</f>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="W102" s="1">
-        <f>IF(AC$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AC$1-$D102),0)</f>
+        <f t="shared" si="21"/>
         <v>12</v>
       </c>
       <c r="X102" s="1">
-        <f>IF(AD$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AD$1-$D102),0)</f>
+        <f t="shared" si="22"/>
         <v>16.5</v>
       </c>
       <c r="Y102" s="1">
-        <f>IF(AE$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AE$1-$D102),0)</f>
+        <f t="shared" si="23"/>
         <v>21</v>
       </c>
       <c r="Z102" s="1">
-        <f>IF(AF$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AF$1-$D102),0)</f>
+        <f t="shared" si="24"/>
         <v>25.5</v>
       </c>
       <c r="BF102" s="1"/>
@@ -11220,27 +11229,27 @@
         <v>10</v>
       </c>
       <c r="U103" s="1">
-        <f>IF(AA$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AA$1-$D103),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V103" s="1">
-        <f>IF(AB$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AB$1-$D103),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W103" s="1">
-        <f>IF(AC$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AC$1-$D103),0)</f>
+        <f t="shared" si="21"/>
         <v>16.5</v>
       </c>
       <c r="X103" s="1">
-        <f>IF(AD$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AD$1-$D103),0)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="Y103" s="1">
-        <f>IF(AE$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AE$1-$D103),0)</f>
+        <f t="shared" si="23"/>
         <v>27.5</v>
       </c>
       <c r="Z103" s="1">
-        <f>IF(AF$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AF$1-$D103),0)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="BF103" s="1"/>
@@ -11287,27 +11296,27 @@
       </c>
       <c r="M104" s="12"/>
       <c r="U104" s="1">
-        <f>IF(AA$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AA$1-$D104),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V104" s="1">
-        <f>IF(AB$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AB$1-$D104),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W104" s="1">
-        <f>IF(AC$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AC$1-$D104),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X104" s="1">
-        <f>IF(AD$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AD$1-$D104),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y104" s="1">
-        <f>IF(AE$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AE$1-$D104),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z104" s="1">
-        <f>IF(AF$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AF$1-$D104),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF104" s="1"/>
@@ -11354,27 +11363,27 @@
         <v>745</v>
       </c>
       <c r="U105" s="1">
-        <f>IF(AA$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AA$1-$D105),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V105" s="1">
-        <f>IF(AB$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AB$1-$D105),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W105" s="1">
-        <f>IF(AC$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AC$1-$D105),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X105" s="1">
-        <f>IF(AD$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AD$1-$D105),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y105" s="1">
-        <f>IF(AE$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AE$1-$D105),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z105" s="1">
-        <f>IF(AF$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AF$1-$D105),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF105" s="1"/>
@@ -11418,27 +11427,27 @@
         <v>795</v>
       </c>
       <c r="U106" s="1">
-        <f>IF(AA$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AA$1-$D106),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V106" s="1">
-        <f>IF(AB$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AB$1-$D106),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f>IF(AC$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AC$1-$D106),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X106" s="1">
-        <f>IF(AD$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AD$1-$D106),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <f>IF(AE$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AE$1-$D106),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z106" s="1">
-        <f>IF(AF$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AF$1-$D106),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11472,27 +11481,27 @@
         <v>805</v>
       </c>
       <c r="U107" s="1">
-        <f>IF(AA$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AA$1-$D107),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V107" s="1">
-        <f>IF(AB$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AB$1-$D107),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f>IF(AC$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AC$1-$D107),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X107" s="1">
-        <f>IF(AD$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AD$1-$D107),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y107" s="1">
-        <f>IF(AE$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AE$1-$D107),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z107" s="1">
-        <f>IF(AF$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AF$1-$D107),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF107" s="1"/>
@@ -11538,27 +11547,27 @@
         <v>753</v>
       </c>
       <c r="U108" s="1">
-        <f>IF(AA$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AA$1-$D108),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V108" s="1">
-        <f>IF(AB$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AB$1-$D108),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f>IF(AC$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AC$1-$D108),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X108" s="1">
-        <f>IF(AD$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AD$1-$D108),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y108" s="1">
-        <f>IF(AE$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AE$1-$D108),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z108" s="1">
-        <f>IF(AF$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AF$1-$D108),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF108" s="1"/>
@@ -11623,27 +11632,27 @@
         <v>4</v>
       </c>
       <c r="U109" s="1">
-        <f>IF(AA$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AA$1-$D109),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V109" s="1">
-        <f>IF(AB$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AB$1-$D109),0)</f>
+        <f t="shared" si="20"/>
         <v>10</v>
       </c>
       <c r="W109" s="1">
-        <f>IF(AC$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AC$1-$D109),0)</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="X109" s="1">
-        <f>IF(AD$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AD$1-$D109),0)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="Y109" s="1">
-        <f>IF(AE$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AE$1-$D109),0)</f>
+        <f t="shared" si="23"/>
         <v>25</v>
       </c>
       <c r="Z109" s="1">
-        <f>IF(AF$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AF$1-$D109),0)</f>
+        <f t="shared" si="24"/>
         <v>30</v>
       </c>
       <c r="BF109" s="1"/>
@@ -11687,27 +11696,27 @@
         <v>773</v>
       </c>
       <c r="U110" s="1">
-        <f>IF(AA$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AA$1-$D110),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V110" s="1">
-        <f>IF(AB$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AB$1-$D110),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <f>IF(AC$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AC$1-$D110),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X110" s="1">
-        <f>IF(AD$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AD$1-$D110),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <f>IF(AE$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AE$1-$D110),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z110" s="1">
-        <f>IF(AF$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AF$1-$D110),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF110" s="1"/>
@@ -11752,27 +11761,27 @@
       </c>
       <c r="M111" s="12"/>
       <c r="U111" s="1">
-        <f>IF(AA$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AA$1-$D111),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V111" s="1">
-        <f>IF(AB$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AB$1-$D111),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W111" s="1">
-        <f>IF(AC$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AC$1-$D111),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X111" s="1">
-        <f>IF(AD$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AD$1-$D111),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y111" s="1">
-        <f>IF(AE$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AE$1-$D111),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z111" s="1">
-        <f>IF(AF$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AF$1-$D111),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF111" s="1"/>
@@ -11817,27 +11826,27 @@
         <v>749</v>
       </c>
       <c r="U112" s="1">
-        <f>IF(AA$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AA$1-$D112),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V112" s="1">
-        <f>IF(AB$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AB$1-$D112),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W112" s="1">
-        <f>IF(AC$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AC$1-$D112),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X112" s="1">
-        <f>IF(AD$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AD$1-$D112),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <f>IF(AE$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AE$1-$D112),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z112" s="1">
-        <f>IF(AF$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AF$1-$D112),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF112" s="1"/>
@@ -11879,27 +11888,27 @@
         <v>756</v>
       </c>
       <c r="U113" s="1">
-        <f>IF(AA$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AA$1-$D113),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V113" s="1">
-        <f>IF(AB$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AB$1-$D113),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W113" s="1">
-        <f>IF(AC$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AC$1-$D113),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X113" s="1">
-        <f>IF(AD$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AD$1-$D113),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y113" s="1">
-        <f>IF(AE$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AE$1-$D113),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z113" s="1">
-        <f>IF(AF$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AF$1-$D113),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF113" s="1"/>
@@ -11941,27 +11950,27 @@
         <v>763</v>
       </c>
       <c r="U114" s="1">
-        <f>IF(AA$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AA$1-$D114),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V114" s="1">
-        <f>IF(AB$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AB$1-$D114),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W114" s="1">
-        <f>IF(AC$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AC$1-$D114),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X114" s="1">
-        <f>IF(AD$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AD$1-$D114),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y114" s="1">
-        <f>IF(AE$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AE$1-$D114),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z114" s="1">
-        <f>IF(AF$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AF$1-$D114),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF114" s="1"/>
@@ -12005,27 +12014,27 @@
         <v>766</v>
       </c>
       <c r="U115" s="1">
-        <f>IF(AA$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AA$1-$D115),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V115" s="1">
-        <f>IF(AB$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AB$1-$D115),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W115" s="1">
-        <f>IF(AC$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AC$1-$D115),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X115" s="1">
-        <f>IF(AD$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AD$1-$D115),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y115" s="1">
-        <f>IF(AE$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AE$1-$D115),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z115" s="1">
-        <f>IF(AF$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AF$1-$D115),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF115" s="1"/>
@@ -12070,27 +12079,27 @@
         <v>770</v>
       </c>
       <c r="U116" s="1">
-        <f>IF(AA$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AA$1-$D116),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V116" s="1">
-        <f>IF(AB$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AB$1-$D116),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W116" s="1">
-        <f>IF(AC$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AC$1-$D116),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X116" s="1">
-        <f>IF(AD$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AD$1-$D116),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y116" s="1">
-        <f>IF(AE$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AE$1-$D116),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z116" s="1">
-        <f>IF(AF$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AF$1-$D116),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF116" s="1"/>
@@ -12137,27 +12146,27 @@
         <v>781</v>
       </c>
       <c r="U117" s="1">
-        <f>IF(AA$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AA$1-$D117),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V117" s="1">
-        <f>IF(AB$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AB$1-$D117),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <f>IF(AC$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AC$1-$D117),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X117" s="1">
-        <f>IF(AD$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AD$1-$D117),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y117" s="1">
-        <f>IF(AE$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AE$1-$D117),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z117" s="1">
-        <f>IF(AF$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AF$1-$D117),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF117" s="1"/>
@@ -12199,27 +12208,27 @@
         <v>784</v>
       </c>
       <c r="U118" s="1">
-        <f>IF(AA$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AA$1-$D118),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V118" s="1">
-        <f>IF(AB$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AB$1-$D118),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <f>IF(AC$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AC$1-$D118),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X118" s="1">
-        <f>IF(AD$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AD$1-$D118),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y118" s="1">
-        <f>IF(AE$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AE$1-$D118),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z118" s="1">
-        <f>IF(AF$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AF$1-$D118),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF118" s="1"/>
@@ -12261,27 +12270,27 @@
         <v>787</v>
       </c>
       <c r="U119" s="1">
-        <f>IF(AA$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AA$1-$D119),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V119" s="1">
-        <f>IF(AB$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AB$1-$D119),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <f>IF(AC$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AC$1-$D119),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X119" s="1">
-        <f>IF(AD$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AD$1-$D119),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y119" s="1">
-        <f>IF(AE$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AE$1-$D119),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z119" s="1">
-        <f>IF(AF$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AF$1-$D119),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF119" s="1"/>
@@ -12325,27 +12334,27 @@
         <v>791</v>
       </c>
       <c r="U120" s="1">
-        <f>IF(AA$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AA$1-$D120),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V120" s="1">
-        <f>IF(AB$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AB$1-$D120),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <f>IF(AC$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AC$1-$D120),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X120" s="1">
-        <f>IF(AD$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AD$1-$D120),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y120" s="1">
-        <f>IF(AE$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AE$1-$D120),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z120" s="1">
-        <f>IF(AF$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AF$1-$D120),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF120" s="1"/>
@@ -12390,27 +12399,27 @@
         <v>799</v>
       </c>
       <c r="U121" s="1">
-        <f>IF(AA$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AA$1-$D121),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V121" s="1">
-        <f>IF(AB$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AB$1-$D121),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <f>IF(AC$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AC$1-$D121),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X121" s="1">
-        <f>IF(AD$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AD$1-$D121),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y121" s="1">
-        <f>IF(AE$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AE$1-$D121),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z121" s="1">
-        <f>IF(AF$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AF$1-$D121),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12443,27 +12452,27 @@
         <v>802</v>
       </c>
       <c r="U122" s="1">
-        <f>IF(AA$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AA$1-$D122),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V122" s="1">
-        <f>IF(AB$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AB$1-$D122),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W122" s="1">
-        <f>IF(AC$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AC$1-$D122),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X122" s="1">
-        <f>IF(AD$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AD$1-$D122),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y122" s="1">
-        <f>IF(AE$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AE$1-$D122),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z122" s="1">
-        <f>IF(AF$1&gt;=$D122,$O122+$P122*($Q122+1)/2+$R122*($S122+1)/2*(AF$1-$D122),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -12495,27 +12504,27 @@
         <v>808</v>
       </c>
       <c r="U123" s="1">
-        <f>IF(AA$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AA$1-$D123),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V123" s="1">
-        <f>IF(AB$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AB$1-$D123),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W123" s="1">
-        <f>IF(AC$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AC$1-$D123),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X123" s="1">
-        <f>IF(AD$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AD$1-$D123),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y123" s="1">
-        <f>IF(AE$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AE$1-$D123),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z123" s="1">
-        <f>IF(AF$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AF$1-$D123),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF123" s="1"/>
@@ -12582,27 +12591,27 @@
         <v>8</v>
       </c>
       <c r="U124" s="1">
-        <f>IF(AA$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AA$1-$D124),0)</f>
+        <f t="shared" si="19"/>
         <v>4.5</v>
       </c>
       <c r="V124" s="1">
-        <f>IF(AB$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AB$1-$D124),0)</f>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="W124" s="1">
-        <f>IF(AC$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AC$1-$D124),0)</f>
+        <f t="shared" si="21"/>
         <v>13.5</v>
       </c>
       <c r="X124" s="1">
-        <f>IF(AD$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AD$1-$D124),0)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="Y124" s="1">
-        <f>IF(AE$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AE$1-$D124),0)</f>
+        <f t="shared" si="23"/>
         <v>22.5</v>
       </c>
       <c r="Z124" s="1">
-        <f>IF(AF$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AF$1-$D124),0)</f>
+        <f t="shared" si="24"/>
         <v>27</v>
       </c>
       <c r="BF124" s="1"/>
@@ -12667,27 +12676,27 @@
         <v>10</v>
       </c>
       <c r="U125" s="1">
-        <f>IF(AA$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AA$1-$D125),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V125" s="1">
-        <f>IF(AB$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AB$1-$D125),0)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="W125" s="1">
-        <f>IF(AC$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AC$1-$D125),0)</f>
+        <f t="shared" si="21"/>
         <v>16.5</v>
       </c>
       <c r="X125" s="1">
-        <f>IF(AD$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AD$1-$D125),0)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="Y125" s="1">
-        <f>IF(AE$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AE$1-$D125),0)</f>
+        <f t="shared" si="23"/>
         <v>27.5</v>
       </c>
       <c r="Z125" s="1">
-        <f>IF(AF$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AF$1-$D125),0)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="BF125" s="1"/>
@@ -12754,27 +12763,27 @@
         <v>10</v>
       </c>
       <c r="U126" s="1">
-        <f>IF(AA$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AA$1-$D126),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V126" s="1">
-        <f>IF(AB$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AB$1-$D126),0)</f>
+        <f t="shared" si="20"/>
         <v>11</v>
       </c>
       <c r="W126" s="1">
-        <f>IF(AC$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AC$1-$D126),0)</f>
+        <f t="shared" si="21"/>
         <v>16.5</v>
       </c>
       <c r="X126" s="1">
-        <f>IF(AD$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AD$1-$D126),0)</f>
+        <f t="shared" si="22"/>
         <v>22</v>
       </c>
       <c r="Y126" s="1">
-        <f>IF(AE$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AE$1-$D126),0)</f>
+        <f t="shared" si="23"/>
         <v>27.5</v>
       </c>
       <c r="Z126" s="1">
-        <f>IF(AF$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AF$1-$D126),0)</f>
+        <f t="shared" si="24"/>
         <v>33</v>
       </c>
       <c r="BF126" s="1"/>
@@ -12841,27 +12850,27 @@
         <v>4</v>
       </c>
       <c r="U127" s="1">
-        <f>IF(AA$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AA$1-$D127),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V127" s="1">
-        <f>IF(AB$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AB$1-$D127),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <f>IF(AC$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AC$1-$D127),0)</f>
+        <f t="shared" si="21"/>
         <v>12.5</v>
       </c>
       <c r="X127" s="1">
-        <f>IF(AD$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AD$1-$D127),0)</f>
+        <f t="shared" si="22"/>
         <v>20</v>
       </c>
       <c r="Y127" s="1">
-        <f>IF(AE$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AE$1-$D127),0)</f>
+        <f t="shared" si="23"/>
         <v>27.5</v>
       </c>
       <c r="Z127" s="1">
-        <f>IF(AF$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AF$1-$D127),0)</f>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="BF127" s="1"/>
@@ -12926,27 +12935,27 @@
         <v>8</v>
       </c>
       <c r="U128" s="1">
-        <f>IF(AA$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AA$1-$D128),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V128" s="1">
-        <f>IF(AB$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AB$1-$D128),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <f>IF(AC$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AC$1-$D128),0)</f>
+        <f t="shared" si="21"/>
         <v>13.5</v>
       </c>
       <c r="X128" s="1">
-        <f>IF(AD$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AD$1-$D128),0)</f>
+        <f t="shared" si="22"/>
         <v>18</v>
       </c>
       <c r="Y128" s="1">
-        <f>IF(AE$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AE$1-$D128),0)</f>
+        <f t="shared" si="23"/>
         <v>22.5</v>
       </c>
       <c r="Z128" s="1">
-        <f>IF(AF$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AF$1-$D128),0)</f>
+        <f t="shared" si="24"/>
         <v>27</v>
       </c>
       <c r="BF128" s="1"/>
@@ -13011,27 +13020,27 @@
         <v>6</v>
       </c>
       <c r="U129" s="1">
-        <f>IF(AA$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AA$1-$D129),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V129" s="1">
-        <f>IF(AB$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AB$1-$D129),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <f>IF(AC$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AC$1-$D129),0)</f>
+        <f t="shared" si="21"/>
         <v>14</v>
       </c>
       <c r="X129" s="1">
-        <f>IF(AD$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AD$1-$D129),0)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="Y129" s="1">
-        <f>IF(AE$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AE$1-$D129),0)</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="Z129" s="1">
-        <f>IF(AF$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AF$1-$D129),0)</f>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="BF129" s="1"/>
@@ -13098,27 +13107,27 @@
         <v>6</v>
       </c>
       <c r="U130" s="1">
-        <f>IF(AA$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AA$1-$D130),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V130" s="1">
-        <f>IF(AB$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AB$1-$D130),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W130" s="1">
-        <f>IF(AC$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AC$1-$D130),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X130" s="1">
-        <f>IF(AD$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AD$1-$D130),0)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="Y130" s="1">
-        <f>IF(AE$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AE$1-$D130),0)</f>
+        <f t="shared" si="23"/>
         <v>28</v>
       </c>
       <c r="Z130" s="1">
-        <f>IF(AF$1&gt;=$D130,$O130+$P130*($Q130+1)/2+$R130*($S130+1)/2*(AF$1-$D130),0)</f>
+        <f t="shared" si="24"/>
         <v>35</v>
       </c>
       <c r="BF130" s="1"/>
@@ -13183,27 +13192,27 @@
         <v>12</v>
       </c>
       <c r="U131" s="1">
-        <f>IF(AA$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AA$1-$D131),0)</f>
+        <f t="shared" ref="U131:U143" si="25">IF(AA$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AA$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="V131" s="1">
-        <f>IF(AB$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AB$1-$D131),0)</f>
+        <f t="shared" ref="V131:V143" si="26">IF(AB$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AB$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <f>IF(AC$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AC$1-$D131),0)</f>
+        <f t="shared" ref="W131:W143" si="27">IF(AC$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AC$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="X131" s="1">
-        <f>IF(AD$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AD$1-$D131),0)</f>
+        <f t="shared" ref="X131:X143" si="28">IF(AD$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AD$1-$D131),0)</f>
         <v>19.5</v>
       </c>
       <c r="Y131" s="1">
-        <f>IF(AE$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AE$1-$D131),0)</f>
+        <f t="shared" ref="Y131:Y143" si="29">IF(AE$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AE$1-$D131),0)</f>
         <v>26</v>
       </c>
       <c r="Z131" s="1">
-        <f>IF(AF$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AF$1-$D131),0)</f>
+        <f t="shared" ref="Z131:Z143" si="30">IF(AF$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AF$1-$D131),0)</f>
         <v>32.5</v>
       </c>
       <c r="BF131" s="1"/>
@@ -13270,27 +13279,27 @@
         <v>10</v>
       </c>
       <c r="U132" s="1">
-        <f>IF(AA$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AA$1-$D132),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V132" s="1">
-        <f>IF(AB$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AB$1-$D132),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W132" s="1">
-        <f>IF(AC$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AC$1-$D132),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X132" s="1">
-        <f>IF(AD$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AD$1-$D132),0)</f>
+        <f t="shared" si="28"/>
         <v>27.5</v>
       </c>
       <c r="Y132" s="1">
-        <f>IF(AE$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AE$1-$D132),0)</f>
+        <f t="shared" si="29"/>
         <v>33</v>
       </c>
       <c r="Z132" s="1">
-        <f>IF(AF$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AF$1-$D132),0)</f>
+        <f t="shared" si="30"/>
         <v>38.5</v>
       </c>
       <c r="BF132" s="1"/>
@@ -13355,27 +13364,27 @@
         <v>6</v>
       </c>
       <c r="U133" s="1">
-        <f>IF(AA$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AA$1-$D133),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V133" s="1">
-        <f>IF(AB$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AB$1-$D133),0)</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="W133" s="1">
-        <f>IF(AC$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AC$1-$D133),0)</f>
+        <f t="shared" si="27"/>
         <v>10.5</v>
       </c>
       <c r="X133" s="1">
-        <f>IF(AD$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AD$1-$D133),0)</f>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="Y133" s="1">
-        <f>IF(AE$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AE$1-$D133),0)</f>
+        <f t="shared" si="29"/>
         <v>17.5</v>
       </c>
       <c r="Z133" s="1">
-        <f>IF(AF$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AF$1-$D133),0)</f>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="BF133" s="1"/>
@@ -13444,27 +13453,27 @@
         <v>8</v>
       </c>
       <c r="U134" s="1">
-        <f>IF(AA$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AA$1-$D134),0)</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="V134" s="1">
-        <f>IF(AB$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AB$1-$D134),0)</f>
+        <f t="shared" si="26"/>
         <v>9</v>
       </c>
       <c r="W134" s="1">
-        <f>IF(AC$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AC$1-$D134),0)</f>
+        <f t="shared" si="27"/>
         <v>13.5</v>
       </c>
       <c r="X134" s="1">
-        <f>IF(AD$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AD$1-$D134),0)</f>
+        <f t="shared" si="28"/>
         <v>18</v>
       </c>
       <c r="Y134" s="1">
-        <f>IF(AE$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AE$1-$D134),0)</f>
+        <f t="shared" si="29"/>
         <v>22.5</v>
       </c>
       <c r="Z134" s="1">
-        <f>IF(AF$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AF$1-$D134),0)</f>
+        <f t="shared" si="30"/>
         <v>27</v>
       </c>
       <c r="BF134" s="1"/>
@@ -13529,27 +13538,27 @@
         <v>4</v>
       </c>
       <c r="U135" s="1">
-        <f>IF(AA$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AA$1-$D135),0)</f>
+        <f t="shared" si="25"/>
         <v>4.5</v>
       </c>
       <c r="V135" s="1">
-        <f>IF(AB$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AB$1-$D135),0)</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="W135" s="1">
-        <f>IF(AC$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AC$1-$D135),0)</f>
+        <f t="shared" si="27"/>
         <v>9.5</v>
       </c>
       <c r="X135" s="1">
-        <f>IF(AD$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AD$1-$D135),0)</f>
+        <f t="shared" si="28"/>
         <v>12</v>
       </c>
       <c r="Y135" s="1">
-        <f>IF(AE$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AE$1-$D135),0)</f>
+        <f t="shared" si="29"/>
         <v>14.5</v>
       </c>
       <c r="Z135" s="1">
-        <f>IF(AF$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AF$1-$D135),0)</f>
+        <f t="shared" si="30"/>
         <v>17</v>
       </c>
       <c r="BF135" s="1"/>
@@ -13618,27 +13627,27 @@
         <v>6</v>
       </c>
       <c r="U136" s="1">
-        <f>IF(AA$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AA$1-$D136),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V136" s="1">
-        <f>IF(AB$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AB$1-$D136),0)</f>
+        <f t="shared" si="26"/>
         <v>7</v>
       </c>
       <c r="W136" s="1">
-        <f>IF(AC$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AC$1-$D136),0)</f>
+        <f t="shared" si="27"/>
         <v>10.5</v>
       </c>
       <c r="X136" s="1">
-        <f>IF(AD$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AD$1-$D136),0)</f>
+        <f t="shared" si="28"/>
         <v>14</v>
       </c>
       <c r="Y136" s="1">
-        <f>IF(AE$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AE$1-$D136),0)</f>
+        <f t="shared" si="29"/>
         <v>17.5</v>
       </c>
       <c r="Z136" s="1">
-        <f>IF(AF$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AF$1-$D136),0)</f>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
     </row>
@@ -13697,27 +13706,27 @@
         <v>6</v>
       </c>
       <c r="U137" s="1">
-        <f>IF(AA$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AA$1-$D137),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V137" s="1">
-        <f>IF(AB$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AB$1-$D137),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
-        <f>IF(AC$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AC$1-$D137),0)</f>
+        <f t="shared" si="27"/>
         <v>14</v>
       </c>
       <c r="X137" s="1">
-        <f>IF(AD$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AD$1-$D137),0)</f>
+        <f t="shared" si="28"/>
         <v>21</v>
       </c>
       <c r="Y137" s="1">
-        <f>IF(AE$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AE$1-$D137),0)</f>
+        <f t="shared" si="29"/>
         <v>28</v>
       </c>
       <c r="Z137" s="1">
-        <f>IF(AF$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AF$1-$D137),0)</f>
+        <f t="shared" si="30"/>
         <v>35</v>
       </c>
       <c r="BF137" s="1"/>
@@ -13764,27 +13773,27 @@
       </c>
       <c r="M138" s="16"/>
       <c r="U138" s="1">
-        <f>IF(AA$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AA$1-$D138),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V138" s="1">
-        <f>IF(AB$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AB$1-$D138),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W138" s="1">
-        <f>IF(AC$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AC$1-$D138),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X138" s="1">
-        <f>IF(AD$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AD$1-$D138),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y138" s="1">
-        <f>IF(AE$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AE$1-$D138),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z138" s="1">
-        <f>IF(AF$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AF$1-$D138),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="BF138" s="1"/>
@@ -13851,27 +13860,27 @@
         <v>6</v>
       </c>
       <c r="U139" s="1">
-        <f>IF(AA$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AA$1-$D139),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V139" s="1">
-        <f>IF(AB$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AB$1-$D139),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W139" s="1">
-        <f>IF(AC$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AC$1-$D139),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X139" s="1">
-        <f>IF(AD$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AD$1-$D139),0)</f>
+        <f t="shared" si="28"/>
         <v>32.5</v>
       </c>
       <c r="Y139" s="1">
-        <f>IF(AE$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AE$1-$D139),0)</f>
+        <f t="shared" si="29"/>
         <v>39.5</v>
       </c>
       <c r="Z139" s="1">
-        <f>IF(AF$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AF$1-$D139),0)</f>
+        <f t="shared" si="30"/>
         <v>46.5</v>
       </c>
       <c r="BF139" s="1"/>
@@ -13936,27 +13945,27 @@
         <v>10</v>
       </c>
       <c r="U140" s="1">
-        <f>IF(AA$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AA$1-$D140),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V140" s="1">
-        <f>IF(AB$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AB$1-$D140),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W140" s="1">
-        <f>IF(AC$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AC$1-$D140),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X140" s="1">
-        <f>IF(AD$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AD$1-$D140),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y140" s="1">
-        <f>IF(AE$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AE$1-$D140),0)</f>
+        <f t="shared" si="29"/>
         <v>44</v>
       </c>
       <c r="Z140" s="1">
-        <f>IF(AF$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AF$1-$D140),0)</f>
+        <f t="shared" si="30"/>
         <v>66</v>
       </c>
       <c r="BF140" s="1"/>
@@ -14021,27 +14030,27 @@
         <v>6</v>
       </c>
       <c r="U141" s="1">
-        <f>IF(AA$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AA$1-$D141),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V141" s="1">
-        <f>IF(AB$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AB$1-$D141),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W141" s="1">
-        <f>IF(AC$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AC$1-$D141),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X141" s="1">
-        <f>IF(AD$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AD$1-$D141),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y141" s="1">
-        <f>IF(AE$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AE$1-$D141),0)</f>
+        <f t="shared" si="29"/>
         <v>42</v>
       </c>
       <c r="Z141" s="1">
-        <f>IF(AF$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AF$1-$D141),0)</f>
+        <f t="shared" si="30"/>
         <v>56</v>
       </c>
       <c r="BF141" s="1"/>
@@ -14105,27 +14114,27 @@
         <v>0</v>
       </c>
       <c r="U142" s="1">
-        <f>IF(AA$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AA$1-$D142),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V142" s="1">
-        <f>IF(AB$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AB$1-$D142),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="W142" s="1">
-        <f>IF(AC$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AC$1-$D142),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="X142" s="1">
-        <f>IF(AD$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AD$1-$D142),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="Y142" s="1">
-        <f>IF(AE$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AE$1-$D142),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Z142" s="1">
-        <f>IF(AF$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AF$1-$D142),0)</f>
+        <f t="shared" si="30"/>
         <v>82.5</v>
       </c>
       <c r="BF142" s="1"/>
@@ -14192,27 +14201,27 @@
         <v>4</v>
       </c>
       <c r="U143" s="1">
-        <f>IF(AA$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AA$1-$D143),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V143" s="1">
-        <f>IF(AB$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AB$1-$D143),0)</f>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="W143" s="1">
-        <f>IF(AC$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AC$1-$D143),0)</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="X143" s="1">
-        <f>IF(AD$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AD$1-$D143),0)</f>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="Y143" s="1">
-        <f>IF(AE$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AE$1-$D143),0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="Z143" s="1">
-        <f>IF(AF$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AF$1-$D143),0)</f>
+        <f t="shared" si="30"/>
         <v>12.5</v>
       </c>
       <c r="BF143" s="1"/>
@@ -14292,27 +14301,27 @@
       </c>
       <c r="M145" s="12"/>
       <c r="U145" s="1">
-        <f>IF(AA$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AA$1-$D145),0)</f>
+        <f t="shared" ref="U145:U174" si="31">IF(AA$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AA$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="V145" s="1">
-        <f>IF(AB$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AB$1-$D145),0)</f>
+        <f t="shared" ref="V145:V174" si="32">IF(AB$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AB$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="W145" s="1">
-        <f>IF(AC$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AC$1-$D145),0)</f>
+        <f t="shared" ref="W145:W174" si="33">IF(AC$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AC$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="X145" s="1">
-        <f>IF(AD$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AD$1-$D145),0)</f>
+        <f t="shared" ref="X145:X174" si="34">IF(AD$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AD$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="Y145" s="1">
-        <f>IF(AE$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AE$1-$D145),0)</f>
+        <f t="shared" ref="Y145:Y174" si="35">IF(AE$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AE$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="Z145" s="1">
-        <f>IF(AF$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AF$1-$D145),0)</f>
+        <f t="shared" ref="Z145:Z174" si="36">IF(AF$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AF$1-$D145),0)</f>
         <v>0</v>
       </c>
       <c r="BF145" s="1"/>
@@ -14355,27 +14364,27 @@
       </c>
       <c r="M146" s="12"/>
       <c r="U146" s="1">
-        <f>IF(AA$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AA$1-$D146),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V146" s="1">
-        <f>IF(AB$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AB$1-$D146),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W146" s="1">
-        <f>IF(AC$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AC$1-$D146),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X146" s="1">
-        <f>IF(AD$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AD$1-$D146),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y146" s="1">
-        <f>IF(AE$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AE$1-$D146),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z146" s="1">
-        <f>IF(AF$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AF$1-$D146),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF146" s="1"/>
@@ -14420,27 +14429,27 @@
       </c>
       <c r="M147" s="12"/>
       <c r="U147" s="1">
-        <f>IF(AA$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AA$1-$D147),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V147" s="1">
-        <f>IF(AB$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AB$1-$D147),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W147" s="1">
-        <f>IF(AC$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AC$1-$D147),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X147" s="1">
-        <f>IF(AD$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AD$1-$D147),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y147" s="1">
-        <f>IF(AE$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AE$1-$D147),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z147" s="1">
-        <f>IF(AF$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AF$1-$D147),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF147" s="1"/>
@@ -14487,27 +14496,27 @@
       </c>
       <c r="M148" s="12"/>
       <c r="U148" s="1">
-        <f>IF(AA$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AA$1-$D148),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V148" s="1">
-        <f>IF(AB$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AB$1-$D148),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W148" s="1">
-        <f>IF(AC$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AC$1-$D148),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X148" s="1">
-        <f>IF(AD$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AD$1-$D148),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y148" s="1">
-        <f>IF(AE$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AE$1-$D148),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z148" s="1">
-        <f>IF(AF$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AF$1-$D148),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF148" s="1"/>
@@ -14550,27 +14559,27 @@
       </c>
       <c r="M149" s="12"/>
       <c r="U149" s="1">
-        <f>IF(AA$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AA$1-$D149),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V149" s="1">
-        <f>IF(AB$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AB$1-$D149),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W149" s="1">
-        <f>IF(AC$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AC$1-$D149),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X149" s="1">
-        <f>IF(AD$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AD$1-$D149),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y149" s="1">
-        <f>IF(AE$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AE$1-$D149),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z149" s="1">
-        <f>IF(AF$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AF$1-$D149),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF149" s="1"/>
@@ -14613,27 +14622,27 @@
       </c>
       <c r="M150" s="12"/>
       <c r="U150" s="1">
-        <f>IF(AA$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AA$1-$D150),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V150" s="1">
-        <f>IF(AB$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AB$1-$D150),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W150" s="1">
-        <f>IF(AC$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AC$1-$D150),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X150" s="1">
-        <f>IF(AD$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AD$1-$D150),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y150" s="1">
-        <f>IF(AE$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AE$1-$D150),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z150" s="1">
-        <f>IF(AF$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AF$1-$D150),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF150" s="1"/>
@@ -14677,27 +14686,27 @@
         <v>190</v>
       </c>
       <c r="U151" s="1">
-        <f>IF(AA$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AA$1-$D151),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V151" s="1">
-        <f>IF(AB$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AB$1-$D151),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W151" s="1">
-        <f>IF(AC$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AC$1-$D151),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X151" s="1">
-        <f>IF(AD$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AD$1-$D151),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y151" s="1">
-        <f>IF(AE$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AE$1-$D151),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z151" s="1">
-        <f>IF(AF$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AF$1-$D151),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF151" s="1"/>
@@ -14744,27 +14753,27 @@
       </c>
       <c r="M152" s="12"/>
       <c r="U152" s="1">
-        <f>IF(AA$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AA$1-$D152),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V152" s="1">
-        <f>IF(AB$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AB$1-$D152),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W152" s="1">
-        <f>IF(AC$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AC$1-$D152),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X152" s="1">
-        <f>IF(AD$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AD$1-$D152),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y152" s="1">
-        <f>IF(AE$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AE$1-$D152),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z152" s="1">
-        <f>IF(AF$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AF$1-$D152),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -14821,27 +14830,27 @@
         <v>6</v>
       </c>
       <c r="U153" s="1">
-        <f>IF(AA$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AA$1-$D153),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V153" s="1">
-        <f>IF(AB$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AB$1-$D153),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W153" s="1">
-        <f>IF(AC$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AC$1-$D153),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X153" s="1">
-        <f>IF(AD$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AD$1-$D153),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y153" s="1">
-        <f>IF(AE$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AE$1-$D153),0)</f>
+        <f t="shared" si="35"/>
         <v>35</v>
       </c>
       <c r="Z153" s="1">
-        <f>IF(AF$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AF$1-$D153),0)</f>
+        <f t="shared" si="36"/>
         <v>42</v>
       </c>
       <c r="BF153" s="1"/>
@@ -14884,27 +14893,27 @@
       </c>
       <c r="M154" s="12"/>
       <c r="U154" s="1">
-        <f>IF(AA$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AA$1-$D154),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V154" s="1">
-        <f>IF(AB$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AB$1-$D154),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W154" s="1">
-        <f>IF(AC$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AC$1-$D154),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X154" s="1">
-        <f>IF(AD$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AD$1-$D154),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y154" s="1">
-        <f>IF(AE$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AE$1-$D154),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z154" s="1">
-        <f>IF(AF$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AF$1-$D154),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF154" s="1"/>
@@ -14947,27 +14956,27 @@
       </c>
       <c r="M155" s="12"/>
       <c r="U155" s="1">
-        <f>IF(AA$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AA$1-$D155),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V155" s="1">
-        <f>IF(AB$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AB$1-$D155),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W155" s="1">
-        <f>IF(AC$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AC$1-$D155),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X155" s="1">
-        <f>IF(AD$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AD$1-$D155),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y155" s="1">
-        <f>IF(AE$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AE$1-$D155),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z155" s="1">
-        <f>IF(AF$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AF$1-$D155),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -15002,27 +15011,27 @@
       </c>
       <c r="M156" s="12"/>
       <c r="U156" s="1">
-        <f>IF(AA$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AA$1-$D156),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V156" s="1">
-        <f>IF(AB$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AB$1-$D156),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W156" s="1">
-        <f>IF(AC$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AC$1-$D156),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X156" s="1">
-        <f>IF(AD$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AD$1-$D156),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y156" s="1">
-        <f>IF(AE$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AE$1-$D156),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z156" s="1">
-        <f>IF(AF$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AF$1-$D156),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF156" s="1"/>
@@ -15065,27 +15074,27 @@
         <v>193</v>
       </c>
       <c r="U157" s="1">
-        <f>IF(AA$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AA$1-$D157),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V157" s="1">
-        <f>IF(AB$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AB$1-$D157),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W157" s="1">
-        <f>IF(AC$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AC$1-$D157),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X157" s="1">
-        <f>IF(AD$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AD$1-$D157),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y157" s="1">
-        <f>IF(AE$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AE$1-$D157),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z157" s="1">
-        <f>IF(AF$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AF$1-$D157),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF157" s="1"/>
@@ -15132,27 +15141,27 @@
         <v>208</v>
       </c>
       <c r="U158" s="1">
-        <f>IF(AA$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AA$1-$D158),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V158" s="1">
-        <f>IF(AB$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AB$1-$D158),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W158" s="1">
-        <f>IF(AC$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AC$1-$D158),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X158" s="1">
-        <f>IF(AD$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AD$1-$D158),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y158" s="1">
-        <f>IF(AE$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AE$1-$D158),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z158" s="1">
-        <f>IF(AF$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AF$1-$D158),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF158" s="1"/>
@@ -15197,27 +15206,27 @@
       </c>
       <c r="M159" s="12"/>
       <c r="U159" s="1">
-        <f>IF(AA$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AA$1-$D159),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V159" s="1">
-        <f>IF(AB$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AB$1-$D159),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W159" s="1">
-        <f>IF(AC$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AC$1-$D159),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X159" s="1">
-        <f>IF(AD$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AD$1-$D159),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y159" s="1">
-        <f>IF(AE$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AE$1-$D159),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z159" s="1">
-        <f>IF(AF$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AF$1-$D159),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -15254,27 +15263,27 @@
         <v>152</v>
       </c>
       <c r="U160" s="1">
-        <f>IF(AA$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AA$1-$D160),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V160" s="1">
-        <f>IF(AB$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AB$1-$D160),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W160" s="1">
-        <f>IF(AC$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AC$1-$D160),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X160" s="1">
-        <f>IF(AD$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AD$1-$D160),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y160" s="1">
-        <f>IF(AE$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AE$1-$D160),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z160" s="1">
-        <f>IF(AF$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AF$1-$D160),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF160" s="1"/>
@@ -15317,27 +15326,27 @@
       </c>
       <c r="M161" s="12"/>
       <c r="U161" s="1">
-        <f>IF(AA$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AA$1-$D161),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V161" s="1">
-        <f>IF(AB$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AB$1-$D161),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W161" s="1">
-        <f>IF(AC$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AC$1-$D161),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X161" s="1">
-        <f>IF(AD$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AD$1-$D161),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y161" s="1">
-        <f>IF(AE$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AE$1-$D161),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z161" s="1">
-        <f>IF(AF$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AF$1-$D161),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF161" s="1"/>
@@ -15380,27 +15389,27 @@
       </c>
       <c r="M162" s="12"/>
       <c r="U162" s="1">
-        <f>IF(AA$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AA$1-$D162),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V162" s="1">
-        <f>IF(AB$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AB$1-$D162),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W162" s="1">
-        <f>IF(AC$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AC$1-$D162),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X162" s="1">
-        <f>IF(AD$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AD$1-$D162),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y162" s="1">
-        <f>IF(AE$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AE$1-$D162),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z162" s="1">
-        <f>IF(AF$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AF$1-$D162),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF162" s="1"/>
@@ -15445,27 +15454,27 @@
       </c>
       <c r="M163" s="12"/>
       <c r="U163" s="1">
-        <f>IF(AA$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AA$1-$D163),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V163" s="1">
-        <f>IF(AB$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AB$1-$D163),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W163" s="1">
-        <f>IF(AC$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AC$1-$D163),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X163" s="1">
-        <f>IF(AD$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AD$1-$D163),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y163" s="1">
-        <f>IF(AE$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AE$1-$D163),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z163" s="1">
-        <f>IF(AF$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AF$1-$D163),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF163" s="1"/>
@@ -15512,27 +15521,27 @@
         <v>202</v>
       </c>
       <c r="U164" s="1">
-        <f>IF(AA$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AA$1-$D164),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V164" s="1">
-        <f>IF(AB$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AB$1-$D164),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W164" s="1">
-        <f>IF(AC$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AC$1-$D164),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X164" s="1">
-        <f>IF(AD$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AD$1-$D164),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y164" s="1">
-        <f>IF(AE$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AE$1-$D164),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z164" s="1">
-        <f>IF(AF$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AF$1-$D164),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF164" s="1"/>
@@ -15575,27 +15584,27 @@
       </c>
       <c r="M165" s="12"/>
       <c r="U165" s="1">
-        <f>IF(AA$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AA$1-$D165),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V165" s="1">
-        <f>IF(AB$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AB$1-$D165),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W165" s="1">
-        <f>IF(AC$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AC$1-$D165),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X165" s="1">
-        <f>IF(AD$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AD$1-$D165),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y165" s="1">
-        <f>IF(AE$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AE$1-$D165),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z165" s="1">
-        <f>IF(AF$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AF$1-$D165),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF165" s="1"/>
@@ -15637,27 +15646,27 @@
         <v>159</v>
       </c>
       <c r="U166" s="1">
-        <f>IF(AA$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AA$1-$D166),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V166" s="1">
-        <f>IF(AB$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AB$1-$D166),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W166" s="1">
-        <f>IF(AC$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AC$1-$D166),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X166" s="1">
-        <f>IF(AD$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AD$1-$D166),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y166" s="1">
-        <f>IF(AE$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AE$1-$D166),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z166" s="1">
-        <f>IF(AF$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AF$1-$D166),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF166" s="1"/>
@@ -15700,27 +15709,27 @@
       </c>
       <c r="M167" s="12"/>
       <c r="U167" s="1">
-        <f>IF(AA$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AA$1-$D167),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V167" s="1">
-        <f>IF(AB$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AB$1-$D167),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W167" s="1">
-        <f>IF(AC$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AC$1-$D167),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X167" s="1">
-        <f>IF(AD$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AD$1-$D167),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y167" s="1">
-        <f>IF(AE$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AE$1-$D167),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z167" s="1">
-        <f>IF(AF$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AF$1-$D167),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF167" s="1"/>
@@ -15762,27 +15771,27 @@
         <v>177</v>
       </c>
       <c r="U168" s="1">
-        <f>IF(AA$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AA$1-$D168),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V168" s="1">
-        <f>IF(AB$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AB$1-$D168),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W168" s="1">
-        <f>IF(AC$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AC$1-$D168),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X168" s="1">
-        <f>IF(AD$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AD$1-$D168),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y168" s="1">
-        <f>IF(AE$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AE$1-$D168),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z168" s="1">
-        <f>IF(AF$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AF$1-$D168),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF168" s="1"/>
@@ -15824,27 +15833,27 @@
         <v>197</v>
       </c>
       <c r="U169" s="1">
-        <f>IF(AA$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AA$1-$D169),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V169" s="1">
-        <f>IF(AB$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AB$1-$D169),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W169" s="1">
-        <f>IF(AC$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AC$1-$D169),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X169" s="1">
-        <f>IF(AD$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AD$1-$D169),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y169" s="1">
-        <f>IF(AE$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AE$1-$D169),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z169" s="1">
-        <f>IF(AF$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AF$1-$D169),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF169" s="1"/>
@@ -15909,27 +15918,27 @@
         <v>8</v>
       </c>
       <c r="U170" s="1">
-        <f>IF(AA$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AA$1-$D170),0)</f>
+        <f t="shared" si="31"/>
         <v>4.5</v>
       </c>
       <c r="V170" s="1">
-        <f>IF(AB$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AB$1-$D170),0)</f>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="W170" s="1">
-        <f>IF(AC$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AC$1-$D170),0)</f>
+        <f t="shared" si="33"/>
         <v>13.5</v>
       </c>
       <c r="X170" s="1">
-        <f>IF(AD$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AD$1-$D170),0)</f>
+        <f t="shared" si="34"/>
         <v>18</v>
       </c>
       <c r="Y170" s="1">
-        <f>IF(AE$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AE$1-$D170),0)</f>
+        <f t="shared" si="35"/>
         <v>22.5</v>
       </c>
       <c r="Z170" s="1">
-        <f>IF(AF$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AF$1-$D170),0)</f>
+        <f t="shared" si="36"/>
         <v>27</v>
       </c>
       <c r="BF170" s="1"/>
@@ -15975,27 +15984,27 @@
         <v>231</v>
       </c>
       <c r="U171" s="1">
-        <f>IF(AA$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AA$1-$D171),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V171" s="1">
-        <f>IF(AB$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AB$1-$D171),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W171" s="1">
-        <f>IF(AC$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AC$1-$D171),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X171" s="1">
-        <f>IF(AD$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AD$1-$D171),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y171" s="1">
-        <f>IF(AE$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AE$1-$D171),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z171" s="1">
-        <f>IF(AF$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AF$1-$D171),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
     </row>
@@ -16052,27 +16061,27 @@
         <v>10</v>
       </c>
       <c r="U172" s="1">
-        <f>IF(AA$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AA$1-$D172),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V172" s="1">
-        <f>IF(AB$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AB$1-$D172),0)</f>
+        <f t="shared" si="32"/>
         <v>9</v>
       </c>
       <c r="W172" s="1">
-        <f>IF(AC$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AC$1-$D172),0)</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="X172" s="1">
-        <f>IF(AD$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AD$1-$D172),0)</f>
+        <f t="shared" si="34"/>
         <v>9</v>
       </c>
       <c r="Y172" s="1">
-        <f>IF(AE$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AE$1-$D172),0)</f>
+        <f t="shared" si="35"/>
         <v>9</v>
       </c>
       <c r="Z172" s="1">
-        <f>IF(AF$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AF$1-$D172),0)</f>
+        <f t="shared" si="36"/>
         <v>9</v>
       </c>
       <c r="BF172" s="1"/>
@@ -16137,27 +16146,27 @@
         <v>12</v>
       </c>
       <c r="U173" s="1">
-        <f>IF(AA$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AA$1-$D173),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V173" s="1">
-        <f>IF(AB$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AB$1-$D173),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W173" s="1">
-        <f>IF(AC$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AC$1-$D173),0)</f>
+        <f t="shared" si="33"/>
         <v>14</v>
       </c>
       <c r="X173" s="1">
-        <f>IF(AD$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AD$1-$D173),0)</f>
+        <f t="shared" si="34"/>
         <v>27</v>
       </c>
       <c r="Y173" s="1">
-        <f>IF(AE$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AE$1-$D173),0)</f>
+        <f t="shared" si="35"/>
         <v>40</v>
       </c>
       <c r="Z173" s="1">
-        <f>IF(AF$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AF$1-$D173),0)</f>
+        <f t="shared" si="36"/>
         <v>53</v>
       </c>
       <c r="BF173" s="1"/>
@@ -16201,27 +16210,27 @@
         <v>284</v>
       </c>
       <c r="U174" s="1">
-        <f>IF(AA$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AA$1-$D174),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="V174" s="1">
-        <f>IF(AB$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AB$1-$D174),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="W174" s="1">
-        <f>IF(AC$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AC$1-$D174),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="X174" s="1">
-        <f>IF(AD$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AD$1-$D174),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="Y174" s="1">
-        <f>IF(AE$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AE$1-$D174),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Z174" s="1">
-        <f>IF(AF$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AF$1-$D174),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="BF174" s="1"/>
@@ -16306,27 +16315,27 @@
         <v>293</v>
       </c>
       <c r="U176" s="1">
-        <f>IF(AA$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AA$1-$D176),0)</f>
+        <f t="shared" ref="U176:U198" si="37">IF(AA$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AA$1-$D176),0)</f>
         <v>0</v>
       </c>
       <c r="V176" s="1">
-        <f>IF(AB$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AB$1-$D176),0)</f>
+        <f t="shared" ref="V176:V198" si="38">IF(AB$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AB$1-$D176),0)</f>
         <v>0</v>
       </c>
       <c r="W176" s="1">
-        <f>IF(AC$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AC$1-$D176),0)</f>
+        <f t="shared" ref="W176:W198" si="39">IF(AC$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AC$1-$D176),0)</f>
         <v>0</v>
       </c>
       <c r="X176" s="1">
-        <f>IF(AD$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AD$1-$D176),0)</f>
+        <f t="shared" ref="X176:X198" si="40">IF(AD$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AD$1-$D176),0)</f>
         <v>0</v>
       </c>
       <c r="Y176" s="1">
-        <f>IF(AE$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AE$1-$D176),0)</f>
+        <f t="shared" ref="Y176:Y198" si="41">IF(AE$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AE$1-$D176),0)</f>
         <v>0</v>
       </c>
       <c r="Z176" s="1">
-        <f>IF(AF$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AF$1-$D176),0)</f>
+        <f t="shared" ref="Z176:Z198" si="42">IF(AF$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AF$1-$D176),0)</f>
         <v>0</v>
       </c>
     </row>
@@ -16358,27 +16367,27 @@
         <v>298</v>
       </c>
       <c r="U177" s="1">
-        <f>IF(AA$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AA$1-$D177),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V177" s="1">
-        <f>IF(AB$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AB$1-$D177),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W177" s="1">
-        <f>IF(AC$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AC$1-$D177),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X177" s="1">
-        <f>IF(AD$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AD$1-$D177),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y177" s="1">
-        <f>IF(AE$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AE$1-$D177),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z177" s="1">
-        <f>IF(AF$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AF$1-$D177),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF177" s="1"/>
@@ -16445,27 +16454,27 @@
         <v>10</v>
       </c>
       <c r="U178" s="1">
-        <f>IF(AA$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AA$1-$D178),0)</f>
+        <f t="shared" si="37"/>
         <v>5.5</v>
       </c>
       <c r="V178" s="1">
-        <f>IF(AB$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AB$1-$D178),0)</f>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="W178" s="1">
-        <f>IF(AC$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AC$1-$D178),0)</f>
+        <f t="shared" si="39"/>
         <v>16.5</v>
       </c>
       <c r="X178" s="1">
-        <f>IF(AD$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AD$1-$D178),0)</f>
+        <f t="shared" si="40"/>
         <v>22</v>
       </c>
       <c r="Y178" s="1">
-        <f>IF(AE$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AE$1-$D178),0)</f>
+        <f t="shared" si="41"/>
         <v>27.5</v>
       </c>
       <c r="Z178" s="1">
-        <f>IF(AF$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AF$1-$D178),0)</f>
+        <f t="shared" si="42"/>
         <v>33</v>
       </c>
       <c r="BF178" s="1"/>
@@ -16510,27 +16519,27 @@
       </c>
       <c r="M179" s="15"/>
       <c r="U179" s="1">
-        <f>IF(AA$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AA$1-$D179),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V179" s="1">
-        <f>IF(AB$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AB$1-$D179),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W179" s="1">
-        <f>IF(AC$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AC$1-$D179),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X179" s="1">
-        <f>IF(AD$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AD$1-$D179),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y179" s="1">
-        <f>IF(AE$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AE$1-$D179),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z179" s="1">
-        <f>IF(AF$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AF$1-$D179),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF179" s="1"/>
@@ -16595,27 +16604,27 @@
         <v>8</v>
       </c>
       <c r="U180" s="1">
-        <f>IF(AA$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AA$1-$D180),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V180" s="1">
-        <f>IF(AB$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AB$1-$D180),0)</f>
+        <f t="shared" si="38"/>
         <v>11</v>
       </c>
       <c r="W180" s="1">
-        <f>IF(AC$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AC$1-$D180),0)</f>
+        <f t="shared" si="39"/>
         <v>15.5</v>
       </c>
       <c r="X180" s="1">
-        <f>IF(AD$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AD$1-$D180),0)</f>
+        <f t="shared" si="40"/>
         <v>20</v>
       </c>
       <c r="Y180" s="1">
-        <f>IF(AE$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AE$1-$D180),0)</f>
+        <f t="shared" si="41"/>
         <v>24.5</v>
       </c>
       <c r="Z180" s="1">
-        <f>IF(AF$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AF$1-$D180),0)</f>
+        <f t="shared" si="42"/>
         <v>29</v>
       </c>
       <c r="BF180" s="1"/>
@@ -16684,27 +16693,27 @@
         <v>12</v>
       </c>
       <c r="U181" s="1">
-        <f>IF(AA$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AA$1-$D181),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V181" s="1">
-        <f>IF(AB$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AB$1-$D181),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W181" s="1">
-        <f>IF(AC$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AC$1-$D181),0)</f>
+        <f t="shared" si="39"/>
         <v>19.5</v>
       </c>
       <c r="X181" s="1">
-        <f>IF(AD$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AD$1-$D181),0)</f>
+        <f t="shared" si="40"/>
         <v>26</v>
       </c>
       <c r="Y181" s="1">
-        <f>IF(AE$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AE$1-$D181),0)</f>
+        <f t="shared" si="41"/>
         <v>32.5</v>
       </c>
       <c r="Z181" s="1">
-        <f>IF(AF$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AF$1-$D181),0)</f>
+        <f t="shared" si="42"/>
         <v>39</v>
       </c>
       <c r="BF181" s="1"/>
@@ -16769,27 +16778,27 @@
         <v>4</v>
       </c>
       <c r="U182" s="1">
-        <f>IF(AA$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AA$1-$D182),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V182" s="1">
-        <f>IF(AB$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AB$1-$D182),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W182" s="1">
-        <f>IF(AC$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AC$1-$D182),0)</f>
+        <f t="shared" si="39"/>
         <v>5</v>
       </c>
       <c r="X182" s="1">
-        <f>IF(AD$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AD$1-$D182),0)</f>
+        <f t="shared" si="40"/>
         <v>10</v>
       </c>
       <c r="Y182" s="1">
-        <f>IF(AE$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AE$1-$D182),0)</f>
+        <f t="shared" si="41"/>
         <v>15</v>
       </c>
       <c r="Z182" s="1">
-        <f>IF(AF$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AF$1-$D182),0)</f>
+        <f t="shared" si="42"/>
         <v>20</v>
       </c>
       <c r="BF182" s="1"/>
@@ -16835,27 +16844,27 @@
         <v>281</v>
       </c>
       <c r="U183" s="1">
-        <f>IF(AA$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AA$1-$D183),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V183" s="1">
-        <f>IF(AB$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AB$1-$D183),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W183" s="1">
-        <f>IF(AC$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AC$1-$D183),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X183" s="1">
-        <f>IF(AD$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AD$1-$D183),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y183" s="1">
-        <f>IF(AE$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AE$1-$D183),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z183" s="1">
-        <f>IF(AF$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AF$1-$D183),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF183" s="1"/>
@@ -16901,27 +16910,27 @@
         <v>296</v>
       </c>
       <c r="U184" s="1">
-        <f>IF(AA$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AA$1-$D184),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V184" s="1">
-        <f>IF(AB$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AB$1-$D184),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W184" s="1">
-        <f>IF(AC$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AC$1-$D184),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X184" s="1">
-        <f>IF(AD$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AD$1-$D184),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y184" s="1">
-        <f>IF(AE$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AE$1-$D184),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z184" s="1">
-        <f>IF(AF$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AF$1-$D184),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF184" s="1"/>
@@ -16986,27 +16995,27 @@
         <v>8</v>
       </c>
       <c r="U185" s="1">
-        <f>IF(AA$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AA$1-$D185),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V185" s="1">
-        <f>IF(AB$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AB$1-$D185),0)</f>
+        <f t="shared" si="38"/>
         <v>9</v>
       </c>
       <c r="W185" s="1">
-        <f>IF(AC$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AC$1-$D185),0)</f>
+        <f t="shared" si="39"/>
         <v>13.5</v>
       </c>
       <c r="X185" s="1">
-        <f>IF(AD$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AD$1-$D185),0)</f>
+        <f t="shared" si="40"/>
         <v>18</v>
       </c>
       <c r="Y185" s="1">
-        <f>IF(AE$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AE$1-$D185),0)</f>
+        <f t="shared" si="41"/>
         <v>22.5</v>
       </c>
       <c r="Z185" s="1">
-        <f>IF(AF$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AF$1-$D185),0)</f>
+        <f t="shared" si="42"/>
         <v>27</v>
       </c>
       <c r="BF185" s="1"/>
@@ -17048,27 +17057,27 @@
         <v>261</v>
       </c>
       <c r="U186" s="1">
-        <f>IF(AA$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AA$1-$D186),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V186" s="1">
-        <f>IF(AB$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AB$1-$D186),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W186" s="1">
-        <f>IF(AC$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AC$1-$D186),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X186" s="1">
-        <f>IF(AD$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AD$1-$D186),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y186" s="1">
-        <f>IF(AE$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AE$1-$D186),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z186" s="1">
-        <f>IF(AF$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AF$1-$D186),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF186" s="1"/>
@@ -17113,27 +17122,27 @@
         <v>277</v>
       </c>
       <c r="U187" s="1">
-        <f>IF(AA$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AA$1-$D187),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V187" s="1">
-        <f>IF(AB$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AB$1-$D187),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W187" s="1">
-        <f>IF(AC$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AC$1-$D187),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X187" s="1">
-        <f>IF(AD$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AD$1-$D187),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y187" s="1">
-        <f>IF(AE$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AE$1-$D187),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z187" s="1">
-        <f>IF(AF$1&gt;=$D187,$O187+$P187*($Q187+1)/2+$R187*($S187+1)/2*(AF$1-$D187),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF187" s="1"/>
@@ -17178,27 +17187,27 @@
         <v>289</v>
       </c>
       <c r="U188" s="1">
-        <f>IF(AA$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AA$1-$D188),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V188" s="1">
-        <f>IF(AB$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AB$1-$D188),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W188" s="1">
-        <f>IF(AC$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AC$1-$D188),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X188" s="1">
-        <f>IF(AD$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AD$1-$D188),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y188" s="1">
-        <f>IF(AE$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AE$1-$D188),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z188" s="1">
-        <f>IF(AF$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AF$1-$D188),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF188" s="1"/>
@@ -17244,27 +17253,27 @@
         <v>308</v>
       </c>
       <c r="U189" s="1">
-        <f>IF(AA$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AA$1-$D189),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V189" s="1">
-        <f>IF(AB$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AB$1-$D189),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W189" s="1">
-        <f>IF(AC$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AC$1-$D189),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X189" s="1">
-        <f>IF(AD$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AD$1-$D189),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y189" s="1">
-        <f>IF(AE$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AE$1-$D189),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z189" s="1">
-        <f>IF(AF$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AF$1-$D189),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF189" s="1"/>
@@ -17331,27 +17340,27 @@
         <v>8</v>
       </c>
       <c r="U190" s="1">
-        <f>IF(AA$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AA$1-$D190),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V190" s="1">
-        <f>IF(AB$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AB$1-$D190),0)</f>
+        <f t="shared" si="38"/>
         <v>13.5</v>
       </c>
       <c r="W190" s="1">
-        <f>IF(AC$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AC$1-$D190),0)</f>
+        <f t="shared" si="39"/>
         <v>18</v>
       </c>
       <c r="X190" s="1">
-        <f>IF(AD$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AD$1-$D190),0)</f>
+        <f t="shared" si="40"/>
         <v>22.5</v>
       </c>
       <c r="Y190" s="1">
-        <f>IF(AE$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AE$1-$D190),0)</f>
+        <f t="shared" si="41"/>
         <v>27</v>
       </c>
       <c r="Z190" s="1">
-        <f>IF(AF$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AF$1-$D190),0)</f>
+        <f t="shared" si="42"/>
         <v>31.5</v>
       </c>
       <c r="BF190" s="1"/>
@@ -17393,27 +17402,27 @@
         <v>329</v>
       </c>
       <c r="U191" s="1">
-        <f>IF(AA$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AA$1-$D191),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V191" s="1">
-        <f>IF(AB$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AB$1-$D191),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W191" s="1">
-        <f>IF(AC$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AC$1-$D191),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X191" s="1">
-        <f>IF(AD$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AD$1-$D191),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y191" s="1">
-        <f>IF(AE$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AE$1-$D191),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z191" s="1">
-        <f>IF(AF$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AF$1-$D191),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF191" s="1"/>
@@ -17455,27 +17464,27 @@
         <v>347</v>
       </c>
       <c r="U192" s="1">
-        <f>IF(AA$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AA$1-$D192),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V192" s="1">
-        <f>IF(AB$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AB$1-$D192),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W192" s="1">
-        <f>IF(AC$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AC$1-$D192),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X192" s="1">
-        <f>IF(AD$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AD$1-$D192),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y192" s="1">
-        <f>IF(AE$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AE$1-$D192),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z192" s="1">
-        <f>IF(AF$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AF$1-$D192),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF192" s="1"/>
@@ -17517,27 +17526,27 @@
         <v>301</v>
       </c>
       <c r="U193" s="1">
-        <f>IF(AA$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AA$1-$D193),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V193" s="1">
-        <f>IF(AB$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AB$1-$D193),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W193" s="1">
-        <f>IF(AC$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AC$1-$D193),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X193" s="1">
-        <f>IF(AD$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AD$1-$D193),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y193" s="1">
-        <f>IF(AE$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AE$1-$D193),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z193" s="1">
-        <f>IF(AF$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AF$1-$D193),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF193" s="1"/>
@@ -17582,27 +17591,27 @@
         <v>304</v>
       </c>
       <c r="U194" s="1">
-        <f>IF(AA$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AA$1-$D194),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V194" s="1">
-        <f>IF(AB$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AB$1-$D194),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W194" s="1">
-        <f>IF(AC$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AC$1-$D194),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X194" s="1">
-        <f>IF(AD$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AD$1-$D194),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y194" s="1">
-        <f>IF(AE$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AE$1-$D194),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z194" s="1">
-        <f>IF(AF$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AF$1-$D194),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF194" s="1"/>
@@ -17649,27 +17658,27 @@
         <v>312</v>
       </c>
       <c r="U195" s="1">
-        <f>IF(AA$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AA$1-$D195),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V195" s="1">
-        <f>IF(AB$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AB$1-$D195),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W195" s="1">
-        <f>IF(AC$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AC$1-$D195),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X195" s="1">
-        <f>IF(AD$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AD$1-$D195),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y195" s="1">
-        <f>IF(AE$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AE$1-$D195),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z195" s="1">
-        <f>IF(AF$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AF$1-$D195),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF195" s="1"/>
@@ -17711,27 +17720,27 @@
         <v>319</v>
       </c>
       <c r="U196" s="1">
-        <f>IF(AA$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AA$1-$D196),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V196" s="1">
-        <f>IF(AB$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AB$1-$D196),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W196" s="1">
-        <f>IF(AC$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AC$1-$D196),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X196" s="1">
-        <f>IF(AD$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AD$1-$D196),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y196" s="1">
-        <f>IF(AE$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AE$1-$D196),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z196" s="1">
-        <f>IF(AF$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AF$1-$D196),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF196" s="1"/>
@@ -17773,27 +17782,27 @@
         <v>322</v>
       </c>
       <c r="U197" s="1">
-        <f>IF(AA$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AA$1-$D197),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V197" s="1">
-        <f>IF(AB$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AB$1-$D197),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W197" s="1">
-        <f>IF(AC$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AC$1-$D197),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X197" s="1">
-        <f>IF(AD$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AD$1-$D197),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y197" s="1">
-        <f>IF(AE$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AE$1-$D197),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z197" s="1">
-        <f>IF(AF$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AF$1-$D197),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF197" s="1"/>
@@ -17835,27 +17844,27 @@
         <v>336</v>
       </c>
       <c r="U198" s="1">
-        <f>IF(AA$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AA$1-$D198),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="V198" s="1">
-        <f>IF(AB$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AB$1-$D198),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="W198" s="1">
-        <f>IF(AC$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AC$1-$D198),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="X198" s="1">
-        <f>IF(AD$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AD$1-$D198),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="Y198" s="1">
-        <f>IF(AE$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AE$1-$D198),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Z198" s="1">
-        <f>IF(AF$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AF$1-$D198),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="BF198" s="1"/>
@@ -17952,27 +17961,27 @@
         <v>12</v>
       </c>
       <c r="U200" s="1">
-        <f>IF(AA$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AA$1-$D200),0)</f>
+        <f t="shared" ref="U200:U246" si="43">IF(AA$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AA$1-$D200),0)</f>
         <v>0</v>
       </c>
       <c r="V200" s="1">
-        <f>IF(AB$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AB$1-$D200),0)</f>
+        <f t="shared" ref="V200:V246" si="44">IF(AB$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AB$1-$D200),0)</f>
         <v>0</v>
       </c>
       <c r="W200" s="1">
-        <f>IF(AC$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AC$1-$D200),0)</f>
+        <f t="shared" ref="W200:W246" si="45">IF(AC$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AC$1-$D200),0)</f>
         <v>19.5</v>
       </c>
       <c r="X200" s="1">
-        <f>IF(AD$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AD$1-$D200),0)</f>
+        <f t="shared" ref="X200:X246" si="46">IF(AD$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AD$1-$D200),0)</f>
         <v>26</v>
       </c>
       <c r="Y200" s="1">
-        <f>IF(AE$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AE$1-$D200),0)</f>
+        <f t="shared" ref="Y200:Y246" si="47">IF(AE$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AE$1-$D200),0)</f>
         <v>32.5</v>
       </c>
       <c r="Z200" s="1">
-        <f>IF(AF$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AF$1-$D200),0)</f>
+        <f t="shared" ref="Z200:Z246" si="48">IF(AF$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AF$1-$D200),0)</f>
         <v>39</v>
       </c>
     </row>
@@ -18031,27 +18040,27 @@
         <v>8</v>
       </c>
       <c r="U201" s="1">
-        <f>IF(AA$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AA$1-$D201),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V201" s="1">
-        <f>IF(AB$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AB$1-$D201),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W201" s="1">
-        <f>IF(AC$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AC$1-$D201),0)</f>
+        <f t="shared" si="45"/>
         <v>13.5</v>
       </c>
       <c r="X201" s="1">
-        <f>IF(AD$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AD$1-$D201),0)</f>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="Y201" s="1">
-        <f>IF(AE$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AE$1-$D201),0)</f>
+        <f t="shared" si="47"/>
         <v>22.5</v>
       </c>
       <c r="Z201" s="1">
-        <f>IF(AF$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AF$1-$D201),0)</f>
+        <f t="shared" si="48"/>
         <v>27</v>
       </c>
       <c r="BF201" s="1"/>
@@ -18091,27 +18100,27 @@
         <v>338</v>
       </c>
       <c r="U202" s="1">
-        <f>IF(AA$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AA$1-$D202),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V202" s="1">
-        <f>IF(AB$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AB$1-$D202),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W202" s="1">
-        <f>IF(AC$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AC$1-$D202),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X202" s="1">
-        <f>IF(AD$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AD$1-$D202),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y202" s="1">
-        <f>IF(AE$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AE$1-$D202),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z202" s="1">
-        <f>IF(AF$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AF$1-$D202),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF202" s="1"/>
@@ -18151,27 +18160,27 @@
         <v>341</v>
       </c>
       <c r="U203" s="1">
-        <f>IF(AA$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AA$1-$D203),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V203" s="1">
-        <f>IF(AB$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AB$1-$D203),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W203" s="1">
-        <f>IF(AC$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AC$1-$D203),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X203" s="1">
-        <f>IF(AD$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AD$1-$D203),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y203" s="1">
-        <f>IF(AE$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AE$1-$D203),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z203" s="1">
-        <f>IF(AF$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AF$1-$D203),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF203" s="1"/>
@@ -18217,27 +18226,27 @@
         <v>558</v>
       </c>
       <c r="U204" s="1">
-        <f>IF(AA$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AA$1-$D204),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V204" s="1">
-        <f>IF(AB$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AB$1-$D204),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W204" s="1">
-        <f>IF(AC$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AC$1-$D204),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X204" s="1">
-        <f>IF(AD$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AD$1-$D204),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y204" s="1">
-        <f>IF(AE$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AE$1-$D204),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z204" s="1">
-        <f>IF(AF$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AF$1-$D204),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF204" s="1"/>
@@ -18306,27 +18315,27 @@
         <v>6</v>
       </c>
       <c r="U205" s="1">
-        <f>IF(AA$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AA$1-$D205),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V205" s="1">
-        <f>IF(AB$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AB$1-$D205),0)</f>
+        <f t="shared" si="44"/>
         <v>3.5</v>
       </c>
       <c r="W205" s="1">
-        <f>IF(AC$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AC$1-$D205),0)</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="X205" s="1">
-        <f>IF(AD$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AD$1-$D205),0)</f>
+        <f t="shared" si="46"/>
         <v>10.5</v>
       </c>
       <c r="Y205" s="1">
-        <f>IF(AE$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AE$1-$D205),0)</f>
+        <f t="shared" si="47"/>
         <v>14</v>
       </c>
       <c r="Z205" s="1">
-        <f>IF(AF$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AF$1-$D205),0)</f>
+        <f t="shared" si="48"/>
         <v>17.5</v>
       </c>
       <c r="BF205" s="1"/>
@@ -18391,27 +18400,27 @@
         <v>6</v>
       </c>
       <c r="U206" s="1">
-        <f>IF(AA$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AA$1-$D206),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V206" s="1">
-        <f>IF(AB$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AB$1-$D206),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W206" s="1">
-        <f>IF(AC$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AC$1-$D206),0)</f>
+        <f t="shared" si="45"/>
         <v>7</v>
       </c>
       <c r="X206" s="1">
-        <f>IF(AD$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AD$1-$D206),0)</f>
+        <f t="shared" si="46"/>
         <v>14</v>
       </c>
       <c r="Y206" s="1">
-        <f>IF(AE$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AE$1-$D206),0)</f>
+        <f t="shared" si="47"/>
         <v>21</v>
       </c>
       <c r="Z206" s="1">
-        <f>IF(AF$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AF$1-$D206),0)</f>
+        <f t="shared" si="48"/>
         <v>28</v>
       </c>
       <c r="BF206" s="1"/>
@@ -18456,27 +18465,27 @@
         <v>579</v>
       </c>
       <c r="U207" s="1">
-        <f>IF(AA$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AA$1-$D207),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V207" s="1">
-        <f>IF(AB$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AB$1-$D207),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W207" s="1">
-        <f>IF(AC$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AC$1-$D207),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X207" s="1">
-        <f>IF(AD$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AD$1-$D207),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y207" s="1">
-        <f>IF(AE$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AE$1-$D207),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z207" s="1">
-        <f>IF(AF$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AF$1-$D207),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF207" s="1"/>
@@ -18517,27 +18526,27 @@
         <v>589</v>
       </c>
       <c r="U208" s="1">
-        <f>IF(AA$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AA$1-$D208),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V208" s="1">
-        <f>IF(AB$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AB$1-$D208),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W208" s="1">
-        <f>IF(AC$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AC$1-$D208),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X208" s="1">
-        <f>IF(AD$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AD$1-$D208),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y208" s="1">
-        <f>IF(AE$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AE$1-$D208),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z208" s="1">
-        <f>IF(AF$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AF$1-$D208),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF208" s="1"/>
@@ -18583,27 +18592,27 @@
         <v>593</v>
       </c>
       <c r="U209" s="1">
-        <f>IF(AA$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AA$1-$D209),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V209" s="1">
-        <f>IF(AB$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AB$1-$D209),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W209" s="1">
-        <f>IF(AC$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AC$1-$D209),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X209" s="1">
-        <f>IF(AD$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AD$1-$D209),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y209" s="1">
-        <f>IF(AE$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AE$1-$D209),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z209" s="1">
-        <f>IF(AF$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AF$1-$D209),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF209" s="1"/>
@@ -18647,27 +18656,27 @@
         <v>599</v>
       </c>
       <c r="U210" s="1">
-        <f>IF(AA$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AA$1-$D210),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V210" s="1">
-        <f>IF(AB$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AB$1-$D210),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W210" s="1">
-        <f>IF(AC$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AC$1-$D210),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X210" s="1">
-        <f>IF(AD$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AD$1-$D210),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y210" s="1">
-        <f>IF(AE$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AE$1-$D210),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z210" s="1">
-        <f>IF(AF$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AF$1-$D210),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -18703,27 +18712,27 @@
         <v>602</v>
       </c>
       <c r="U211" s="1">
-        <f>IF(AA$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AA$1-$D211),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V211" s="1">
-        <f>IF(AB$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AB$1-$D211),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
-        <f>IF(AC$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AC$1-$D211),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X211" s="1">
-        <f>IF(AD$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AD$1-$D211),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y211" s="1">
-        <f>IF(AE$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AE$1-$D211),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z211" s="1">
-        <f>IF(AF$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AF$1-$D211),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -18780,27 +18789,27 @@
         <v>4</v>
       </c>
       <c r="U212" s="1">
-        <f>IF(AA$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AA$1-$D212),0)</f>
+        <f t="shared" si="43"/>
         <v>2.5</v>
       </c>
       <c r="V212" s="1">
-        <f>IF(AB$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AB$1-$D212),0)</f>
+        <f t="shared" si="44"/>
         <v>5</v>
       </c>
       <c r="W212" s="1">
-        <f>IF(AC$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AC$1-$D212),0)</f>
+        <f t="shared" si="45"/>
         <v>7.5</v>
       </c>
       <c r="X212" s="1">
-        <f>IF(AD$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AD$1-$D212),0)</f>
+        <f t="shared" si="46"/>
         <v>10</v>
       </c>
       <c r="Y212" s="1">
-        <f>IF(AE$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AE$1-$D212),0)</f>
+        <f t="shared" si="47"/>
         <v>12.5</v>
       </c>
       <c r="Z212" s="1">
-        <f>IF(AF$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AF$1-$D212),0)</f>
+        <f t="shared" si="48"/>
         <v>15</v>
       </c>
       <c r="BF212" s="1"/>
@@ -18865,27 +18874,27 @@
         <v>8</v>
       </c>
       <c r="U213" s="1">
-        <f>IF(AA$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AA$1-$D213),0)</f>
+        <f t="shared" si="43"/>
         <v>4.5</v>
       </c>
       <c r="V213" s="1">
-        <f>IF(AB$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AB$1-$D213),0)</f>
+        <f t="shared" si="44"/>
         <v>9</v>
       </c>
       <c r="W213" s="1">
-        <f>IF(AC$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AC$1-$D213),0)</f>
+        <f t="shared" si="45"/>
         <v>13.5</v>
       </c>
       <c r="X213" s="1">
-        <f>IF(AD$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AD$1-$D213),0)</f>
+        <f t="shared" si="46"/>
         <v>18</v>
       </c>
       <c r="Y213" s="1">
-        <f>IF(AE$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AE$1-$D213),0)</f>
+        <f t="shared" si="47"/>
         <v>22.5</v>
       </c>
       <c r="Z213" s="1">
-        <f>IF(AF$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AF$1-$D213),0)</f>
+        <f t="shared" si="48"/>
         <v>27</v>
       </c>
       <c r="BF213" s="1"/>
@@ -18932,27 +18941,27 @@
       </c>
       <c r="M214" s="17"/>
       <c r="U214" s="1">
-        <f>IF(AA$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AA$1-$D214),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V214" s="1">
-        <f>IF(AB$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AB$1-$D214),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W214" s="1">
-        <f>IF(AC$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AC$1-$D214),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X214" s="1">
-        <f>IF(AD$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AD$1-$D214),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y214" s="1">
-        <f>IF(AE$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AE$1-$D214),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z214" s="1">
-        <f>IF(AF$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AF$1-$D214),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF214" s="1"/>
@@ -18998,27 +19007,27 @@
         <v>582</v>
       </c>
       <c r="U215" s="1">
-        <f>IF(AA$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AA$1-$D215),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V215" s="1">
-        <f>IF(AB$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AB$1-$D215),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W215" s="1">
-        <f>IF(AC$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AC$1-$D215),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X215" s="1">
-        <f>IF(AD$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AD$1-$D215),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y215" s="1">
-        <f>IF(AE$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AE$1-$D215),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z215" s="1">
-        <f>IF(AF$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AF$1-$D215),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF215" s="1"/>
@@ -19062,27 +19071,27 @@
         <v>596</v>
       </c>
       <c r="U216" s="1">
-        <f>IF(AA$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AA$1-$D216),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V216" s="1">
-        <f>IF(AB$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AB$1-$D216),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W216" s="1">
-        <f>IF(AC$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AC$1-$D216),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X216" s="1">
-        <f>IF(AD$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AD$1-$D216),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y216" s="1">
-        <f>IF(AE$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AE$1-$D216),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z216" s="1">
-        <f>IF(AF$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AF$1-$D216),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF216" s="1"/>
@@ -19130,27 +19139,27 @@
         <v>605</v>
       </c>
       <c r="U217" s="1">
-        <f>IF(AA$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AA$1-$D217),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V217" s="1">
-        <f>IF(AB$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AB$1-$D217),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W217" s="1">
-        <f>IF(AC$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AC$1-$D217),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X217" s="1">
-        <f>IF(AD$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AD$1-$D217),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y217" s="1">
-        <f>IF(AE$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AE$1-$D217),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z217" s="1">
-        <f>IF(AF$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AF$1-$D217),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF217" s="1"/>
@@ -19199,27 +19208,27 @@
         <v>586</v>
       </c>
       <c r="U218" s="1">
-        <f>IF(AA$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AA$1-$D218),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V218" s="1">
-        <f>IF(AB$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AB$1-$D218),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W218" s="1">
-        <f>IF(AC$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AC$1-$D218),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X218" s="1">
-        <f>IF(AD$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AD$1-$D218),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y218" s="1">
-        <f>IF(AE$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AE$1-$D218),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z218" s="1">
-        <f>IF(AF$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AF$1-$D218),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19258,27 +19267,27 @@
         <v>360</v>
       </c>
       <c r="U219" s="1">
-        <f>IF(AA$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AA$1-$D219),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V219" s="1">
-        <f>IF(AB$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AB$1-$D219),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W219" s="1">
-        <f>IF(AC$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AC$1-$D219),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X219" s="1">
-        <f>IF(AD$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AD$1-$D219),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y219" s="1">
-        <f>IF(AE$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AE$1-$D219),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z219" s="1">
-        <f>IF(AF$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AF$1-$D219),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19312,27 +19321,27 @@
         <v>373</v>
       </c>
       <c r="U220" s="1">
-        <f>IF(AA$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AA$1-$D220),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V220" s="1">
-        <f>IF(AB$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AB$1-$D220),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W220" s="1">
-        <f>IF(AC$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AC$1-$D220),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X220" s="1">
-        <f>IF(AD$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AD$1-$D220),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y220" s="1">
-        <f>IF(AE$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AE$1-$D220),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z220" s="1">
-        <f>IF(AF$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AF$1-$D220),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF220" s="1"/>
@@ -19376,27 +19385,27 @@
         <v>377</v>
       </c>
       <c r="U221" s="1">
-        <f>IF(AA$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AA$1-$D221),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V221" s="1">
-        <f>IF(AB$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AB$1-$D221),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W221" s="1">
-        <f>IF(AC$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AC$1-$D221),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X221" s="1">
-        <f>IF(AD$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AD$1-$D221),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y221" s="1">
-        <f>IF(AE$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AE$1-$D221),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z221" s="1">
-        <f>IF(AF$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AF$1-$D221),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF221" s="1"/>
@@ -19440,27 +19449,27 @@
         <v>381</v>
       </c>
       <c r="U222" s="1">
-        <f>IF(AA$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AA$1-$D222),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V222" s="1">
-        <f>IF(AB$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AB$1-$D222),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W222" s="1">
-        <f>IF(AC$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AC$1-$D222),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X222" s="1">
-        <f>IF(AD$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AD$1-$D222),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y222" s="1">
-        <f>IF(AE$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AE$1-$D222),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z222" s="1">
-        <f>IF(AF$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AF$1-$D222),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF222" s="1"/>
@@ -19502,27 +19511,27 @@
         <v>388</v>
       </c>
       <c r="U223" s="1">
-        <f>IF(AA$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AA$1-$D223),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V223" s="1">
-        <f>IF(AB$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AB$1-$D223),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W223" s="1">
-        <f>IF(AC$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AC$1-$D223),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X223" s="1">
-        <f>IF(AD$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AD$1-$D223),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y223" s="1">
-        <f>IF(AE$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AE$1-$D223),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z223" s="1">
-        <f>IF(AF$1&gt;=$D223,$O223+$P223*($Q223+1)/2+$R223*($S223+1)/2*(AF$1-$D223),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF223" s="1"/>
@@ -19567,27 +19576,27 @@
         <v>422</v>
       </c>
       <c r="U224" s="1">
-        <f>IF(AA$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AA$1-$D224),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V224" s="1">
-        <f>IF(AB$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AB$1-$D224),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W224" s="1">
-        <f>IF(AC$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AC$1-$D224),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X224" s="1">
-        <f>IF(AD$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AD$1-$D224),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y224" s="1">
-        <f>IF(AE$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AE$1-$D224),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z224" s="1">
-        <f>IF(AF$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AF$1-$D224),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19621,27 +19630,27 @@
         <v>392</v>
       </c>
       <c r="U225" s="1">
-        <f>IF(AA$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AA$1-$D225),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V225" s="1">
-        <f>IF(AB$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AB$1-$D225),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W225" s="1">
-        <f>IF(AC$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AC$1-$D225),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X225" s="1">
-        <f>IF(AD$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AD$1-$D225),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y225" s="1">
-        <f>IF(AE$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AE$1-$D225),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z225" s="1">
-        <f>IF(AF$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AF$1-$D225),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF225" s="1"/>
@@ -19684,27 +19693,27 @@
       </c>
       <c r="M226" s="16"/>
       <c r="U226" s="1">
-        <f>IF(AA$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AA$1-$D226),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V226" s="1">
-        <f>IF(AB$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AB$1-$D226),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W226" s="1">
-        <f>IF(AC$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AC$1-$D226),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X226" s="1">
-        <f>IF(AD$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AD$1-$D226),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y226" s="1">
-        <f>IF(AE$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AE$1-$D226),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z226" s="1">
-        <f>IF(AF$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AF$1-$D226),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF226" s="1"/>
@@ -19748,27 +19757,27 @@
         <v>401</v>
       </c>
       <c r="U227" s="1">
-        <f>IF(AA$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AA$1-$D227),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V227" s="1">
-        <f>IF(AB$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AB$1-$D227),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W227" s="1">
-        <f>IF(AC$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AC$1-$D227),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X227" s="1">
-        <f>IF(AD$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AD$1-$D227),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y227" s="1">
-        <f>IF(AE$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AE$1-$D227),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z227" s="1">
-        <f>IF(AF$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AF$1-$D227),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19804,27 +19813,27 @@
         <v>411</v>
       </c>
       <c r="U228" s="1">
-        <f>IF(AA$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AA$1-$D228),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V228" s="1">
-        <f>IF(AB$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AB$1-$D228),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W228" s="1">
-        <f>IF(AC$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AC$1-$D228),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X228" s="1">
-        <f>IF(AD$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AD$1-$D228),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y228" s="1">
-        <f>IF(AE$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AE$1-$D228),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z228" s="1">
-        <f>IF(AF$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AF$1-$D228),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -19860,27 +19869,27 @@
         <v>415</v>
       </c>
       <c r="U229" s="1">
-        <f>IF(AA$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AA$1-$D229),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V229" s="1">
-        <f>IF(AB$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AB$1-$D229),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W229" s="1">
-        <f>IF(AC$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AC$1-$D229),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X229" s="1">
-        <f>IF(AD$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AD$1-$D229),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y229" s="1">
-        <f>IF(AE$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AE$1-$D229),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z229" s="1">
-        <f>IF(AF$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AF$1-$D229),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF229" s="1"/>
@@ -19924,27 +19933,27 @@
         <v>425</v>
       </c>
       <c r="U230" s="1">
-        <f>IF(AA$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AA$1-$D230),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V230" s="1">
-        <f>IF(AB$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AB$1-$D230),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W230" s="1">
-        <f>IF(AC$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AC$1-$D230),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X230" s="1">
-        <f>IF(AD$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AD$1-$D230),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y230" s="1">
-        <f>IF(AE$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AE$1-$D230),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z230" s="1">
-        <f>IF(AF$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AF$1-$D230),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF230" s="1"/>
@@ -19988,27 +19997,27 @@
         <v>352</v>
       </c>
       <c r="U231" s="1">
-        <f>IF(AA$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AA$1-$D231),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V231" s="1">
-        <f>IF(AB$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AB$1-$D231),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W231" s="1">
-        <f>IF(AC$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AC$1-$D231),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X231" s="1">
-        <f>IF(AD$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AD$1-$D231),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y231" s="1">
-        <f>IF(AE$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AE$1-$D231),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z231" s="1">
-        <f>IF(AF$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AF$1-$D231),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF231" s="1"/>
@@ -20052,27 +20061,27 @@
         <v>370</v>
       </c>
       <c r="U232" s="1">
-        <f>IF(AA$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AA$1-$D232),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V232" s="1">
-        <f>IF(AB$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AB$1-$D232),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W232" s="1">
-        <f>IF(AC$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AC$1-$D232),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X232" s="1">
-        <f>IF(AD$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AD$1-$D232),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y232" s="1">
-        <f>IF(AE$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AE$1-$D232),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z232" s="1">
-        <f>IF(AF$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AF$1-$D232),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF232" s="1"/>
@@ -20116,27 +20125,27 @@
         <v>404</v>
       </c>
       <c r="U233" s="1">
-        <f>IF(AA$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AA$1-$D233),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V233" s="1">
-        <f>IF(AB$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AB$1-$D233),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W233" s="1">
-        <f>IF(AC$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AC$1-$D233),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X233" s="1">
-        <f>IF(AD$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AD$1-$D233),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y233" s="1">
-        <f>IF(AE$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AE$1-$D233),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z233" s="1">
-        <f>IF(AF$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AF$1-$D233),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF233" s="1"/>
@@ -20182,27 +20191,27 @@
         <v>408</v>
       </c>
       <c r="U234" s="1">
-        <f>IF(AA$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AA$1-$D234),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V234" s="1">
-        <f>IF(AB$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AB$1-$D234),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W234" s="1">
-        <f>IF(AC$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AC$1-$D234),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X234" s="1">
-        <f>IF(AD$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AD$1-$D234),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y234" s="1">
-        <f>IF(AE$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AE$1-$D234),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z234" s="1">
-        <f>IF(AF$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AF$1-$D234),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF234" s="1"/>
@@ -20246,27 +20255,27 @@
         <v>418</v>
       </c>
       <c r="U235" s="1">
-        <f>IF(AA$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AA$1-$D235),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V235" s="1">
-        <f>IF(AB$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AB$1-$D235),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W235" s="1">
-        <f>IF(AC$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AC$1-$D235),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X235" s="1">
-        <f>IF(AD$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AD$1-$D235),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y235" s="1">
-        <f>IF(AE$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AE$1-$D235),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z235" s="1">
-        <f>IF(AF$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AF$1-$D235),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -20303,27 +20312,27 @@
         <v>356</v>
       </c>
       <c r="U236" s="1">
-        <f>IF(AA$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AA$1-$D236),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V236" s="1">
-        <f>IF(AB$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AB$1-$D236),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W236" s="1">
-        <f>IF(AC$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AC$1-$D236),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X236" s="1">
-        <f>IF(AD$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AD$1-$D236),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y236" s="1">
-        <f>IF(AE$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AE$1-$D236),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z236" s="1">
-        <f>IF(AF$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AF$1-$D236),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -20362,27 +20371,27 @@
         <v>366</v>
       </c>
       <c r="U237" s="1">
-        <f>IF(AA$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AA$1-$D237),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V237" s="1">
-        <f>IF(AB$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AB$1-$D237),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W237" s="1">
-        <f>IF(AC$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AC$1-$D237),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X237" s="1">
-        <f>IF(AD$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AD$1-$D237),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y237" s="1">
-        <f>IF(AE$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AE$1-$D237),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z237" s="1">
-        <f>IF(AF$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AF$1-$D237),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF237" s="1"/>
@@ -20426,27 +20435,27 @@
         <v>385</v>
       </c>
       <c r="U238" s="1">
-        <f>IF(AA$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AA$1-$D238),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V238" s="1">
-        <f>IF(AB$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AB$1-$D238),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W238" s="1">
-        <f>IF(AC$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AC$1-$D238),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X238" s="1">
-        <f>IF(AD$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AD$1-$D238),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y238" s="1">
-        <f>IF(AE$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AE$1-$D238),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z238" s="1">
-        <f>IF(AF$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AF$1-$D238),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF238" s="1"/>
@@ -20490,27 +20499,27 @@
         <v>395</v>
       </c>
       <c r="U239" s="1">
-        <f>IF(AA$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AA$1-$D239),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V239" s="1">
-        <f>IF(AB$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AB$1-$D239),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W239" s="1">
-        <f>IF(AC$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AC$1-$D239),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X239" s="1">
-        <f>IF(AD$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AD$1-$D239),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y239" s="1">
-        <f>IF(AE$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AE$1-$D239),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z239" s="1">
-        <f>IF(AF$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AF$1-$D239),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF239" s="1"/>
@@ -20557,27 +20566,27 @@
         <v>430</v>
       </c>
       <c r="U240" s="1">
-        <f>IF(AA$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AA$1-$D240),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V240" s="1">
-        <f>IF(AB$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AB$1-$D240),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W240" s="1">
-        <f>IF(AC$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AC$1-$D240),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X240" s="1">
-        <f>IF(AD$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AD$1-$D240),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y240" s="1">
-        <f>IF(AE$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AE$1-$D240),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z240" s="1">
-        <f>IF(AF$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AF$1-$D240),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF240" s="1"/>
@@ -20622,27 +20631,27 @@
         <v>475</v>
       </c>
       <c r="U241" s="1">
-        <f>IF(AA$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AA$1-$D241),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V241" s="1">
-        <f>IF(AB$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AB$1-$D241),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W241" s="1">
-        <f>IF(AC$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AC$1-$D241),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X241" s="1">
-        <f>IF(AD$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AD$1-$D241),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y241" s="1">
-        <f>IF(AE$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AE$1-$D241),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z241" s="1">
-        <f>IF(AF$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AF$1-$D241),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF241" s="1"/>
@@ -20684,27 +20693,27 @@
         <v>436</v>
       </c>
       <c r="U242" s="1">
-        <f>IF(AA$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AA$1-$D242),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V242" s="1">
-        <f>IF(AB$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AB$1-$D242),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W242" s="1">
-        <f>IF(AC$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AC$1-$D242),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X242" s="1">
-        <f>IF(AD$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AD$1-$D242),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y242" s="1">
-        <f>IF(AE$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AE$1-$D242),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z242" s="1">
-        <f>IF(AF$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AF$1-$D242),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
     </row>
@@ -20736,27 +20745,27 @@
         <v>438</v>
       </c>
       <c r="U243" s="1">
-        <f>IF(AA$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AA$1-$D243),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V243" s="1">
-        <f>IF(AB$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AB$1-$D243),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W243" s="1">
-        <f>IF(AC$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AC$1-$D243),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X243" s="1">
-        <f>IF(AD$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AD$1-$D243),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y243" s="1">
-        <f>IF(AE$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AE$1-$D243),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z243" s="1">
-        <f>IF(AF$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AF$1-$D243),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF243" s="1"/>
@@ -20798,27 +20807,27 @@
         <v>441</v>
       </c>
       <c r="U244" s="1">
-        <f>IF(AA$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AA$1-$D244),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V244" s="1">
-        <f>IF(AB$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AB$1-$D244),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W244" s="1">
-        <f>IF(AC$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AC$1-$D244),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X244" s="1">
-        <f>IF(AD$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AD$1-$D244),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y244" s="1">
-        <f>IF(AE$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AE$1-$D244),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z244" s="1">
-        <f>IF(AF$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AF$1-$D244),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF244" s="1"/>
@@ -20860,27 +20869,27 @@
         <v>451</v>
       </c>
       <c r="U245" s="1">
-        <f>IF(AA$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AA$1-$D245),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V245" s="1">
-        <f>IF(AB$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AB$1-$D245),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W245" s="1">
-        <f>IF(AC$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AC$1-$D245),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X245" s="1">
-        <f>IF(AD$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AD$1-$D245),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y245" s="1">
-        <f>IF(AE$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AE$1-$D245),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z245" s="1">
-        <f>IF(AF$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AF$1-$D245),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF245" s="1"/>
@@ -20922,27 +20931,27 @@
         <v>469</v>
       </c>
       <c r="U246" s="1">
-        <f>IF(AA$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AA$1-$D246),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="V246" s="1">
-        <f>IF(AB$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AB$1-$D246),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="W246" s="1">
-        <f>IF(AC$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AC$1-$D246),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="X246" s="1">
-        <f>IF(AD$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AD$1-$D246),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="Y246" s="1">
-        <f>IF(AE$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AE$1-$D246),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Z246" s="1">
-        <f>IF(AF$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AF$1-$D246),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="BF246" s="1"/>
@@ -21023,27 +21032,27 @@
         <v>479</v>
       </c>
       <c r="U248" s="1">
-        <f>IF(AA$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AA$1-$D248),0)</f>
+        <f t="shared" ref="U248:Z252" si="49">IF(AA$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AA$1-$D248),0)</f>
         <v>0</v>
       </c>
       <c r="V248" s="1">
-        <f>IF(AB$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AB$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W248" s="1">
-        <f>IF(AC$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AC$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X248" s="1">
-        <f>IF(AD$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AD$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y248" s="1">
-        <f>IF(AE$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AE$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z248" s="1">
-        <f>IF(AF$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AF$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF248" s="1"/>
@@ -21083,27 +21092,27 @@
         <v>482</v>
       </c>
       <c r="U249" s="1">
-        <f>IF(AA$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AA$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V249" s="1">
-        <f>IF(AB$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AB$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W249" s="1">
-        <f>IF(AC$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AC$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X249" s="1">
-        <f>IF(AD$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AD$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y249" s="1">
-        <f>IF(AE$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AE$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z249" s="1">
-        <f>IF(AF$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AF$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF249" s="1"/>
@@ -21148,27 +21157,27 @@
         <v>486</v>
       </c>
       <c r="U250" s="1">
-        <f>IF(AA$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AA$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V250" s="1">
-        <f>IF(AB$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AB$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W250" s="1">
-        <f>IF(AC$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AC$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X250" s="1">
-        <f>IF(AD$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AD$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y250" s="1">
-        <f>IF(AE$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AE$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z250" s="1">
-        <f>IF(AF$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AF$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -21201,27 +21210,27 @@
         <v>491</v>
       </c>
       <c r="U251" s="1">
-        <f>IF(AA$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AA$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V251" s="1">
-        <f>IF(AB$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AB$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W251" s="1">
-        <f>IF(AC$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AC$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X251" s="1">
-        <f>IF(AD$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AD$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y251" s="1">
-        <f>IF(AE$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AE$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z251" s="1">
-        <f>IF(AF$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AF$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -21255,27 +21264,27 @@
         <v>494</v>
       </c>
       <c r="U252" s="1">
-        <f>IF(AA$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AA$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="V252" s="1">
-        <f>IF(AB$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AB$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="W252" s="1">
-        <f>IF(AC$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AC$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="X252" s="1">
-        <f>IF(AD$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AD$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Y252" s="1">
-        <f>IF(AE$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AE$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="Z252" s="1">
-        <f>IF(AF$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AF$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF252" s="1"/>
@@ -21380,27 +21389,27 @@
         <v>4</v>
       </c>
       <c r="U254" s="1">
-        <f>IF(AA$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AA$1-$D254),0)</f>
+        <f t="shared" ref="U254:U264" si="50">IF(AA$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AA$1-$D254),0)</f>
         <v>0</v>
       </c>
       <c r="V254" s="1">
-        <f>IF(AB$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AB$1-$D254),0)</f>
+        <f t="shared" ref="V254:V264" si="51">IF(AB$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AB$1-$D254),0)</f>
         <v>7.5</v>
       </c>
       <c r="W254" s="1">
-        <f>IF(AC$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AC$1-$D254),0)</f>
+        <f t="shared" ref="W254:W264" si="52">IF(AC$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AC$1-$D254),0)</f>
         <v>15</v>
       </c>
       <c r="X254" s="1">
-        <f>IF(AD$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AD$1-$D254),0)</f>
+        <f t="shared" ref="X254:X264" si="53">IF(AD$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AD$1-$D254),0)</f>
         <v>22.5</v>
       </c>
       <c r="Y254" s="1">
-        <f>IF(AE$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AE$1-$D254),0)</f>
+        <f t="shared" ref="Y254:Y264" si="54">IF(AE$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AE$1-$D254),0)</f>
         <v>30</v>
       </c>
       <c r="Z254" s="1">
-        <f>IF(AF$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AF$1-$D254),0)</f>
+        <f t="shared" ref="Z254:Z264" si="55">IF(AF$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AF$1-$D254),0)</f>
         <v>37.5</v>
       </c>
       <c r="BF254" s="1"/>
@@ -21448,27 +21457,27 @@
         <v>458</v>
       </c>
       <c r="U255" s="1">
-        <f>IF(AA$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AA$1-$D255),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V255" s="1">
-        <f>IF(AB$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AB$1-$D255),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W255" s="1">
-        <f>IF(AC$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AC$1-$D255),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X255" s="1">
-        <f>IF(AD$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AD$1-$D255),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y255" s="1">
-        <f>IF(AE$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AE$1-$D255),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z255" s="1">
-        <f>IF(AF$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AF$1-$D255),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF255" s="1"/>
@@ -21535,27 +21544,27 @@
         <v>6</v>
       </c>
       <c r="U256" s="1">
-        <f>IF(AA$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AA$1-$D256),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V256" s="1">
-        <f>IF(AB$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AB$1-$D256),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W256" s="1">
-        <f>IF(AC$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AC$1-$D256),0)</f>
+        <f t="shared" si="52"/>
         <v>17.5</v>
       </c>
       <c r="X256" s="1">
-        <f>IF(AD$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AD$1-$D256),0)</f>
+        <f t="shared" si="53"/>
         <v>21</v>
       </c>
       <c r="Y256" s="1">
-        <f>IF(AE$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AE$1-$D256),0)</f>
+        <f t="shared" si="54"/>
         <v>24.5</v>
       </c>
       <c r="Z256" s="1">
-        <f>IF(AF$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AF$1-$D256),0)</f>
+        <f t="shared" si="55"/>
         <v>28</v>
       </c>
       <c r="BF256" s="1"/>
@@ -21599,27 +21608,27 @@
         <v>488</v>
       </c>
       <c r="U257" s="1">
-        <f>IF(AA$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AA$1-$D257),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V257" s="1">
-        <f>IF(AB$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AB$1-$D257),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W257" s="1">
-        <f>IF(AC$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AC$1-$D257),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X257" s="1">
-        <f>IF(AD$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AD$1-$D257),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y257" s="1">
-        <f>IF(AE$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AE$1-$D257),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z257" s="1">
-        <f>IF(AF$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AF$1-$D257),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -21653,27 +21662,27 @@
         <v>433</v>
       </c>
       <c r="U258" s="1">
-        <f>IF(AA$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AA$1-$D258),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V258" s="1">
-        <f>IF(AB$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AB$1-$D258),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W258" s="1">
-        <f>IF(AC$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AC$1-$D258),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X258" s="1">
-        <f>IF(AD$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AD$1-$D258),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y258" s="1">
-        <f>IF(AE$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AE$1-$D258),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z258" s="1">
-        <f>IF(AF$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AF$1-$D258),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF258" s="1"/>
@@ -21718,27 +21727,27 @@
       </c>
       <c r="M259" s="12"/>
       <c r="U259" s="1">
-        <f>IF(AA$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AA$1-$D259),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V259" s="1">
-        <f>IF(AB$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AB$1-$D259),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W259" s="1">
-        <f>IF(AC$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AC$1-$D259),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X259" s="1">
-        <f>IF(AD$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AD$1-$D259),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y259" s="1">
-        <f>IF(AE$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AE$1-$D259),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z259" s="1">
-        <f>IF(AF$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AF$1-$D259),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF259" s="1"/>
@@ -21782,27 +21791,27 @@
         <v>466</v>
       </c>
       <c r="U260" s="1">
-        <f>IF(AA$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AA$1-$D260),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V260" s="1">
-        <f>IF(AB$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AB$1-$D260),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W260" s="1">
-        <f>IF(AC$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AC$1-$D260),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X260" s="1">
-        <f>IF(AD$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AD$1-$D260),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y260" s="1">
-        <f>IF(AE$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AE$1-$D260),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z260" s="1">
-        <f>IF(AF$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AF$1-$D260),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF260" s="1"/>
@@ -21869,27 +21878,27 @@
         <v>8</v>
       </c>
       <c r="U261" s="1">
-        <f>IF(AA$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AA$1-$D261),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V261" s="1">
-        <f>IF(AB$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AB$1-$D261),0)</f>
+        <f t="shared" si="51"/>
         <v>13.5</v>
       </c>
       <c r="W261" s="1">
-        <f>IF(AC$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AC$1-$D261),0)</f>
+        <f t="shared" si="52"/>
         <v>18</v>
       </c>
       <c r="X261" s="1">
-        <f>IF(AD$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AD$1-$D261),0)</f>
+        <f t="shared" si="53"/>
         <v>22.5</v>
       </c>
       <c r="Y261" s="1">
-        <f>IF(AE$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AE$1-$D261),0)</f>
+        <f t="shared" si="54"/>
         <v>27</v>
       </c>
       <c r="Z261" s="1">
-        <f>IF(AF$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AF$1-$D261),0)</f>
+        <f t="shared" si="55"/>
         <v>31.5</v>
       </c>
       <c r="BF261" s="1"/>
@@ -21936,27 +21945,27 @@
         <v>858</v>
       </c>
       <c r="U262" s="1">
-        <f>IF(AA$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AA$1-$D262),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V262" s="1">
-        <f>IF(AB$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AB$1-$D262),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W262" s="1">
-        <f>IF(AC$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AC$1-$D262),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X262" s="1">
-        <f>IF(AD$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AD$1-$D262),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y262" s="1">
-        <f>IF(AE$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AE$1-$D262),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z262" s="1">
-        <f>IF(AF$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AF$1-$D262),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF262" s="1"/>
@@ -22003,27 +22012,27 @@
         <v>880</v>
       </c>
       <c r="U263" s="1">
-        <f>IF(AA$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AA$1-$D263),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V263" s="1">
-        <f>IF(AB$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AB$1-$D263),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W263" s="1">
-        <f>IF(AC$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AC$1-$D263),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X263" s="1">
-        <f>IF(AD$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AD$1-$D263),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y263" s="1">
-        <f>IF(AE$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AE$1-$D263),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z263" s="1">
-        <f>IF(AF$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AF$1-$D263),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF263" s="1"/>
@@ -22068,27 +22077,27 @@
         <v>1023</v>
       </c>
       <c r="U264" s="1">
-        <f>IF(AA$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AA$1-$D264),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V264" s="1">
-        <f>IF(AB$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AB$1-$D264),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W264" s="1">
-        <f>IF(AC$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AC$1-$D264),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X264" s="1">
-        <f>IF(AD$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AD$1-$D264),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y264" s="1">
-        <f>IF(AE$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AE$1-$D264),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z264" s="1">
-        <f>IF(AF$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AF$1-$D264),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF264" s="1"/>
@@ -22178,27 +22187,27 @@
         <v>862</v>
       </c>
       <c r="U266" s="1">
-        <f>IF(AA$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AA$1-$D266),0)</f>
+        <f t="shared" ref="U266:U281" si="56">IF(AA$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AA$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="V266" s="1">
-        <f>IF(AB$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AB$1-$D266),0)</f>
+        <f t="shared" ref="V266:V281" si="57">IF(AB$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AB$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="W266" s="1">
-        <f>IF(AC$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AC$1-$D266),0)</f>
+        <f t="shared" ref="W266:W281" si="58">IF(AC$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AC$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="X266" s="1">
-        <f>IF(AD$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AD$1-$D266),0)</f>
+        <f t="shared" ref="X266:X281" si="59">IF(AD$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AD$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="Y266" s="1">
-        <f>IF(AE$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AE$1-$D266),0)</f>
+        <f t="shared" ref="Y266:Y281" si="60">IF(AE$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AE$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="Z266" s="1">
-        <f>IF(AF$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AF$1-$D266),0)</f>
+        <f t="shared" ref="Z266:Z281" si="61">IF(AF$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AF$1-$D266),0)</f>
         <v>0</v>
       </c>
       <c r="BF266" s="1"/>
@@ -22242,27 +22251,27 @@
         <v>812</v>
       </c>
       <c r="U267" s="1">
-        <f>IF(AA$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AA$1-$D267),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V267" s="1">
-        <f>IF(AB$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AB$1-$D267),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W267" s="1">
-        <f>IF(AC$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AC$1-$D267),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X267" s="1">
-        <f>IF(AD$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AD$1-$D267),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y267" s="1">
-        <f>IF(AE$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AE$1-$D267),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z267" s="1">
-        <f>IF(AF$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AF$1-$D267),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -22298,27 +22307,27 @@
         <v>818</v>
       </c>
       <c r="U268" s="1">
-        <f>IF(AA$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AA$1-$D268),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V268" s="1">
-        <f>IF(AB$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AB$1-$D268),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W268" s="1">
-        <f>IF(AC$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AC$1-$D268),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X268" s="1">
-        <f>IF(AD$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AD$1-$D268),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y268" s="1">
-        <f>IF(AE$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AE$1-$D268),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z268" s="1">
-        <f>IF(AF$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AF$1-$D268),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
     </row>
@@ -22353,27 +22362,27 @@
       </c>
       <c r="M269" s="12"/>
       <c r="U269" s="1">
-        <f>IF(AA$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AA$1-$D269),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V269" s="1">
-        <f>IF(AB$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AB$1-$D269),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W269" s="1">
-        <f>IF(AC$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AC$1-$D269),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X269" s="1">
-        <f>IF(AD$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AD$1-$D269),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y269" s="1">
-        <f>IF(AE$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AE$1-$D269),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z269" s="1">
-        <f>IF(AF$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AF$1-$D269),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF269" s="1"/>
@@ -22419,27 +22428,27 @@
         <v>833</v>
       </c>
       <c r="U270" s="1">
-        <f>IF(AA$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AA$1-$D270),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V270" s="1">
-        <f>IF(AB$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AB$1-$D270),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W270" s="1">
-        <f>IF(AC$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AC$1-$D270),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X270" s="1">
-        <f>IF(AD$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AD$1-$D270),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y270" s="1">
-        <f>IF(AE$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AE$1-$D270),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z270" s="1">
-        <f>IF(AF$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AF$1-$D270),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF270" s="1"/>
@@ -22484,27 +22493,27 @@
         <v>837</v>
       </c>
       <c r="U271" s="1">
-        <f>IF(AA$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AA$1-$D271),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V271" s="1">
-        <f>IF(AB$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AB$1-$D271),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W271" s="1">
-        <f>IF(AC$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AC$1-$D271),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X271" s="1">
-        <f>IF(AD$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AD$1-$D271),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y271" s="1">
-        <f>IF(AE$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AE$1-$D271),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z271" s="1">
-        <f>IF(AF$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AF$1-$D271),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF271" s="1"/>
@@ -22548,27 +22557,27 @@
         <v>840</v>
       </c>
       <c r="U272" s="1">
-        <f>IF(AA$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AA$1-$D272),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V272" s="1">
-        <f>IF(AB$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AB$1-$D272),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W272" s="1">
-        <f>IF(AC$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AC$1-$D272),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X272" s="1">
-        <f>IF(AD$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AD$1-$D272),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y272" s="1">
-        <f>IF(AE$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AE$1-$D272),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z272" s="1">
-        <f>IF(AF$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AF$1-$D272),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF272" s="1"/>
@@ -22615,27 +22624,27 @@
         <v>845</v>
       </c>
       <c r="U273" s="1">
-        <f>IF(AA$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AA$1-$D273),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V273" s="1">
-        <f>IF(AB$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AB$1-$D273),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W273" s="1">
-        <f>IF(AC$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AC$1-$D273),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X273" s="1">
-        <f>IF(AD$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AD$1-$D273),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y273" s="1">
-        <f>IF(AE$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AE$1-$D273),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z273" s="1">
-        <f>IF(AF$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AF$1-$D273),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF273" s="1"/>
@@ -22682,27 +22691,27 @@
         <v>850</v>
       </c>
       <c r="U274" s="1">
-        <f>IF(AA$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AA$1-$D274),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V274" s="1">
-        <f>IF(AB$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AB$1-$D274),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W274" s="1">
-        <f>IF(AC$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AC$1-$D274),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X274" s="1">
-        <f>IF(AD$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AD$1-$D274),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y274" s="1">
-        <f>IF(AE$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AE$1-$D274),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z274" s="1">
-        <f>IF(AF$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AF$1-$D274),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF274" s="1"/>
@@ -22769,27 +22778,27 @@
         <v>10</v>
       </c>
       <c r="U275" s="1">
-        <f>IF(AA$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AA$1-$D275),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V275" s="1">
-        <f>IF(AB$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AB$1-$D275),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W275" s="1">
-        <f>IF(AC$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AC$1-$D275),0)</f>
+        <f t="shared" si="58"/>
         <v>16.5</v>
       </c>
       <c r="X275" s="1">
-        <f>IF(AD$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AD$1-$D275),0)</f>
+        <f t="shared" si="59"/>
         <v>22</v>
       </c>
       <c r="Y275" s="1">
-        <f>IF(AE$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AE$1-$D275),0)</f>
+        <f t="shared" si="60"/>
         <v>27.5</v>
       </c>
       <c r="Z275" s="1">
-        <f>IF(AF$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AF$1-$D275),0)</f>
+        <f t="shared" si="61"/>
         <v>33</v>
       </c>
       <c r="BF275" s="1"/>
@@ -22833,27 +22842,27 @@
         <v>865</v>
       </c>
       <c r="U276" s="1">
-        <f>IF(AA$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AA$1-$D276),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V276" s="1">
-        <f>IF(AB$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AB$1-$D276),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W276" s="1">
-        <f>IF(AC$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AC$1-$D276),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X276" s="1">
-        <f>IF(AD$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AD$1-$D276),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y276" s="1">
-        <f>IF(AE$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AE$1-$D276),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z276" s="1">
-        <f>IF(AF$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AF$1-$D276),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF276" s="1"/>
@@ -22897,27 +22906,27 @@
         <v>868</v>
       </c>
       <c r="U277" s="1">
-        <f>IF(AA$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AA$1-$D277),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V277" s="1">
-        <f>IF(AB$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AB$1-$D277),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W277" s="1">
-        <f>IF(AC$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AC$1-$D277),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X277" s="1">
-        <f>IF(AD$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AD$1-$D277),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y277" s="1">
-        <f>IF(AE$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AE$1-$D277),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z277" s="1">
-        <f>IF(AF$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AF$1-$D277),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF277" s="1"/>
@@ -22962,27 +22971,27 @@
         <v>872</v>
       </c>
       <c r="U278" s="1">
-        <f>IF(AA$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AA$1-$D278),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V278" s="1">
-        <f>IF(AB$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AB$1-$D278),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W278" s="1">
-        <f>IF(AC$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AC$1-$D278),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X278" s="1">
-        <f>IF(AD$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AD$1-$D278),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y278" s="1">
-        <f>IF(AE$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AE$1-$D278),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z278" s="1">
-        <f>IF(AF$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AF$1-$D278),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF278" s="1"/>
@@ -23029,27 +23038,27 @@
         <v>876</v>
       </c>
       <c r="U279" s="1">
-        <f>IF(AA$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AA$1-$D279),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V279" s="1">
-        <f>IF(AB$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AB$1-$D279),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W279" s="1">
-        <f>IF(AC$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AC$1-$D279),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X279" s="1">
-        <f>IF(AD$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AD$1-$D279),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y279" s="1">
-        <f>IF(AE$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AE$1-$D279),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z279" s="1">
-        <f>IF(AF$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AF$1-$D279),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF279" s="1"/>
@@ -23091,27 +23100,27 @@
         <v>884</v>
       </c>
       <c r="U280" s="1">
-        <f>IF(AA$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AA$1-$D280),0)</f>
+        <f t="shared" si="56"/>
         <v>0</v>
       </c>
       <c r="V280" s="1">
-        <f>IF(AB$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AB$1-$D280),0)</f>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
       <c r="W280" s="1">
-        <f>IF(AC$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AC$1-$D280),0)</f>
+        <f t="shared" si="58"/>
         <v>0</v>
       </c>
       <c r="X280" s="1">
-        <f>IF(AD$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AD$1-$D280),0)</f>
+        <f t="shared" si="59"/>
         <v>0</v>
       </c>
       <c r="Y280" s="1">
-        <f>IF(AE$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AE$1-$D280),0)</f>
+        <f t="shared" si="60"/>
         <v>0</v>
       </c>
       <c r="Z280" s="1">
-        <f>IF(AF$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AF$1-$D280),0)</f>
+        <f t="shared" si="61"/>
         <v>0</v>
       </c>
       <c r="BF280" s="1"/>
@@ -23123,6 +23132,65 @@
       <c r="CE280" s="2"/>
       <c r="CF280" s="2"/>
     </row>
+    <row r="281" spans="1:84" ht="48">
+      <c r="A281" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>886</v>
+      </c>
+      <c r="C281" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="D281" s="1">
+        <v>1</v>
+      </c>
+      <c r="E281" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F281" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G281" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H281" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I281" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J281" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L281" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="U281" s="1">
+        <f t="shared" si="56"/>
+        <v>0</v>
+      </c>
+      <c r="V281" s="1">
+        <f t="shared" si="57"/>
+        <v>0</v>
+      </c>
+      <c r="W281" s="1">
+        <f t="shared" si="58"/>
+        <v>0</v>
+      </c>
+      <c r="X281" s="1">
+        <f t="shared" si="59"/>
+        <v>0</v>
+      </c>
+      <c r="Y281" s="1">
+        <f t="shared" si="60"/>
+        <v>0</v>
+      </c>
+      <c r="Z281" s="1">
+        <f t="shared" si="61"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:EP292" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:EP280">
@@ -23130,16 +23198,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="CE1:CE2"/>
     <mergeCell ref="DB1:DU1"/>
     <mergeCell ref="DW1:EP1"/>
@@ -23149,6 +23207,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B253716B-687C-4DE8-BB40-E09F915F05BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07221C-EBF1-44BF-8050-ECABC962D12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2421" uniqueCount="1053">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1052">
   <si>
     <t>Name</t>
   </si>
@@ -3393,31 +3393,43 @@
     <t xml:space="preserve">Summon a funny hat onto an individual, or conjure a note with a funny message and stick it to their back. You conjure something to change the appearance of your target with the express intention of making them look as stupid as possible. </t>
   </si>
   <si>
-    <t>ET1</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>ET2</t>
-  </si>
-  <si>
-    <t>ET3</t>
-  </si>
-  <si>
-    <t>ET4</t>
-  </si>
-  <si>
-    <t>ET5</t>
-  </si>
-  <si>
-    <t>ET6</t>
-  </si>
-  <si>
-    <t>ET7</t>
-  </si>
-  <si>
-    <t>ET8</t>
+    <t>Control Fire</t>
+  </si>
+  <si>
+    <t>Control Water</t>
+  </si>
+  <si>
+    <t>ignisempus</t>
+  </si>
+  <si>
+    <t>aguasempus</t>
+  </si>
+  <si>
+    <t>When cast at a higher level, the maximum area of fire that you can affect doubles \forEvery{}, and the damage caused by the flame increases by 1d6. You may also perform more extravagant feats of fire manipulation, at the whim of your GM. Be inventive!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upon targeting an area of flame up to 1 metre squared that you can see within range, you can manipulate the fire in a number of ways:
+\begin{spellitemize}
+\item You can move the fire up to 3 metres in any direction, either by igniting new fuel, or as a magically floating floating ball of fire. 
+\item You can diminish the ignited area by half (but can never extinguish it), or multiply it by two (note that if it exceeds your maximum controllable area you do not control that bit of the blaze)
+\item You can change the colour of the flame
+\item You can cause the flame to take on simple shapes and animate them at your direction. 
+\item You can render yourself immune to this bit of fire (applies only to non-magical fire, or fire you created yourself)
+\item Lash out at a target within melee range of the fire, dealing 1d6 fire damage, using an Elemental Accuracy check. 
+\end{spellitemize}
+You may use any of these effects as long as concentration is maintained. When focus is broken, the fire resumes its normal course. </t>
+  </si>
+  <si>
+    <t>Upon targeting a volume of water up to one metre cube that you can see within range, you can manipulate it in a number of ways:
+\begin{spellitemize}
+\item You can move the water, or otherwise alter the flow by up to 3 metres
+\item You can cause the water to form simple shapes, and animate them at your direction. 
+\item You can clear the water, or cause it to become opaque and cloudy. This lasts for up to one hour after you break concentration.
+\item Drown: if your animated water is within melee range of a being, you may wrap it around their face, depriving them of air on a failed Resist. Target can re-perform this check at the end of every turn. 
+\end{spellitemize}</t>
+  </si>
+  <si>
+    <t>When cast at a higher level, the maximum volume of water that you can effect doubles \forEvery{}. You may also perform more extravagant feats of water manipulation, at the whim of your GM. Be inventive!</t>
   </si>
 </sst>
 </file>
@@ -3628,17 +3640,17 @@
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4022,13 +4034,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK289"/>
+  <dimension ref="A1:AMK283"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E280" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E282" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
-      <selection pane="bottomRight" activeCell="A288" sqref="A288"/>
+      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4066,46 +4078,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="26" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -4207,8 +4219,8 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
-      <c r="CC1" s="24"/>
-      <c r="CE1" s="23"/>
+      <c r="CC1" s="26"/>
+      <c r="CE1" s="25"/>
       <c r="CF1" s="7"/>
       <c r="CG1" s="8"/>
       <c r="CH1" s="8"/>
@@ -4230,82 +4242,82 @@
       <c r="CX1" s="8"/>
       <c r="CY1" s="8"/>
       <c r="CZ1" s="9"/>
-      <c r="DB1" s="24"/>
-      <c r="DC1" s="24"/>
-      <c r="DD1" s="24"/>
-      <c r="DE1" s="24"/>
-      <c r="DF1" s="24"/>
-      <c r="DG1" s="24"/>
-      <c r="DH1" s="24"/>
-      <c r="DI1" s="24"/>
-      <c r="DJ1" s="24"/>
-      <c r="DK1" s="24"/>
-      <c r="DL1" s="24"/>
-      <c r="DM1" s="24"/>
-      <c r="DN1" s="24"/>
-      <c r="DO1" s="24"/>
-      <c r="DP1" s="24"/>
-      <c r="DQ1" s="24"/>
-      <c r="DR1" s="24"/>
-      <c r="DS1" s="24"/>
-      <c r="DT1" s="24"/>
-      <c r="DU1" s="24"/>
-      <c r="DW1" s="24"/>
-      <c r="DX1" s="24"/>
-      <c r="DY1" s="24"/>
-      <c r="DZ1" s="24"/>
-      <c r="EA1" s="24"/>
-      <c r="EB1" s="24"/>
-      <c r="EC1" s="24"/>
-      <c r="ED1" s="24"/>
-      <c r="EE1" s="24"/>
-      <c r="EF1" s="24"/>
-      <c r="EG1" s="24"/>
-      <c r="EH1" s="24"/>
-      <c r="EI1" s="24"/>
-      <c r="EJ1" s="24"/>
-      <c r="EK1" s="24"/>
-      <c r="EL1" s="24"/>
-      <c r="EM1" s="24"/>
-      <c r="EN1" s="24"/>
-      <c r="EO1" s="24"/>
-      <c r="EP1" s="24"/>
-      <c r="ER1" s="24"/>
-      <c r="ES1" s="24"/>
-      <c r="ET1" s="24"/>
-      <c r="EU1" s="24"/>
-      <c r="EV1" s="24"/>
-      <c r="EW1" s="24"/>
-      <c r="EX1" s="24"/>
-      <c r="EY1" s="24"/>
-      <c r="EZ1" s="24"/>
-      <c r="FA1" s="24"/>
-      <c r="FB1" s="24"/>
-      <c r="FC1" s="24"/>
-      <c r="FD1" s="24"/>
-      <c r="FE1" s="24"/>
-      <c r="FF1" s="24"/>
-      <c r="FG1" s="24"/>
-      <c r="FH1" s="24"/>
-      <c r="FI1" s="24"/>
-      <c r="FJ1" s="24"/>
-      <c r="FK1" s="24"/>
+      <c r="DB1" s="26"/>
+      <c r="DC1" s="26"/>
+      <c r="DD1" s="26"/>
+      <c r="DE1" s="26"/>
+      <c r="DF1" s="26"/>
+      <c r="DG1" s="26"/>
+      <c r="DH1" s="26"/>
+      <c r="DI1" s="26"/>
+      <c r="DJ1" s="26"/>
+      <c r="DK1" s="26"/>
+      <c r="DL1" s="26"/>
+      <c r="DM1" s="26"/>
+      <c r="DN1" s="26"/>
+      <c r="DO1" s="26"/>
+      <c r="DP1" s="26"/>
+      <c r="DQ1" s="26"/>
+      <c r="DR1" s="26"/>
+      <c r="DS1" s="26"/>
+      <c r="DT1" s="26"/>
+      <c r="DU1" s="26"/>
+      <c r="DW1" s="26"/>
+      <c r="DX1" s="26"/>
+      <c r="DY1" s="26"/>
+      <c r="DZ1" s="26"/>
+      <c r="EA1" s="26"/>
+      <c r="EB1" s="26"/>
+      <c r="EC1" s="26"/>
+      <c r="ED1" s="26"/>
+      <c r="EE1" s="26"/>
+      <c r="EF1" s="26"/>
+      <c r="EG1" s="26"/>
+      <c r="EH1" s="26"/>
+      <c r="EI1" s="26"/>
+      <c r="EJ1" s="26"/>
+      <c r="EK1" s="26"/>
+      <c r="EL1" s="26"/>
+      <c r="EM1" s="26"/>
+      <c r="EN1" s="26"/>
+      <c r="EO1" s="26"/>
+      <c r="EP1" s="26"/>
+      <c r="ER1" s="26"/>
+      <c r="ES1" s="26"/>
+      <c r="ET1" s="26"/>
+      <c r="EU1" s="26"/>
+      <c r="EV1" s="26"/>
+      <c r="EW1" s="26"/>
+      <c r="EX1" s="26"/>
+      <c r="EY1" s="26"/>
+      <c r="EZ1" s="26"/>
+      <c r="FA1" s="26"/>
+      <c r="FB1" s="26"/>
+      <c r="FC1" s="26"/>
+      <c r="FD1" s="26"/>
+      <c r="FE1" s="26"/>
+      <c r="FF1" s="26"/>
+      <c r="FG1" s="26"/>
+      <c r="FH1" s="26"/>
+      <c r="FI1" s="26"/>
+      <c r="FJ1" s="26"/>
+      <c r="FK1" s="26"/>
     </row>
     <row r="2" spans="1:167" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
       <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
@@ -4400,9 +4412,9 @@
       <c r="BZ2" s="10"/>
       <c r="CA2" s="10"/>
       <c r="CB2" s="10"/>
-      <c r="CC2" s="24"/>
+      <c r="CC2" s="26"/>
       <c r="CD2" s="10"/>
-      <c r="CE2" s="23"/>
+      <c r="CE2" s="25"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
@@ -4476,27 +4488,27 @@
         <v>6</v>
       </c>
       <c r="U3" s="1">
-        <f>IF(AA$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AA$1-$D3),0)</f>
+        <f t="shared" ref="U3:U34" si="1">IF(AA$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AA$1-$D3),0)</f>
         <v>2</v>
       </c>
       <c r="V3" s="1">
-        <f>IF(AB$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AB$1-$D3),0)</f>
+        <f t="shared" ref="V3:V34" si="2">IF(AB$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AB$1-$D3),0)</f>
         <v>5.5</v>
       </c>
       <c r="W3" s="1">
-        <f>IF(AC$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AC$1-$D3),0)</f>
+        <f t="shared" ref="W3:W34" si="3">IF(AC$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AC$1-$D3),0)</f>
         <v>9</v>
       </c>
       <c r="X3" s="1">
-        <f>IF(AD$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AD$1-$D3),0)</f>
+        <f t="shared" ref="X3:X34" si="4">IF(AD$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AD$1-$D3),0)</f>
         <v>12.5</v>
       </c>
       <c r="Y3" s="1">
-        <f>IF(AE$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AE$1-$D3),0)</f>
+        <f t="shared" ref="Y3:Y34" si="5">IF(AE$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AE$1-$D3),0)</f>
         <v>16</v>
       </c>
       <c r="Z3" s="1">
-        <f>IF(AF$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AF$1-$D3),0)</f>
+        <f t="shared" ref="Z3:Z34" si="6">IF(AF$1&gt;=$D3,$O3+$P3*($Q3+1)/2+$R3*($S3+1)/2*(AF$1-$D3),0)</f>
         <v>19.5</v>
       </c>
       <c r="BF3" s="1"/>
@@ -4563,27 +4575,27 @@
         <v>6</v>
       </c>
       <c r="U4" s="1">
-        <f>IF(AA$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AA$1-$D4),0)</f>
+        <f t="shared" si="1"/>
         <v>3.5</v>
       </c>
       <c r="V4" s="1">
-        <f>IF(AB$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AB$1-$D4),0)</f>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="W4" s="1">
-        <f>IF(AC$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AC$1-$D4),0)</f>
+        <f t="shared" si="3"/>
         <v>10.5</v>
       </c>
       <c r="X4" s="1">
-        <f>IF(AD$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AD$1-$D4),0)</f>
+        <f t="shared" si="4"/>
         <v>14</v>
       </c>
       <c r="Y4" s="1">
-        <f>IF(AE$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AE$1-$D4),0)</f>
+        <f t="shared" si="5"/>
         <v>17.5</v>
       </c>
       <c r="Z4" s="1">
-        <f>IF(AF$1&gt;=$D4,$O4+$P4*($Q4+1)/2+$R4*($S4+1)/2*(AF$1-$D4),0)</f>
+        <f t="shared" si="6"/>
         <v>21</v>
       </c>
       <c r="BF4" s="1"/>
@@ -4650,27 +4662,27 @@
         <v>8</v>
       </c>
       <c r="U5" s="1">
-        <f>IF(AA$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AA$1-$D5),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V5" s="1">
-        <f>IF(AB$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AB$1-$D5),0)</f>
+        <f t="shared" si="2"/>
         <v>4.5</v>
       </c>
       <c r="W5" s="1">
-        <f>IF(AC$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AC$1-$D5),0)</f>
+        <f t="shared" si="3"/>
         <v>9</v>
       </c>
       <c r="X5" s="1">
-        <f>IF(AD$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AD$1-$D5),0)</f>
+        <f t="shared" si="4"/>
         <v>13.5</v>
       </c>
       <c r="Y5" s="1">
-        <f>IF(AE$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AE$1-$D5),0)</f>
+        <f t="shared" si="5"/>
         <v>18</v>
       </c>
       <c r="Z5" s="1">
-        <f>IF(AF$1&gt;=$D5,$O5+$P5*($Q5+1)/2+$R5*($S5+1)/2*(AF$1-$D5),0)</f>
+        <f t="shared" si="6"/>
         <v>22.5</v>
       </c>
       <c r="BF5" s="1"/>
@@ -4713,27 +4725,27 @@
       </c>
       <c r="M6" s="12"/>
       <c r="U6" s="1">
-        <f>IF(AA$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AA$1-$D6),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V6" s="1">
-        <f>IF(AB$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AB$1-$D6),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W6" s="1">
-        <f>IF(AC$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AC$1-$D6),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X6" s="1">
-        <f>IF(AD$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AD$1-$D6),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y6" s="1">
-        <f>IF(AE$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AE$1-$D6),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <f>IF(AF$1&gt;=$D6,$O6+$P6*($Q6+1)/2+$R6*($S6+1)/2*(AF$1-$D6),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF6" s="1"/>
@@ -4775,27 +4787,27 @@
         <v>49</v>
       </c>
       <c r="U7" s="1">
-        <f>IF(AA$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AA$1-$D7),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V7" s="1">
-        <f>IF(AB$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AB$1-$D7),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W7" s="1">
-        <f>IF(AC$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AC$1-$D7),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X7" s="1">
-        <f>IF(AD$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AD$1-$D7),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y7" s="1">
-        <f>IF(AE$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AE$1-$D7),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <f>IF(AF$1&gt;=$D7,$O7+$P7*($Q7+1)/2+$R7*($S7+1)/2*(AF$1-$D7),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF7" s="1"/>
@@ -4838,27 +4850,27 @@
       </c>
       <c r="M8" s="12"/>
       <c r="U8" s="1">
-        <f>IF(AA$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AA$1-$D8),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V8" s="1">
-        <f>IF(AB$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AB$1-$D8),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W8" s="1">
-        <f>IF(AC$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AC$1-$D8),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X8" s="1">
-        <f>IF(AD$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AD$1-$D8),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y8" s="1">
-        <f>IF(AE$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AE$1-$D8),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <f>IF(AF$1&gt;=$D8,$O8+$P8*($Q8+1)/2+$R8*($S8+1)/2*(AF$1-$D8),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF8" s="1"/>
@@ -4925,27 +4937,27 @@
         <v>4</v>
       </c>
       <c r="U9" s="1">
-        <f>IF(AA$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AA$1-$D9),0)</f>
+        <f t="shared" si="1"/>
         <v>5</v>
       </c>
       <c r="V9" s="1">
-        <f>IF(AB$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AB$1-$D9),0)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="W9" s="1">
-        <f>IF(AC$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AC$1-$D9),0)</f>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
       <c r="X9" s="1">
-        <f>IF(AD$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AD$1-$D9),0)</f>
+        <f t="shared" si="4"/>
         <v>12.5</v>
       </c>
       <c r="Y9" s="1">
-        <f>IF(AE$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AE$1-$D9),0)</f>
+        <f t="shared" si="5"/>
         <v>15</v>
       </c>
       <c r="Z9" s="1">
-        <f>IF(AF$1&gt;=$D9,$O9+$P9*($Q9+1)/2+$R9*($S9+1)/2*(AF$1-$D9),0)</f>
+        <f t="shared" si="6"/>
         <v>17.5</v>
       </c>
       <c r="BF9" s="1"/>
@@ -4989,27 +5001,27 @@
         <v>60</v>
       </c>
       <c r="U10" s="1">
-        <f>IF(AA$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AA$1-$D10),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V10" s="1">
-        <f>IF(AB$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AB$1-$D10),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W10" s="1">
-        <f>IF(AC$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AC$1-$D10),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X10" s="1">
-        <f>IF(AD$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AD$1-$D10),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y10" s="1">
-        <f>IF(AE$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AE$1-$D10),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <f>IF(AF$1&gt;=$D10,$O10+$P10*($Q10+1)/2+$R10*($S10+1)/2*(AF$1-$D10),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF10" s="1"/>
@@ -5072,27 +5084,27 @@
         <v>8</v>
       </c>
       <c r="U11" s="1">
-        <f>IF(AA$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AA$1-$D11),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V11" s="1">
-        <f>IF(AB$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AB$1-$D11),0)</f>
+        <f t="shared" si="2"/>
         <v>7.5</v>
       </c>
       <c r="W11" s="1">
-        <f>IF(AC$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AC$1-$D11),0)</f>
+        <f t="shared" si="3"/>
         <v>12</v>
       </c>
       <c r="X11" s="1">
-        <f>IF(AD$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AD$1-$D11),0)</f>
+        <f t="shared" si="4"/>
         <v>16.5</v>
       </c>
       <c r="Y11" s="1">
-        <f>IF(AE$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AE$1-$D11),0)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="Z11" s="1">
-        <f>IF(AF$1&gt;=$D11,$O11+$P11*($Q11+1)/2+$R11*($S11+1)/2*(AF$1-$D11),0)</f>
+        <f t="shared" si="6"/>
         <v>25.5</v>
       </c>
       <c r="BF11" s="1"/>
@@ -5137,27 +5149,27 @@
         <v>69</v>
       </c>
       <c r="U12" s="1">
-        <f>IF(AA$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AA$1-$D12),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V12" s="1">
-        <f>IF(AB$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AB$1-$D12),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W12" s="1">
-        <f>IF(AC$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AC$1-$D12),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X12" s="1">
-        <f>IF(AD$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AD$1-$D12),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y12" s="1">
-        <f>IF(AE$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AE$1-$D12),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <f>IF(AF$1&gt;=$D12,$O12+$P12*($Q12+1)/2+$R12*($S12+1)/2*(AF$1-$D12),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF12" s="1"/>
@@ -5201,27 +5213,27 @@
         <v>74</v>
       </c>
       <c r="U13" s="1">
-        <f>IF(AA$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AA$1-$D13),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V13" s="1">
-        <f>IF(AB$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AB$1-$D13),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W13" s="1">
-        <f>IF(AC$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AC$1-$D13),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X13" s="1">
-        <f>IF(AD$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AD$1-$D13),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y13" s="1">
-        <f>IF(AE$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AE$1-$D13),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <f>IF(AF$1&gt;=$D13,$O13+$P13*($Q13+1)/2+$R13*($S13+1)/2*(AF$1-$D13),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF13" s="1"/>
@@ -5266,27 +5278,27 @@
         <v>78</v>
       </c>
       <c r="U14" s="1">
-        <f>IF(AA$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AA$1-$D14),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V14" s="1">
-        <f>IF(AB$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AB$1-$D14),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W14" s="1">
-        <f>IF(AC$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AC$1-$D14),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X14" s="1">
-        <f>IF(AD$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AD$1-$D14),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y14" s="1">
-        <f>IF(AE$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AE$1-$D14),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <f>IF(AF$1&gt;=$D14,$O14+$P14*($Q14+1)/2+$R14*($S14+1)/2*(AF$1-$D14),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF14" s="1"/>
@@ -5335,27 +5347,27 @@
         <v>1</v>
       </c>
       <c r="U15" s="1">
-        <f>IF(AA$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AA$1-$D15),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V15" s="1">
-        <f>IF(AB$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AB$1-$D15),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W15" s="1">
-        <f>IF(AC$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AC$1-$D15),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X15" s="1">
-        <f>IF(AD$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AD$1-$D15),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y15" s="1">
-        <f>IF(AE$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AE$1-$D15),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <f>IF(AF$1&gt;=$D15,$O15+$P15*($Q15+1)/2+$R15*($S15+1)/2*(AF$1-$D15),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF15" s="1"/>
@@ -5424,27 +5436,27 @@
         <v>6</v>
       </c>
       <c r="U16" s="1">
-        <f>IF(AA$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AA$1-$D16),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V16" s="1">
-        <f>IF(AB$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AB$1-$D16),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W16" s="1">
-        <f>IF(AC$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AC$1-$D16),0)</f>
+        <f t="shared" si="3"/>
         <v>14</v>
       </c>
       <c r="X16" s="1">
-        <f>IF(AD$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AD$1-$D16),0)</f>
+        <f t="shared" si="4"/>
         <v>17.5</v>
       </c>
       <c r="Y16" s="1">
-        <f>IF(AE$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AE$1-$D16),0)</f>
+        <f t="shared" si="5"/>
         <v>21</v>
       </c>
       <c r="Z16" s="1">
-        <f>IF(AF$1&gt;=$D16,$O16+$P16*($Q16+1)/2+$R16*($S16+1)/2*(AF$1-$D16),0)</f>
+        <f t="shared" si="6"/>
         <v>24.5</v>
       </c>
       <c r="BF16" s="1"/>
@@ -5509,27 +5521,27 @@
         <v>10</v>
       </c>
       <c r="U17" s="1">
-        <f>IF(AA$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AA$1-$D17),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V17" s="1">
-        <f>IF(AB$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AB$1-$D17),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W17" s="1">
-        <f>IF(AC$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AC$1-$D17),0)</f>
+        <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
       <c r="X17" s="1">
-        <f>IF(AD$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AD$1-$D17),0)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="Y17" s="1">
-        <f>IF(AE$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AE$1-$D17),0)</f>
+        <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
       <c r="Z17" s="1">
-        <f>IF(AF$1&gt;=$D17,$O17+$P17*($Q17+1)/2+$R17*($S17+1)/2*(AF$1-$D17),0)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="BF17" s="1"/>
@@ -5571,27 +5583,27 @@
         <v>98</v>
       </c>
       <c r="U18" s="1">
-        <f>IF(AA$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AA$1-$D18),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V18" s="1">
-        <f>IF(AB$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AB$1-$D18),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W18" s="1">
-        <f>IF(AC$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AC$1-$D18),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X18" s="1">
-        <f>IF(AD$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AD$1-$D18),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y18" s="1">
-        <f>IF(AE$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AE$1-$D18),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <f>IF(AF$1&gt;=$D18,$O18+$P18*($Q18+1)/2+$R18*($S18+1)/2*(AF$1-$D18),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF18" s="1"/>
@@ -5638,27 +5650,27 @@
       </c>
       <c r="M19" s="12"/>
       <c r="U19" s="1">
-        <f>IF(AA$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AA$1-$D19),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V19" s="1">
-        <f>IF(AB$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AB$1-$D19),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W19" s="1">
-        <f>IF(AC$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AC$1-$D19),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X19" s="1">
-        <f>IF(AD$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AD$1-$D19),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y19" s="1">
-        <f>IF(AE$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AE$1-$D19),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <f>IF(AF$1&gt;=$D19,$O19+$P19*($Q19+1)/2+$R19*($S19+1)/2*(AF$1-$D19),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF19" s="1"/>
@@ -5723,27 +5735,27 @@
         <v>10</v>
       </c>
       <c r="U20" s="1">
-        <f>IF(AA$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AA$1-$D20),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V20" s="1">
-        <f>IF(AB$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AB$1-$D20),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W20" s="1">
-        <f>IF(AC$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AC$1-$D20),0)</f>
+        <f t="shared" si="3"/>
         <v>16.5</v>
       </c>
       <c r="X20" s="1">
-        <f>IF(AD$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AD$1-$D20),0)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="Y20" s="1">
-        <f>IF(AE$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AE$1-$D20),0)</f>
+        <f t="shared" si="5"/>
         <v>27.5</v>
       </c>
       <c r="Z20" s="1">
-        <f>IF(AF$1&gt;=$D20,$O20+$P20*($Q20+1)/2+$R20*($S20+1)/2*(AF$1-$D20),0)</f>
+        <f t="shared" si="6"/>
         <v>33</v>
       </c>
       <c r="BF20" s="1"/>
@@ -5812,27 +5824,27 @@
         <v>12</v>
       </c>
       <c r="U21" s="1">
-        <f>IF(AA$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AA$1-$D21),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V21" s="1">
-        <f>IF(AB$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AB$1-$D21),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W21" s="1">
-        <f>IF(AC$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AC$1-$D21),0)</f>
+        <f t="shared" si="3"/>
         <v>19.5</v>
       </c>
       <c r="X21" s="1">
-        <f>IF(AD$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AD$1-$D21),0)</f>
+        <f t="shared" si="4"/>
         <v>26</v>
       </c>
       <c r="Y21" s="1">
-        <f>IF(AE$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AE$1-$D21),0)</f>
+        <f t="shared" si="5"/>
         <v>32.5</v>
       </c>
       <c r="Z21" s="1">
-        <f>IF(AF$1&gt;=$D21,$O21+$P21*($Q21+1)/2+$R21*($S21+1)/2*(AF$1-$D21),0)</f>
+        <f t="shared" si="6"/>
         <v>39</v>
       </c>
       <c r="BF21" s="1"/>
@@ -5876,27 +5888,27 @@
         <v>114</v>
       </c>
       <c r="U22" s="1">
-        <f>IF(AA$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AA$1-$D22),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V22" s="1">
-        <f>IF(AB$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AB$1-$D22),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W22" s="1">
-        <f>IF(AC$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AC$1-$D22),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X22" s="1">
-        <f>IF(AD$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AD$1-$D22),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y22" s="1">
-        <f>IF(AE$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AE$1-$D22),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <f>IF(AF$1&gt;=$D22,$O22+$P22*($Q22+1)/2+$R22*($S22+1)/2*(AF$1-$D22),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF22" s="1"/>
@@ -5938,27 +5950,27 @@
         <v>1030</v>
       </c>
       <c r="U23" s="1">
-        <f>IF(AA$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AA$1-$D23),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V23" s="1">
-        <f>IF(AB$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AB$1-$D23),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W23" s="1">
-        <f>IF(AC$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AC$1-$D23),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X23" s="1">
-        <f>IF(AD$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AD$1-$D23),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y23" s="1">
-        <f>IF(AE$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AE$1-$D23),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <f>IF(AF$1&gt;=$D23,$O23+$P23*($Q23+1)/2+$R23*($S23+1)/2*(AF$1-$D23),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF23" s="1"/>
@@ -6023,27 +6035,27 @@
         <v>12</v>
       </c>
       <c r="U24" s="1">
-        <f>IF(AA$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AA$1-$D24),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V24" s="1">
-        <f>IF(AB$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AB$1-$D24),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W24" s="1">
-        <f>IF(AC$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AC$1-$D24),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X24" s="1">
-        <f>IF(AD$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AD$1-$D24),0)</f>
+        <f t="shared" si="4"/>
         <v>32.5</v>
       </c>
       <c r="Y24" s="1">
-        <f>IF(AE$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AE$1-$D24),0)</f>
+        <f t="shared" si="5"/>
         <v>45.5</v>
       </c>
       <c r="Z24" s="1">
-        <f>IF(AF$1&gt;=$D24,$O24+$P24*($Q24+1)/2+$R24*($S24+1)/2*(AF$1-$D24),0)</f>
+        <f t="shared" si="6"/>
         <v>58.5</v>
       </c>
       <c r="BF24" s="1"/>
@@ -6105,27 +6117,27 @@
         <v>0</v>
       </c>
       <c r="U25" s="1">
-        <f>IF(AA$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AA$1-$D25),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V25" s="1">
-        <f>IF(AB$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AB$1-$D25),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W25" s="1">
-        <f>IF(AC$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AC$1-$D25),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X25" s="1">
-        <f>IF(AD$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AD$1-$D25),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y25" s="1">
-        <f>IF(AE$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AE$1-$D25),0)</f>
+        <f t="shared" si="5"/>
         <v>52</v>
       </c>
       <c r="Z25" s="1">
-        <f>IF(AF$1&gt;=$D25,$O25+$P25*($Q25+1)/2+$R25*($S25+1)/2*(AF$1-$D25),0)</f>
+        <f t="shared" si="6"/>
         <v>52</v>
       </c>
       <c r="BF25" s="1"/>
@@ -6187,27 +6199,27 @@
         <v>0</v>
       </c>
       <c r="U26" s="1">
-        <f>IF(AA$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AA$1-$D26),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V26" s="1">
-        <f>IF(AB$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AB$1-$D26),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W26" s="1">
-        <f>IF(AC$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AC$1-$D26),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X26" s="1">
-        <f>IF(AD$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AD$1-$D26),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y26" s="1">
-        <f>IF(AE$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AE$1-$D26),0)</f>
+        <f t="shared" si="5"/>
         <v>45</v>
       </c>
       <c r="Z26" s="1">
-        <f>IF(AF$1&gt;=$D26,$O26+$P26*($Q26+1)/2+$R26*($S26+1)/2*(AF$1-$D26),0)</f>
+        <f t="shared" si="6"/>
         <v>45</v>
       </c>
     </row>
@@ -6263,27 +6275,27 @@
         <v>0</v>
       </c>
       <c r="U27" s="1">
-        <f>IF(AA$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AA$1-$D27),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V27" s="1">
-        <f>IF(AB$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AB$1-$D27),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W27" s="1">
-        <f>IF(AC$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AC$1-$D27),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X27" s="1">
-        <f>IF(AD$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AD$1-$D27),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y27" s="1">
-        <f>IF(AE$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AE$1-$D27),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z27" s="1">
-        <f>IF(AF$1&gt;=$D27,$O27+$P27*($Q27+1)/2+$R27*($S27+1)/2*(AF$1-$D27),0)</f>
+        <f t="shared" si="6"/>
         <v>82.5</v>
       </c>
     </row>
@@ -6337,27 +6349,27 @@
         <v>0</v>
       </c>
       <c r="U28" s="1">
-        <f>IF(AA$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AA$1-$D28),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V28" s="1">
-        <f>IF(AB$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AB$1-$D28),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W28" s="1">
-        <f>IF(AC$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AC$1-$D28),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X28" s="1">
-        <f>IF(AD$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AD$1-$D28),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y28" s="1">
-        <f>IF(AE$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AE$1-$D28),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z28" s="1">
-        <f>IF(AF$1&gt;=$D28,$O28+$P28*($Q28+1)/2+$R28*($S28+1)/2*(AF$1-$D28),0)</f>
+        <f t="shared" si="6"/>
         <v>60.5</v>
       </c>
     </row>
@@ -6411,27 +6423,27 @@
         <v>0</v>
       </c>
       <c r="U29" s="1">
-        <f>IF(AA$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AA$1-$D29),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V29" s="1">
-        <f>IF(AB$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AB$1-$D29),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W29" s="1">
-        <f>IF(AC$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AC$1-$D29),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X29" s="1">
-        <f>IF(AD$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AD$1-$D29),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y29" s="1">
-        <f>IF(AE$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AE$1-$D29),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z29" s="1">
-        <f>IF(AF$1&gt;=$D29,$O29+$P29*($Q29+1)/2+$R29*($S29+1)/2*(AF$1-$D29),0)</f>
+        <f t="shared" si="6"/>
         <v>67.5</v>
       </c>
     </row>
@@ -6466,27 +6478,27 @@
       </c>
       <c r="M30" s="12"/>
       <c r="U30" s="1">
-        <f>IF(AA$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AA$1-$D30),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V30" s="1">
-        <f>IF(AB$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AB$1-$D30),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W30" s="1">
-        <f>IF(AC$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AC$1-$D30),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X30" s="1">
-        <f>IF(AD$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AD$1-$D30),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y30" s="1">
-        <f>IF(AE$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AE$1-$D30),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z30" s="1">
-        <f>IF(AF$1&gt;=$D30,$O30+$P30*($Q30+1)/2+$R30*($S30+1)/2*(AF$1-$D30),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF30" s="1"/>
@@ -6531,27 +6543,27 @@
       </c>
       <c r="M31" s="12"/>
       <c r="U31" s="1">
-        <f>IF(AA$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AA$1-$D31),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V31" s="1">
-        <f>IF(AB$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AB$1-$D31),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W31" s="1">
-        <f>IF(AC$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AC$1-$D31),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X31" s="1">
-        <f>IF(AD$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AD$1-$D31),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y31" s="1">
-        <f>IF(AE$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AE$1-$D31),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z31" s="1">
-        <f>IF(AF$1&gt;=$D31,$O31+$P31*($Q31+1)/2+$R31*($S31+1)/2*(AF$1-$D31),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF31" s="1"/>
@@ -6594,27 +6606,27 @@
       </c>
       <c r="M32" s="12"/>
       <c r="U32" s="1">
-        <f>IF(AA$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AA$1-$D32),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V32" s="1">
-        <f>IF(AB$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AB$1-$D32),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W32" s="1">
-        <f>IF(AC$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AC$1-$D32),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X32" s="1">
-        <f>IF(AD$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AD$1-$D32),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y32" s="1">
-        <f>IF(AE$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AE$1-$D32),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z32" s="1">
-        <f>IF(AF$1&gt;=$D32,$O32+$P32*($Q32+1)/2+$R32*($S32+1)/2*(AF$1-$D32),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF32" s="1"/>
@@ -6659,27 +6671,27 @@
         <v>152</v>
       </c>
       <c r="U33" s="1">
-        <f>IF(AA$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AA$1-$D33),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V33" s="1">
-        <f>IF(AB$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AB$1-$D33),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W33" s="1">
-        <f>IF(AC$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AC$1-$D33),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X33" s="1">
-        <f>IF(AD$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AD$1-$D33),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y33" s="1">
-        <f>IF(AE$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AE$1-$D33),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z33" s="1">
-        <f>IF(AF$1&gt;=$D33,$O33+$P33*($Q33+1)/2+$R33*($S33+1)/2*(AF$1-$D33),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF33" s="1"/>
@@ -6724,27 +6736,27 @@
       </c>
       <c r="M34" s="12"/>
       <c r="U34" s="1">
-        <f>IF(AA$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AA$1-$D34),0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="V34" s="1">
-        <f>IF(AB$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AB$1-$D34),0)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="W34" s="1">
-        <f>IF(AC$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AC$1-$D34),0)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="X34" s="1">
-        <f>IF(AD$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AD$1-$D34),0)</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Y34" s="1">
-        <f>IF(AE$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AE$1-$D34),0)</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="Z34" s="1">
-        <f>IF(AF$1&gt;=$D34,$O34+$P34*($Q34+1)/2+$R34*($S34+1)/2*(AF$1-$D34),0)</f>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="BF34" s="1"/>
@@ -6786,27 +6798,27 @@
         <v>159</v>
       </c>
       <c r="U35" s="1">
-        <f>IF(AA$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AA$1-$D35),0)</f>
+        <f t="shared" ref="U35:U60" si="7">IF(AA$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AA$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="V35" s="1">
-        <f>IF(AB$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AB$1-$D35),0)</f>
+        <f t="shared" ref="V35:V60" si="8">IF(AB$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AB$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="W35" s="1">
-        <f>IF(AC$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AC$1-$D35),0)</f>
+        <f t="shared" ref="W35:W60" si="9">IF(AC$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AC$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="X35" s="1">
-        <f>IF(AD$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AD$1-$D35),0)</f>
+        <f t="shared" ref="X35:X60" si="10">IF(AD$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AD$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="Y35" s="1">
-        <f>IF(AE$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AE$1-$D35),0)</f>
+        <f t="shared" ref="Y35:Y60" si="11">IF(AE$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AE$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="Z35" s="1">
-        <f>IF(AF$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AF$1-$D35),0)</f>
+        <f t="shared" ref="Z35:Z60" si="12">IF(AF$1&gt;=$D35,$O35+$P35*($Q35+1)/2+$R35*($S35+1)/2*(AF$1-$D35),0)</f>
         <v>0</v>
       </c>
       <c r="BF35" s="1"/>
@@ -6853,27 +6865,27 @@
       </c>
       <c r="M36" s="12"/>
       <c r="U36" s="1">
-        <f>IF(AA$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AA$1-$D36),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V36" s="1">
-        <f>IF(AB$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AB$1-$D36),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W36" s="1">
-        <f>IF(AC$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AC$1-$D36),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X36" s="1">
-        <f>IF(AD$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AD$1-$D36),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y36" s="1">
-        <f>IF(AE$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AE$1-$D36),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z36" s="1">
-        <f>IF(AF$1&gt;=$D36,$O36+$P36*($Q36+1)/2+$R36*($S36+1)/2*(AF$1-$D36),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF36" s="1"/>
@@ -6916,27 +6928,27 @@
       </c>
       <c r="M37" s="12"/>
       <c r="U37" s="1">
-        <f>IF(AA$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AA$1-$D37),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V37" s="1">
-        <f>IF(AB$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AB$1-$D37),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W37" s="1">
-        <f>IF(AC$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AC$1-$D37),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X37" s="1">
-        <f>IF(AD$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AD$1-$D37),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y37" s="1">
-        <f>IF(AE$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AE$1-$D37),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z37" s="1">
-        <f>IF(AF$1&gt;=$D37,$O37+$P37*($Q37+1)/2+$R37*($S37+1)/2*(AF$1-$D37),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF37" s="1"/>
@@ -6979,27 +6991,27 @@
       </c>
       <c r="M38" s="12"/>
       <c r="U38" s="1">
-        <f>IF(AA$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AA$1-$D38),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V38" s="1">
-        <f>IF(AB$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AB$1-$D38),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W38" s="1">
-        <f>IF(AC$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AC$1-$D38),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X38" s="1">
-        <f>IF(AD$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AD$1-$D38),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y38" s="1">
-        <f>IF(AE$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AE$1-$D38),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z38" s="1">
-        <f>IF(AF$1&gt;=$D38,$O38+$P38*($Q38+1)/2+$R38*($S38+1)/2*(AF$1-$D38),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF38" s="1"/>
@@ -7042,27 +7054,27 @@
       </c>
       <c r="M39" s="12"/>
       <c r="U39" s="1">
-        <f>IF(AA$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AA$1-$D39),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V39" s="1">
-        <f>IF(AB$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AB$1-$D39),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W39" s="1">
-        <f>IF(AC$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AC$1-$D39),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X39" s="1">
-        <f>IF(AD$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AD$1-$D39),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y39" s="1">
-        <f>IF(AE$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AE$1-$D39),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z39" s="1">
-        <f>IF(AF$1&gt;=$D39,$O39+$P39*($Q39+1)/2+$R39*($S39+1)/2*(AF$1-$D39),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF39" s="1"/>
@@ -7105,27 +7117,27 @@
       </c>
       <c r="M40" s="12"/>
       <c r="U40" s="1">
-        <f>IF(AA$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AA$1-$D40),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V40" s="1">
-        <f>IF(AB$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AB$1-$D40),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W40" s="1">
-        <f>IF(AC$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AC$1-$D40),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X40" s="1">
-        <f>IF(AD$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AD$1-$D40),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y40" s="1">
-        <f>IF(AE$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AE$1-$D40),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z40" s="1">
-        <f>IF(AF$1&gt;=$D40,$O40+$P40*($Q40+1)/2+$R40*($S40+1)/2*(AF$1-$D40),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF40" s="1"/>
@@ -7167,27 +7179,27 @@
         <v>177</v>
       </c>
       <c r="U41" s="1">
-        <f>IF(AA$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AA$1-$D41),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V41" s="1">
-        <f>IF(AB$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AB$1-$D41),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W41" s="1">
-        <f>IF(AC$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AC$1-$D41),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X41" s="1">
-        <f>IF(AD$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AD$1-$D41),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y41" s="1">
-        <f>IF(AE$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AE$1-$D41),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z41" s="1">
-        <f>IF(AF$1&gt;=$D41,$O41+$P41*($Q41+1)/2+$R41*($S41+1)/2*(AF$1-$D41),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF41" s="1"/>
@@ -7232,27 +7244,27 @@
       </c>
       <c r="M42" s="12"/>
       <c r="U42" s="1">
-        <f>IF(AA$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AA$1-$D42),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V42" s="1">
-        <f>IF(AB$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AB$1-$D42),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W42" s="1">
-        <f>IF(AC$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AC$1-$D42),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X42" s="1">
-        <f>IF(AD$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AD$1-$D42),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y42" s="1">
-        <f>IF(AE$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AE$1-$D42),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z42" s="1">
-        <f>IF(AF$1&gt;=$D42,$O42+$P42*($Q42+1)/2+$R42*($S42+1)/2*(AF$1-$D42),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF42" s="1"/>
@@ -7295,27 +7307,27 @@
       </c>
       <c r="M43" s="12"/>
       <c r="U43" s="1">
-        <f>IF(AA$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AA$1-$D43),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V43" s="1">
-        <f>IF(AB$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AB$1-$D43),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W43" s="1">
-        <f>IF(AC$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AC$1-$D43),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X43" s="1">
-        <f>IF(AD$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AD$1-$D43),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y43" s="1">
-        <f>IF(AE$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AE$1-$D43),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z43" s="1">
-        <f>IF(AF$1&gt;=$D43,$O43+$P43*($Q43+1)/2+$R43*($S43+1)/2*(AF$1-$D43),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF43" s="1"/>
@@ -7358,27 +7370,27 @@
       </c>
       <c r="M44" s="12"/>
       <c r="U44" s="1">
-        <f>IF(AA$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AA$1-$D44),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V44" s="1">
-        <f>IF(AB$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AB$1-$D44),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W44" s="1">
-        <f>IF(AC$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AC$1-$D44),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X44" s="1">
-        <f>IF(AD$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AD$1-$D44),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y44" s="1">
-        <f>IF(AE$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AE$1-$D44),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z44" s="1">
-        <f>IF(AF$1&gt;=$D44,$O44+$P44*($Q44+1)/2+$R44*($S44+1)/2*(AF$1-$D44),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF44" s="1"/>
@@ -7422,27 +7434,27 @@
         <v>190</v>
       </c>
       <c r="U45" s="1">
-        <f>IF(AA$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AA$1-$D45),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V45" s="1">
-        <f>IF(AB$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AB$1-$D45),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W45" s="1">
-        <f>IF(AC$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AC$1-$D45),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X45" s="1">
-        <f>IF(AD$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AD$1-$D45),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y45" s="1">
-        <f>IF(AE$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AE$1-$D45),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z45" s="1">
-        <f>IF(AF$1&gt;=$D45,$O45+$P45*($Q45+1)/2+$R45*($S45+1)/2*(AF$1-$D45),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF45" s="1"/>
@@ -7485,27 +7497,27 @@
         <v>193</v>
       </c>
       <c r="U46" s="1">
-        <f>IF(AA$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AA$1-$D46),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V46" s="1">
-        <f>IF(AB$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AB$1-$D46),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W46" s="1">
-        <f>IF(AC$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AC$1-$D46),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X46" s="1">
-        <f>IF(AD$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AD$1-$D46),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y46" s="1">
-        <f>IF(AE$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AE$1-$D46),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z46" s="1">
-        <f>IF(AF$1&gt;=$D46,$O46+$P46*($Q46+1)/2+$R46*($S46+1)/2*(AF$1-$D46),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF46" s="1"/>
@@ -7547,27 +7559,27 @@
         <v>197</v>
       </c>
       <c r="U47" s="1">
-        <f>IF(AA$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AA$1-$D47),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V47" s="1">
-        <f>IF(AB$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AB$1-$D47),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W47" s="1">
-        <f>IF(AC$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AC$1-$D47),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X47" s="1">
-        <f>IF(AD$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AD$1-$D47),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y47" s="1">
-        <f>IF(AE$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AE$1-$D47),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z47" s="1">
-        <f>IF(AF$1&gt;=$D47,$O47+$P47*($Q47+1)/2+$R47*($S47+1)/2*(AF$1-$D47),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF47" s="1"/>
@@ -7614,27 +7626,27 @@
         <v>202</v>
       </c>
       <c r="U48" s="1">
-        <f>IF(AA$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AA$1-$D48),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V48" s="1">
-        <f>IF(AB$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AB$1-$D48),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W48" s="1">
-        <f>IF(AC$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AC$1-$D48),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X48" s="1">
-        <f>IF(AD$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AD$1-$D48),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y48" s="1">
-        <f>IF(AE$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AE$1-$D48),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z48" s="1">
-        <f>IF(AF$1&gt;=$D48,$O48+$P48*($Q48+1)/2+$R48*($S48+1)/2*(AF$1-$D48),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF48" s="1"/>
@@ -7681,27 +7693,27 @@
         <v>208</v>
       </c>
       <c r="U49" s="1">
-        <f>IF(AA$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AA$1-$D49),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V49" s="1">
-        <f>IF(AB$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AB$1-$D49),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W49" s="1">
-        <f>IF(AC$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AC$1-$D49),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X49" s="1">
-        <f>IF(AD$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AD$1-$D49),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y49" s="1">
-        <f>IF(AE$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AE$1-$D49),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z49" s="1">
-        <f>IF(AF$1&gt;=$D49,$O49+$P49*($Q49+1)/2+$R49*($S49+1)/2*(AF$1-$D49),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF49" s="1"/>
@@ -7748,27 +7760,27 @@
       </c>
       <c r="M50" s="12"/>
       <c r="U50" s="1">
-        <f>IF(AA$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AA$1-$D50),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V50" s="1">
-        <f>IF(AB$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AB$1-$D50),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W50" s="1">
-        <f>IF(AC$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AC$1-$D50),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X50" s="1">
-        <f>IF(AD$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AD$1-$D50),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y50" s="1">
-        <f>IF(AE$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AE$1-$D50),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z50" s="1">
-        <f>IF(AF$1&gt;=$D50,$O50+$P50*($Q50+1)/2+$R50*($S50+1)/2*(AF$1-$D50),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -7825,27 +7837,27 @@
         <v>6</v>
       </c>
       <c r="U51" s="1">
-        <f>IF(AA$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AA$1-$D51),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V51" s="1">
-        <f>IF(AB$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AB$1-$D51),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W51" s="1">
-        <f>IF(AC$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AC$1-$D51),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X51" s="1">
-        <f>IF(AD$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AD$1-$D51),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y51" s="1">
-        <f>IF(AE$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AE$1-$D51),0)</f>
+        <f t="shared" si="11"/>
         <v>35</v>
       </c>
       <c r="Z51" s="1">
-        <f>IF(AF$1&gt;=$D51,$O51+$P51*($Q51+1)/2+$R51*($S51+1)/2*(AF$1-$D51),0)</f>
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
       <c r="BF51" s="1"/>
@@ -7888,27 +7900,27 @@
       </c>
       <c r="M52" s="12"/>
       <c r="U52" s="1">
-        <f>IF(AA$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AA$1-$D52),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V52" s="1">
-        <f>IF(AB$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AB$1-$D52),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W52" s="1">
-        <f>IF(AC$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AC$1-$D52),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X52" s="1">
-        <f>IF(AD$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AD$1-$D52),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y52" s="1">
-        <f>IF(AE$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AE$1-$D52),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z52" s="1">
-        <f>IF(AF$1&gt;=$D52,$O52+$P52*($Q52+1)/2+$R52*($S52+1)/2*(AF$1-$D52),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF52" s="1"/>
@@ -7951,27 +7963,27 @@
       </c>
       <c r="M53" s="12"/>
       <c r="U53" s="1">
-        <f>IF(AA$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AA$1-$D53),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V53" s="1">
-        <f>IF(AB$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AB$1-$D53),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W53" s="1">
-        <f>IF(AC$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AC$1-$D53),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X53" s="1">
-        <f>IF(AD$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AD$1-$D53),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y53" s="1">
-        <f>IF(AE$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AE$1-$D53),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z53" s="1">
-        <f>IF(AF$1&gt;=$D53,$O53+$P53*($Q53+1)/2+$R53*($S53+1)/2*(AF$1-$D53),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8008,27 +8020,27 @@
       </c>
       <c r="M54" s="12"/>
       <c r="U54" s="1">
-        <f>IF(AA$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AA$1-$D54),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V54" s="1">
-        <f>IF(AB$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AB$1-$D54),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W54" s="1">
-        <f>IF(AC$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AC$1-$D54),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X54" s="1">
-        <f>IF(AD$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AD$1-$D54),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y54" s="1">
-        <f>IF(AE$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AE$1-$D54),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z54" s="1">
-        <f>IF(AF$1&gt;=$D54,$O54+$P54*($Q54+1)/2+$R54*($S54+1)/2*(AF$1-$D54),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8066,27 +8078,27 @@
         <v>231</v>
       </c>
       <c r="U55" s="1">
-        <f>IF(AA$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AA$1-$D55),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V55" s="1">
-        <f>IF(AB$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AB$1-$D55),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W55" s="1">
-        <f>IF(AC$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AC$1-$D55),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X55" s="1">
-        <f>IF(AD$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AD$1-$D55),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y55" s="1">
-        <f>IF(AE$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AE$1-$D55),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z55" s="1">
-        <f>IF(AF$1&gt;=$D55,$O55+$P55*($Q55+1)/2+$R55*($S55+1)/2*(AF$1-$D55),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -8145,27 +8157,27 @@
         <v>10</v>
       </c>
       <c r="U56" s="1">
-        <f>IF(AA$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AA$1-$D56),0)</f>
+        <f t="shared" si="7"/>
         <v>5.5</v>
       </c>
       <c r="V56" s="1">
-        <f>IF(AB$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AB$1-$D56),0)</f>
+        <f t="shared" si="8"/>
         <v>11</v>
       </c>
       <c r="W56" s="1">
-        <f>IF(AC$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AC$1-$D56),0)</f>
+        <f t="shared" si="9"/>
         <v>16.5</v>
       </c>
       <c r="X56" s="1">
-        <f>IF(AD$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AD$1-$D56),0)</f>
+        <f t="shared" si="10"/>
         <v>22</v>
       </c>
       <c r="Y56" s="1">
-        <f>IF(AE$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AE$1-$D56),0)</f>
+        <f t="shared" si="11"/>
         <v>27.5</v>
       </c>
       <c r="Z56" s="1">
-        <f>IF(AF$1&gt;=$D56,$O56+$P56*($Q56+1)/2+$R56*($S56+1)/2*(AF$1-$D56),0)</f>
+        <f t="shared" si="12"/>
         <v>33</v>
       </c>
       <c r="BF56" s="1"/>
@@ -8230,27 +8242,27 @@
         <v>8</v>
       </c>
       <c r="U57" s="1">
-        <f>IF(AA$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AA$1-$D57),0)</f>
+        <f t="shared" si="7"/>
         <v>4.5</v>
       </c>
       <c r="V57" s="1">
-        <f>IF(AB$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AB$1-$D57),0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="W57" s="1">
-        <f>IF(AC$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AC$1-$D57),0)</f>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="X57" s="1">
-        <f>IF(AD$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AD$1-$D57),0)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="Y57" s="1">
-        <f>IF(AE$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AE$1-$D57),0)</f>
+        <f t="shared" si="11"/>
         <v>22.5</v>
       </c>
       <c r="Z57" s="1">
-        <f>IF(AF$1&gt;=$D57,$O57+$P57*($Q57+1)/2+$R57*($S57+1)/2*(AF$1-$D57),0)</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="BF57" s="1"/>
@@ -8315,27 +8327,27 @@
         <v>10</v>
       </c>
       <c r="U58" s="1">
-        <f>IF(AA$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AA$1-$D58),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V58" s="1">
-        <f>IF(AB$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AB$1-$D58),0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="W58" s="1">
-        <f>IF(AC$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AC$1-$D58),0)</f>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
       <c r="X58" s="1">
-        <f>IF(AD$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AD$1-$D58),0)</f>
+        <f t="shared" si="10"/>
         <v>9</v>
       </c>
       <c r="Y58" s="1">
-        <f>IF(AE$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AE$1-$D58),0)</f>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="Z58" s="1">
-        <f>IF(AF$1&gt;=$D58,$O58+$P58*($Q58+1)/2+$R58*($S58+1)/2*(AF$1-$D58),0)</f>
+        <f t="shared" si="12"/>
         <v>9</v>
       </c>
       <c r="BF58" s="1"/>
@@ -8380,27 +8392,27 @@
       </c>
       <c r="M59" s="15"/>
       <c r="U59" s="1">
-        <f>IF(AA$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AA$1-$D59),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V59" s="1">
-        <f>IF(AB$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AB$1-$D59),0)</f>
+        <f t="shared" si="8"/>
         <v>0</v>
       </c>
       <c r="W59" s="1">
-        <f>IF(AC$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AC$1-$D59),0)</f>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="X59" s="1">
-        <f>IF(AD$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AD$1-$D59),0)</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Y59" s="1">
-        <f>IF(AE$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AE$1-$D59),0)</f>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Z59" s="1">
-        <f>IF(AF$1&gt;=$D59,$O59+$P59*($Q59+1)/2+$R59*($S59+1)/2*(AF$1-$D59),0)</f>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
       <c r="BF59" s="1"/>
@@ -8465,27 +8477,27 @@
         <v>8</v>
       </c>
       <c r="U60" s="1">
-        <f>IF(AA$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AA$1-$D60),0)</f>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="V60" s="1">
-        <f>IF(AB$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AB$1-$D60),0)</f>
+        <f t="shared" si="8"/>
         <v>9</v>
       </c>
       <c r="W60" s="1">
-        <f>IF(AC$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AC$1-$D60),0)</f>
+        <f t="shared" si="9"/>
         <v>13.5</v>
       </c>
       <c r="X60" s="1">
-        <f>IF(AD$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AD$1-$D60),0)</f>
+        <f t="shared" si="10"/>
         <v>18</v>
       </c>
       <c r="Y60" s="1">
-        <f>IF(AE$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AE$1-$D60),0)</f>
+        <f t="shared" si="11"/>
         <v>22.5</v>
       </c>
       <c r="Z60" s="1">
-        <f>IF(AF$1&gt;=$D60,$O60+$P60*($Q60+1)/2+$R60*($S60+1)/2*(AF$1-$D60),0)</f>
+        <f t="shared" si="12"/>
         <v>27</v>
       </c>
       <c r="BF60" s="1"/>
@@ -8590,27 +8602,27 @@
         <v>8</v>
       </c>
       <c r="U62" s="1">
-        <f>IF(AA$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AA$1-$D62),0)</f>
+        <f t="shared" ref="U62:U86" si="13">IF(AA$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AA$1-$D62),0)</f>
         <v>0</v>
       </c>
       <c r="V62" s="1">
-        <f>IF(AB$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AB$1-$D62),0)</f>
+        <f t="shared" ref="V62:V86" si="14">IF(AB$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AB$1-$D62),0)</f>
         <v>11</v>
       </c>
       <c r="W62" s="1">
-        <f>IF(AC$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AC$1-$D62),0)</f>
+        <f t="shared" ref="W62:W86" si="15">IF(AC$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AC$1-$D62),0)</f>
         <v>15.5</v>
       </c>
       <c r="X62" s="1">
-        <f>IF(AD$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AD$1-$D62),0)</f>
+        <f t="shared" ref="X62:X86" si="16">IF(AD$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AD$1-$D62),0)</f>
         <v>20</v>
       </c>
       <c r="Y62" s="1">
-        <f>IF(AE$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AE$1-$D62),0)</f>
+        <f t="shared" ref="Y62:Y86" si="17">IF(AE$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AE$1-$D62),0)</f>
         <v>24.5</v>
       </c>
       <c r="Z62" s="1">
-        <f>IF(AF$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AF$1-$D62),0)</f>
+        <f t="shared" ref="Z62:Z86" si="18">IF(AF$1&gt;=$D62,$O62+$P62*($Q62+1)/2+$R62*($S62+1)/2*(AF$1-$D62),0)</f>
         <v>29</v>
       </c>
       <c r="BF62" s="1"/>
@@ -8652,27 +8664,27 @@
         <v>261</v>
       </c>
       <c r="U63" s="1">
-        <f>IF(AA$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AA$1-$D63),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V63" s="1">
-        <f>IF(AB$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AB$1-$D63),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W63" s="1">
-        <f>IF(AC$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AC$1-$D63),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X63" s="1">
-        <f>IF(AD$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AD$1-$D63),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y63" s="1">
-        <f>IF(AE$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AE$1-$D63),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z63" s="1">
-        <f>IF(AF$1&gt;=$D63,$O63+$P63*($Q63+1)/2+$R63*($S63+1)/2*(AF$1-$D63),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF63" s="1"/>
@@ -8741,27 +8753,27 @@
         <v>12</v>
       </c>
       <c r="U64" s="1">
-        <f>IF(AA$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AA$1-$D64),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V64" s="1">
-        <f>IF(AB$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AB$1-$D64),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W64" s="1">
-        <f>IF(AC$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AC$1-$D64),0)</f>
+        <f t="shared" si="15"/>
         <v>19.5</v>
       </c>
       <c r="X64" s="1">
-        <f>IF(AD$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AD$1-$D64),0)</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="Y64" s="1">
-        <f>IF(AE$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AE$1-$D64),0)</f>
+        <f t="shared" si="17"/>
         <v>32.5</v>
       </c>
       <c r="Z64" s="1">
-        <f>IF(AF$1&gt;=$D64,$O64+$P64*($Q64+1)/2+$R64*($S64+1)/2*(AF$1-$D64),0)</f>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
       <c r="BF64" s="1"/>
@@ -8826,27 +8838,27 @@
         <v>4</v>
       </c>
       <c r="U65" s="1">
-        <f>IF(AA$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AA$1-$D65),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V65" s="1">
-        <f>IF(AB$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AB$1-$D65),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W65" s="1">
-        <f>IF(AC$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AC$1-$D65),0)</f>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="X65" s="1">
-        <f>IF(AD$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AD$1-$D65),0)</f>
+        <f t="shared" si="16"/>
         <v>10</v>
       </c>
       <c r="Y65" s="1">
-        <f>IF(AE$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AE$1-$D65),0)</f>
+        <f t="shared" si="17"/>
         <v>15</v>
       </c>
       <c r="Z65" s="1">
-        <f>IF(AF$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AF$1-$D65),0)</f>
+        <f t="shared" si="18"/>
         <v>20</v>
       </c>
       <c r="BF65" s="1"/>
@@ -8911,27 +8923,27 @@
         <v>12</v>
       </c>
       <c r="U66" s="1">
-        <f>IF(AA$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AA$1-$D66),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V66" s="1">
-        <f>IF(AB$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AB$1-$D66),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W66" s="1">
-        <f>IF(AC$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AC$1-$D66),0)</f>
+        <f t="shared" si="15"/>
         <v>14</v>
       </c>
       <c r="X66" s="1">
-        <f>IF(AD$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AD$1-$D66),0)</f>
+        <f t="shared" si="16"/>
         <v>27</v>
       </c>
       <c r="Y66" s="1">
-        <f>IF(AE$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AE$1-$D66),0)</f>
+        <f t="shared" si="17"/>
         <v>40</v>
       </c>
       <c r="Z66" s="1">
-        <f>IF(AF$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AF$1-$D66),0)</f>
+        <f t="shared" si="18"/>
         <v>53</v>
       </c>
       <c r="BF66" s="1"/>
@@ -8976,27 +8988,27 @@
         <v>277</v>
       </c>
       <c r="U67" s="1">
-        <f>IF(AA$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AA$1-$D67),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V67" s="1">
-        <f>IF(AB$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AB$1-$D67),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W67" s="1">
-        <f>IF(AC$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AC$1-$D67),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X67" s="1">
-        <f>IF(AD$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AD$1-$D67),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y67" s="1">
-        <f>IF(AE$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AE$1-$D67),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z67" s="1">
-        <f>IF(AF$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AF$1-$D67),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF67" s="1"/>
@@ -9042,27 +9054,27 @@
         <v>281</v>
       </c>
       <c r="U68" s="1">
-        <f>IF(AA$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AA$1-$D68),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V68" s="1">
-        <f>IF(AB$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AB$1-$D68),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W68" s="1">
-        <f>IF(AC$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AC$1-$D68),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X68" s="1">
-        <f>IF(AD$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AD$1-$D68),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y68" s="1">
-        <f>IF(AE$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AE$1-$D68),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z68" s="1">
-        <f>IF(AF$1&gt;=$D68,$O68+$P68*($Q68+1)/2+$R68*($S68+1)/2*(AF$1-$D68),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF68" s="1"/>
@@ -9106,27 +9118,27 @@
         <v>284</v>
       </c>
       <c r="U69" s="1">
-        <f>IF(AA$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AA$1-$D69),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V69" s="1">
-        <f>IF(AB$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AB$1-$D69),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W69" s="1">
-        <f>IF(AC$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AC$1-$D69),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X69" s="1">
-        <f>IF(AD$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AD$1-$D69),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y69" s="1">
-        <f>IF(AE$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AE$1-$D69),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z69" s="1">
-        <f>IF(AF$1&gt;=$D69,$O69+$P69*($Q69+1)/2+$R69*($S69+1)/2*(AF$1-$D69),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF69" s="1"/>
@@ -9171,27 +9183,27 @@
         <v>289</v>
       </c>
       <c r="U70" s="1">
-        <f>IF(AA$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AA$1-$D70),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V70" s="1">
-        <f>IF(AB$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AB$1-$D70),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W70" s="1">
-        <f>IF(AC$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AC$1-$D70),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X70" s="1">
-        <f>IF(AD$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AD$1-$D70),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y70" s="1">
-        <f>IF(AE$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AE$1-$D70),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z70" s="1">
-        <f>IF(AF$1&gt;=$D70,$O70+$P70*($Q70+1)/2+$R70*($S70+1)/2*(AF$1-$D70),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF70" s="1"/>
@@ -9231,27 +9243,27 @@
         <v>298</v>
       </c>
       <c r="U71" s="1">
-        <f>IF(AA$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AA$1-$D71),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V71" s="1">
-        <f>IF(AB$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AB$1-$D71),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W71" s="1">
-        <f>IF(AC$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AC$1-$D71),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X71" s="1">
-        <f>IF(AD$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AD$1-$D71),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y71" s="1">
-        <f>IF(AE$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AE$1-$D71),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z71" s="1">
-        <f>IF(AF$1&gt;=$D71,$O71+$P71*($Q71+1)/2+$R71*($S71+1)/2*(AF$1-$D71),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF71" s="1"/>
@@ -9297,27 +9309,27 @@
         <v>296</v>
       </c>
       <c r="U72" s="1">
-        <f>IF(AA$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AA$1-$D72),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V72" s="1">
-        <f>IF(AB$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AB$1-$D72),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W72" s="1">
-        <f>IF(AC$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AC$1-$D72),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X72" s="1">
-        <f>IF(AD$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AD$1-$D72),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y72" s="1">
-        <f>IF(AE$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AE$1-$D72),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z72" s="1">
-        <f>IF(AF$1&gt;=$D72,$O72+$P72*($Q72+1)/2+$R72*($S72+1)/2*(AF$1-$D72),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF72" s="1"/>
@@ -9362,27 +9374,27 @@
         <v>293</v>
       </c>
       <c r="U73" s="1">
-        <f>IF(AA$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AA$1-$D73),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V73" s="1">
-        <f>IF(AB$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AB$1-$D73),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W73" s="1">
-        <f>IF(AC$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AC$1-$D73),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X73" s="1">
-        <f>IF(AD$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AD$1-$D73),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y73" s="1">
-        <f>IF(AE$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AE$1-$D73),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z73" s="1">
-        <f>IF(AF$1&gt;=$D73,$O73+$P73*($Q73+1)/2+$R73*($S73+1)/2*(AF$1-$D73),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
     </row>
@@ -9416,27 +9428,27 @@
         <v>301</v>
       </c>
       <c r="U74" s="1">
-        <f>IF(AA$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AA$1-$D74),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V74" s="1">
-        <f>IF(AB$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AB$1-$D74),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W74" s="1">
-        <f>IF(AC$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AC$1-$D74),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X74" s="1">
-        <f>IF(AD$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AD$1-$D74),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y74" s="1">
-        <f>IF(AE$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AE$1-$D74),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z74" s="1">
-        <f>IF(AF$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AF$1-$D74),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF74" s="1"/>
@@ -9481,27 +9493,27 @@
         <v>304</v>
       </c>
       <c r="U75" s="1">
-        <f>IF(AA$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AA$1-$D75),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V75" s="1">
-        <f>IF(AB$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AB$1-$D75),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W75" s="1">
-        <f>IF(AC$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AC$1-$D75),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X75" s="1">
-        <f>IF(AD$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AD$1-$D75),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y75" s="1">
-        <f>IF(AE$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AE$1-$D75),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z75" s="1">
-        <f>IF(AF$1&gt;=$D75,$O75+$P75*($Q75+1)/2+$R75*($S75+1)/2*(AF$1-$D75),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF75" s="1"/>
@@ -9547,27 +9559,27 @@
         <v>308</v>
       </c>
       <c r="U76" s="1">
-        <f>IF(AA$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AA$1-$D76),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V76" s="1">
-        <f>IF(AB$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AB$1-$D76),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W76" s="1">
-        <f>IF(AC$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AC$1-$D76),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X76" s="1">
-        <f>IF(AD$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AD$1-$D76),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y76" s="1">
-        <f>IF(AE$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AE$1-$D76),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z76" s="1">
-        <f>IF(AF$1&gt;=$D76,$O76+$P76*($Q76+1)/2+$R76*($S76+1)/2*(AF$1-$D76),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF76" s="1"/>
@@ -9614,27 +9626,27 @@
         <v>312</v>
       </c>
       <c r="U77" s="1">
-        <f>IF(AA$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AA$1-$D77),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V77" s="1">
-        <f>IF(AB$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AB$1-$D77),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W77" s="1">
-        <f>IF(AC$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AC$1-$D77),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X77" s="1">
-        <f>IF(AD$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AD$1-$D77),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y77" s="1">
-        <f>IF(AE$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AE$1-$D77),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z77" s="1">
-        <f>IF(AF$1&gt;=$D77,$O77+$P77*($Q77+1)/2+$R77*($S77+1)/2*(AF$1-$D77),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF77" s="1"/>
@@ -9701,27 +9713,27 @@
         <v>8</v>
       </c>
       <c r="U78" s="1">
-        <f>IF(AA$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AA$1-$D78),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V78" s="1">
-        <f>IF(AB$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AB$1-$D78),0)</f>
+        <f t="shared" si="14"/>
         <v>13.5</v>
       </c>
       <c r="W78" s="1">
-        <f>IF(AC$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AC$1-$D78),0)</f>
+        <f t="shared" si="15"/>
         <v>18</v>
       </c>
       <c r="X78" s="1">
-        <f>IF(AD$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AD$1-$D78),0)</f>
+        <f t="shared" si="16"/>
         <v>22.5</v>
       </c>
       <c r="Y78" s="1">
-        <f>IF(AE$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AE$1-$D78),0)</f>
+        <f t="shared" si="17"/>
         <v>27</v>
       </c>
       <c r="Z78" s="1">
-        <f>IF(AF$1&gt;=$D78,$O78+$P78*($Q78+1)/2+$R78*($S78+1)/2*(AF$1-$D78),0)</f>
+        <f t="shared" si="18"/>
         <v>31.5</v>
       </c>
       <c r="BF78" s="1"/>
@@ -9763,27 +9775,27 @@
         <v>319</v>
       </c>
       <c r="U79" s="1">
-        <f>IF(AA$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AA$1-$D79),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V79" s="1">
-        <f>IF(AB$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AB$1-$D79),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W79" s="1">
-        <f>IF(AC$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AC$1-$D79),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X79" s="1">
-        <f>IF(AD$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AD$1-$D79),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y79" s="1">
-        <f>IF(AE$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AE$1-$D79),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z79" s="1">
-        <f>IF(AF$1&gt;=$D79,$O79+$P79*($Q79+1)/2+$R79*($S79+1)/2*(AF$1-$D79),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF79" s="1"/>
@@ -9825,27 +9837,27 @@
         <v>322</v>
       </c>
       <c r="U80" s="1">
-        <f>IF(AA$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AA$1-$D80),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V80" s="1">
-        <f>IF(AB$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AB$1-$D80),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W80" s="1">
-        <f>IF(AC$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AC$1-$D80),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X80" s="1">
-        <f>IF(AD$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AD$1-$D80),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y80" s="1">
-        <f>IF(AE$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AE$1-$D80),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z80" s="1">
-        <f>IF(AF$1&gt;=$D80,$O80+$P80*($Q80+1)/2+$R80*($S80+1)/2*(AF$1-$D80),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF80" s="1"/>
@@ -9914,27 +9926,27 @@
         <v>12</v>
       </c>
       <c r="U81" s="1">
-        <f>IF(AA$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AA$1-$D81),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V81" s="1">
-        <f>IF(AB$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AB$1-$D81),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W81" s="1">
-        <f>IF(AC$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AC$1-$D81),0)</f>
+        <f t="shared" si="15"/>
         <v>19.5</v>
       </c>
       <c r="X81" s="1">
-        <f>IF(AD$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AD$1-$D81),0)</f>
+        <f t="shared" si="16"/>
         <v>26</v>
       </c>
       <c r="Y81" s="1">
-        <f>IF(AE$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AE$1-$D81),0)</f>
+        <f t="shared" si="17"/>
         <v>32.5</v>
       </c>
       <c r="Z81" s="1">
-        <f>IF(AF$1&gt;=$D81,$O81+$P81*($Q81+1)/2+$R81*($S81+1)/2*(AF$1-$D81),0)</f>
+        <f t="shared" si="18"/>
         <v>39</v>
       </c>
     </row>
@@ -9968,27 +9980,27 @@
         <v>329</v>
       </c>
       <c r="U82" s="1">
-        <f>IF(AA$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AA$1-$D82),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V82" s="1">
-        <f>IF(AB$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AB$1-$D82),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W82" s="1">
-        <f>IF(AC$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AC$1-$D82),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X82" s="1">
-        <f>IF(AD$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AD$1-$D82),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y82" s="1">
-        <f>IF(AE$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AE$1-$D82),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z82" s="1">
-        <f>IF(AF$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AF$1-$D82),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF82" s="1"/>
@@ -10055,27 +10067,27 @@
         <v>8</v>
       </c>
       <c r="U83" s="1">
-        <f>IF(AA$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AA$1-$D83),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V83" s="1">
-        <f>IF(AB$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AB$1-$D83),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W83" s="1">
-        <f>IF(AC$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AC$1-$D83),0)</f>
+        <f t="shared" si="15"/>
         <v>13.5</v>
       </c>
       <c r="X83" s="1">
-        <f>IF(AD$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AD$1-$D83),0)</f>
+        <f t="shared" si="16"/>
         <v>18</v>
       </c>
       <c r="Y83" s="1">
-        <f>IF(AE$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AE$1-$D83),0)</f>
+        <f t="shared" si="17"/>
         <v>22.5</v>
       </c>
       <c r="Z83" s="1">
-        <f>IF(AF$1&gt;=$D83,$O83+$P83*($Q83+1)/2+$R83*($S83+1)/2*(AF$1-$D83),0)</f>
+        <f t="shared" si="18"/>
         <v>27</v>
       </c>
       <c r="BF83" s="1"/>
@@ -10117,27 +10129,27 @@
         <v>336</v>
       </c>
       <c r="U84" s="1">
-        <f>IF(AA$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AA$1-$D84),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V84" s="1">
-        <f>IF(AB$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AB$1-$D84),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W84" s="1">
-        <f>IF(AC$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AC$1-$D84),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X84" s="1">
-        <f>IF(AD$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AD$1-$D84),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y84" s="1">
-        <f>IF(AE$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AE$1-$D84),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z84" s="1">
-        <f>IF(AF$1&gt;=$D84,$O84+$P84*($Q84+1)/2+$R84*($S84+1)/2*(AF$1-$D84),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF84" s="1"/>
@@ -10177,27 +10189,27 @@
         <v>338</v>
       </c>
       <c r="U85" s="1">
-        <f>IF(AA$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AA$1-$D85),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V85" s="1">
-        <f>IF(AB$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AB$1-$D85),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W85" s="1">
-        <f>IF(AC$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AC$1-$D85),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X85" s="1">
-        <f>IF(AD$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AD$1-$D85),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y85" s="1">
-        <f>IF(AE$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AE$1-$D85),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z85" s="1">
-        <f>IF(AF$1&gt;=$D85,$O85+$P85*($Q85+1)/2+$R85*($S85+1)/2*(AF$1-$D85),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF85" s="1"/>
@@ -10237,27 +10249,27 @@
         <v>341</v>
       </c>
       <c r="U86" s="1">
-        <f>IF(AA$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AA$1-$D86),0)</f>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="V86" s="1">
-        <f>IF(AB$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AB$1-$D86),0)</f>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
       <c r="W86" s="1">
-        <f>IF(AC$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AC$1-$D86),0)</f>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="X86" s="1">
-        <f>IF(AD$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AD$1-$D86),0)</f>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="Y86" s="1">
-        <f>IF(AE$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AE$1-$D86),0)</f>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="Z86" s="1">
-        <f>IF(AF$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AF$1-$D86),0)</f>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="BF86" s="1"/>
@@ -10327,27 +10339,27 @@
         <v>347</v>
       </c>
       <c r="U88" s="1">
-        <f>IF(AA$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AA$1-$D88),0)</f>
+        <f t="shared" ref="U88:U121" si="19">IF(AA$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AA$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="V88" s="1">
-        <f>IF(AB$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AB$1-$D88),0)</f>
+        <f t="shared" ref="V88:V121" si="20">IF(AB$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AB$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="W88" s="1">
-        <f>IF(AC$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AC$1-$D88),0)</f>
+        <f t="shared" ref="W88:W121" si="21">IF(AC$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AC$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="X88" s="1">
-        <f>IF(AD$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AD$1-$D88),0)</f>
+        <f t="shared" ref="X88:X121" si="22">IF(AD$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AD$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="Y88" s="1">
-        <f>IF(AE$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AE$1-$D88),0)</f>
+        <f t="shared" ref="Y88:Y121" si="23">IF(AE$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AE$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="Z88" s="1">
-        <f>IF(AF$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AF$1-$D88),0)</f>
+        <f t="shared" ref="Z88:Z121" si="24">IF(AF$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AF$1-$D88),0)</f>
         <v>0</v>
       </c>
       <c r="BF88" s="1"/>
@@ -10391,27 +10403,27 @@
         <v>352</v>
       </c>
       <c r="U89" s="1">
-        <f>IF(AA$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AA$1-$D89),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V89" s="1">
-        <f>IF(AB$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AB$1-$D89),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W89" s="1">
-        <f>IF(AC$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AC$1-$D89),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X89" s="1">
-        <f>IF(AD$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AD$1-$D89),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y89" s="1">
-        <f>IF(AE$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AE$1-$D89),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z89" s="1">
-        <f>IF(AF$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AF$1-$D89),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF89" s="1"/>
@@ -10456,27 +10468,27 @@
         <v>356</v>
       </c>
       <c r="U90" s="1">
-        <f>IF(AA$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AA$1-$D90),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V90" s="1">
-        <f>IF(AB$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AB$1-$D90),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W90" s="1">
-        <f>IF(AC$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AC$1-$D90),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X90" s="1">
-        <f>IF(AD$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AD$1-$D90),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y90" s="1">
-        <f>IF(AE$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AE$1-$D90),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z90" s="1">
-        <f>IF(AF$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AF$1-$D90),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -10515,27 +10527,27 @@
         <v>360</v>
       </c>
       <c r="U91" s="1">
-        <f>IF(AA$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AA$1-$D91),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V91" s="1">
-        <f>IF(AB$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AB$1-$D91),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W91" s="1">
-        <f>IF(AC$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AC$1-$D91),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X91" s="1">
-        <f>IF(AD$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AD$1-$D91),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y91" s="1">
-        <f>IF(AE$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AE$1-$D91),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z91" s="1">
-        <f>IF(AF$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AF$1-$D91),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -10574,27 +10586,27 @@
         <v>366</v>
       </c>
       <c r="U92" s="1">
-        <f>IF(AA$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AA$1-$D92),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V92" s="1">
-        <f>IF(AB$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AB$1-$D92),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W92" s="1">
-        <f>IF(AC$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AC$1-$D92),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X92" s="1">
-        <f>IF(AD$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AD$1-$D92),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y92" s="1">
-        <f>IF(AE$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AE$1-$D92),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z92" s="1">
-        <f>IF(AF$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AF$1-$D92),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF92" s="1"/>
@@ -10638,27 +10650,27 @@
         <v>370</v>
       </c>
       <c r="U93" s="1">
-        <f>IF(AA$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AA$1-$D93),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V93" s="1">
-        <f>IF(AB$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AB$1-$D93),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W93" s="1">
-        <f>IF(AC$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AC$1-$D93),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X93" s="1">
-        <f>IF(AD$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AD$1-$D93),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y93" s="1">
-        <f>IF(AE$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AE$1-$D93),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z93" s="1">
-        <f>IF(AF$1&gt;=$D93,$O93+$P93*($Q93+1)/2+$R93*($S93+1)/2*(AF$1-$D93),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF93" s="1"/>
@@ -10700,27 +10712,27 @@
         <v>373</v>
       </c>
       <c r="U94" s="1">
-        <f>IF(AA$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AA$1-$D94),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V94" s="1">
-        <f>IF(AB$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AB$1-$D94),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W94" s="1">
-        <f>IF(AC$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AC$1-$D94),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X94" s="1">
-        <f>IF(AD$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AD$1-$D94),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y94" s="1">
-        <f>IF(AE$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AE$1-$D94),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z94" s="1">
-        <f>IF(AF$1&gt;=$D94,$O94+$P94*($Q94+1)/2+$R94*($S94+1)/2*(AF$1-$D94),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF94" s="1"/>
@@ -10764,27 +10776,27 @@
         <v>377</v>
       </c>
       <c r="U95" s="1">
-        <f>IF(AA$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AA$1-$D95),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V95" s="1">
-        <f>IF(AB$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AB$1-$D95),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W95" s="1">
-        <f>IF(AC$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AC$1-$D95),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X95" s="1">
-        <f>IF(AD$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AD$1-$D95),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y95" s="1">
-        <f>IF(AE$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AE$1-$D95),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z95" s="1">
-        <f>IF(AF$1&gt;=$D95,$O95+$P95*($Q95+1)/2+$R95*($S95+1)/2*(AF$1-$D95),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF95" s="1"/>
@@ -10828,27 +10840,27 @@
         <v>381</v>
       </c>
       <c r="U96" s="1">
-        <f>IF(AA$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AA$1-$D96),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V96" s="1">
-        <f>IF(AB$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AB$1-$D96),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W96" s="1">
-        <f>IF(AC$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AC$1-$D96),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X96" s="1">
-        <f>IF(AD$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AD$1-$D96),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y96" s="1">
-        <f>IF(AE$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AE$1-$D96),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z96" s="1">
-        <f>IF(AF$1&gt;=$D96,$O96+$P96*($Q96+1)/2+$R96*($S96+1)/2*(AF$1-$D96),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF96" s="1"/>
@@ -10892,27 +10904,27 @@
         <v>385</v>
       </c>
       <c r="U97" s="1">
-        <f>IF(AA$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AA$1-$D97),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V97" s="1">
-        <f>IF(AB$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AB$1-$D97),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W97" s="1">
-        <f>IF(AC$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AC$1-$D97),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X97" s="1">
-        <f>IF(AD$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AD$1-$D97),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y97" s="1">
-        <f>IF(AE$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AE$1-$D97),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z97" s="1">
-        <f>IF(AF$1&gt;=$D97,$O97+$P97*($Q97+1)/2+$R97*($S97+1)/2*(AF$1-$D97),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF97" s="1"/>
@@ -10954,27 +10966,27 @@
         <v>388</v>
       </c>
       <c r="U98" s="1">
-        <f>IF(AA$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AA$1-$D98),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V98" s="1">
-        <f>IF(AB$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AB$1-$D98),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W98" s="1">
-        <f>IF(AC$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AC$1-$D98),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X98" s="1">
-        <f>IF(AD$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AD$1-$D98),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y98" s="1">
-        <f>IF(AE$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AE$1-$D98),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z98" s="1">
-        <f>IF(AF$1&gt;=$D98,$O98+$P98*($Q98+1)/2+$R98*($S98+1)/2*(AF$1-$D98),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF98" s="1"/>
@@ -11016,27 +11028,27 @@
         <v>392</v>
       </c>
       <c r="U99" s="1">
-        <f>IF(AA$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AA$1-$D99),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V99" s="1">
-        <f>IF(AB$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AB$1-$D99),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W99" s="1">
-        <f>IF(AC$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AC$1-$D99),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X99" s="1">
-        <f>IF(AD$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AD$1-$D99),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y99" s="1">
-        <f>IF(AE$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AE$1-$D99),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z99" s="1">
-        <f>IF(AF$1&gt;=$D99,$O99+$P99*($Q99+1)/2+$R99*($S99+1)/2*(AF$1-$D99),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF99" s="1"/>
@@ -11080,27 +11092,27 @@
         <v>395</v>
       </c>
       <c r="U100" s="1">
-        <f>IF(AA$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AA$1-$D100),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V100" s="1">
-        <f>IF(AB$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AB$1-$D100),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W100" s="1">
-        <f>IF(AC$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AC$1-$D100),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X100" s="1">
-        <f>IF(AD$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AD$1-$D100),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y100" s="1">
-        <f>IF(AE$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AE$1-$D100),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z100" s="1">
-        <f>IF(AF$1&gt;=$D100,$O100+$P100*($Q100+1)/2+$R100*($S100+1)/2*(AF$1-$D100),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF100" s="1"/>
@@ -11143,27 +11155,27 @@
       </c>
       <c r="M101" s="16"/>
       <c r="U101" s="1">
-        <f>IF(AA$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AA$1-$D101),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V101" s="1">
-        <f>IF(AB$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AB$1-$D101),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W101" s="1">
-        <f>IF(AC$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AC$1-$D101),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X101" s="1">
-        <f>IF(AD$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AD$1-$D101),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y101" s="1">
-        <f>IF(AE$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AE$1-$D101),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z101" s="1">
-        <f>IF(AF$1&gt;=$D101,$O101+$P101*($Q101+1)/2+$R101*($S101+1)/2*(AF$1-$D101),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF101" s="1"/>
@@ -11207,27 +11219,27 @@
         <v>401</v>
       </c>
       <c r="U102" s="1">
-        <f>IF(AA$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AA$1-$D102),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V102" s="1">
-        <f>IF(AB$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AB$1-$D102),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W102" s="1">
-        <f>IF(AC$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AC$1-$D102),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X102" s="1">
-        <f>IF(AD$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AD$1-$D102),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y102" s="1">
-        <f>IF(AE$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AE$1-$D102),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z102" s="1">
-        <f>IF(AF$1&gt;=$D102,$O102+$P102*($Q102+1)/2+$R102*($S102+1)/2*(AF$1-$D102),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11263,27 +11275,27 @@
         <v>404</v>
       </c>
       <c r="U103" s="1">
-        <f>IF(AA$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AA$1-$D103),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V103" s="1">
-        <f>IF(AB$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AB$1-$D103),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W103" s="1">
-        <f>IF(AC$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AC$1-$D103),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X103" s="1">
-        <f>IF(AD$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AD$1-$D103),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y103" s="1">
-        <f>IF(AE$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AE$1-$D103),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z103" s="1">
-        <f>IF(AF$1&gt;=$D103,$O103+$P103*($Q103+1)/2+$R103*($S103+1)/2*(AF$1-$D103),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF103" s="1"/>
@@ -11329,27 +11341,27 @@
         <v>408</v>
       </c>
       <c r="U104" s="1">
-        <f>IF(AA$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AA$1-$D104),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V104" s="1">
-        <f>IF(AB$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AB$1-$D104),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W104" s="1">
-        <f>IF(AC$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AC$1-$D104),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X104" s="1">
-        <f>IF(AD$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AD$1-$D104),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y104" s="1">
-        <f>IF(AE$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AE$1-$D104),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z104" s="1">
-        <f>IF(AF$1&gt;=$D104,$O104+$P104*($Q104+1)/2+$R104*($S104+1)/2*(AF$1-$D104),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF104" s="1"/>
@@ -11393,27 +11405,27 @@
         <v>411</v>
       </c>
       <c r="U105" s="1">
-        <f>IF(AA$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AA$1-$D105),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V105" s="1">
-        <f>IF(AB$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AB$1-$D105),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W105" s="1">
-        <f>IF(AC$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AC$1-$D105),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X105" s="1">
-        <f>IF(AD$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AD$1-$D105),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y105" s="1">
-        <f>IF(AE$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AE$1-$D105),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z105" s="1">
-        <f>IF(AF$1&gt;=$D105,$O105+$P105*($Q105+1)/2+$R105*($S105+1)/2*(AF$1-$D105),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11449,27 +11461,27 @@
         <v>415</v>
       </c>
       <c r="U106" s="1">
-        <f>IF(AA$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AA$1-$D106),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V106" s="1">
-        <f>IF(AB$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AB$1-$D106),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W106" s="1">
-        <f>IF(AC$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AC$1-$D106),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X106" s="1">
-        <f>IF(AD$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AD$1-$D106),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y106" s="1">
-        <f>IF(AE$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AE$1-$D106),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z106" s="1">
-        <f>IF(AF$1&gt;=$D106,$O106+$P106*($Q106+1)/2+$R106*($S106+1)/2*(AF$1-$D106),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF106" s="1"/>
@@ -11513,27 +11525,27 @@
         <v>418</v>
       </c>
       <c r="U107" s="1">
-        <f>IF(AA$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AA$1-$D107),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V107" s="1">
-        <f>IF(AB$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AB$1-$D107),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W107" s="1">
-        <f>IF(AC$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AC$1-$D107),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X107" s="1">
-        <f>IF(AD$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AD$1-$D107),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y107" s="1">
-        <f>IF(AE$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AE$1-$D107),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z107" s="1">
-        <f>IF(AF$1&gt;=$D107,$O107+$P107*($Q107+1)/2+$R107*($S107+1)/2*(AF$1-$D107),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11572,27 +11584,27 @@
         <v>422</v>
       </c>
       <c r="U108" s="1">
-        <f>IF(AA$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AA$1-$D108),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V108" s="1">
-        <f>IF(AB$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AB$1-$D108),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W108" s="1">
-        <f>IF(AC$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AC$1-$D108),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X108" s="1">
-        <f>IF(AD$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AD$1-$D108),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y108" s="1">
-        <f>IF(AE$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AE$1-$D108),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z108" s="1">
-        <f>IF(AF$1&gt;=$D108,$O108+$P108*($Q108+1)/2+$R108*($S108+1)/2*(AF$1-$D108),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11628,27 +11640,27 @@
         <v>425</v>
       </c>
       <c r="U109" s="1">
-        <f>IF(AA$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AA$1-$D109),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V109" s="1">
-        <f>IF(AB$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AB$1-$D109),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W109" s="1">
-        <f>IF(AC$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AC$1-$D109),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X109" s="1">
-        <f>IF(AD$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AD$1-$D109),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y109" s="1">
-        <f>IF(AE$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AE$1-$D109),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z109" s="1">
-        <f>IF(AF$1&gt;=$D109,$O109+$P109*($Q109+1)/2+$R109*($S109+1)/2*(AF$1-$D109),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF109" s="1"/>
@@ -11695,27 +11707,27 @@
         <v>430</v>
       </c>
       <c r="U110" s="1">
-        <f>IF(AA$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AA$1-$D110),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V110" s="1">
-        <f>IF(AB$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AB$1-$D110),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W110" s="1">
-        <f>IF(AC$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AC$1-$D110),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X110" s="1">
-        <f>IF(AD$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AD$1-$D110),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y110" s="1">
-        <f>IF(AE$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AE$1-$D110),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z110" s="1">
-        <f>IF(AF$1&gt;=$D110,$O110+$P110*($Q110+1)/2+$R110*($S110+1)/2*(AF$1-$D110),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF110" s="1"/>
@@ -11757,27 +11769,27 @@
         <v>433</v>
       </c>
       <c r="U111" s="1">
-        <f>IF(AA$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AA$1-$D111),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V111" s="1">
-        <f>IF(AB$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AB$1-$D111),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W111" s="1">
-        <f>IF(AC$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AC$1-$D111),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X111" s="1">
-        <f>IF(AD$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AD$1-$D111),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y111" s="1">
-        <f>IF(AE$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AE$1-$D111),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z111" s="1">
-        <f>IF(AF$1&gt;=$D111,$O111+$P111*($Q111+1)/2+$R111*($S111+1)/2*(AF$1-$D111),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF111" s="1"/>
@@ -11819,27 +11831,27 @@
         <v>436</v>
       </c>
       <c r="U112" s="1">
-        <f>IF(AA$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AA$1-$D112),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V112" s="1">
-        <f>IF(AB$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AB$1-$D112),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W112" s="1">
-        <f>IF(AC$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AC$1-$D112),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X112" s="1">
-        <f>IF(AD$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AD$1-$D112),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y112" s="1">
-        <f>IF(AE$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AE$1-$D112),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z112" s="1">
-        <f>IF(AF$1&gt;=$D112,$O112+$P112*($Q112+1)/2+$R112*($S112+1)/2*(AF$1-$D112),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
@@ -11871,27 +11883,27 @@
         <v>438</v>
       </c>
       <c r="U113" s="1">
-        <f>IF(AA$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AA$1-$D113),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V113" s="1">
-        <f>IF(AB$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AB$1-$D113),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W113" s="1">
-        <f>IF(AC$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AC$1-$D113),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X113" s="1">
-        <f>IF(AD$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AD$1-$D113),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y113" s="1">
-        <f>IF(AE$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AE$1-$D113),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z113" s="1">
-        <f>IF(AF$1&gt;=$D113,$O113+$P113*($Q113+1)/2+$R113*($S113+1)/2*(AF$1-$D113),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF113" s="1"/>
@@ -11933,27 +11945,27 @@
         <v>441</v>
       </c>
       <c r="U114" s="1">
-        <f>IF(AA$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AA$1-$D114),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V114" s="1">
-        <f>IF(AB$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AB$1-$D114),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W114" s="1">
-        <f>IF(AC$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AC$1-$D114),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X114" s="1">
-        <f>IF(AD$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AD$1-$D114),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y114" s="1">
-        <f>IF(AE$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AE$1-$D114),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z114" s="1">
-        <f>IF(AF$1&gt;=$D114,$O114+$P114*($Q114+1)/2+$R114*($S114+1)/2*(AF$1-$D114),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF114" s="1"/>
@@ -12020,27 +12032,27 @@
         <v>4</v>
       </c>
       <c r="U115" s="1">
-        <f>IF(AA$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AA$1-$D115),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V115" s="1">
-        <f>IF(AB$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AB$1-$D115),0)</f>
+        <f t="shared" si="20"/>
         <v>7.5</v>
       </c>
       <c r="W115" s="1">
-        <f>IF(AC$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AC$1-$D115),0)</f>
+        <f t="shared" si="21"/>
         <v>15</v>
       </c>
       <c r="X115" s="1">
-        <f>IF(AD$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AD$1-$D115),0)</f>
+        <f t="shared" si="22"/>
         <v>22.5</v>
       </c>
       <c r="Y115" s="1">
-        <f>IF(AE$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AE$1-$D115),0)</f>
+        <f t="shared" si="23"/>
         <v>30</v>
       </c>
       <c r="Z115" s="1">
-        <f>IF(AF$1&gt;=$D115,$O115+$P115*($Q115+1)/2+$R115*($S115+1)/2*(AF$1-$D115),0)</f>
+        <f t="shared" si="24"/>
         <v>37.5</v>
       </c>
       <c r="BF115" s="1"/>
@@ -12082,27 +12094,27 @@
         <v>451</v>
       </c>
       <c r="U116" s="1">
-        <f>IF(AA$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AA$1-$D116),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V116" s="1">
-        <f>IF(AB$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AB$1-$D116),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W116" s="1">
-        <f>IF(AC$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AC$1-$D116),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X116" s="1">
-        <f>IF(AD$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AD$1-$D116),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y116" s="1">
-        <f>IF(AE$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AE$1-$D116),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z116" s="1">
-        <f>IF(AF$1&gt;=$D116,$O116+$P116*($Q116+1)/2+$R116*($S116+1)/2*(AF$1-$D116),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF116" s="1"/>
@@ -12147,27 +12159,27 @@
       </c>
       <c r="M117" s="12"/>
       <c r="U117" s="1">
-        <f>IF(AA$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AA$1-$D117),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V117" s="1">
-        <f>IF(AB$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AB$1-$D117),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W117" s="1">
-        <f>IF(AC$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AC$1-$D117),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X117" s="1">
-        <f>IF(AD$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AD$1-$D117),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y117" s="1">
-        <f>IF(AE$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AE$1-$D117),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z117" s="1">
-        <f>IF(AF$1&gt;=$D117,$O117+$P117*($Q117+1)/2+$R117*($S117+1)/2*(AF$1-$D117),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF117" s="1"/>
@@ -12215,27 +12227,27 @@
         <v>458</v>
       </c>
       <c r="U118" s="1">
-        <f>IF(AA$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AA$1-$D118),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V118" s="1">
-        <f>IF(AB$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AB$1-$D118),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W118" s="1">
-        <f>IF(AC$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AC$1-$D118),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X118" s="1">
-        <f>IF(AD$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AD$1-$D118),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y118" s="1">
-        <f>IF(AE$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AE$1-$D118),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z118" s="1">
-        <f>IF(AF$1&gt;=$D118,$O118+$P118*($Q118+1)/2+$R118*($S118+1)/2*(AF$1-$D118),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF118" s="1"/>
@@ -12302,27 +12314,27 @@
         <v>6</v>
       </c>
       <c r="U119" s="1">
-        <f>IF(AA$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AA$1-$D119),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V119" s="1">
-        <f>IF(AB$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AB$1-$D119),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W119" s="1">
-        <f>IF(AC$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AC$1-$D119),0)</f>
+        <f t="shared" si="21"/>
         <v>17.5</v>
       </c>
       <c r="X119" s="1">
-        <f>IF(AD$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AD$1-$D119),0)</f>
+        <f t="shared" si="22"/>
         <v>21</v>
       </c>
       <c r="Y119" s="1">
-        <f>IF(AE$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AE$1-$D119),0)</f>
+        <f t="shared" si="23"/>
         <v>24.5</v>
       </c>
       <c r="Z119" s="1">
-        <f>IF(AF$1&gt;=$D119,$O119+$P119*($Q119+1)/2+$R119*($S119+1)/2*(AF$1-$D119),0)</f>
+        <f t="shared" si="24"/>
         <v>28</v>
       </c>
       <c r="BF119" s="1"/>
@@ -12366,27 +12378,27 @@
         <v>466</v>
       </c>
       <c r="U120" s="1">
-        <f>IF(AA$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AA$1-$D120),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V120" s="1">
-        <f>IF(AB$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AB$1-$D120),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W120" s="1">
-        <f>IF(AC$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AC$1-$D120),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X120" s="1">
-        <f>IF(AD$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AD$1-$D120),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y120" s="1">
-        <f>IF(AE$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AE$1-$D120),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z120" s="1">
-        <f>IF(AF$1&gt;=$D120,$O120+$P120*($Q120+1)/2+$R120*($S120+1)/2*(AF$1-$D120),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF120" s="1"/>
@@ -12428,27 +12440,27 @@
         <v>469</v>
       </c>
       <c r="U121" s="1">
-        <f>IF(AA$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AA$1-$D121),0)</f>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="V121" s="1">
-        <f>IF(AB$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AB$1-$D121),0)</f>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="W121" s="1">
-        <f>IF(AC$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AC$1-$D121),0)</f>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="X121" s="1">
-        <f>IF(AD$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AD$1-$D121),0)</f>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Y121" s="1">
-        <f>IF(AE$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AE$1-$D121),0)</f>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="Z121" s="1">
-        <f>IF(AF$1&gt;=$D121,$O121+$P121*($Q121+1)/2+$R121*($S121+1)/2*(AF$1-$D121),0)</f>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="BF121" s="1"/>
@@ -12529,27 +12541,27 @@
         <v>475</v>
       </c>
       <c r="U123" s="1">
-        <f>IF(AA$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AA$1-$D123),0)</f>
+        <f t="shared" ref="U123:Z129" si="25">IF(AA$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AA$1-$D123),0)</f>
         <v>0</v>
       </c>
       <c r="V123" s="1">
-        <f>IF(AB$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AB$1-$D123),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W123" s="1">
-        <f>IF(AC$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AC$1-$D123),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X123" s="1">
-        <f>IF(AD$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AD$1-$D123),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y123" s="1">
-        <f>IF(AE$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AE$1-$D123),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z123" s="1">
-        <f>IF(AF$1&gt;=$D123,$O123+$P123*($Q123+1)/2+$R123*($S123+1)/2*(AF$1-$D123),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF123" s="1"/>
@@ -12594,27 +12606,27 @@
         <v>479</v>
       </c>
       <c r="U124" s="1">
-        <f>IF(AA$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AA$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V124" s="1">
-        <f>IF(AB$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AB$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W124" s="1">
-        <f>IF(AC$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AC$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X124" s="1">
-        <f>IF(AD$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AD$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y124" s="1">
-        <f>IF(AE$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AE$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z124" s="1">
-        <f>IF(AF$1&gt;=$D124,$O124+$P124*($Q124+1)/2+$R124*($S124+1)/2*(AF$1-$D124),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF124" s="1"/>
@@ -12654,27 +12666,27 @@
         <v>482</v>
       </c>
       <c r="U125" s="1">
-        <f>IF(AA$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AA$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V125" s="1">
-        <f>IF(AB$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AB$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W125" s="1">
-        <f>IF(AC$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AC$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X125" s="1">
-        <f>IF(AD$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AD$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y125" s="1">
-        <f>IF(AE$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AE$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z125" s="1">
-        <f>IF(AF$1&gt;=$D125,$O125+$P125*($Q125+1)/2+$R125*($S125+1)/2*(AF$1-$D125),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF125" s="1"/>
@@ -12719,27 +12731,27 @@
         <v>486</v>
       </c>
       <c r="U126" s="1">
-        <f>IF(AA$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AA$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V126" s="1">
-        <f>IF(AB$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AB$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W126" s="1">
-        <f>IF(AC$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AC$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X126" s="1">
-        <f>IF(AD$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AD$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y126" s="1">
-        <f>IF(AE$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AE$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z126" s="1">
-        <f>IF(AF$1&gt;=$D126,$O126+$P126*($Q126+1)/2+$R126*($S126+1)/2*(AF$1-$D126),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -12775,27 +12787,27 @@
         <v>488</v>
       </c>
       <c r="U127" s="1">
-        <f>IF(AA$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AA$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V127" s="1">
-        <f>IF(AB$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AB$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W127" s="1">
-        <f>IF(AC$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AC$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X127" s="1">
-        <f>IF(AD$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AD$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y127" s="1">
-        <f>IF(AE$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AE$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z127" s="1">
-        <f>IF(AF$1&gt;=$D127,$O127+$P127*($Q127+1)/2+$R127*($S127+1)/2*(AF$1-$D127),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -12828,27 +12840,27 @@
         <v>491</v>
       </c>
       <c r="U128" s="1">
-        <f>IF(AA$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AA$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V128" s="1">
-        <f>IF(AB$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AB$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W128" s="1">
-        <f>IF(AC$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AC$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X128" s="1">
-        <f>IF(AD$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AD$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y128" s="1">
-        <f>IF(AE$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AE$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z128" s="1">
-        <f>IF(AF$1&gt;=$D128,$O128+$P128*($Q128+1)/2+$R128*($S128+1)/2*(AF$1-$D128),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
@@ -12882,27 +12894,27 @@
         <v>494</v>
       </c>
       <c r="U129" s="1">
-        <f>IF(AA$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AA$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="V129" s="1">
-        <f>IF(AB$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AB$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W129" s="1">
-        <f>IF(AC$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AC$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="X129" s="1">
-        <f>IF(AD$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AD$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Y129" s="1">
-        <f>IF(AE$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AE$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="Z129" s="1">
-        <f>IF(AF$1&gt;=$D129,$O129+$P129*($Q129+1)/2+$R129*($S129+1)/2*(AF$1-$D129),0)</f>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="BF129" s="1"/>
@@ -12984,27 +12996,27 @@
         <v>503</v>
       </c>
       <c r="U131" s="1">
-        <f>IF(AA$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AA$1-$D131),0)</f>
+        <f t="shared" ref="U131:U162" si="26">IF(AA$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AA$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="V131" s="1">
-        <f>IF(AB$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AB$1-$D131),0)</f>
+        <f t="shared" ref="V131:V162" si="27">IF(AB$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AB$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="W131" s="1">
-        <f>IF(AC$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AC$1-$D131),0)</f>
+        <f t="shared" ref="W131:W162" si="28">IF(AC$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AC$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="X131" s="1">
-        <f>IF(AD$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AD$1-$D131),0)</f>
+        <f t="shared" ref="X131:X162" si="29">IF(AD$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AD$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="Y131" s="1">
-        <f>IF(AE$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AE$1-$D131),0)</f>
+        <f t="shared" ref="Y131:Y162" si="30">IF(AE$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AE$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="Z131" s="1">
-        <f>IF(AF$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AF$1-$D131),0)</f>
+        <f t="shared" ref="Z131:Z162" si="31">IF(AF$1&gt;=$D131,$O131+$P131*($Q131+1)/2+$R131*($S131+1)/2*(AF$1-$D131),0)</f>
         <v>0</v>
       </c>
       <c r="BF131" s="1"/>
@@ -13048,27 +13060,27 @@
         <v>507</v>
       </c>
       <c r="U132" s="1">
-        <f>IF(AA$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AA$1-$D132),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V132" s="1">
-        <f>IF(AB$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AB$1-$D132),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W132" s="1">
-        <f>IF(AC$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AC$1-$D132),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X132" s="1">
-        <f>IF(AD$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AD$1-$D132),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y132" s="1">
-        <f>IF(AE$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AE$1-$D132),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z132" s="1">
-        <f>IF(AF$1&gt;=$D132,$O132+$P132*($Q132+1)/2+$R132*($S132+1)/2*(AF$1-$D132),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF132" s="1"/>
@@ -13114,27 +13126,27 @@
         <v>510</v>
       </c>
       <c r="U133" s="1">
-        <f>IF(AA$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AA$1-$D133),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V133" s="1">
-        <f>IF(AB$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AB$1-$D133),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W133" s="1">
-        <f>IF(AC$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AC$1-$D133),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X133" s="1">
-        <f>IF(AD$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AD$1-$D133),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y133" s="1">
-        <f>IF(AE$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AE$1-$D133),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z133" s="1">
-        <f>IF(AF$1&gt;=$D133,$O133+$P133*($Q133+1)/2+$R133*($S133+1)/2*(AF$1-$D133),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF133" s="1"/>
@@ -13180,27 +13192,27 @@
         <v>514</v>
       </c>
       <c r="U134" s="1">
-        <f>IF(AA$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AA$1-$D134),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V134" s="1">
-        <f>IF(AB$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AB$1-$D134),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W134" s="1">
-        <f>IF(AC$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AC$1-$D134),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X134" s="1">
-        <f>IF(AD$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AD$1-$D134),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y134" s="1">
-        <f>IF(AE$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AE$1-$D134),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z134" s="1">
-        <f>IF(AF$1&gt;=$D134,$O134+$P134*($Q134+1)/2+$R134*($S134+1)/2*(AF$1-$D134),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF134" s="1"/>
@@ -13242,27 +13254,27 @@
         <v>1026</v>
       </c>
       <c r="U135" s="1">
-        <f>IF(AA$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AA$1-$D135),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V135" s="1">
-        <f>IF(AB$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AB$1-$D135),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W135" s="1">
-        <f>IF(AC$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AC$1-$D135),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X135" s="1">
-        <f>IF(AD$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AD$1-$D135),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y135" s="1">
-        <f>IF(AE$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AE$1-$D135),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z135" s="1">
-        <f>IF(AF$1&gt;=$D135,$O135+$P135*($Q135+1)/2+$R135*($S135+1)/2*(AF$1-$D135),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF135" s="1"/>
@@ -13304,27 +13316,27 @@
         <v>519</v>
       </c>
       <c r="U136" s="1">
-        <f>IF(AA$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AA$1-$D136),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V136" s="1">
-        <f>IF(AB$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AB$1-$D136),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W136" s="1">
-        <f>IF(AC$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AC$1-$D136),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X136" s="1">
-        <f>IF(AD$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AD$1-$D136),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y136" s="1">
-        <f>IF(AE$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AE$1-$D136),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z136" s="1">
-        <f>IF(AF$1&gt;=$D136,$O136+$P136*($Q136+1)/2+$R136*($S136+1)/2*(AF$1-$D136),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF136" s="1"/>
@@ -13368,27 +13380,27 @@
         <v>523</v>
       </c>
       <c r="U137" s="1">
-        <f>IF(AA$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AA$1-$D137),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V137" s="1">
-        <f>IF(AB$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AB$1-$D137),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W137" s="1">
-        <f>IF(AC$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AC$1-$D137),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X137" s="1">
-        <f>IF(AD$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AD$1-$D137),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y137" s="1">
-        <f>IF(AE$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AE$1-$D137),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z137" s="1">
-        <f>IF(AF$1&gt;=$D137,$O137+$P137*($Q137+1)/2+$R137*($S137+1)/2*(AF$1-$D137),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF137" s="1"/>
@@ -13435,27 +13447,27 @@
       </c>
       <c r="M138" s="17"/>
       <c r="U138" s="1">
-        <f>IF(AA$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AA$1-$D138),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V138" s="1">
-        <f>IF(AB$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AB$1-$D138),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W138" s="1">
-        <f>IF(AC$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AC$1-$D138),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X138" s="1">
-        <f>IF(AD$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AD$1-$D138),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y138" s="1">
-        <f>IF(AE$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AE$1-$D138),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z138" s="1">
-        <f>IF(AF$1&gt;=$D138,$O138+$P138*($Q138+1)/2+$R138*($S138+1)/2*(AF$1-$D138),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF138" s="1"/>
@@ -13501,27 +13513,27 @@
         <v>529</v>
       </c>
       <c r="U139" s="1">
-        <f>IF(AA$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AA$1-$D139),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V139" s="1">
-        <f>IF(AB$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AB$1-$D139),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W139" s="1">
-        <f>IF(AC$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AC$1-$D139),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X139" s="1">
-        <f>IF(AD$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AD$1-$D139),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y139" s="1">
-        <f>IF(AE$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AE$1-$D139),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z139" s="1">
-        <f>IF(AF$1&gt;=$D139,$O139+$P139*($Q139+1)/2+$R139*($S139+1)/2*(AF$1-$D139),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF139" s="1"/>
@@ -13567,27 +13579,27 @@
         <v>533</v>
       </c>
       <c r="U140" s="1">
-        <f>IF(AA$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AA$1-$D140),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V140" s="1">
-        <f>IF(AB$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AB$1-$D140),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W140" s="1">
-        <f>IF(AC$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AC$1-$D140),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X140" s="1">
-        <f>IF(AD$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AD$1-$D140),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y140" s="1">
-        <f>IF(AE$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AE$1-$D140),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z140" s="1">
-        <f>IF(AF$1&gt;=$D140,$O140+$P140*($Q140+1)/2+$R140*($S140+1)/2*(AF$1-$D140),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF140" s="1"/>
@@ -13632,27 +13644,27 @@
       </c>
       <c r="M141" s="17"/>
       <c r="U141" s="1">
-        <f>IF(AA$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AA$1-$D141),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V141" s="1">
-        <f>IF(AB$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AB$1-$D141),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W141" s="1">
-        <f>IF(AC$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AC$1-$D141),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X141" s="1">
-        <f>IF(AD$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AD$1-$D141),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y141" s="1">
-        <f>IF(AE$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AE$1-$D141),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z141" s="1">
-        <f>IF(AF$1&gt;=$D141,$O141+$P141*($Q141+1)/2+$R141*($S141+1)/2*(AF$1-$D141),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF141" s="1"/>
@@ -13698,27 +13710,27 @@
         <v>538</v>
       </c>
       <c r="U142" s="1">
-        <f>IF(AA$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AA$1-$D142),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V142" s="1">
-        <f>IF(AB$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AB$1-$D142),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W142" s="1">
-        <f>IF(AC$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AC$1-$D142),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X142" s="1">
-        <f>IF(AD$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AD$1-$D142),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y142" s="1">
-        <f>IF(AE$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AE$1-$D142),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z142" s="1">
-        <f>IF(AF$1&gt;=$D142,$O142+$P142*($Q142+1)/2+$R142*($S142+1)/2*(AF$1-$D142),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF142" s="1"/>
@@ -13764,27 +13776,27 @@
         <v>541</v>
       </c>
       <c r="U143" s="1">
-        <f>IF(AA$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AA$1-$D143),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V143" s="1">
-        <f>IF(AB$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AB$1-$D143),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W143" s="1">
-        <f>IF(AC$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AC$1-$D143),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X143" s="1">
-        <f>IF(AD$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AD$1-$D143),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y143" s="1">
-        <f>IF(AE$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AE$1-$D143),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z143" s="1">
-        <f>IF(AF$1&gt;=$D143,$O143+$P143*($Q143+1)/2+$R143*($S143+1)/2*(AF$1-$D143),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -13822,27 +13834,27 @@
         <v>545</v>
       </c>
       <c r="U144" s="1">
-        <f>IF(AA$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AA$1-$D144),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V144" s="1">
-        <f>IF(AB$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AB$1-$D144),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W144" s="1">
-        <f>IF(AC$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AC$1-$D144),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X144" s="1">
-        <f>IF(AD$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AD$1-$D144),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y144" s="1">
-        <f>IF(AE$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AE$1-$D144),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z144" s="1">
-        <f>IF(AF$1&gt;=$D144,$O144+$P144*($Q144+1)/2+$R144*($S144+1)/2*(AF$1-$D144),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -13880,27 +13892,27 @@
         <v>549</v>
       </c>
       <c r="U145" s="1">
-        <f>IF(AA$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AA$1-$D145),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V145" s="1">
-        <f>IF(AB$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AB$1-$D145),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W145" s="1">
-        <f>IF(AC$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AC$1-$D145),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X145" s="1">
-        <f>IF(AD$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AD$1-$D145),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y145" s="1">
-        <f>IF(AE$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AE$1-$D145),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z145" s="1">
-        <f>IF(AF$1&gt;=$D145,$O145+$P145*($Q145+1)/2+$R145*($S145+1)/2*(AF$1-$D145),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF145" s="1"/>
@@ -13965,27 +13977,27 @@
         <v>8</v>
       </c>
       <c r="U146" s="1">
-        <f>IF(AA$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AA$1-$D146),0)</f>
+        <f t="shared" si="26"/>
         <v>4.5</v>
       </c>
       <c r="V146" s="1">
-        <f>IF(AB$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AB$1-$D146),0)</f>
+        <f t="shared" si="27"/>
         <v>9</v>
       </c>
       <c r="W146" s="1">
-        <f>IF(AC$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AC$1-$D146),0)</f>
+        <f t="shared" si="28"/>
         <v>13.5</v>
       </c>
       <c r="X146" s="1">
-        <f>IF(AD$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AD$1-$D146),0)</f>
+        <f t="shared" si="29"/>
         <v>18</v>
       </c>
       <c r="Y146" s="1">
-        <f>IF(AE$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AE$1-$D146),0)</f>
+        <f t="shared" si="30"/>
         <v>22.5</v>
       </c>
       <c r="Z146" s="1">
-        <f>IF(AF$1&gt;=$D146,$O146+$P146*($Q146+1)/2+$R146*($S146+1)/2*(AF$1-$D146),0)</f>
+        <f t="shared" si="31"/>
         <v>27</v>
       </c>
       <c r="BF146" s="1"/>
@@ -14031,27 +14043,27 @@
         <v>558</v>
       </c>
       <c r="U147" s="1">
-        <f>IF(AA$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AA$1-$D147),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V147" s="1">
-        <f>IF(AB$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AB$1-$D147),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W147" s="1">
-        <f>IF(AC$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AC$1-$D147),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X147" s="1">
-        <f>IF(AD$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AD$1-$D147),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y147" s="1">
-        <f>IF(AE$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AE$1-$D147),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z147" s="1">
-        <f>IF(AF$1&gt;=$D147,$O147+$P147*($Q147+1)/2+$R147*($S147+1)/2*(AF$1-$D147),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF147" s="1"/>
@@ -14116,27 +14128,27 @@
         <v>4</v>
       </c>
       <c r="U148" s="1">
-        <f>IF(AA$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AA$1-$D148),0)</f>
+        <f t="shared" si="26"/>
         <v>2.5</v>
       </c>
       <c r="V148" s="1">
-        <f>IF(AB$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AB$1-$D148),0)</f>
+        <f t="shared" si="27"/>
         <v>5</v>
       </c>
       <c r="W148" s="1">
-        <f>IF(AC$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AC$1-$D148),0)</f>
+        <f t="shared" si="28"/>
         <v>7.5</v>
       </c>
       <c r="X148" s="1">
-        <f>IF(AD$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AD$1-$D148),0)</f>
+        <f t="shared" si="29"/>
         <v>10</v>
       </c>
       <c r="Y148" s="1">
-        <f>IF(AE$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AE$1-$D148),0)</f>
+        <f t="shared" si="30"/>
         <v>12.5</v>
       </c>
       <c r="Z148" s="1">
-        <f>IF(AF$1&gt;=$D148,$O148+$P148*($Q148+1)/2+$R148*($S148+1)/2*(AF$1-$D148),0)</f>
+        <f t="shared" si="31"/>
         <v>15</v>
       </c>
       <c r="BF148" s="1"/>
@@ -14205,27 +14217,27 @@
         <v>6</v>
       </c>
       <c r="U149" s="1">
-        <f>IF(AA$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AA$1-$D149),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V149" s="1">
-        <f>IF(AB$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AB$1-$D149),0)</f>
+        <f t="shared" si="27"/>
         <v>3.5</v>
       </c>
       <c r="W149" s="1">
-        <f>IF(AC$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AC$1-$D149),0)</f>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="X149" s="1">
-        <f>IF(AD$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AD$1-$D149),0)</f>
+        <f t="shared" si="29"/>
         <v>10.5</v>
       </c>
       <c r="Y149" s="1">
-        <f>IF(AE$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AE$1-$D149),0)</f>
+        <f t="shared" si="30"/>
         <v>14</v>
       </c>
       <c r="Z149" s="1">
-        <f>IF(AF$1&gt;=$D149,$O149+$P149*($Q149+1)/2+$R149*($S149+1)/2*(AF$1-$D149),0)</f>
+        <f t="shared" si="31"/>
         <v>17.5</v>
       </c>
       <c r="BF149" s="1"/>
@@ -14290,27 +14302,27 @@
         <v>6</v>
       </c>
       <c r="U150" s="1">
-        <f>IF(AA$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AA$1-$D150),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V150" s="1">
-        <f>IF(AB$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AB$1-$D150),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W150" s="1">
-        <f>IF(AC$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AC$1-$D150),0)</f>
+        <f t="shared" si="28"/>
         <v>7</v>
       </c>
       <c r="X150" s="1">
-        <f>IF(AD$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AD$1-$D150),0)</f>
+        <f t="shared" si="29"/>
         <v>14</v>
       </c>
       <c r="Y150" s="1">
-        <f>IF(AE$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AE$1-$D150),0)</f>
+        <f t="shared" si="30"/>
         <v>21</v>
       </c>
       <c r="Z150" s="1">
-        <f>IF(AF$1&gt;=$D150,$O150+$P150*($Q150+1)/2+$R150*($S150+1)/2*(AF$1-$D150),0)</f>
+        <f t="shared" si="31"/>
         <v>28</v>
       </c>
       <c r="BF150" s="1"/>
@@ -14357,27 +14369,27 @@
       </c>
       <c r="M151" s="17"/>
       <c r="U151" s="1">
-        <f>IF(AA$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AA$1-$D151),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V151" s="1">
-        <f>IF(AB$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AB$1-$D151),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W151" s="1">
-        <f>IF(AC$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AC$1-$D151),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X151" s="1">
-        <f>IF(AD$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AD$1-$D151),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y151" s="1">
-        <f>IF(AE$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AE$1-$D151),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z151" s="1">
-        <f>IF(AF$1&gt;=$D151,$O151+$P151*($Q151+1)/2+$R151*($S151+1)/2*(AF$1-$D151),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF151" s="1"/>
@@ -14422,27 +14434,27 @@
         <v>579</v>
       </c>
       <c r="U152" s="1">
-        <f>IF(AA$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AA$1-$D152),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V152" s="1">
-        <f>IF(AB$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AB$1-$D152),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W152" s="1">
-        <f>IF(AC$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AC$1-$D152),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X152" s="1">
-        <f>IF(AD$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AD$1-$D152),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y152" s="1">
-        <f>IF(AE$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AE$1-$D152),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z152" s="1">
-        <f>IF(AF$1&gt;=$D152,$O152+$P152*($Q152+1)/2+$R152*($S152+1)/2*(AF$1-$D152),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF152" s="1"/>
@@ -14488,27 +14500,27 @@
         <v>582</v>
       </c>
       <c r="U153" s="1">
-        <f>IF(AA$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AA$1-$D153),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V153" s="1">
-        <f>IF(AB$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AB$1-$D153),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W153" s="1">
-        <f>IF(AC$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AC$1-$D153),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X153" s="1">
-        <f>IF(AD$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AD$1-$D153),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y153" s="1">
-        <f>IF(AE$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AE$1-$D153),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z153" s="1">
-        <f>IF(AF$1&gt;=$D153,$O153+$P153*($Q153+1)/2+$R153*($S153+1)/2*(AF$1-$D153),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF153" s="1"/>
@@ -14557,27 +14569,27 @@
         <v>586</v>
       </c>
       <c r="U154" s="1">
-        <f>IF(AA$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AA$1-$D154),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V154" s="1">
-        <f>IF(AB$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AB$1-$D154),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W154" s="1">
-        <f>IF(AC$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AC$1-$D154),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X154" s="1">
-        <f>IF(AD$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AD$1-$D154),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y154" s="1">
-        <f>IF(AE$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AE$1-$D154),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z154" s="1">
-        <f>IF(AF$1&gt;=$D154,$O154+$P154*($Q154+1)/2+$R154*($S154+1)/2*(AF$1-$D154),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -14610,27 +14622,27 @@
         <v>589</v>
       </c>
       <c r="U155" s="1">
-        <f>IF(AA$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AA$1-$D155),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V155" s="1">
-        <f>IF(AB$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AB$1-$D155),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W155" s="1">
-        <f>IF(AC$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AC$1-$D155),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X155" s="1">
-        <f>IF(AD$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AD$1-$D155),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y155" s="1">
-        <f>IF(AE$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AE$1-$D155),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z155" s="1">
-        <f>IF(AF$1&gt;=$D155,$O155+$P155*($Q155+1)/2+$R155*($S155+1)/2*(AF$1-$D155),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF155" s="1"/>
@@ -14676,27 +14688,27 @@
         <v>593</v>
       </c>
       <c r="U156" s="1">
-        <f>IF(AA$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AA$1-$D156),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V156" s="1">
-        <f>IF(AB$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AB$1-$D156),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W156" s="1">
-        <f>IF(AC$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AC$1-$D156),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X156" s="1">
-        <f>IF(AD$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AD$1-$D156),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y156" s="1">
-        <f>IF(AE$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AE$1-$D156),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z156" s="1">
-        <f>IF(AF$1&gt;=$D156,$O156+$P156*($Q156+1)/2+$R156*($S156+1)/2*(AF$1-$D156),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF156" s="1"/>
@@ -14740,27 +14752,27 @@
         <v>596</v>
       </c>
       <c r="U157" s="1">
-        <f>IF(AA$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AA$1-$D157),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V157" s="1">
-        <f>IF(AB$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AB$1-$D157),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W157" s="1">
-        <f>IF(AC$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AC$1-$D157),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X157" s="1">
-        <f>IF(AD$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AD$1-$D157),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y157" s="1">
-        <f>IF(AE$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AE$1-$D157),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z157" s="1">
-        <f>IF(AF$1&gt;=$D157,$O157+$P157*($Q157+1)/2+$R157*($S157+1)/2*(AF$1-$D157),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF157" s="1"/>
@@ -14804,27 +14816,27 @@
         <v>599</v>
       </c>
       <c r="U158" s="1">
-        <f>IF(AA$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AA$1-$D158),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V158" s="1">
-        <f>IF(AB$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AB$1-$D158),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W158" s="1">
-        <f>IF(AC$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AC$1-$D158),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X158" s="1">
-        <f>IF(AD$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AD$1-$D158),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y158" s="1">
-        <f>IF(AE$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AE$1-$D158),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z158" s="1">
-        <f>IF(AF$1&gt;=$D158,$O158+$P158*($Q158+1)/2+$R158*($S158+1)/2*(AF$1-$D158),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -14860,27 +14872,27 @@
         <v>602</v>
       </c>
       <c r="U159" s="1">
-        <f>IF(AA$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AA$1-$D159),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V159" s="1">
-        <f>IF(AB$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AB$1-$D159),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W159" s="1">
-        <f>IF(AC$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AC$1-$D159),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X159" s="1">
-        <f>IF(AD$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AD$1-$D159),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y159" s="1">
-        <f>IF(AE$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AE$1-$D159),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z159" s="1">
-        <f>IF(AF$1&gt;=$D159,$O159+$P159*($Q159+1)/2+$R159*($S159+1)/2*(AF$1-$D159),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
     </row>
@@ -14920,27 +14932,27 @@
         <v>605</v>
       </c>
       <c r="U160" s="1">
-        <f>IF(AA$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AA$1-$D160),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V160" s="1">
-        <f>IF(AB$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AB$1-$D160),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W160" s="1">
-        <f>IF(AC$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AC$1-$D160),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X160" s="1">
-        <f>IF(AD$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AD$1-$D160),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y160" s="1">
-        <f>IF(AE$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AE$1-$D160),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z160" s="1">
-        <f>IF(AF$1&gt;=$D160,$O160+$P160*($Q160+1)/2+$R160*($S160+1)/2*(AF$1-$D160),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF160" s="1"/>
@@ -14988,27 +15000,27 @@
         <v>611</v>
       </c>
       <c r="U161" s="1">
-        <f>IF(AA$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AA$1-$D161),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V161" s="1">
-        <f>IF(AB$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AB$1-$D161),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W161" s="1">
-        <f>IF(AC$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AC$1-$D161),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X161" s="1">
-        <f>IF(AD$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AD$1-$D161),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y161" s="1">
-        <f>IF(AE$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AE$1-$D161),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z161" s="1">
-        <f>IF(AF$1&gt;=$D161,$O161+$P161*($Q161+1)/2+$R161*($S161+1)/2*(AF$1-$D161),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF161" s="1"/>
@@ -15054,27 +15066,27 @@
         <v>614</v>
       </c>
       <c r="U162" s="1">
-        <f>IF(AA$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AA$1-$D162),0)</f>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="V162" s="1">
-        <f>IF(AB$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AB$1-$D162),0)</f>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="W162" s="1">
-        <f>IF(AC$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AC$1-$D162),0)</f>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="X162" s="1">
-        <f>IF(AD$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AD$1-$D162),0)</f>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="Y162" s="1">
-        <f>IF(AE$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AE$1-$D162),0)</f>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="Z162" s="1">
-        <f>IF(AF$1&gt;=$D162,$O162+$P162*($Q162+1)/2+$R162*($S162+1)/2*(AF$1-$D162),0)</f>
+        <f t="shared" si="31"/>
         <v>0</v>
       </c>
       <c r="BF162" s="1"/>
@@ -15118,27 +15130,27 @@
         <v>617</v>
       </c>
       <c r="U163" s="1">
-        <f>IF(AA$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AA$1-$D163),0)</f>
+        <f t="shared" ref="U163:U186" si="32">IF(AA$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AA$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="V163" s="1">
-        <f>IF(AB$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AB$1-$D163),0)</f>
+        <f t="shared" ref="V163:V186" si="33">IF(AB$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AB$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="W163" s="1">
-        <f>IF(AC$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AC$1-$D163),0)</f>
+        <f t="shared" ref="W163:W186" si="34">IF(AC$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AC$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="X163" s="1">
-        <f>IF(AD$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AD$1-$D163),0)</f>
+        <f t="shared" ref="X163:X186" si="35">IF(AD$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AD$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="Y163" s="1">
-        <f>IF(AE$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AE$1-$D163),0)</f>
+        <f t="shared" ref="Y163:Y186" si="36">IF(AE$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AE$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="Z163" s="1">
-        <f>IF(AF$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AF$1-$D163),0)</f>
+        <f t="shared" ref="Z163:Z186" si="37">IF(AF$1&gt;=$D163,$O163+$P163*($Q163+1)/2+$R163*($S163+1)/2*(AF$1-$D163),0)</f>
         <v>0</v>
       </c>
       <c r="BF163" s="1"/>
@@ -15184,27 +15196,27 @@
         <v>620</v>
       </c>
       <c r="U164" s="1">
-        <f>IF(AA$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AA$1-$D164),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V164" s="1">
-        <f>IF(AB$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AB$1-$D164),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W164" s="1">
-        <f>IF(AC$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AC$1-$D164),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X164" s="1">
-        <f>IF(AD$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AD$1-$D164),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y164" s="1">
-        <f>IF(AE$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AE$1-$D164),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z164" s="1">
-        <f>IF(AF$1&gt;=$D164,$O164+$P164*($Q164+1)/2+$R164*($S164+1)/2*(AF$1-$D164),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF164" s="1"/>
@@ -15250,27 +15262,27 @@
         <v>623</v>
       </c>
       <c r="U165" s="1">
-        <f>IF(AA$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AA$1-$D165),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V165" s="1">
-        <f>IF(AB$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AB$1-$D165),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W165" s="1">
-        <f>IF(AC$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AC$1-$D165),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X165" s="1">
-        <f>IF(AD$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AD$1-$D165),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y165" s="1">
-        <f>IF(AE$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AE$1-$D165),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z165" s="1">
-        <f>IF(AF$1&gt;=$D165,$O165+$P165*($Q165+1)/2+$R165*($S165+1)/2*(AF$1-$D165),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF165" s="1"/>
@@ -15317,27 +15329,27 @@
       </c>
       <c r="M166" s="16"/>
       <c r="U166" s="1">
-        <f>IF(AA$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AA$1-$D166),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V166" s="1">
-        <f>IF(AB$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AB$1-$D166),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W166" s="1">
-        <f>IF(AC$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AC$1-$D166),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X166" s="1">
-        <f>IF(AD$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AD$1-$D166),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y166" s="1">
-        <f>IF(AE$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AE$1-$D166),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z166" s="1">
-        <f>IF(AF$1&gt;=$D166,$O166+$P166*($Q166+1)/2+$R166*($S166+1)/2*(AF$1-$D166),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF166" s="1"/>
@@ -15385,27 +15397,27 @@
         <v>629</v>
       </c>
       <c r="U167" s="1">
-        <f>IF(AA$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AA$1-$D167),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V167" s="1">
-        <f>IF(AB$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AB$1-$D167),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W167" s="1">
-        <f>IF(AC$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AC$1-$D167),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X167" s="1">
-        <f>IF(AD$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AD$1-$D167),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y167" s="1">
-        <f>IF(AE$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AE$1-$D167),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z167" s="1">
-        <f>IF(AF$1&gt;=$D167,$O167+$P167*($Q167+1)/2+$R167*($S167+1)/2*(AF$1-$D167),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF167" s="1"/>
@@ -15454,27 +15466,27 @@
       </c>
       <c r="M168" s="18"/>
       <c r="U168" s="1">
-        <f>IF(AA$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AA$1-$D168),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V168" s="1">
-        <f>IF(AB$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AB$1-$D168),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W168" s="1">
-        <f>IF(AC$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AC$1-$D168),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X168" s="1">
-        <f>IF(AD$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AD$1-$D168),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y168" s="1">
-        <f>IF(AE$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AE$1-$D168),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z168" s="1">
-        <f>IF(AF$1&gt;=$D168,$O168+$P168*($Q168+1)/2+$R168*($S168+1)/2*(AF$1-$D168),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF168" s="1"/>
@@ -15520,27 +15532,27 @@
         <v>1031</v>
       </c>
       <c r="U169" s="1">
-        <f>IF(AA$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AA$1-$D169),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V169" s="1">
-        <f>IF(AB$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AB$1-$D169),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W169" s="1">
-        <f>IF(AC$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AC$1-$D169),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X169" s="1">
-        <f>IF(AD$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AD$1-$D169),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y169" s="1">
-        <f>IF(AE$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AE$1-$D169),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z169" s="1">
-        <f>IF(AF$1&gt;=$D169,$O169+$P169*($Q169+1)/2+$R169*($S169+1)/2*(AF$1-$D169),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF169" s="1"/>
@@ -15588,27 +15600,27 @@
         <v>637</v>
       </c>
       <c r="U170" s="1">
-        <f>IF(AA$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AA$1-$D170),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V170" s="1">
-        <f>IF(AB$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AB$1-$D170),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W170" s="1">
-        <f>IF(AC$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AC$1-$D170),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X170" s="1">
-        <f>IF(AD$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AD$1-$D170),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y170" s="1">
-        <f>IF(AE$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AE$1-$D170),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z170" s="1">
-        <f>IF(AF$1&gt;=$D170,$O170+$P170*($Q170+1)/2+$R170*($S170+1)/2*(AF$1-$D170),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF170" s="1"/>
@@ -15656,27 +15668,27 @@
         <v>640</v>
       </c>
       <c r="U171" s="1">
-        <f>IF(AA$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AA$1-$D171),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V171" s="1">
-        <f>IF(AB$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AB$1-$D171),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W171" s="1">
-        <f>IF(AC$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AC$1-$D171),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X171" s="1">
-        <f>IF(AD$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AD$1-$D171),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y171" s="1">
-        <f>IF(AE$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AE$1-$D171),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z171" s="1">
-        <f>IF(AF$1&gt;=$D171,$O171+$P171*($Q171+1)/2+$R171*($S171+1)/2*(AF$1-$D171),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF171" s="1"/>
@@ -15722,27 +15734,27 @@
         <v>643</v>
       </c>
       <c r="U172" s="1">
-        <f>IF(AA$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AA$1-$D172),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V172" s="1">
-        <f>IF(AB$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AB$1-$D172),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W172" s="1">
-        <f>IF(AC$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AC$1-$D172),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X172" s="1">
-        <f>IF(AD$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AD$1-$D172),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y172" s="1">
-        <f>IF(AE$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AE$1-$D172),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z172" s="1">
-        <f>IF(AF$1&gt;=$D172,$O172+$P172*($Q172+1)/2+$R172*($S172+1)/2*(AF$1-$D172),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF172" s="1"/>
@@ -15792,27 +15804,27 @@
         <v>646</v>
       </c>
       <c r="U173" s="1">
-        <f>IF(AA$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AA$1-$D173),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V173" s="1">
-        <f>IF(AB$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AB$1-$D173),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W173" s="1">
-        <f>IF(AC$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AC$1-$D173),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X173" s="1">
-        <f>IF(AD$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AD$1-$D173),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y173" s="1">
-        <f>IF(AE$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AE$1-$D173),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z173" s="1">
-        <f>IF(AF$1&gt;=$D173,$O173+$P173*($Q173+1)/2+$R173*($S173+1)/2*(AF$1-$D173),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF173" s="1"/>
@@ -15856,27 +15868,27 @@
         <v>649</v>
       </c>
       <c r="U174" s="1">
-        <f>IF(AA$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AA$1-$D174),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V174" s="1">
-        <f>IF(AB$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AB$1-$D174),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W174" s="1">
-        <f>IF(AC$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AC$1-$D174),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X174" s="1">
-        <f>IF(AD$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AD$1-$D174),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y174" s="1">
-        <f>IF(AE$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AE$1-$D174),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z174" s="1">
-        <f>IF(AF$1&gt;=$D174,$O174+$P174*($Q174+1)/2+$R174*($S174+1)/2*(AF$1-$D174),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF174" s="1"/>
@@ -15926,27 +15938,27 @@
         <v>652</v>
       </c>
       <c r="U175" s="1">
-        <f>IF(AA$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AA$1-$D175),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V175" s="1">
-        <f>IF(AB$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AB$1-$D175),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W175" s="1">
-        <f>IF(AC$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AC$1-$D175),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X175" s="1">
-        <f>IF(AD$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AD$1-$D175),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y175" s="1">
-        <f>IF(AE$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AE$1-$D175),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z175" s="1">
-        <f>IF(AF$1&gt;=$D175,$O175+$P175*($Q175+1)/2+$R175*($S175+1)/2*(AF$1-$D175),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF175" s="1"/>
@@ -15996,27 +16008,27 @@
         <v>1</v>
       </c>
       <c r="U176" s="1">
-        <f>IF(AA$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AA$1-$D176),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V176" s="1">
-        <f>IF(AB$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AB$1-$D176),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W176" s="1">
-        <f>IF(AC$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AC$1-$D176),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X176" s="1">
-        <f>IF(AD$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AD$1-$D176),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y176" s="1">
-        <f>IF(AE$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AE$1-$D176),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z176" s="1">
-        <f>IF(AF$1&gt;=$D176,$O176+$P176*($Q176+1)/2+$R176*($S176+1)/2*(AF$1-$D176),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF176" s="1"/>
@@ -16060,27 +16072,27 @@
         <v>658</v>
       </c>
       <c r="U177" s="1">
-        <f>IF(AA$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AA$1-$D177),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V177" s="1">
-        <f>IF(AB$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AB$1-$D177),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W177" s="1">
-        <f>IF(AC$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AC$1-$D177),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X177" s="1">
-        <f>IF(AD$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AD$1-$D177),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y177" s="1">
-        <f>IF(AE$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AE$1-$D177),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z177" s="1">
-        <f>IF(AF$1&gt;=$D177,$O177+$P177*($Q177+1)/2+$R177*($S177+1)/2*(AF$1-$D177),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF177" s="1"/>
@@ -16129,27 +16141,27 @@
         <v>662</v>
       </c>
       <c r="U178" s="1">
-        <f>IF(AA$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AA$1-$D178),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V178" s="1">
-        <f>IF(AB$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AB$1-$D178),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W178" s="1">
-        <f>IF(AC$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AC$1-$D178),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X178" s="1">
-        <f>IF(AD$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AD$1-$D178),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y178" s="1">
-        <f>IF(AE$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AE$1-$D178),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z178" s="1">
-        <f>IF(AF$1&gt;=$D178,$O178+$P178*($Q178+1)/2+$R178*($S178+1)/2*(AF$1-$D178),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
     </row>
@@ -16183,27 +16195,27 @@
         <v>664</v>
       </c>
       <c r="U179" s="1">
-        <f>IF(AA$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AA$1-$D179),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V179" s="1">
-        <f>IF(AB$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AB$1-$D179),0)</f>
+        <f t="shared" si="33"/>
         <v>0</v>
       </c>
       <c r="W179" s="1">
-        <f>IF(AC$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AC$1-$D179),0)</f>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="X179" s="1">
-        <f>IF(AD$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AD$1-$D179),0)</f>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="Y179" s="1">
-        <f>IF(AE$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AE$1-$D179),0)</f>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="Z179" s="1">
-        <f>IF(AF$1&gt;=$D179,$O179+$P179*($Q179+1)/2+$R179*($S179+1)/2*(AF$1-$D179),0)</f>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="BF179" s="1"/>
@@ -16272,27 +16284,27 @@
         <v>8</v>
       </c>
       <c r="U180" s="1">
-        <f>IF(AA$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AA$1-$D180),0)</f>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="V180" s="1">
-        <f>IF(AB$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AB$1-$D180),0)</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="W180" s="1">
-        <f>IF(AC$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AC$1-$D180),0)</f>
+        <f t="shared" si="34"/>
         <v>13.5</v>
       </c>
       <c r="X180" s="1">
-        <f>IF(AD$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AD$1-$D180),0)</f>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="Y180" s="1">
-        <f>IF(AE$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AE$1-$D180),0)</f>
+        <f t="shared" si="36"/>
         <v>22.5</v>
       </c>
       <c r="Z180" s="1">
-        <f>IF(AF$1&gt;=$D180,$O180+$P180*($Q180+1)/2+$R180*($S180+1)/2*(AF$1-$D180),0)</f>
+        <f t="shared" si="37"/>
         <v>27</v>
       </c>
       <c r="BF180" s="1"/>
@@ -16359,27 +16371,27 @@
         <v>8</v>
       </c>
       <c r="U181" s="1">
-        <f>IF(AA$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AA$1-$D181),0)</f>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="V181" s="1">
-        <f>IF(AB$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AB$1-$D181),0)</f>
+        <f t="shared" si="33"/>
         <v>9</v>
       </c>
       <c r="W181" s="1">
-        <f>IF(AC$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AC$1-$D181),0)</f>
+        <f t="shared" si="34"/>
         <v>13.5</v>
       </c>
       <c r="X181" s="1">
-        <f>IF(AD$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AD$1-$D181),0)</f>
+        <f t="shared" si="35"/>
         <v>18</v>
       </c>
       <c r="Y181" s="1">
-        <f>IF(AE$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AE$1-$D181),0)</f>
+        <f t="shared" si="36"/>
         <v>22.5</v>
       </c>
       <c r="Z181" s="1">
-        <f>IF(AF$1&gt;=$D181,$O181+$P181*($Q181+1)/2+$R181*($S181+1)/2*(AF$1-$D181),0)</f>
+        <f t="shared" si="37"/>
         <v>27</v>
       </c>
       <c r="BF181" s="1"/>
@@ -16444,27 +16456,27 @@
         <v>4</v>
       </c>
       <c r="U182" s="1">
-        <f>IF(AA$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AA$1-$D182),0)</f>
+        <f t="shared" si="32"/>
         <v>4.5</v>
       </c>
       <c r="V182" s="1">
-        <f>IF(AB$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AB$1-$D182),0)</f>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="W182" s="1">
-        <f>IF(AC$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AC$1-$D182),0)</f>
+        <f t="shared" si="34"/>
         <v>9.5</v>
       </c>
       <c r="X182" s="1">
-        <f>IF(AD$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AD$1-$D182),0)</f>
+        <f t="shared" si="35"/>
         <v>12</v>
       </c>
       <c r="Y182" s="1">
-        <f>IF(AE$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AE$1-$D182),0)</f>
+        <f t="shared" si="36"/>
         <v>14.5</v>
       </c>
       <c r="Z182" s="1">
-        <f>IF(AF$1&gt;=$D182,$O182+$P182*($Q182+1)/2+$R182*($S182+1)/2*(AF$1-$D182),0)</f>
+        <f t="shared" si="37"/>
         <v>17</v>
       </c>
       <c r="BF182" s="1"/>
@@ -16531,27 +16543,27 @@
         <v>4</v>
       </c>
       <c r="U183" s="1">
-        <f>IF(AA$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AA$1-$D183),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V183" s="1">
-        <f>IF(AB$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AB$1-$D183),0)</f>
+        <f t="shared" si="33"/>
         <v>2.5</v>
       </c>
       <c r="W183" s="1">
-        <f>IF(AC$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AC$1-$D183),0)</f>
+        <f t="shared" si="34"/>
         <v>5</v>
       </c>
       <c r="X183" s="1">
-        <f>IF(AD$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AD$1-$D183),0)</f>
+        <f t="shared" si="35"/>
         <v>7.5</v>
       </c>
       <c r="Y183" s="1">
-        <f>IF(AE$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AE$1-$D183),0)</f>
+        <f t="shared" si="36"/>
         <v>10</v>
       </c>
       <c r="Z183" s="1">
-        <f>IF(AF$1&gt;=$D183,$O183+$P183*($Q183+1)/2+$R183*($S183+1)/2*(AF$1-$D183),0)</f>
+        <f t="shared" si="37"/>
         <v>12.5</v>
       </c>
       <c r="BF183" s="1"/>
@@ -16620,27 +16632,27 @@
         <v>6</v>
       </c>
       <c r="U184" s="1">
-        <f>IF(AA$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AA$1-$D184),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V184" s="1">
-        <f>IF(AB$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AB$1-$D184),0)</f>
+        <f t="shared" si="33"/>
         <v>7</v>
       </c>
       <c r="W184" s="1">
-        <f>IF(AC$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AC$1-$D184),0)</f>
+        <f t="shared" si="34"/>
         <v>10.5</v>
       </c>
       <c r="X184" s="1">
-        <f>IF(AD$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AD$1-$D184),0)</f>
+        <f t="shared" si="35"/>
         <v>14</v>
       </c>
       <c r="Y184" s="1">
-        <f>IF(AE$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AE$1-$D184),0)</f>
+        <f t="shared" si="36"/>
         <v>17.5</v>
       </c>
       <c r="Z184" s="1">
-        <f>IF(AF$1&gt;=$D184,$O184+$P184*($Q184+1)/2+$R184*($S184+1)/2*(AF$1-$D184),0)</f>
+        <f t="shared" si="37"/>
         <v>21</v>
       </c>
     </row>
@@ -16697,27 +16709,27 @@
         <v>10</v>
       </c>
       <c r="U185" s="1">
-        <f>IF(AA$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AA$1-$D185),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V185" s="1">
-        <f>IF(AB$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AB$1-$D185),0)</f>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="W185" s="1">
-        <f>IF(AC$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AC$1-$D185),0)</f>
+        <f t="shared" si="34"/>
         <v>16.5</v>
       </c>
       <c r="X185" s="1">
-        <f>IF(AD$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AD$1-$D185),0)</f>
+        <f t="shared" si="35"/>
         <v>22</v>
       </c>
       <c r="Y185" s="1">
-        <f>IF(AE$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AE$1-$D185),0)</f>
+        <f t="shared" si="36"/>
         <v>27.5</v>
       </c>
       <c r="Z185" s="1">
-        <f>IF(AF$1&gt;=$D185,$O185+$P185*($Q185+1)/2+$R185*($S185+1)/2*(AF$1-$D185),0)</f>
+        <f t="shared" si="37"/>
         <v>33</v>
       </c>
       <c r="BF185" s="1"/>
@@ -16784,27 +16796,27 @@
         <v>10</v>
       </c>
       <c r="U186" s="1">
-        <f>IF(AA$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AA$1-$D186),0)</f>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="V186" s="1">
-        <f>IF(AB$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AB$1-$D186),0)</f>
+        <f t="shared" si="33"/>
         <v>11</v>
       </c>
       <c r="W186" s="1">
-        <f>IF(AC$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AC$1-$D186),0)</f>
+        <f t="shared" si="34"/>
         <v>16.5</v>
       </c>
       <c r="X186" s="1">
-        <f>IF(AD$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AD$1-$D186),0)</f>
+        <f t="shared" si="35"/>
         <v>22</v>
       </c>
       <c r="Y186" s="1">
-        <f>IF(AE$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AE$1-$D186),0)</f>
+        <f t="shared" si="36"/>
         <v>27.5</v>
       </c>
       <c r="Z186" s="1">
-        <f>IF(AF$1&gt;=$D186,$O186+$P186*($Q186+1)/2+$R186*($S186+1)/2*(AF$1-$D186),0)</f>
+        <f t="shared" si="37"/>
         <v>33</v>
       </c>
       <c r="BF186" s="1"/>
@@ -16906,27 +16918,27 @@
         <v>6</v>
       </c>
       <c r="U188" s="1">
-        <f>IF(AA$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AA$1-$D188),0)</f>
+        <f t="shared" ref="U188:U222" si="38">IF(AA$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AA$1-$D188),0)</f>
         <v>0</v>
       </c>
       <c r="V188" s="1">
-        <f>IF(AB$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AB$1-$D188),0)</f>
+        <f t="shared" ref="V188:V222" si="39">IF(AB$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AB$1-$D188),0)</f>
         <v>7</v>
       </c>
       <c r="W188" s="1">
-        <f>IF(AC$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AC$1-$D188),0)</f>
+        <f t="shared" ref="W188:W222" si="40">IF(AC$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AC$1-$D188),0)</f>
         <v>10.5</v>
       </c>
       <c r="X188" s="1">
-        <f>IF(AD$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AD$1-$D188),0)</f>
+        <f t="shared" ref="X188:X222" si="41">IF(AD$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AD$1-$D188),0)</f>
         <v>14</v>
       </c>
       <c r="Y188" s="1">
-        <f>IF(AE$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AE$1-$D188),0)</f>
+        <f t="shared" ref="Y188:Y222" si="42">IF(AE$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AE$1-$D188),0)</f>
         <v>17.5</v>
       </c>
       <c r="Z188" s="1">
-        <f>IF(AF$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AF$1-$D188),0)</f>
+        <f t="shared" ref="Z188:Z222" si="43">IF(AF$1&gt;=$D188,$O188+$P188*($Q188+1)/2+$R188*($S188+1)/2*(AF$1-$D188),0)</f>
         <v>21</v>
       </c>
       <c r="BF188" s="1"/>
@@ -16993,27 +17005,27 @@
         <v>6</v>
       </c>
       <c r="U189" s="1">
-        <f>IF(AA$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AA$1-$D189),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V189" s="1">
-        <f>IF(AB$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AB$1-$D189),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W189" s="1">
-        <f>IF(AC$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AC$1-$D189),0)</f>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="X189" s="1">
-        <f>IF(AD$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AD$1-$D189),0)</f>
+        <f t="shared" si="41"/>
         <v>21</v>
       </c>
       <c r="Y189" s="1">
-        <f>IF(AE$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AE$1-$D189),0)</f>
+        <f t="shared" si="42"/>
         <v>28</v>
       </c>
       <c r="Z189" s="1">
-        <f>IF(AF$1&gt;=$D189,$O189+$P189*($Q189+1)/2+$R189*($S189+1)/2*(AF$1-$D189),0)</f>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="BF189" s="1"/>
@@ -17060,27 +17072,27 @@
       </c>
       <c r="M190" s="16"/>
       <c r="U190" s="1">
-        <f>IF(AA$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AA$1-$D190),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V190" s="1">
-        <f>IF(AB$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AB$1-$D190),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W190" s="1">
-        <f>IF(AC$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AC$1-$D190),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X190" s="1">
-        <f>IF(AD$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AD$1-$D190),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y190" s="1">
-        <f>IF(AE$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AE$1-$D190),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z190" s="1">
-        <f>IF(AF$1&gt;=$D190,$O190+$P190*($Q190+1)/2+$R190*($S190+1)/2*(AF$1-$D190),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF190" s="1"/>
@@ -17147,27 +17159,27 @@
         <v>4</v>
       </c>
       <c r="U191" s="1">
-        <f>IF(AA$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AA$1-$D191),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V191" s="1">
-        <f>IF(AB$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AB$1-$D191),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W191" s="1">
-        <f>IF(AC$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AC$1-$D191),0)</f>
+        <f t="shared" si="40"/>
         <v>12.5</v>
       </c>
       <c r="X191" s="1">
-        <f>IF(AD$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AD$1-$D191),0)</f>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="Y191" s="1">
-        <f>IF(AE$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AE$1-$D191),0)</f>
+        <f t="shared" si="42"/>
         <v>27.5</v>
       </c>
       <c r="Z191" s="1">
-        <f>IF(AF$1&gt;=$D191,$O191+$P191*($Q191+1)/2+$R191*($S191+1)/2*(AF$1-$D191),0)</f>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="BF191" s="1"/>
@@ -17232,27 +17244,27 @@
         <v>8</v>
       </c>
       <c r="U192" s="1">
-        <f>IF(AA$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AA$1-$D192),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V192" s="1">
-        <f>IF(AB$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AB$1-$D192),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W192" s="1">
-        <f>IF(AC$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AC$1-$D192),0)</f>
+        <f t="shared" si="40"/>
         <v>13.5</v>
       </c>
       <c r="X192" s="1">
-        <f>IF(AD$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AD$1-$D192),0)</f>
+        <f t="shared" si="41"/>
         <v>18</v>
       </c>
       <c r="Y192" s="1">
-        <f>IF(AE$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AE$1-$D192),0)</f>
+        <f t="shared" si="42"/>
         <v>22.5</v>
       </c>
       <c r="Z192" s="1">
-        <f>IF(AF$1&gt;=$D192,$O192+$P192*($Q192+1)/2+$R192*($S192+1)/2*(AF$1-$D192),0)</f>
+        <f t="shared" si="43"/>
         <v>27</v>
       </c>
       <c r="BF192" s="1"/>
@@ -17317,27 +17329,27 @@
         <v>6</v>
       </c>
       <c r="U193" s="1">
-        <f>IF(AA$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AA$1-$D193),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V193" s="1">
-        <f>IF(AB$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AB$1-$D193),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W193" s="1">
-        <f>IF(AC$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AC$1-$D193),0)</f>
+        <f t="shared" si="40"/>
         <v>14</v>
       </c>
       <c r="X193" s="1">
-        <f>IF(AD$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AD$1-$D193),0)</f>
+        <f t="shared" si="41"/>
         <v>21</v>
       </c>
       <c r="Y193" s="1">
-        <f>IF(AE$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AE$1-$D193),0)</f>
+        <f t="shared" si="42"/>
         <v>28</v>
       </c>
       <c r="Z193" s="1">
-        <f>IF(AF$1&gt;=$D193,$O193+$P193*($Q193+1)/2+$R193*($S193+1)/2*(AF$1-$D193),0)</f>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="BF193" s="1"/>
@@ -17404,27 +17416,27 @@
         <v>6</v>
       </c>
       <c r="U194" s="1">
-        <f>IF(AA$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AA$1-$D194),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V194" s="1">
-        <f>IF(AB$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AB$1-$D194),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W194" s="1">
-        <f>IF(AC$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AC$1-$D194),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X194" s="1">
-        <f>IF(AD$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AD$1-$D194),0)</f>
+        <f t="shared" si="41"/>
         <v>21</v>
       </c>
       <c r="Y194" s="1">
-        <f>IF(AE$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AE$1-$D194),0)</f>
+        <f t="shared" si="42"/>
         <v>28</v>
       </c>
       <c r="Z194" s="1">
-        <f>IF(AF$1&gt;=$D194,$O194+$P194*($Q194+1)/2+$R194*($S194+1)/2*(AF$1-$D194),0)</f>
+        <f t="shared" si="43"/>
         <v>35</v>
       </c>
       <c r="BF194" s="1"/>
@@ -17489,27 +17501,27 @@
         <v>12</v>
       </c>
       <c r="U195" s="1">
-        <f>IF(AA$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AA$1-$D195),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V195" s="1">
-        <f>IF(AB$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AB$1-$D195),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W195" s="1">
-        <f>IF(AC$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AC$1-$D195),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X195" s="1">
-        <f>IF(AD$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AD$1-$D195),0)</f>
+        <f t="shared" si="41"/>
         <v>19.5</v>
       </c>
       <c r="Y195" s="1">
-        <f>IF(AE$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AE$1-$D195),0)</f>
+        <f t="shared" si="42"/>
         <v>26</v>
       </c>
       <c r="Z195" s="1">
-        <f>IF(AF$1&gt;=$D195,$O195+$P195*($Q195+1)/2+$R195*($S195+1)/2*(AF$1-$D195),0)</f>
+        <f t="shared" si="43"/>
         <v>32.5</v>
       </c>
       <c r="BF195" s="1"/>
@@ -17576,27 +17588,27 @@
         <v>6</v>
       </c>
       <c r="U196" s="1">
-        <f>IF(AA$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AA$1-$D196),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V196" s="1">
-        <f>IF(AB$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AB$1-$D196),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W196" s="1">
-        <f>IF(AC$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AC$1-$D196),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X196" s="1">
-        <f>IF(AD$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AD$1-$D196),0)</f>
+        <f t="shared" si="41"/>
         <v>32.5</v>
       </c>
       <c r="Y196" s="1">
-        <f>IF(AE$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AE$1-$D196),0)</f>
+        <f t="shared" si="42"/>
         <v>39.5</v>
       </c>
       <c r="Z196" s="1">
-        <f>IF(AF$1&gt;=$D196,$O196+$P196*($Q196+1)/2+$R196*($S196+1)/2*(AF$1-$D196),0)</f>
+        <f t="shared" si="43"/>
         <v>46.5</v>
       </c>
       <c r="BF196" s="1"/>
@@ -17663,27 +17675,27 @@
         <v>10</v>
       </c>
       <c r="U197" s="1">
-        <f>IF(AA$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AA$1-$D197),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V197" s="1">
-        <f>IF(AB$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AB$1-$D197),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W197" s="1">
-        <f>IF(AC$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AC$1-$D197),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X197" s="1">
-        <f>IF(AD$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AD$1-$D197),0)</f>
+        <f t="shared" si="41"/>
         <v>27.5</v>
       </c>
       <c r="Y197" s="1">
-        <f>IF(AE$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AE$1-$D197),0)</f>
+        <f t="shared" si="42"/>
         <v>33</v>
       </c>
       <c r="Z197" s="1">
-        <f>IF(AF$1&gt;=$D197,$O197+$P197*($Q197+1)/2+$R197*($S197+1)/2*(AF$1-$D197),0)</f>
+        <f t="shared" si="43"/>
         <v>38.5</v>
       </c>
       <c r="BF197" s="1"/>
@@ -17748,27 +17760,27 @@
         <v>10</v>
       </c>
       <c r="U198" s="1">
-        <f>IF(AA$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AA$1-$D198),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V198" s="1">
-        <f>IF(AB$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AB$1-$D198),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W198" s="1">
-        <f>IF(AC$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AC$1-$D198),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X198" s="1">
-        <f>IF(AD$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AD$1-$D198),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y198" s="1">
-        <f>IF(AE$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AE$1-$D198),0)</f>
+        <f t="shared" si="42"/>
         <v>44</v>
       </c>
       <c r="Z198" s="1">
-        <f>IF(AF$1&gt;=$D198,$O198+$P198*($Q198+1)/2+$R198*($S198+1)/2*(AF$1-$D198),0)</f>
+        <f t="shared" si="43"/>
         <v>66</v>
       </c>
       <c r="BF198" s="1"/>
@@ -17833,27 +17845,27 @@
         <v>6</v>
       </c>
       <c r="U199" s="1">
-        <f>IF(AA$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AA$1-$D199),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V199" s="1">
-        <f>IF(AB$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AB$1-$D199),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W199" s="1">
-        <f>IF(AC$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AC$1-$D199),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X199" s="1">
-        <f>IF(AD$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AD$1-$D199),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y199" s="1">
-        <f>IF(AE$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AE$1-$D199),0)</f>
+        <f t="shared" si="42"/>
         <v>42</v>
       </c>
       <c r="Z199" s="1">
-        <f>IF(AF$1&gt;=$D199,$O199+$P199*($Q199+1)/2+$R199*($S199+1)/2*(AF$1-$D199),0)</f>
+        <f t="shared" si="43"/>
         <v>56</v>
       </c>
       <c r="BF199" s="1"/>
@@ -17917,27 +17929,27 @@
         <v>0</v>
       </c>
       <c r="U200" s="1">
-        <f>IF(AA$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AA$1-$D200),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V200" s="1">
-        <f>IF(AB$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AB$1-$D200),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W200" s="1">
-        <f>IF(AC$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AC$1-$D200),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X200" s="1">
-        <f>IF(AD$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AD$1-$D200),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y200" s="1">
-        <f>IF(AE$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AE$1-$D200),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z200" s="1">
-        <f>IF(AF$1&gt;=$D200,$O200+$P200*($Q200+1)/2+$R200*($S200+1)/2*(AF$1-$D200),0)</f>
+        <f t="shared" si="43"/>
         <v>82.5</v>
       </c>
       <c r="BF200" s="1"/>
@@ -17984,27 +17996,27 @@
         <v>745</v>
       </c>
       <c r="U201" s="1">
-        <f>IF(AA$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AA$1-$D201),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V201" s="1">
-        <f>IF(AB$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AB$1-$D201),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W201" s="1">
-        <f>IF(AC$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AC$1-$D201),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X201" s="1">
-        <f>IF(AD$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AD$1-$D201),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y201" s="1">
-        <f>IF(AE$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AE$1-$D201),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z201" s="1">
-        <f>IF(AF$1&gt;=$D201,$O201+$P201*($Q201+1)/2+$R201*($S201+1)/2*(AF$1-$D201),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF201" s="1"/>
@@ -18049,27 +18061,27 @@
         <v>749</v>
       </c>
       <c r="U202" s="1">
-        <f>IF(AA$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AA$1-$D202),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V202" s="1">
-        <f>IF(AB$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AB$1-$D202),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W202" s="1">
-        <f>IF(AC$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AC$1-$D202),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X202" s="1">
-        <f>IF(AD$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AD$1-$D202),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y202" s="1">
-        <f>IF(AE$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AE$1-$D202),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z202" s="1">
-        <f>IF(AF$1&gt;=$D202,$O202+$P202*($Q202+1)/2+$R202*($S202+1)/2*(AF$1-$D202),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF202" s="1"/>
@@ -18115,27 +18127,27 @@
         <v>753</v>
       </c>
       <c r="U203" s="1">
-        <f>IF(AA$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AA$1-$D203),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V203" s="1">
-        <f>IF(AB$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AB$1-$D203),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W203" s="1">
-        <f>IF(AC$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AC$1-$D203),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X203" s="1">
-        <f>IF(AD$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AD$1-$D203),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y203" s="1">
-        <f>IF(AE$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AE$1-$D203),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z203" s="1">
-        <f>IF(AF$1&gt;=$D203,$O203+$P203*($Q203+1)/2+$R203*($S203+1)/2*(AF$1-$D203),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF203" s="1"/>
@@ -18177,27 +18189,27 @@
         <v>756</v>
       </c>
       <c r="U204" s="1">
-        <f>IF(AA$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AA$1-$D204),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V204" s="1">
-        <f>IF(AB$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AB$1-$D204),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W204" s="1">
-        <f>IF(AC$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AC$1-$D204),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X204" s="1">
-        <f>IF(AD$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AD$1-$D204),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y204" s="1">
-        <f>IF(AE$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AE$1-$D204),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z204" s="1">
-        <f>IF(AF$1&gt;=$D204,$O204+$P204*($Q204+1)/2+$R204*($S204+1)/2*(AF$1-$D204),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF204" s="1"/>
@@ -18262,27 +18274,27 @@
         <v>4</v>
       </c>
       <c r="U205" s="1">
-        <f>IF(AA$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AA$1-$D205),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V205" s="1">
-        <f>IF(AB$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AB$1-$D205),0)</f>
+        <f t="shared" si="39"/>
         <v>10</v>
       </c>
       <c r="W205" s="1">
-        <f>IF(AC$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AC$1-$D205),0)</f>
+        <f t="shared" si="40"/>
         <v>15</v>
       </c>
       <c r="X205" s="1">
-        <f>IF(AD$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AD$1-$D205),0)</f>
+        <f t="shared" si="41"/>
         <v>20</v>
       </c>
       <c r="Y205" s="1">
-        <f>IF(AE$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AE$1-$D205),0)</f>
+        <f t="shared" si="42"/>
         <v>25</v>
       </c>
       <c r="Z205" s="1">
-        <f>IF(AF$1&gt;=$D205,$O205+$P205*($Q205+1)/2+$R205*($S205+1)/2*(AF$1-$D205),0)</f>
+        <f t="shared" si="43"/>
         <v>30</v>
       </c>
       <c r="BF205" s="1"/>
@@ -18324,27 +18336,27 @@
         <v>763</v>
       </c>
       <c r="U206" s="1">
-        <f>IF(AA$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AA$1-$D206),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V206" s="1">
-        <f>IF(AB$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AB$1-$D206),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W206" s="1">
-        <f>IF(AC$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AC$1-$D206),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X206" s="1">
-        <f>IF(AD$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AD$1-$D206),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y206" s="1">
-        <f>IF(AE$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AE$1-$D206),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z206" s="1">
-        <f>IF(AF$1&gt;=$D206,$O206+$P206*($Q206+1)/2+$R206*($S206+1)/2*(AF$1-$D206),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF206" s="1"/>
@@ -18388,27 +18400,27 @@
         <v>766</v>
       </c>
       <c r="U207" s="1">
-        <f>IF(AA$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AA$1-$D207),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V207" s="1">
-        <f>IF(AB$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AB$1-$D207),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W207" s="1">
-        <f>IF(AC$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AC$1-$D207),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X207" s="1">
-        <f>IF(AD$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AD$1-$D207),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y207" s="1">
-        <f>IF(AE$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AE$1-$D207),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z207" s="1">
-        <f>IF(AF$1&gt;=$D207,$O207+$P207*($Q207+1)/2+$R207*($S207+1)/2*(AF$1-$D207),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF207" s="1"/>
@@ -18453,27 +18465,27 @@
         <v>770</v>
       </c>
       <c r="U208" s="1">
-        <f>IF(AA$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AA$1-$D208),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V208" s="1">
-        <f>IF(AB$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AB$1-$D208),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W208" s="1">
-        <f>IF(AC$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AC$1-$D208),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X208" s="1">
-        <f>IF(AD$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AD$1-$D208),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y208" s="1">
-        <f>IF(AE$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AE$1-$D208),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z208" s="1">
-        <f>IF(AF$1&gt;=$D208,$O208+$P208*($Q208+1)/2+$R208*($S208+1)/2*(AF$1-$D208),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF208" s="1"/>
@@ -18517,27 +18529,27 @@
         <v>773</v>
       </c>
       <c r="U209" s="1">
-        <f>IF(AA$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AA$1-$D209),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V209" s="1">
-        <f>IF(AB$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AB$1-$D209),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W209" s="1">
-        <f>IF(AC$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AC$1-$D209),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X209" s="1">
-        <f>IF(AD$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AD$1-$D209),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y209" s="1">
-        <f>IF(AE$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AE$1-$D209),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z209" s="1">
-        <f>IF(AF$1&gt;=$D209,$O209+$P209*($Q209+1)/2+$R209*($S209+1)/2*(AF$1-$D209),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF209" s="1"/>
@@ -18582,27 +18594,27 @@
       </c>
       <c r="M210" s="12"/>
       <c r="U210" s="1">
-        <f>IF(AA$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AA$1-$D210),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V210" s="1">
-        <f>IF(AB$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AB$1-$D210),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W210" s="1">
-        <f>IF(AC$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AC$1-$D210),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X210" s="1">
-        <f>IF(AD$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AD$1-$D210),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y210" s="1">
-        <f>IF(AE$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AE$1-$D210),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z210" s="1">
-        <f>IF(AF$1&gt;=$D210,$O210+$P210*($Q210+1)/2+$R210*($S210+1)/2*(AF$1-$D210),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF210" s="1"/>
@@ -18649,27 +18661,27 @@
         <v>781</v>
       </c>
       <c r="U211" s="1">
-        <f>IF(AA$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AA$1-$D211),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V211" s="1">
-        <f>IF(AB$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AB$1-$D211),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W211" s="1">
-        <f>IF(AC$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AC$1-$D211),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X211" s="1">
-        <f>IF(AD$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AD$1-$D211),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y211" s="1">
-        <f>IF(AE$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AE$1-$D211),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z211" s="1">
-        <f>IF(AF$1&gt;=$D211,$O211+$P211*($Q211+1)/2+$R211*($S211+1)/2*(AF$1-$D211),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF211" s="1"/>
@@ -18711,27 +18723,27 @@
         <v>784</v>
       </c>
       <c r="U212" s="1">
-        <f>IF(AA$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AA$1-$D212),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V212" s="1">
-        <f>IF(AB$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AB$1-$D212),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W212" s="1">
-        <f>IF(AC$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AC$1-$D212),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X212" s="1">
-        <f>IF(AD$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AD$1-$D212),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y212" s="1">
-        <f>IF(AE$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AE$1-$D212),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z212" s="1">
-        <f>IF(AF$1&gt;=$D212,$O212+$P212*($Q212+1)/2+$R212*($S212+1)/2*(AF$1-$D212),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF212" s="1"/>
@@ -18773,27 +18785,27 @@
         <v>787</v>
       </c>
       <c r="U213" s="1">
-        <f>IF(AA$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AA$1-$D213),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V213" s="1">
-        <f>IF(AB$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AB$1-$D213),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W213" s="1">
-        <f>IF(AC$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AC$1-$D213),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X213" s="1">
-        <f>IF(AD$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AD$1-$D213),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y213" s="1">
-        <f>IF(AE$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AE$1-$D213),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z213" s="1">
-        <f>IF(AF$1&gt;=$D213,$O213+$P213*($Q213+1)/2+$R213*($S213+1)/2*(AF$1-$D213),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF213" s="1"/>
@@ -18837,27 +18849,27 @@
         <v>791</v>
       </c>
       <c r="U214" s="1">
-        <f>IF(AA$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AA$1-$D214),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V214" s="1">
-        <f>IF(AB$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AB$1-$D214),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W214" s="1">
-        <f>IF(AC$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AC$1-$D214),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X214" s="1">
-        <f>IF(AD$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AD$1-$D214),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y214" s="1">
-        <f>IF(AE$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AE$1-$D214),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z214" s="1">
-        <f>IF(AF$1&gt;=$D214,$O214+$P214*($Q214+1)/2+$R214*($S214+1)/2*(AF$1-$D214),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF214" s="1"/>
@@ -18904,27 +18916,27 @@
         <v>795</v>
       </c>
       <c r="U215" s="1">
-        <f>IF(AA$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AA$1-$D215),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V215" s="1">
-        <f>IF(AB$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AB$1-$D215),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W215" s="1">
-        <f>IF(AC$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AC$1-$D215),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X215" s="1">
-        <f>IF(AD$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AD$1-$D215),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y215" s="1">
-        <f>IF(AE$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AE$1-$D215),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z215" s="1">
-        <f>IF(AF$1&gt;=$D215,$O215+$P215*($Q215+1)/2+$R215*($S215+1)/2*(AF$1-$D215),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -18961,27 +18973,27 @@
         <v>799</v>
       </c>
       <c r="U216" s="1">
-        <f>IF(AA$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AA$1-$D216),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V216" s="1">
-        <f>IF(AB$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AB$1-$D216),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W216" s="1">
-        <f>IF(AC$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AC$1-$D216),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X216" s="1">
-        <f>IF(AD$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AD$1-$D216),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y216" s="1">
-        <f>IF(AE$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AE$1-$D216),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z216" s="1">
-        <f>IF(AF$1&gt;=$D216,$O216+$P216*($Q216+1)/2+$R216*($S216+1)/2*(AF$1-$D216),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -19017,27 +19029,27 @@
         <v>802</v>
       </c>
       <c r="U217" s="1">
-        <f>IF(AA$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AA$1-$D217),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V217" s="1">
-        <f>IF(AB$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AB$1-$D217),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W217" s="1">
-        <f>IF(AC$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AC$1-$D217),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X217" s="1">
-        <f>IF(AD$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AD$1-$D217),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y217" s="1">
-        <f>IF(AE$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AE$1-$D217),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z217" s="1">
-        <f>IF(AF$1&gt;=$D217,$O217+$P217*($Q217+1)/2+$R217*($S217+1)/2*(AF$1-$D217),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -19071,27 +19083,27 @@
         <v>805</v>
       </c>
       <c r="U218" s="1">
-        <f>IF(AA$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AA$1-$D218),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V218" s="1">
-        <f>IF(AB$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AB$1-$D218),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W218" s="1">
-        <f>IF(AC$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AC$1-$D218),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X218" s="1">
-        <f>IF(AD$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AD$1-$D218),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y218" s="1">
-        <f>IF(AE$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AE$1-$D218),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z218" s="1">
-        <f>IF(AF$1&gt;=$D218,$O218+$P218*($Q218+1)/2+$R218*($S218+1)/2*(AF$1-$D218),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF218" s="1"/>
@@ -19131,27 +19143,27 @@
         <v>808</v>
       </c>
       <c r="U219" s="1">
-        <f>IF(AA$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AA$1-$D219),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V219" s="1">
-        <f>IF(AB$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AB$1-$D219),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W219" s="1">
-        <f>IF(AC$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AC$1-$D219),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X219" s="1">
-        <f>IF(AD$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AD$1-$D219),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y219" s="1">
-        <f>IF(AE$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AE$1-$D219),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z219" s="1">
-        <f>IF(AF$1&gt;=$D219,$O219+$P219*($Q219+1)/2+$R219*($S219+1)/2*(AF$1-$D219),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF219" s="1"/>
@@ -19195,27 +19207,27 @@
         <v>812</v>
       </c>
       <c r="U220" s="1">
-        <f>IF(AA$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AA$1-$D220),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V220" s="1">
-        <f>IF(AB$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AB$1-$D220),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W220" s="1">
-        <f>IF(AC$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AC$1-$D220),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X220" s="1">
-        <f>IF(AD$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AD$1-$D220),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y220" s="1">
-        <f>IF(AE$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AE$1-$D220),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z220" s="1">
-        <f>IF(AF$1&gt;=$D220,$O220+$P220*($Q220+1)/2+$R220*($S220+1)/2*(AF$1-$D220),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -19252,27 +19264,27 @@
         <v>1023</v>
       </c>
       <c r="U221" s="1">
-        <f>IF(AA$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AA$1-$D221),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V221" s="1">
-        <f>IF(AB$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AB$1-$D221),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W221" s="1">
-        <f>IF(AC$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AC$1-$D221),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X221" s="1">
-        <f>IF(AD$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AD$1-$D221),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y221" s="1">
-        <f>IF(AE$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AE$1-$D221),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z221" s="1">
-        <f>IF(AF$1&gt;=$D221,$O221+$P221*($Q221+1)/2+$R221*($S221+1)/2*(AF$1-$D221),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
       <c r="BF221" s="1"/>
@@ -19316,27 +19328,27 @@
         <v>818</v>
       </c>
       <c r="U222" s="1">
-        <f>IF(AA$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AA$1-$D222),0)</f>
+        <f t="shared" si="38"/>
         <v>0</v>
       </c>
       <c r="V222" s="1">
-        <f>IF(AB$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AB$1-$D222),0)</f>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="W222" s="1">
-        <f>IF(AC$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AC$1-$D222),0)</f>
+        <f t="shared" si="40"/>
         <v>0</v>
       </c>
       <c r="X222" s="1">
-        <f>IF(AD$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AD$1-$D222),0)</f>
+        <f t="shared" si="41"/>
         <v>0</v>
       </c>
       <c r="Y222" s="1">
-        <f>IF(AE$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AE$1-$D222),0)</f>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="Z222" s="1">
-        <f>IF(AF$1&gt;=$D222,$O222+$P222*($Q222+1)/2+$R222*($S222+1)/2*(AF$1-$D222),0)</f>
+        <f t="shared" si="43"/>
         <v>0</v>
       </c>
     </row>
@@ -19438,27 +19450,27 @@
         <v>8</v>
       </c>
       <c r="U224" s="1">
-        <f>IF(AA$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AA$1-$D224),0)</f>
+        <f t="shared" ref="U224:U255" si="44">IF(AA$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AA$1-$D224),0)</f>
         <v>0</v>
       </c>
       <c r="V224" s="1">
-        <f>IF(AB$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AB$1-$D224),0)</f>
+        <f t="shared" ref="V224:V255" si="45">IF(AB$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AB$1-$D224),0)</f>
         <v>13.5</v>
       </c>
       <c r="W224" s="1">
-        <f>IF(AC$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AC$1-$D224),0)</f>
+        <f t="shared" ref="W224:W255" si="46">IF(AC$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AC$1-$D224),0)</f>
         <v>18</v>
       </c>
       <c r="X224" s="1">
-        <f>IF(AD$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AD$1-$D224),0)</f>
+        <f t="shared" ref="X224:X255" si="47">IF(AD$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AD$1-$D224),0)</f>
         <v>22.5</v>
       </c>
       <c r="Y224" s="1">
-        <f>IF(AE$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AE$1-$D224),0)</f>
+        <f t="shared" ref="Y224:Y255" si="48">IF(AE$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AE$1-$D224),0)</f>
         <v>27</v>
       </c>
       <c r="Z224" s="1">
-        <f>IF(AF$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AF$1-$D224),0)</f>
+        <f t="shared" ref="Z224:Z255" si="49">IF(AF$1&gt;=$D224,$O224+$P224*($Q224+1)/2+$R224*($S224+1)/2*(AF$1-$D224),0)</f>
         <v>31.5</v>
       </c>
       <c r="BF224" s="1"/>
@@ -19501,27 +19513,27 @@
       </c>
       <c r="M225" s="12"/>
       <c r="U225" s="1">
-        <f>IF(AA$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AA$1-$D225),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V225" s="1">
-        <f>IF(AB$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AB$1-$D225),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W225" s="1">
-        <f>IF(AC$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AC$1-$D225),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X225" s="1">
-        <f>IF(AD$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AD$1-$D225),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y225" s="1">
-        <f>IF(AE$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AE$1-$D225),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z225" s="1">
-        <f>IF(AF$1&gt;=$D225,$O225+$P225*($Q225+1)/2+$R225*($S225+1)/2*(AF$1-$D225),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF225" s="1"/>
@@ -19567,27 +19579,27 @@
         <v>833</v>
       </c>
       <c r="U226" s="1">
-        <f>IF(AA$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AA$1-$D226),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V226" s="1">
-        <f>IF(AB$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AB$1-$D226),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W226" s="1">
-        <f>IF(AC$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AC$1-$D226),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X226" s="1">
-        <f>IF(AD$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AD$1-$D226),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y226" s="1">
-        <f>IF(AE$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AE$1-$D226),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z226" s="1">
-        <f>IF(AF$1&gt;=$D226,$O226+$P226*($Q226+1)/2+$R226*($S226+1)/2*(AF$1-$D226),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF226" s="1"/>
@@ -19632,27 +19644,27 @@
         <v>837</v>
       </c>
       <c r="U227" s="1">
-        <f>IF(AA$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AA$1-$D227),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V227" s="1">
-        <f>IF(AB$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AB$1-$D227),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W227" s="1">
-        <f>IF(AC$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AC$1-$D227),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X227" s="1">
-        <f>IF(AD$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AD$1-$D227),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y227" s="1">
-        <f>IF(AE$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AE$1-$D227),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z227" s="1">
-        <f>IF(AF$1&gt;=$D227,$O227+$P227*($Q227+1)/2+$R227*($S227+1)/2*(AF$1-$D227),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF227" s="1"/>
@@ -19696,27 +19708,27 @@
         <v>840</v>
       </c>
       <c r="U228" s="1">
-        <f>IF(AA$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AA$1-$D228),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V228" s="1">
-        <f>IF(AB$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AB$1-$D228),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W228" s="1">
-        <f>IF(AC$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AC$1-$D228),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X228" s="1">
-        <f>IF(AD$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AD$1-$D228),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y228" s="1">
-        <f>IF(AE$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AE$1-$D228),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z228" s="1">
-        <f>IF(AF$1&gt;=$D228,$O228+$P228*($Q228+1)/2+$R228*($S228+1)/2*(AF$1-$D228),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF228" s="1"/>
@@ -19763,27 +19775,27 @@
         <v>845</v>
       </c>
       <c r="U229" s="1">
-        <f>IF(AA$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AA$1-$D229),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V229" s="1">
-        <f>IF(AB$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AB$1-$D229),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W229" s="1">
-        <f>IF(AC$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AC$1-$D229),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X229" s="1">
-        <f>IF(AD$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AD$1-$D229),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y229" s="1">
-        <f>IF(AE$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AE$1-$D229),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z229" s="1">
-        <f>IF(AF$1&gt;=$D229,$O229+$P229*($Q229+1)/2+$R229*($S229+1)/2*(AF$1-$D229),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF229" s="1"/>
@@ -19830,27 +19842,27 @@
         <v>850</v>
       </c>
       <c r="U230" s="1">
-        <f>IF(AA$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AA$1-$D230),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V230" s="1">
-        <f>IF(AB$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AB$1-$D230),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W230" s="1">
-        <f>IF(AC$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AC$1-$D230),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X230" s="1">
-        <f>IF(AD$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AD$1-$D230),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y230" s="1">
-        <f>IF(AE$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AE$1-$D230),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z230" s="1">
-        <f>IF(AF$1&gt;=$D230,$O230+$P230*($Q230+1)/2+$R230*($S230+1)/2*(AF$1-$D230),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF230" s="1"/>
@@ -19917,27 +19929,27 @@
         <v>10</v>
       </c>
       <c r="U231" s="1">
-        <f>IF(AA$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AA$1-$D231),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V231" s="1">
-        <f>IF(AB$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AB$1-$D231),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W231" s="1">
-        <f>IF(AC$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AC$1-$D231),0)</f>
+        <f t="shared" si="46"/>
         <v>16.5</v>
       </c>
       <c r="X231" s="1">
-        <f>IF(AD$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AD$1-$D231),0)</f>
+        <f t="shared" si="47"/>
         <v>22</v>
       </c>
       <c r="Y231" s="1">
-        <f>IF(AE$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AE$1-$D231),0)</f>
+        <f t="shared" si="48"/>
         <v>27.5</v>
       </c>
       <c r="Z231" s="1">
-        <f>IF(AF$1&gt;=$D231,$O231+$P231*($Q231+1)/2+$R231*($S231+1)/2*(AF$1-$D231),0)</f>
+        <f t="shared" si="49"/>
         <v>33</v>
       </c>
       <c r="BF231" s="1"/>
@@ -19984,27 +19996,27 @@
         <v>858</v>
       </c>
       <c r="U232" s="1">
-        <f>IF(AA$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AA$1-$D232),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V232" s="1">
-        <f>IF(AB$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AB$1-$D232),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W232" s="1">
-        <f>IF(AC$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AC$1-$D232),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X232" s="1">
-        <f>IF(AD$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AD$1-$D232),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y232" s="1">
-        <f>IF(AE$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AE$1-$D232),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z232" s="1">
-        <f>IF(AF$1&gt;=$D232,$O232+$P232*($Q232+1)/2+$R232*($S232+1)/2*(AF$1-$D232),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF232" s="1"/>
@@ -20051,27 +20063,27 @@
         <v>862</v>
       </c>
       <c r="U233" s="1">
-        <f>IF(AA$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AA$1-$D233),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V233" s="1">
-        <f>IF(AB$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AB$1-$D233),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W233" s="1">
-        <f>IF(AC$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AC$1-$D233),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X233" s="1">
-        <f>IF(AD$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AD$1-$D233),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y233" s="1">
-        <f>IF(AE$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AE$1-$D233),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z233" s="1">
-        <f>IF(AF$1&gt;=$D233,$O233+$P233*($Q233+1)/2+$R233*($S233+1)/2*(AF$1-$D233),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF233" s="1"/>
@@ -20115,27 +20127,27 @@
         <v>865</v>
       </c>
       <c r="U234" s="1">
-        <f>IF(AA$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AA$1-$D234),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V234" s="1">
-        <f>IF(AB$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AB$1-$D234),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W234" s="1">
-        <f>IF(AC$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AC$1-$D234),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X234" s="1">
-        <f>IF(AD$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AD$1-$D234),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y234" s="1">
-        <f>IF(AE$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AE$1-$D234),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z234" s="1">
-        <f>IF(AF$1&gt;=$D234,$O234+$P234*($Q234+1)/2+$R234*($S234+1)/2*(AF$1-$D234),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF234" s="1"/>
@@ -20179,27 +20191,27 @@
         <v>868</v>
       </c>
       <c r="U235" s="1">
-        <f>IF(AA$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AA$1-$D235),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V235" s="1">
-        <f>IF(AB$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AB$1-$D235),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W235" s="1">
-        <f>IF(AC$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AC$1-$D235),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X235" s="1">
-        <f>IF(AD$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AD$1-$D235),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y235" s="1">
-        <f>IF(AE$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AE$1-$D235),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z235" s="1">
-        <f>IF(AF$1&gt;=$D235,$O235+$P235*($Q235+1)/2+$R235*($S235+1)/2*(AF$1-$D235),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF235" s="1"/>
@@ -20244,27 +20256,27 @@
         <v>872</v>
       </c>
       <c r="U236" s="1">
-        <f>IF(AA$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AA$1-$D236),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V236" s="1">
-        <f>IF(AB$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AB$1-$D236),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W236" s="1">
-        <f>IF(AC$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AC$1-$D236),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X236" s="1">
-        <f>IF(AD$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AD$1-$D236),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y236" s="1">
-        <f>IF(AE$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AE$1-$D236),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z236" s="1">
-        <f>IF(AF$1&gt;=$D236,$O236+$P236*($Q236+1)/2+$R236*($S236+1)/2*(AF$1-$D236),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF236" s="1"/>
@@ -20311,27 +20323,27 @@
         <v>876</v>
       </c>
       <c r="U237" s="1">
-        <f>IF(AA$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AA$1-$D237),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V237" s="1">
-        <f>IF(AB$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AB$1-$D237),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W237" s="1">
-        <f>IF(AC$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AC$1-$D237),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X237" s="1">
-        <f>IF(AD$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AD$1-$D237),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y237" s="1">
-        <f>IF(AE$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AE$1-$D237),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z237" s="1">
-        <f>IF(AF$1&gt;=$D237,$O237+$P237*($Q237+1)/2+$R237*($S237+1)/2*(AF$1-$D237),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF237" s="1"/>
@@ -20378,27 +20390,27 @@
         <v>880</v>
       </c>
       <c r="U238" s="1">
-        <f>IF(AA$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AA$1-$D238),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V238" s="1">
-        <f>IF(AB$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AB$1-$D238),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W238" s="1">
-        <f>IF(AC$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AC$1-$D238),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X238" s="1">
-        <f>IF(AD$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AD$1-$D238),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y238" s="1">
-        <f>IF(AE$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AE$1-$D238),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z238" s="1">
-        <f>IF(AF$1&gt;=$D238,$O238+$P238*($Q238+1)/2+$R238*($S238+1)/2*(AF$1-$D238),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF238" s="1"/>
@@ -20440,27 +20452,27 @@
         <v>884</v>
       </c>
       <c r="U239" s="1">
-        <f>IF(AA$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AA$1-$D239),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V239" s="1">
-        <f>IF(AB$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AB$1-$D239),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W239" s="1">
-        <f>IF(AC$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AC$1-$D239),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X239" s="1">
-        <f>IF(AD$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AD$1-$D239),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y239" s="1">
-        <f>IF(AE$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AE$1-$D239),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z239" s="1">
-        <f>IF(AF$1&gt;=$D239,$O239+$P239*($Q239+1)/2+$R239*($S239+1)/2*(AF$1-$D239),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF239" s="1"/>
@@ -20505,27 +20517,27 @@
       </c>
       <c r="M240" s="12"/>
       <c r="U240" s="1">
-        <f>IF(AA$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AA$1-$D240),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V240" s="1">
-        <f>IF(AB$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AB$1-$D240),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W240" s="1">
-        <f>IF(AC$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AC$1-$D240),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X240" s="1">
-        <f>IF(AD$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AD$1-$D240),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y240" s="1">
-        <f>IF(AE$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AE$1-$D240),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z240" s="1">
-        <f>IF(AF$1&gt;=$D240,$O240+$P240*($Q240+1)/2+$R240*($S240+1)/2*(AF$1-$D240),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
     </row>
@@ -20562,27 +20574,27 @@
       </c>
       <c r="M241" s="12"/>
       <c r="U241" s="1">
-        <f>IF(AA$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AA$1-$D241),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V241" s="1">
-        <f>IF(AB$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AB$1-$D241),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W241" s="1">
-        <f>IF(AC$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AC$1-$D241),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X241" s="1">
-        <f>IF(AD$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AD$1-$D241),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y241" s="1">
-        <f>IF(AE$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AE$1-$D241),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z241" s="1">
-        <f>IF(AF$1&gt;=$D241,$O241+$P241*($Q241+1)/2+$R241*($S241+1)/2*(AF$1-$D241),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF241" s="1"/>
@@ -20623,27 +20635,27 @@
       </c>
       <c r="M242" s="12"/>
       <c r="U242" s="1">
-        <f>IF(AA$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AA$1-$D242),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V242" s="1">
-        <f>IF(AB$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AB$1-$D242),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W242" s="1">
-        <f>IF(AC$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AC$1-$D242),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X242" s="1">
-        <f>IF(AD$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AD$1-$D242),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y242" s="1">
-        <f>IF(AE$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AE$1-$D242),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z242" s="1">
-        <f>IF(AF$1&gt;=$D242,$O242+$P242*($Q242+1)/2+$R242*($S242+1)/2*(AF$1-$D242),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF242" s="1"/>
@@ -20677,7 +20689,7 @@
       <c r="G243" s="13" t="s">
         <v>897</v>
       </c>
-      <c r="H243" s="26"/>
+      <c r="H243" s="23"/>
       <c r="I243" s="21"/>
       <c r="J243" s="21"/>
       <c r="K243" s="13" t="s">
@@ -20687,27 +20699,27 @@
         <v>898</v>
       </c>
       <c r="U243" s="1">
-        <f>IF(AA$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AA$1-$D243),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V243" s="1">
-        <f>IF(AB$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AB$1-$D243),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W243" s="1">
-        <f>IF(AC$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AC$1-$D243),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X243" s="1">
-        <f>IF(AD$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AD$1-$D243),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y243" s="1">
-        <f>IF(AE$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AE$1-$D243),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z243" s="1">
-        <f>IF(AF$1&gt;=$D243,$O243+$P243*($Q243+1)/2+$R243*($S243+1)/2*(AF$1-$D243),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF243" s="1"/>
@@ -20749,27 +20761,27 @@
         <v>901</v>
       </c>
       <c r="U244" s="1">
-        <f>IF(AA$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AA$1-$D244),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V244" s="1">
-        <f>IF(AB$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AB$1-$D244),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W244" s="1">
-        <f>IF(AC$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AC$1-$D244),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X244" s="1">
-        <f>IF(AD$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AD$1-$D244),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y244" s="1">
-        <f>IF(AE$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AE$1-$D244),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z244" s="1">
-        <f>IF(AF$1&gt;=$D244,$O244+$P244*($Q244+1)/2+$R244*($S244+1)/2*(AF$1-$D244),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF244" s="1"/>
@@ -20818,27 +20830,27 @@
         <v>905</v>
       </c>
       <c r="U245" s="1">
-        <f>IF(AA$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AA$1-$D245),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V245" s="1">
-        <f>IF(AB$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AB$1-$D245),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W245" s="1">
-        <f>IF(AC$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AC$1-$D245),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X245" s="1">
-        <f>IF(AD$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AD$1-$D245),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y245" s="1">
-        <f>IF(AE$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AE$1-$D245),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z245" s="1">
-        <f>IF(AF$1&gt;=$D245,$O245+$P245*($Q245+1)/2+$R245*($S245+1)/2*(AF$1-$D245),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF245" s="1"/>
@@ -20883,27 +20895,27 @@
         <v>909</v>
       </c>
       <c r="U246" s="1">
-        <f>IF(AA$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AA$1-$D246),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V246" s="1">
-        <f>IF(AB$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AB$1-$D246),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W246" s="1">
-        <f>IF(AC$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AC$1-$D246),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X246" s="1">
-        <f>IF(AD$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AD$1-$D246),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y246" s="1">
-        <f>IF(AE$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AE$1-$D246),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z246" s="1">
-        <f>IF(AF$1&gt;=$D246,$O246+$P246*($Q246+1)/2+$R246*($S246+1)/2*(AF$1-$D246),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF246" s="1"/>
@@ -20948,27 +20960,27 @@
       </c>
       <c r="M247" s="12"/>
       <c r="U247" s="1">
-        <f>IF(AA$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AA$1-$D247),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V247" s="1">
-        <f>IF(AB$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AB$1-$D247),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W247" s="1">
-        <f>IF(AC$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AC$1-$D247),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X247" s="1">
-        <f>IF(AD$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AD$1-$D247),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y247" s="1">
-        <f>IF(AE$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AE$1-$D247),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z247" s="1">
-        <f>IF(AF$1&gt;=$D247,$O247+$P247*($Q247+1)/2+$R247*($S247+1)/2*(AF$1-$D247),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF247" s="1"/>
@@ -21016,27 +21028,27 @@
         <v>916</v>
       </c>
       <c r="U248" s="1">
-        <f>IF(AA$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AA$1-$D248),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V248" s="1">
-        <f>IF(AB$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AB$1-$D248),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W248" s="1">
-        <f>IF(AC$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AC$1-$D248),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X248" s="1">
-        <f>IF(AD$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AD$1-$D248),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y248" s="1">
-        <f>IF(AE$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AE$1-$D248),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z248" s="1">
-        <f>IF(AF$1&gt;=$D248,$O248+$P248*($Q248+1)/2+$R248*($S248+1)/2*(AF$1-$D248),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF248" s="1"/>
@@ -21085,27 +21097,27 @@
         <v>920</v>
       </c>
       <c r="U249" s="1">
-        <f>IF(AA$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AA$1-$D249),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V249" s="1">
-        <f>IF(AB$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AB$1-$D249),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W249" s="1">
-        <f>IF(AC$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AC$1-$D249),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X249" s="1">
-        <f>IF(AD$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AD$1-$D249),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y249" s="1">
-        <f>IF(AE$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AE$1-$D249),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z249" s="1">
-        <f>IF(AF$1&gt;=$D249,$O249+$P249*($Q249+1)/2+$R249*($S249+1)/2*(AF$1-$D249),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF249" s="1"/>
@@ -21150,27 +21162,27 @@
       </c>
       <c r="M250" s="12"/>
       <c r="U250" s="1">
-        <f>IF(AA$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AA$1-$D250),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V250" s="1">
-        <f>IF(AB$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AB$1-$D250),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W250" s="1">
-        <f>IF(AC$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AC$1-$D250),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X250" s="1">
-        <f>IF(AD$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AD$1-$D250),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y250" s="1">
-        <f>IF(AE$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AE$1-$D250),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z250" s="1">
-        <f>IF(AF$1&gt;=$D250,$O250+$P250*($Q250+1)/2+$R250*($S250+1)/2*(AF$1-$D250),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF250" s="1"/>
@@ -21217,27 +21229,27 @@
       </c>
       <c r="M251" s="12"/>
       <c r="U251" s="1">
-        <f>IF(AA$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AA$1-$D251),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V251" s="1">
-        <f>IF(AB$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AB$1-$D251),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W251" s="1">
-        <f>IF(AC$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AC$1-$D251),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X251" s="1">
-        <f>IF(AD$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AD$1-$D251),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y251" s="1">
-        <f>IF(AE$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AE$1-$D251),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z251" s="1">
-        <f>IF(AF$1&gt;=$D251,$O251+$P251*($Q251+1)/2+$R251*($S251+1)/2*(AF$1-$D251),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF251" s="1"/>
@@ -21278,27 +21290,27 @@
       </c>
       <c r="M252" s="12"/>
       <c r="U252" s="1">
-        <f>IF(AA$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AA$1-$D252),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V252" s="1">
-        <f>IF(AB$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AB$1-$D252),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W252" s="1">
-        <f>IF(AC$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AC$1-$D252),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X252" s="1">
-        <f>IF(AD$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AD$1-$D252),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y252" s="1">
-        <f>IF(AE$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AE$1-$D252),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z252" s="1">
-        <f>IF(AF$1&gt;=$D252,$O252+$P252*($Q252+1)/2+$R252*($S252+1)/2*(AF$1-$D252),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF252" s="1"/>
@@ -21343,27 +21355,27 @@
       </c>
       <c r="M253" s="12"/>
       <c r="U253" s="1">
-        <f>IF(AA$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AA$1-$D253),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V253" s="1">
-        <f>IF(AB$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AB$1-$D253),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W253" s="1">
-        <f>IF(AC$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AC$1-$D253),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X253" s="1">
-        <f>IF(AD$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AD$1-$D253),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y253" s="1">
-        <f>IF(AE$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AE$1-$D253),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z253" s="1">
-        <f>IF(AF$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AF$1-$D253),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF253" s="1"/>
@@ -21408,27 +21420,27 @@
       </c>
       <c r="M254" s="12"/>
       <c r="U254" s="1">
-        <f>IF(AA$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AA$1-$D254),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V254" s="1">
-        <f>IF(AB$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AB$1-$D254),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W254" s="1">
-        <f>IF(AC$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AC$1-$D254),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X254" s="1">
-        <f>IF(AD$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AD$1-$D254),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y254" s="1">
-        <f>IF(AE$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AE$1-$D254),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z254" s="1">
-        <f>IF(AF$1&gt;=$D254,$O254+$P254*($Q254+1)/2+$R254*($S254+1)/2*(AF$1-$D254),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF254" s="1"/>
@@ -21471,27 +21483,27 @@
       </c>
       <c r="M255" s="12"/>
       <c r="U255" s="1">
-        <f>IF(AA$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AA$1-$D255),0)</f>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="V255" s="1">
-        <f>IF(AB$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AB$1-$D255),0)</f>
+        <f t="shared" si="45"/>
         <v>0</v>
       </c>
       <c r="W255" s="1">
-        <f>IF(AC$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AC$1-$D255),0)</f>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="X255" s="1">
-        <f>IF(AD$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AD$1-$D255),0)</f>
+        <f t="shared" si="47"/>
         <v>0</v>
       </c>
       <c r="Y255" s="1">
-        <f>IF(AE$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AE$1-$D255),0)</f>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Z255" s="1">
-        <f>IF(AF$1&gt;=$D255,$O255+$P255*($Q255+1)/2+$R255*($S255+1)/2*(AF$1-$D255),0)</f>
+        <f t="shared" si="49"/>
         <v>0</v>
       </c>
       <c r="BF255" s="1"/>
@@ -21536,27 +21548,27 @@
       </c>
       <c r="M256" s="12"/>
       <c r="U256" s="1">
-        <f>IF(AA$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AA$1-$D256),0)</f>
+        <f t="shared" ref="U256:U283" si="50">IF(AA$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AA$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="V256" s="1">
-        <f>IF(AB$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AB$1-$D256),0)</f>
+        <f t="shared" ref="V256:V283" si="51">IF(AB$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AB$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="W256" s="1">
-        <f>IF(AC$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AC$1-$D256),0)</f>
+        <f t="shared" ref="W256:W283" si="52">IF(AC$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AC$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="X256" s="1">
-        <f>IF(AD$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AD$1-$D256),0)</f>
+        <f t="shared" ref="X256:X283" si="53">IF(AD$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AD$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="Y256" s="1">
-        <f>IF(AE$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AE$1-$D256),0)</f>
+        <f t="shared" ref="Y256:Y283" si="54">IF(AE$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AE$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="Z256" s="1">
-        <f>IF(AF$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AF$1-$D256),0)</f>
+        <f t="shared" ref="Z256:Z283" si="55">IF(AF$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AF$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="BF256" s="1"/>
@@ -21599,27 +21611,27 @@
       </c>
       <c r="M257" s="12"/>
       <c r="U257" s="1">
-        <f>IF(AA$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AA$1-$D257),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V257" s="1">
-        <f>IF(AB$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AB$1-$D257),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W257" s="1">
-        <f>IF(AC$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AC$1-$D257),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X257" s="1">
-        <f>IF(AD$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AD$1-$D257),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y257" s="1">
-        <f>IF(AE$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AE$1-$D257),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z257" s="1">
-        <f>IF(AF$1&gt;=$D257,$O257+$P257*($Q257+1)/2+$R257*($S257+1)/2*(AF$1-$D257),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF257" s="1"/>
@@ -21666,27 +21678,27 @@
         <v>946</v>
       </c>
       <c r="U258" s="1">
-        <f>IF(AA$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AA$1-$D258),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V258" s="1">
-        <f>IF(AB$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AB$1-$D258),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W258" s="1">
-        <f>IF(AC$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AC$1-$D258),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X258" s="1">
-        <f>IF(AD$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AD$1-$D258),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y258" s="1">
-        <f>IF(AE$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AE$1-$D258),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z258" s="1">
-        <f>IF(AF$1&gt;=$D258,$O258+$P258*($Q258+1)/2+$R258*($S258+1)/2*(AF$1-$D258),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF258" s="1"/>
@@ -21733,27 +21745,27 @@
         <v>953</v>
       </c>
       <c r="U259" s="1">
-        <f>IF(AA$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AA$1-$D259),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V259" s="1">
-        <f>IF(AB$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AB$1-$D259),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W259" s="1">
-        <f>IF(AC$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AC$1-$D259),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X259" s="1">
-        <f>IF(AD$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AD$1-$D259),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y259" s="1">
-        <f>IF(AE$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AE$1-$D259),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z259" s="1">
-        <f>IF(AF$1&gt;=$D259,$O259+$P259*($Q259+1)/2+$R259*($S259+1)/2*(AF$1-$D259),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF259" s="1"/>
@@ -21787,7 +21799,7 @@
       <c r="G260" s="11" t="s">
         <v>948</v>
       </c>
-      <c r="H260" s="26"/>
+      <c r="H260" s="23"/>
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
       <c r="K260" s="20"/>
@@ -21795,27 +21807,27 @@
         <v>1025</v>
       </c>
       <c r="U260" s="1">
-        <f>IF(AA$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AA$1-$D260),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V260" s="1">
-        <f>IF(AB$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AB$1-$D260),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W260" s="1">
-        <f>IF(AC$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AC$1-$D260),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X260" s="1">
-        <f>IF(AD$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AD$1-$D260),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y260" s="1">
-        <f>IF(AE$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AE$1-$D260),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z260" s="1">
-        <f>IF(AF$1&gt;=$D260,$O260+$P260*($Q260+1)/2+$R260*($S260+1)/2*(AF$1-$D260),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -21850,27 +21862,27 @@
       </c>
       <c r="M261" s="12"/>
       <c r="U261" s="1">
-        <f>IF(AA$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AA$1-$D261),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V261" s="1">
-        <f>IF(AB$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AB$1-$D261),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W261" s="1">
-        <f>IF(AC$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AC$1-$D261),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X261" s="1">
-        <f>IF(AD$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AD$1-$D261),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y261" s="1">
-        <f>IF(AE$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AE$1-$D261),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z261" s="1">
-        <f>IF(AF$1&gt;=$D261,$O261+$P261*($Q261+1)/2+$R261*($S261+1)/2*(AF$1-$D261),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF261" s="1"/>
@@ -21915,27 +21927,27 @@
       </c>
       <c r="M262" s="12"/>
       <c r="U262" s="1">
-        <f>IF(AA$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AA$1-$D262),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V262" s="1">
-        <f>IF(AB$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AB$1-$D262),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W262" s="1">
-        <f>IF(AC$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AC$1-$D262),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X262" s="1">
-        <f>IF(AD$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AD$1-$D262),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y262" s="1">
-        <f>IF(AE$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AE$1-$D262),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z262" s="1">
-        <f>IF(AF$1&gt;=$D262,$O262+$P262*($Q262+1)/2+$R262*($S262+1)/2*(AF$1-$D262),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF262" s="1"/>
@@ -21980,27 +21992,27 @@
       </c>
       <c r="M263" s="12"/>
       <c r="U263" s="1">
-        <f>IF(AA$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AA$1-$D263),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V263" s="1">
-        <f>IF(AB$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AB$1-$D263),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W263" s="1">
-        <f>IF(AC$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AC$1-$D263),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X263" s="1">
-        <f>IF(AD$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AD$1-$D263),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y263" s="1">
-        <f>IF(AE$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AE$1-$D263),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z263" s="1">
-        <f>IF(AF$1&gt;=$D263,$O263+$P263*($Q263+1)/2+$R263*($S263+1)/2*(AF$1-$D263),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF263" s="1"/>
@@ -22067,27 +22079,27 @@
         <v>4</v>
       </c>
       <c r="U264" s="1">
-        <f>IF(AA$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AA$1-$D264),0)</f>
+        <f t="shared" si="50"/>
         <v>5</v>
       </c>
       <c r="V264" s="1">
-        <f>IF(AB$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AB$1-$D264),0)</f>
+        <f t="shared" si="51"/>
         <v>10</v>
       </c>
       <c r="W264" s="1">
-        <f>IF(AC$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AC$1-$D264),0)</f>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="X264" s="1">
-        <f>IF(AD$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AD$1-$D264),0)</f>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="Y264" s="1">
-        <f>IF(AE$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AE$1-$D264),0)</f>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
       <c r="Z264" s="1">
-        <f>IF(AF$1&gt;=$D264,$O264+$P264*($Q264+1)/2+$R264*($S264+1)/2*(AF$1-$D264),0)</f>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="BF264" s="1"/>
@@ -22135,27 +22147,27 @@
         <v>1043</v>
       </c>
       <c r="U265" s="1">
-        <f>IF(AA$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AA$1-$D265),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V265" s="1">
-        <f>IF(AB$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AB$1-$D265),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W265" s="1">
-        <f>IF(AC$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AC$1-$D265),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X265" s="1">
-        <f>IF(AD$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AD$1-$D265),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y265" s="1">
-        <f>IF(AE$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AE$1-$D265),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z265" s="1">
-        <f>IF(AF$1&gt;=$D265,$O265+$P265*($Q265+1)/2+$R265*($S265+1)/2*(AF$1-$D265),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -22194,27 +22206,27 @@
       </c>
       <c r="M266" s="12"/>
       <c r="U266" s="1">
-        <f>IF(AA$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AA$1-$D266),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V266" s="1">
-        <f>IF(AB$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AB$1-$D266),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W266" s="1">
-        <f>IF(AC$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AC$1-$D266),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X266" s="1">
-        <f>IF(AD$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AD$1-$D266),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y266" s="1">
-        <f>IF(AE$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AE$1-$D266),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z266" s="1">
-        <f>IF(AF$1&gt;=$D266,$O266+$P266*($Q266+1)/2+$R266*($S266+1)/2*(AF$1-$D266),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF266" s="1"/>
@@ -22261,27 +22273,27 @@
         <v>975</v>
       </c>
       <c r="U267" s="1">
-        <f>IF(AA$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AA$1-$D267),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V267" s="1">
-        <f>IF(AB$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AB$1-$D267),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W267" s="1">
-        <f>IF(AC$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AC$1-$D267),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X267" s="1">
-        <f>IF(AD$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AD$1-$D267),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y267" s="1">
-        <f>IF(AE$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AE$1-$D267),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z267" s="1">
-        <f>IF(AF$1&gt;=$D267,$O267+$P267*($Q267+1)/2+$R267*($S267+1)/2*(AF$1-$D267),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF267" s="1"/>
@@ -22326,27 +22338,27 @@
       </c>
       <c r="M268" s="12"/>
       <c r="U268" s="1">
-        <f>IF(AA$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AA$1-$D268),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V268" s="1">
-        <f>IF(AB$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AB$1-$D268),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W268" s="1">
-        <f>IF(AC$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AC$1-$D268),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X268" s="1">
-        <f>IF(AD$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AD$1-$D268),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y268" s="1">
-        <f>IF(AE$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AE$1-$D268),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z268" s="1">
-        <f>IF(AF$1&gt;=$D268,$O268+$P268*($Q268+1)/2+$R268*($S268+1)/2*(AF$1-$D268),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF268" s="1"/>
@@ -22393,27 +22405,27 @@
         <v>982</v>
       </c>
       <c r="U269" s="1">
-        <f>IF(AA$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AA$1-$D269),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V269" s="1">
-        <f>IF(AB$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AB$1-$D269),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W269" s="1">
-        <f>IF(AC$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AC$1-$D269),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X269" s="1">
-        <f>IF(AD$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AD$1-$D269),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y269" s="1">
-        <f>IF(AE$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AE$1-$D269),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z269" s="1">
-        <f>IF(AF$1&gt;=$D269,$O269+$P269*($Q269+1)/2+$R269*($S269+1)/2*(AF$1-$D269),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF269" s="1"/>
@@ -22458,27 +22470,27 @@
       </c>
       <c r="M270" s="12"/>
       <c r="U270" s="1">
-        <f>IF(AA$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AA$1-$D270),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V270" s="1">
-        <f>IF(AB$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AB$1-$D270),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W270" s="1">
-        <f>IF(AC$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AC$1-$D270),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X270" s="1">
-        <f>IF(AD$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AD$1-$D270),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y270" s="1">
-        <f>IF(AE$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AE$1-$D270),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z270" s="1">
-        <f>IF(AF$1&gt;=$D270,$O270+$P270*($Q270+1)/2+$R270*($S270+1)/2*(AF$1-$D270),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF270" s="1"/>
@@ -22525,27 +22537,27 @@
         <v>990</v>
       </c>
       <c r="U271" s="1">
-        <f>IF(AA$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AA$1-$D271),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V271" s="1">
-        <f>IF(AB$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AB$1-$D271),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W271" s="1">
-        <f>IF(AC$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AC$1-$D271),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X271" s="1">
-        <f>IF(AD$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AD$1-$D271),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y271" s="1">
-        <f>IF(AE$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AE$1-$D271),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z271" s="1">
-        <f>IF(AF$1&gt;=$D271,$O271+$P271*($Q271+1)/2+$R271*($S271+1)/2*(AF$1-$D271),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF271" s="1"/>
@@ -22592,27 +22604,27 @@
       </c>
       <c r="M272" s="12"/>
       <c r="U272" s="1">
-        <f>IF(AA$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AA$1-$D272),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V272" s="1">
-        <f>IF(AB$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AB$1-$D272),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W272" s="1">
-        <f>IF(AC$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AC$1-$D272),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X272" s="1">
-        <f>IF(AD$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AD$1-$D272),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y272" s="1">
-        <f>IF(AE$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AE$1-$D272),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z272" s="1">
-        <f>IF(AF$1&gt;=$D272,$O272+$P272*($Q272+1)/2+$R272*($S272+1)/2*(AF$1-$D272),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF272" s="1"/>
@@ -22659,27 +22671,27 @@
         <v>996</v>
       </c>
       <c r="U273" s="1">
-        <f>IF(AA$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AA$1-$D273),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V273" s="1">
-        <f>IF(AB$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AB$1-$D273),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W273" s="1">
-        <f>IF(AC$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AC$1-$D273),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X273" s="1">
-        <f>IF(AD$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AD$1-$D273),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y273" s="1">
-        <f>IF(AE$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AE$1-$D273),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z273" s="1">
-        <f>IF(AF$1&gt;=$D273,$O273+$P273*($Q273+1)/2+$R273*($S273+1)/2*(AF$1-$D273),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF273" s="1"/>
@@ -22748,27 +22760,27 @@
         <v>4</v>
       </c>
       <c r="U274" s="1">
-        <f>IF(AA$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AA$1-$D274),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V274" s="1">
-        <f>IF(AB$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AB$1-$D274),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W274" s="1">
-        <f>IF(AC$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AC$1-$D274),0)</f>
+        <f t="shared" si="52"/>
         <v>15</v>
       </c>
       <c r="X274" s="1">
-        <f>IF(AD$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AD$1-$D274),0)</f>
+        <f t="shared" si="53"/>
         <v>20</v>
       </c>
       <c r="Y274" s="1">
-        <f>IF(AE$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AE$1-$D274),0)</f>
+        <f t="shared" si="54"/>
         <v>25</v>
       </c>
       <c r="Z274" s="1">
-        <f>IF(AF$1&gt;=$D274,$O274+$P274*($Q274+1)/2+$R274*($S274+1)/2*(AF$1-$D274),0)</f>
+        <f t="shared" si="55"/>
         <v>30</v>
       </c>
       <c r="BF274" s="1"/>
@@ -22815,27 +22827,27 @@
         <v>1004</v>
       </c>
       <c r="U275" s="1">
-        <f>IF(AA$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AA$1-$D275),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V275" s="1">
-        <f>IF(AB$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AB$1-$D275),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W275" s="1">
-        <f>IF(AC$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AC$1-$D275),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X275" s="1">
-        <f>IF(AD$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AD$1-$D275),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y275" s="1">
-        <f>IF(AE$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AE$1-$D275),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z275" s="1">
-        <f>IF(AF$1&gt;=$D275,$O275+$P275*($Q275+1)/2+$R275*($S275+1)/2*(AF$1-$D275),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF275" s="1"/>
@@ -22880,27 +22892,27 @@
       </c>
       <c r="M276" s="12"/>
       <c r="U276" s="1">
-        <f>IF(AA$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AA$1-$D276),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V276" s="1">
-        <f>IF(AB$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AB$1-$D276),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W276" s="1">
-        <f>IF(AC$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AC$1-$D276),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X276" s="1">
-        <f>IF(AD$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AD$1-$D276),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y276" s="1">
-        <f>IF(AE$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AE$1-$D276),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z276" s="1">
-        <f>IF(AF$1&gt;=$D276,$O276+$P276*($Q276+1)/2+$R276*($S276+1)/2*(AF$1-$D276),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF276" s="1"/>
@@ -22945,27 +22957,27 @@
       </c>
       <c r="M277" s="12"/>
       <c r="U277" s="1">
-        <f>IF(AA$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AA$1-$D277),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V277" s="1">
-        <f>IF(AB$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AB$1-$D277),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W277" s="1">
-        <f>IF(AC$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AC$1-$D277),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X277" s="1">
-        <f>IF(AD$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AD$1-$D277),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y277" s="1">
-        <f>IF(AE$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AE$1-$D277),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z277" s="1">
-        <f>IF(AF$1&gt;=$D277,$O277+$P277*($Q277+1)/2+$R277*($S277+1)/2*(AF$1-$D277),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="BF277" s="1"/>
@@ -23032,27 +23044,27 @@
         <v>4</v>
       </c>
       <c r="U278" s="1">
-        <f>IF(AA$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AA$1-$D278),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V278" s="1">
-        <f>IF(AB$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AB$1-$D278),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W278" s="1">
-        <f>IF(AC$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AC$1-$D278),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X278" s="1">
-        <f>IF(AD$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AD$1-$D278),0)</f>
+        <f t="shared" si="53"/>
         <v>25</v>
       </c>
       <c r="Y278" s="1">
-        <f>IF(AE$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AE$1-$D278),0)</f>
+        <f t="shared" si="54"/>
         <v>30</v>
       </c>
       <c r="Z278" s="1">
-        <f>IF(AF$1&gt;=$D278,$O278+$P278*($Q278+1)/2+$R278*($S278+1)/2*(AF$1-$D278),0)</f>
+        <f t="shared" si="55"/>
         <v>35</v>
       </c>
       <c r="BF278" s="1"/>
@@ -23096,27 +23108,27 @@
         <v>1016</v>
       </c>
       <c r="U279" s="1">
-        <f>IF(AA$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AA$1-$D279),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V279" s="1">
-        <f>IF(AB$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AB$1-$D279),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W279" s="1">
-        <f>IF(AC$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AC$1-$D279),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X279" s="1">
-        <f>IF(AD$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AD$1-$D279),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y279" s="1">
-        <f>IF(AE$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AE$1-$D279),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z279" s="1">
-        <f>IF(AF$1&gt;=$D279,$O279+$P279*($Q279+1)/2+$R279*($S279+1)/2*(AF$1-$D279),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -23155,27 +23167,27 @@
       </c>
       <c r="M280" s="12"/>
       <c r="U280" s="1">
-        <f>IF(AA$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AA$1-$D280),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V280" s="1">
-        <f>IF(AB$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AB$1-$D280),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W280" s="1">
-        <f>IF(AC$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AC$1-$D280),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X280" s="1">
-        <f>IF(AD$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AD$1-$D280),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y280" s="1">
-        <f>IF(AE$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AE$1-$D280),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z280" s="1">
-        <f>IF(AF$1&gt;=$D280,$O280+$P280*($Q280+1)/2+$R280*($S280+1)/2*(AF$1-$D280),0)</f>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
     </row>
@@ -23212,31 +23224,31 @@
       </c>
       <c r="M281" s="12"/>
       <c r="U281" s="1">
-        <f>IF(AA$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AA$1-$D281),0)</f>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="V281" s="1">
-        <f>IF(AB$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AB$1-$D281),0)</f>
+        <f t="shared" si="51"/>
         <v>0</v>
       </c>
       <c r="W281" s="1">
-        <f>IF(AC$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AC$1-$D281),0)</f>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="X281" s="1">
-        <f>IF(AD$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AD$1-$D281),0)</f>
+        <f t="shared" si="53"/>
         <v>0</v>
       </c>
       <c r="Y281" s="1">
-        <f>IF(AE$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AE$1-$D281),0)</f>
+        <f t="shared" si="54"/>
         <v>0</v>
       </c>
       <c r="Z281" s="1">
-        <f>IF(AF$1&gt;=$D281,$O281+$P281*($Q281+1)/2+$R281*($S281+1)/2*(AF$1-$D281),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="282" spans="1:84">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:84" ht="252">
       <c r="A282" s="1" t="s">
         <v>1044</v>
       </c>
@@ -23250,42 +23262,54 @@
         <v>1</v>
       </c>
       <c r="E282" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="G282" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="I282" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J282" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="L282" s="1" t="s">
+        <v>1049</v>
+      </c>
+      <c r="M282" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="U282" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V282" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W282" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X282" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y282" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z282" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:84" ht="180">
+      <c r="A283" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="U282" s="1">
-        <f>IF(AA$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AA$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-      <c r="V282" s="1">
-        <f>IF(AB$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AB$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-      <c r="W282" s="1">
-        <f>IF(AC$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AC$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-      <c r="X282" s="1">
-        <f>IF(AD$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AD$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Y282" s="1">
-        <f>IF(AE$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AE$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-      <c r="Z282" s="1">
-        <f>IF(AF$1&gt;=$D282,$O282+$P282*($Q282+1)/2+$R282*($S282+1)/2*(AF$1-$D282),0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:84">
-      <c r="A283" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>26</v>
@@ -23297,151 +23321,46 @@
         <v>1</v>
       </c>
       <c r="E283" s="1" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>71</v>
+        <v>44</v>
+      </c>
+      <c r="G283" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="K283" s="1" t="s">
+        <v>82</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="284" spans="1:84">
-      <c r="A284" s="1" t="s">
-        <v>1047</v>
-      </c>
-      <c r="B284" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D284" s="1">
-        <v>1</v>
-      </c>
-      <c r="E284" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F284" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L284" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="285" spans="1:84">
-      <c r="A285" s="1" t="s">
-        <v>1048</v>
-      </c>
-      <c r="B285" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D285" s="1">
-        <v>1</v>
-      </c>
-      <c r="E285" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F285" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L285" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="286" spans="1:84">
-      <c r="A286" s="1" t="s">
-        <v>1049</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D286" s="1">
-        <v>1</v>
-      </c>
-      <c r="E286" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F286" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L286" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="287" spans="1:84">
-      <c r="A287" s="1" t="s">
         <v>1050</v>
       </c>
-      <c r="B287" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D287" s="1">
-        <v>1</v>
-      </c>
-      <c r="E287" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F287" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L287" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="288" spans="1:84">
-      <c r="A288" s="1" t="s">
+      <c r="M283" s="1" t="s">
         <v>1051</v>
       </c>
-      <c r="B288" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D288" s="1">
-        <v>1</v>
-      </c>
-      <c r="E288" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F288" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L288" s="1" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="289" spans="1:12">
-      <c r="A289" s="1" t="s">
-        <v>1052</v>
-      </c>
-      <c r="B289" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D289" s="1">
-        <v>1</v>
-      </c>
-      <c r="E289" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F289" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L289" s="1" t="s">
-        <v>1045</v>
+      <c r="U283" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V283" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W283" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X283" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y283" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z283" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -23451,16 +23370,6 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="CE1:CE2"/>
     <mergeCell ref="DB1:DU1"/>
     <mergeCell ref="DW1:EP1"/>
@@ -23470,6 +23379,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E07221C-EBF1-44BF-8050-ECABC962D12A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C23A5467-CB47-40F0-93D7-98DB7960D78D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2392" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1140">
   <si>
     <t>Name</t>
   </si>
@@ -2134,9 +2134,6 @@
     <t>Casts a permanent curse on a target being, object or location. You may choose the effects of this curse, though they must be commensurate with the casting level of this spell, and the GM has a veto. Be inventive!</t>
   </si>
   <si>
-    <t>Knockout</t>
-  </si>
-  <si>
     <t>stupefy</t>
   </si>
   <si>
@@ -3420,16 +3417,312 @@
 You may use any of these effects as long as concentration is maintained. When focus is broken, the fire resumes its normal course. </t>
   </si>
   <si>
+    <t>When cast at a higher level, the maximum volume of water that you can effect doubles \forEvery{}. You may also perform more extravagant feats of water manipulation, at the whim of your GM. Be inventive!</t>
+  </si>
+  <si>
+    <t>Drowning Sphere</t>
+  </si>
+  <si>
+    <t>Icicle</t>
+  </si>
+  <si>
+    <t>Burning Blood</t>
+  </si>
+  <si>
+    <t>zesto sidero</t>
+  </si>
+  <si>
+    <t>You corrupt their very blood, turning it into a burning acid, or molten lead. Whilst you maintain focus, the target takes 6d12 acid or fire damage (your choice).</t>
+  </si>
+  <si>
+    <t>krystallium</t>
+  </si>
+  <si>
+    <t>panigus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At your command 3 razor sharp shards of ice fling themselves at your target, performing an accuracy check for each. 
+Each shard does 1d8 piercing damage and 1d8 cold damage. </t>
+  </si>
+  <si>
+    <t>Gain an additional 2 shards \forEvery{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A stream of water from every nearby source streams and collects in a sphere up to 3 metres in radius, hovering above the ground, a violently twisting vortex of water and matter. 
+Any being caught in the initial area, or which subsequently passes through the sphere must succeed on a Resist, or be sucked into the sphere. Up to 5 humanoids, or 1 larger creature (if within the size of the sphere) can be restrained at any one time. Beings inside the sphere are deprived of oxygen and are considered {\it Incapcitated}, able only to perform a Resist check at the beginning of each turn. 
+Succeeding in a resist check deposits you prone at a random point outside the sphere. 
+The sphere remains whilst concentration is maintained, and can be moved at a speed of 3 metres per cycle. When focus is broken, the sphere disintegrates and the water crashes down. Any being restrained or below the sphere at this point takes 5d8 bludgeoning damage. </t>
+  </si>
+  <si>
+    <t>Speedswim</t>
+  </si>
+  <si>
+    <t>delfini</t>
+  </si>
+  <si>
+    <t xml:space="preserve">For the duration of the spell, you retain the ability to conjure a small bubble of air, and manipulate the water around you, enabling you to move extremely rapidly whilst in water. Your swimspeed becomes equal to twice your normal movement speed, and you do not need to breath whilst underwater. 
+You also do not take disadvantage for using items, attacks or spellcasting whilst underwater. </t>
+  </si>
+  <si>
+    <t>Torrent</t>
+  </si>
+  <si>
+    <t>chimeros</t>
+  </si>
+  <si>
+    <t>Tsunami</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You summon a truly gargantuan jet of water, which you make into either needle-thin jet, or a hammer-blow blast. If it makes contact with a target, deals 8d10 bludgeoning or piercing damage (your choice). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unda maxima </t>
+  </si>
+  <si>
     <t>Upon targeting a volume of water up to one metre cube that you can see within range, you can manipulate it in a number of ways:
 \begin{spellitemize}
 \item You can move the water, or otherwise alter the flow by up to 3 metres
 \item You can cause the water to form simple shapes, and animate them at your direction. 
 \item You can clear the water, or cause it to become opaque and cloudy. This lasts for up to one hour after you break concentration.
-\item Drown: if your animated water is within melee range of a being, you may wrap it around their face, depriving them of air on a failed Resist. Target can re-perform this check at the end of every turn. 
+\item Drown: if your animated water is within melee range of a being, you may use a major action to wrap it around their face, depriving them of air on a failed Resist. Target can re-perform this check at the end of every turn. 
+\item Still the water, or generate waves and ripples across the surface
 \end{spellitemize}</t>
   </si>
   <si>
-    <t>When cast at a higher level, the maximum volume of water that you can effect doubles \forEvery{}. You may also perform more extravagant feats of water manipulation, at the whim of your GM. Be inventive!</t>
+    <t>Ignite</t>
+  </si>
+  <si>
+    <t>ignis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You wave your wand in a complicated pattern, and an area of the target up to 1m squared bursts into flames, and begins to expand over the rest of the target. 
+Ignited beings take 3d6 fire damage per turn, and the effect lasts until they come into contact with sufficient water or wind to extinguish the flames, or they pass a DV 12 Resist check, and voluntarily take the {\it Prone} status. The resist check can be performed once per turn. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You conjure a gigantic wall of water, 15 metres long and 5 metres tall. You may choose how to orient the wave, which proceeds to move forward at a speed of 20 metres per round.
+For every 20 metres the wave moves forward, it loses 1 metre of height. The wave lasts until its height reaches zero, or concentration is broken. 
+Any being which spends any part of its turn in the wave takes 8d12 damage (halved on a successful resist) and have their speed set to zero until the end of the next round. </t>
+  </si>
+  <si>
+    <t>Flamethrower</t>
+  </si>
+  <si>
+    <t>ustulo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">An enormous burst of flame rips from the end of your wand, incinerating everything in a cone up to 5 metres in front of the caster. 
+All beings in the cone which fail to block take 8d10 fire damage. </t>
+  </si>
+  <si>
+    <t>\additional{4d10}{Fire}</t>
+  </si>
+  <si>
+    <t>uro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A small ember drifts lazily from the end of your wand, and latches onto your target, igniting a small part of the target. Once it has taken root, nothing can extinguish this fire until it either runs out of fuel, or out of air. No magical intervention known to wizardkind can end its life before one of these conditions is met. 
+The ember deals 1d6 damage per turn. Every time a magical or mundane attempt is made to extinguish the fire, it doubles in intensity spreading rapidly, and doubles the damage it deals per turn. 
+The fire may be moved using the {\it Control Fire} spell, but only when cast as a Master Level spell, and even then requires a DV 20 Power check to successfully remove the fire. </t>
+  </si>
+  <si>
+    <t>Immolation</t>
+  </si>
+  <si>
+    <t>Flame Whip</t>
+  </si>
+  <si>
+    <t>ignellum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You summon a thin trail of fire from the end of you wand, which you can then use as a whip, performing a melee attack using your Elemental modifier (if you are proficient in Exotic weapons, you may add your Expertise modifier even if you have already added it). 
+Any target hit by your flaming whip takes 9d12 fire damage, and you may direct the whip such that it wraps around them, rendering them {\it Incapacitated} until they successfully resist at the end of their turn. A trapped individual takes a further 3d12 Fire damage per turn. 
+This spell lasts until you drop your wand, or you dismiss it as an instant action. No further spells can be cast whilst the whip is active. </t>
+  </si>
+  <si>
+    <t>Anapneo</t>
+  </si>
+  <si>
+    <t>Clear Airways</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target has their airways cleared, allowing them to breath freely and negating any choking effects. </t>
+  </si>
+  <si>
+    <t>Upwards Blast</t>
+  </si>
+  <si>
+    <t>ascendio</t>
+  </si>
+  <si>
+    <t>This spell can launch targets an additional 5 metres \forEvery{}.</t>
+  </si>
+  <si>
+    <t>Launches the target vertically upwards into the air or through water, up to a height of 10 metres in a matter of moments. A target may choose to Resist the effects of this spell, with advantage if they are heavier than the caster.
+If a target hits a ceiling, they take 1d10 bludgeoning damage, and then if they fail to grab onto anything and fall back to the ground, they take 1d4 bludgeoning damage for every 2 metres fallen. 
+This spell can be cast on the self.</t>
+  </si>
+  <si>
+    <t>Babbling</t>
+  </si>
+  <si>
+    <t>longardo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a failed Resist, the target begins babbling incoherently and without control. 
+For the duration of the spell, whenever the target wishes to speak or cast a spell with a verbal component they must successfully Resist to do so without babbling over their intended phrase. </t>
+  </si>
+  <si>
+    <t>Bedazzle</t>
+  </si>
+  <si>
+    <t>chameleo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell creates a ward on the target, which produces a beddazzling and befuddling field, which causes eyes to simply slide off from the warded region without the brain properly processing it, rendering the warded target almost perfectly invisible. 
+This spell only works on Sapient beings and bests with a (relatively) neural system. Alien beings such as dementors and poltergeists do not have a brain which this field can confuse. 
+If the target fails to Resist, they cannot observe or otherwise detect the warded region. </t>
+  </si>
+  <si>
+    <t>Exploding Missile</t>
+  </si>
+  <si>
+    <t>bombarda</t>
+  </si>
+  <si>
+    <t>A small missile launches from the end of your wand and explodes on contact with the target, dealing 2d12 concussive damage and 1d12 fire damage.</t>
+  </si>
+  <si>
+    <t>\additional{2d12}{fire}</t>
+  </si>
+  <si>
+    <t>Corrupt Object</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This spell allows you to corrupt and redirect the magical nexus of an enchanted object, causing it to malfunction, gain additional negative effects, or destroying it completely. 
+You may alter the meaning of the runechains on an enchanted object slightly (i.e. causing a bludger to attack a single person, rather than follow the rules of quidditch), remove a runechain entirely, or add an additional negative effect of your choosing. </t>
+  </si>
+  <si>
+    <t>Lasso</t>
+  </si>
+  <si>
+    <t>carpe rectractum</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A lasso of golden light whips out from your wand, allowing you to initiate a {\it grapple} with the target using your arcane subjugation value instead of your Strength. Target may resist following the usual grappling rules. </t>
+  </si>
+  <si>
+    <t>Manipulate Emotions</t>
+  </si>
+  <si>
+    <t>motus conus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the target fails to resist, you may manipulate their emotions such that they feel an intense emotion of your choosing. You can make them feel incredibly happy, or incredibly sad, scared, or brave. The target is unaware that you have manipulated them in this fashion. </t>
+  </si>
+  <si>
+    <t>Stickfast</t>
+  </si>
+  <si>
+    <t>colloshoo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If this spell strikes a target, it glues their feet to the ground, setting their movement speed to 0 (though it does not effect magical transport such as apparation). The target may use a major action to perform a Resist check to break free. </t>
+  </si>
+  <si>
+    <t>Shrivelled Ears</t>
+  </si>
+  <si>
+    <t>raxus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a failed Resist, causes the target to believe that their ears have shrivelled up and fallen off, and temporarily removes the link between ears and the brain. 
+Target is effectively deaf and all checks which rely on hearing fail. They also take check-disadvantage on all Perception checks. </t>
+  </si>
+  <si>
+    <t>Flame Freezing Shield</t>
+  </si>
+  <si>
+    <t>glaciagnis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Causes non-magical fire to feel lightly cool and tickle the warded subject, rather than burning them. 
+Whenever a caster attempts to inflict magical fire damage on the protect being, they must succeed on a Resist check, or the damage is halved. </t>
+  </si>
+  <si>
+    <t>Warted Skin</t>
+  </si>
+  <si>
+    <t>furnunculus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">After being hit with this spell, the target breaks out in a horrendous case of warts and boils all over their body. This boils are incredibly itchy and distracting, giving the afflicted disadvantage on all Spirit checks. </t>
+  </si>
+  <si>
+    <t>Irongrip</t>
+  </si>
+  <si>
+    <t>fero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gives a willing target an incredibly strong grip. Gain check advantage on all grappling checks and attempts to resist disarmament. </t>
+  </si>
+  <si>
+    <t>Illiteracy</t>
+  </si>
+  <si>
+    <t>illegibilus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">On a failed resist, the target\apos{}s brain becomes scrambled, and they temporarily lose the ability to read. 
+This means they cannot book-cast, and if they attempt to focus on a bit of writing for more than 10 seconds, they take the {\it confused} status. </t>
+  </si>
+  <si>
+    <t>Linguistic Aphasia</t>
+  </si>
+  <si>
+    <t>squiddle\minus{}de\minus{}bop</t>
+  </si>
+  <si>
+    <t>On a failed resist, the target\apos{}s mind becomes so completely ruined that they lose the ability to process language. The target can no longer communicate either verbally or with written language properly. 
+As far as they are concerned, everyone is speaking or writing pure nonsense to them, whilst to everyone else they appear to be spouting gibberish. 
+The victim may attempt to resist every turn to end the effect, though a successful resist (including the first) deals 3d10 psychic damage.</t>
+  </si>
+  <si>
+    <t>Psychosis</t>
+  </si>
+  <si>
+    <t>demensus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The target is wracked with uncontrollable pain as their very perception of reality is messed with. 
+Target takes 5d12 psychic damage. 
+ </t>
+  </si>
+  <si>
+    <t>Revive</t>
+  </si>
+  <si>
+    <t>renervate</t>
+  </si>
+  <si>
+    <t>Comatosing Blast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Removes the {\it Unconscious} status effect (unless another status effect prevents that) and awakens targets from even the deepest of slumbers. </t>
+  </si>
+  <si>
+    <t>Ticklish Blast</t>
+  </si>
+  <si>
+    <t>rictumsempra</t>
+  </si>
+  <si>
+    <t>When this spell touches the target, they take 1d6 concussive damage, and in addition they begin chuckling uncontrollably for the duration of the spell, reducing their awareness of their surroundings. 
+The target takes disadvantage on all perception checks for the duration.</t>
+  </si>
+  <si>
+    <t>\additional{3d12}{psychic}</t>
   </si>
 </sst>
 </file>
@@ -3643,13 +3936,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4034,13 +4327,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMK283"/>
+  <dimension ref="A1:AMK311"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E282" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A126" sqref="A126"/>
-      <selection pane="bottomRight" activeCell="E284" sqref="E284"/>
+      <selection pane="bottomRight" activeCell="A312" sqref="A312"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4078,46 +4371,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" s="6" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A1" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="24" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="26" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -4219,8 +4512,8 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
-      <c r="CC1" s="26"/>
-      <c r="CE1" s="25"/>
+      <c r="CC1" s="25"/>
+      <c r="CE1" s="24"/>
       <c r="CF1" s="7"/>
       <c r="CG1" s="8"/>
       <c r="CH1" s="8"/>
@@ -4242,82 +4535,82 @@
       <c r="CX1" s="8"/>
       <c r="CY1" s="8"/>
       <c r="CZ1" s="9"/>
-      <c r="DB1" s="26"/>
-      <c r="DC1" s="26"/>
-      <c r="DD1" s="26"/>
-      <c r="DE1" s="26"/>
-      <c r="DF1" s="26"/>
-      <c r="DG1" s="26"/>
-      <c r="DH1" s="26"/>
-      <c r="DI1" s="26"/>
-      <c r="DJ1" s="26"/>
-      <c r="DK1" s="26"/>
-      <c r="DL1" s="26"/>
-      <c r="DM1" s="26"/>
-      <c r="DN1" s="26"/>
-      <c r="DO1" s="26"/>
-      <c r="DP1" s="26"/>
-      <c r="DQ1" s="26"/>
-      <c r="DR1" s="26"/>
-      <c r="DS1" s="26"/>
-      <c r="DT1" s="26"/>
-      <c r="DU1" s="26"/>
-      <c r="DW1" s="26"/>
-      <c r="DX1" s="26"/>
-      <c r="DY1" s="26"/>
-      <c r="DZ1" s="26"/>
-      <c r="EA1" s="26"/>
-      <c r="EB1" s="26"/>
-      <c r="EC1" s="26"/>
-      <c r="ED1" s="26"/>
-      <c r="EE1" s="26"/>
-      <c r="EF1" s="26"/>
-      <c r="EG1" s="26"/>
-      <c r="EH1" s="26"/>
-      <c r="EI1" s="26"/>
-      <c r="EJ1" s="26"/>
-      <c r="EK1" s="26"/>
-      <c r="EL1" s="26"/>
-      <c r="EM1" s="26"/>
-      <c r="EN1" s="26"/>
-      <c r="EO1" s="26"/>
-      <c r="EP1" s="26"/>
-      <c r="ER1" s="26"/>
-      <c r="ES1" s="26"/>
-      <c r="ET1" s="26"/>
-      <c r="EU1" s="26"/>
-      <c r="EV1" s="26"/>
-      <c r="EW1" s="26"/>
-      <c r="EX1" s="26"/>
-      <c r="EY1" s="26"/>
-      <c r="EZ1" s="26"/>
-      <c r="FA1" s="26"/>
-      <c r="FB1" s="26"/>
-      <c r="FC1" s="26"/>
-      <c r="FD1" s="26"/>
-      <c r="FE1" s="26"/>
-      <c r="FF1" s="26"/>
-      <c r="FG1" s="26"/>
-      <c r="FH1" s="26"/>
-      <c r="FI1" s="26"/>
-      <c r="FJ1" s="26"/>
-      <c r="FK1" s="26"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="25"/>
+      <c r="DS1" s="25"/>
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25"/>
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25"/>
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25"/>
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25"/>
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="25"/>
+      <c r="EP1" s="25"/>
+      <c r="ER1" s="25"/>
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25"/>
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25"/>
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="25"/>
+      <c r="EY1" s="25"/>
+      <c r="EZ1" s="25"/>
+      <c r="FA1" s="25"/>
+      <c r="FB1" s="25"/>
+      <c r="FC1" s="25"/>
+      <c r="FD1" s="25"/>
+      <c r="FE1" s="25"/>
+      <c r="FF1" s="25"/>
+      <c r="FG1" s="25"/>
+      <c r="FH1" s="25"/>
+      <c r="FI1" s="25"/>
+      <c r="FJ1" s="25"/>
+      <c r="FK1" s="25"/>
     </row>
     <row r="2" spans="1:167" s="6" customFormat="1" ht="33.950000000000003" customHeight="1">
-      <c r="A2" s="24"/>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
@@ -4412,9 +4705,9 @@
       <c r="BZ2" s="10"/>
       <c r="CA2" s="10"/>
       <c r="CB2" s="10"/>
-      <c r="CC2" s="26"/>
+      <c r="CC2" s="25"/>
       <c r="CD2" s="10"/>
-      <c r="CE2" s="25"/>
+      <c r="CE2" s="24"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
@@ -5947,7 +6240,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="11"/>
       <c r="L23" s="11" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="U23" s="1">
         <f t="shared" si="1"/>
@@ -13251,7 +13544,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="11"/>
       <c r="L135" s="11" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="U135" s="1">
         <f t="shared" si="26"/>
@@ -13640,7 +13933,7 @@
         <v>92</v>
       </c>
       <c r="L141" s="11" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M141" s="17"/>
       <c r="U141" s="1">
@@ -15529,7 +15822,7 @@
         <v>230</v>
       </c>
       <c r="L169" s="13" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="U169" s="1">
         <f t="shared" si="32"/>
@@ -15902,7 +16195,7 @@
     </row>
     <row r="175" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A175" s="11" t="s">
-        <v>650</v>
+        <v>1134</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>607</v>
@@ -15920,7 +16213,7 @@
         <v>44</v>
       </c>
       <c r="G175" s="11" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="H175" s="11" t="s">
         <v>565</v>
@@ -15935,7 +16228,7 @@
         <v>230</v>
       </c>
       <c r="L175" s="11" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="U175" s="1">
         <f t="shared" si="32"/>
@@ -15972,7 +16265,7 @@
     </row>
     <row r="176" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A176" s="13" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>607</v>
@@ -15990,7 +16283,7 @@
         <v>44</v>
       </c>
       <c r="G176" s="13" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="H176" s="13" t="s">
         <v>369</v>
@@ -16001,7 +16294,7 @@
         <v>105</v>
       </c>
       <c r="L176" s="13" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="M176" s="16"/>
       <c r="N176" s="1">
@@ -16042,7 +16335,7 @@
     </row>
     <row r="177" spans="1:84" ht="84">
       <c r="A177" s="11" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>607</v>
@@ -16060,7 +16353,7 @@
         <v>44</v>
       </c>
       <c r="G177" s="11" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
@@ -16069,7 +16362,7 @@
       </c>
       <c r="K177" s="11"/>
       <c r="L177" s="11" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="U177" s="1">
         <f t="shared" si="32"/>
@@ -16106,7 +16399,7 @@
     </row>
     <row r="178" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A178" s="11" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>607</v>
@@ -16124,7 +16417,7 @@
         <v>44</v>
       </c>
       <c r="G178" s="11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="H178" s="11" t="s">
         <v>200</v>
@@ -16135,10 +16428,10 @@
         <v>105</v>
       </c>
       <c r="L178" s="11" t="s">
+        <v>660</v>
+      </c>
+      <c r="M178" s="1" t="s">
         <v>661</v>
-      </c>
-      <c r="M178" s="1" t="s">
-        <v>662</v>
       </c>
       <c r="U178" s="1">
         <f t="shared" si="32"/>
@@ -16167,7 +16460,7 @@
     </row>
     <row r="179" spans="1:84" ht="144">
       <c r="A179" s="11" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>607</v>
@@ -16192,7 +16485,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="11"/>
       <c r="L179" s="11" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="U179" s="1">
         <f t="shared" si="32"/>
@@ -16229,13 +16522,13 @@
     </row>
     <row r="180" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A180" s="13" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C180" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D180" s="13">
         <v>1</v>
@@ -16247,7 +16540,7 @@
         <v>44</v>
       </c>
       <c r="G180" s="13" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="H180" s="13"/>
       <c r="I180" s="13" t="s">
@@ -16260,10 +16553,10 @@
         <v>82</v>
       </c>
       <c r="L180" s="13" t="s">
+        <v>667</v>
+      </c>
+      <c r="M180" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="M180" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="N180" s="1">
         <v>1</v>
@@ -16318,13 +16611,13 @@
     </row>
     <row r="181" spans="1:84" ht="96">
       <c r="A181" s="11" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D181" s="11">
         <v>1</v>
@@ -16336,7 +16629,7 @@
         <v>44</v>
       </c>
       <c r="G181" s="11" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="H181" s="11"/>
       <c r="I181" s="11" t="s">
@@ -16347,10 +16640,10 @@
       </c>
       <c r="K181" s="11"/>
       <c r="L181" s="11" t="s">
+        <v>671</v>
+      </c>
+      <c r="M181" s="16" t="s">
         <v>672</v>
-      </c>
-      <c r="M181" s="16" t="s">
-        <v>673</v>
       </c>
       <c r="N181" s="1">
         <v>1</v>
@@ -16405,13 +16698,13 @@
     </row>
     <row r="182" spans="1:84" ht="24">
       <c r="A182" s="11" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C182" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D182" s="11">
         <v>1</v>
@@ -16423,7 +16716,7 @@
         <v>66</v>
       </c>
       <c r="G182" s="11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11" t="s">
@@ -16432,10 +16725,10 @@
       <c r="J182" s="11"/>
       <c r="K182" s="11"/>
       <c r="L182" s="11" t="s">
+        <v>1032</v>
+      </c>
+      <c r="M182" s="1" t="s">
         <v>1033</v>
-      </c>
-      <c r="M182" s="1" t="s">
-        <v>1034</v>
       </c>
       <c r="N182" s="1">
         <v>1</v>
@@ -16490,13 +16783,13 @@
     </row>
     <row r="183" spans="1:84" ht="108">
       <c r="A183" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C183" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D183" s="11">
         <v>2</v>
@@ -16508,7 +16801,7 @@
         <v>29</v>
       </c>
       <c r="G183" s="11" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H183" s="11" t="s">
         <v>565</v>
@@ -16519,10 +16812,10 @@
         <v>92</v>
       </c>
       <c r="L183" s="11" t="s">
+        <v>677</v>
+      </c>
+      <c r="M183" s="16" t="s">
         <v>678</v>
-      </c>
-      <c r="M183" s="16" t="s">
-        <v>679</v>
       </c>
       <c r="N183" s="1">
         <v>1</v>
@@ -16577,13 +16870,13 @@
     </row>
     <row r="184" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A184" s="11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C184" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D184" s="11">
         <v>2</v>
@@ -16595,7 +16888,7 @@
         <v>66</v>
       </c>
       <c r="G184" s="11" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H184" s="11" t="s">
         <v>610</v>
@@ -16608,10 +16901,10 @@
       </c>
       <c r="K184" s="11"/>
       <c r="L184" s="11" t="s">
+        <v>1034</v>
+      </c>
+      <c r="M184" s="16" t="s">
         <v>1035</v>
-      </c>
-      <c r="M184" s="16" t="s">
-        <v>1036</v>
       </c>
       <c r="N184" s="1">
         <v>1</v>
@@ -16658,13 +16951,13 @@
     </row>
     <row r="185" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A185" s="11" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C185" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D185" s="11">
         <v>2</v>
@@ -16676,7 +16969,7 @@
         <v>44</v>
       </c>
       <c r="G185" s="11" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="H185" s="11"/>
       <c r="I185" s="11"/>
@@ -16685,10 +16978,10 @@
         <v>92</v>
       </c>
       <c r="L185" s="11" t="s">
+        <v>683</v>
+      </c>
+      <c r="M185" s="1" t="s">
         <v>684</v>
-      </c>
-      <c r="M185" s="1" t="s">
-        <v>685</v>
       </c>
       <c r="N185" s="1">
         <v>1</v>
@@ -16743,13 +17036,13 @@
     </row>
     <row r="186" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A186" s="11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="C186" s="11" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="D186" s="11">
         <v>2</v>
@@ -16761,7 +17054,7 @@
         <v>44</v>
       </c>
       <c r="G186" s="11" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="H186" s="11"/>
       <c r="I186" s="11" t="s">
@@ -16772,10 +17065,10 @@
       </c>
       <c r="K186" s="11"/>
       <c r="L186" s="11" t="s">
+        <v>687</v>
+      </c>
+      <c r="M186" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="M186" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="N186" s="1">
         <v>1</v>
@@ -16830,13 +17123,13 @@
     </row>
     <row r="187" spans="1:84" ht="52.5" customHeight="1">
       <c r="A187" s="11" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C187" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D187" s="11">
         <v>2</v>
@@ -16848,7 +17141,7 @@
         <v>29</v>
       </c>
       <c r="G187" s="11" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="H187" s="11"/>
       <c r="I187" s="11" t="s">
@@ -16859,21 +17152,21 @@
       </c>
       <c r="K187" s="11"/>
       <c r="L187" s="11" t="s">
+        <v>1038</v>
+      </c>
+      <c r="M187" s="1" t="s">
         <v>1039</v>
-      </c>
-      <c r="M187" s="1" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="188" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A188" s="11" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C188" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D188" s="11">
         <v>2</v>
@@ -16885,7 +17178,7 @@
         <v>71</v>
       </c>
       <c r="G188" s="11" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
@@ -16894,10 +17187,10 @@
         <v>59</v>
       </c>
       <c r="L188" s="11" t="s">
+        <v>691</v>
+      </c>
+      <c r="M188" s="16" t="s">
         <v>692</v>
-      </c>
-      <c r="M188" s="16" t="s">
-        <v>693</v>
       </c>
       <c r="N188" s="1">
         <v>1</v>
@@ -16952,13 +17245,13 @@
     </row>
     <row r="189" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A189" s="11" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="C189" s="11" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="D189" s="11">
         <v>3</v>
@@ -16970,7 +17263,7 @@
         <v>66</v>
       </c>
       <c r="G189" s="11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="H189" s="11"/>
       <c r="I189" s="11" t="s">
@@ -16981,10 +17274,10 @@
       </c>
       <c r="K189" s="11"/>
       <c r="L189" s="11" t="s">
+        <v>695</v>
+      </c>
+      <c r="M189" s="1" t="s">
         <v>696</v>
-      </c>
-      <c r="M189" s="1" t="s">
-        <v>697</v>
       </c>
       <c r="N189" s="1">
         <v>1</v>
@@ -17039,13 +17332,13 @@
     </row>
     <row r="190" spans="1:84" ht="60">
       <c r="A190" s="11" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="C190" s="11" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="D190" s="11">
         <v>3</v>
@@ -17057,7 +17350,7 @@
         <v>66</v>
       </c>
       <c r="G190" s="11" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="H190" s="11" t="s">
         <v>506</v>
@@ -17068,7 +17361,7 @@
         <v>144</v>
       </c>
       <c r="L190" s="11" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M190" s="16"/>
       <c r="U190" s="1">
@@ -17106,13 +17399,13 @@
     </row>
     <row r="191" spans="1:84" ht="48">
       <c r="A191" s="11" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C191" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D191" s="11">
         <v>3</v>
@@ -17124,7 +17417,7 @@
         <v>44</v>
       </c>
       <c r="G191" s="11" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="H191" s="11"/>
       <c r="I191" s="11" t="s">
@@ -17135,10 +17428,10 @@
       </c>
       <c r="K191" s="11"/>
       <c r="L191" s="11" t="s">
+        <v>702</v>
+      </c>
+      <c r="M191" s="1" t="s">
         <v>703</v>
-      </c>
-      <c r="M191" s="1" t="s">
-        <v>704</v>
       </c>
       <c r="N191" s="1">
         <v>1</v>
@@ -17193,13 +17486,13 @@
     </row>
     <row r="192" spans="1:84" ht="96">
       <c r="A192" s="13" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C192" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D192" s="13">
         <v>3</v>
@@ -17211,7 +17504,7 @@
         <v>44</v>
       </c>
       <c r="G192" s="13" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="H192" s="13"/>
       <c r="I192" s="13" t="s">
@@ -17220,10 +17513,10 @@
       <c r="J192" s="13"/>
       <c r="K192" s="13"/>
       <c r="L192" s="13" t="s">
+        <v>706</v>
+      </c>
+      <c r="M192" s="16" t="s">
         <v>707</v>
-      </c>
-      <c r="M192" s="16" t="s">
-        <v>708</v>
       </c>
       <c r="N192" s="1">
         <v>1</v>
@@ -17278,13 +17571,13 @@
     </row>
     <row r="193" spans="1:84" ht="102.75" customHeight="1">
       <c r="A193" s="11" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C193" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D193" s="11">
         <v>3</v>
@@ -17296,7 +17589,7 @@
         <v>44</v>
       </c>
       <c r="G193" s="11" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
@@ -17305,10 +17598,10 @@
       </c>
       <c r="K193" s="11"/>
       <c r="L193" s="11" t="s">
+        <v>710</v>
+      </c>
+      <c r="M193" s="1" t="s">
         <v>711</v>
-      </c>
-      <c r="M193" s="1" t="s">
-        <v>712</v>
       </c>
       <c r="N193" s="1">
         <v>1</v>
@@ -17363,13 +17656,13 @@
     </row>
     <row r="194" spans="1:84" ht="72">
       <c r="A194" s="11" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C194" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D194" s="11">
         <v>4</v>
@@ -17381,7 +17674,7 @@
         <v>44</v>
       </c>
       <c r="G194" s="11" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="H194" s="11" t="s">
         <v>506</v>
@@ -17392,10 +17685,10 @@
         <v>105</v>
       </c>
       <c r="L194" s="11" t="s">
+        <v>714</v>
+      </c>
+      <c r="M194" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="M194" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="N194" s="1">
         <v>1</v>
@@ -17450,13 +17743,13 @@
     </row>
     <row r="195" spans="1:84" ht="84">
       <c r="A195" s="11" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C195" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D195" s="11">
         <v>4</v>
@@ -17468,7 +17761,7 @@
         <v>44</v>
       </c>
       <c r="G195" s="11" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="H195" s="11"/>
       <c r="I195" s="11" t="s">
@@ -17477,10 +17770,10 @@
       <c r="J195" s="11"/>
       <c r="K195" s="11"/>
       <c r="L195" s="19" t="s">
+        <v>718</v>
+      </c>
+      <c r="M195" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="M195" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="N195" s="1">
         <v>1</v>
@@ -17535,13 +17828,13 @@
     </row>
     <row r="196" spans="1:84" ht="36">
       <c r="A196" s="11" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C196" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D196" s="11">
         <v>4</v>
@@ -17553,7 +17846,7 @@
         <v>66</v>
       </c>
       <c r="G196" s="11" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
@@ -17564,10 +17857,10 @@
         <v>307</v>
       </c>
       <c r="L196" s="11" t="s">
+        <v>722</v>
+      </c>
+      <c r="M196" s="16" t="s">
         <v>723</v>
-      </c>
-      <c r="M196" s="16" t="s">
-        <v>724</v>
       </c>
       <c r="N196" s="1">
         <v>1</v>
@@ -17622,13 +17915,13 @@
     </row>
     <row r="197" spans="1:84" ht="24">
       <c r="A197" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>607</v>
+        <v>26</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>666</v>
+        <v>27</v>
       </c>
       <c r="D197" s="13">
         <v>4</v>
@@ -17640,7 +17933,7 @@
         <v>44</v>
       </c>
       <c r="G197" s="13" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="H197" s="13"/>
       <c r="I197" s="13" t="s">
@@ -17651,10 +17944,10 @@
       </c>
       <c r="K197" s="13"/>
       <c r="L197" s="13" t="s">
+        <v>726</v>
+      </c>
+      <c r="M197" s="1" t="s">
         <v>727</v>
-      </c>
-      <c r="M197" s="1" t="s">
-        <v>728</v>
       </c>
       <c r="N197" s="1">
         <v>1</v>
@@ -17709,13 +18002,13 @@
     </row>
     <row r="198" spans="1:84" ht="72">
       <c r="A198" s="13" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C198" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D198" s="11">
         <v>5</v>
@@ -17727,7 +18020,7 @@
         <v>66</v>
       </c>
       <c r="G198" s="13" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
@@ -17736,10 +18029,10 @@
         <v>82</v>
       </c>
       <c r="L198" s="13" t="s">
+        <v>730</v>
+      </c>
+      <c r="M198" s="1" t="s">
         <v>731</v>
-      </c>
-      <c r="M198" s="1" t="s">
-        <v>732</v>
       </c>
       <c r="N198" s="1">
         <v>1</v>
@@ -17794,13 +18087,13 @@
     </row>
     <row r="199" spans="1:84" ht="36">
       <c r="A199" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C199" s="13" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D199" s="13">
         <v>5</v>
@@ -17812,7 +18105,7 @@
         <v>66</v>
       </c>
       <c r="G199" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="H199" s="14"/>
       <c r="I199" s="13"/>
@@ -17821,10 +18114,10 @@
         <v>59</v>
       </c>
       <c r="L199" s="13" t="s">
+        <v>734</v>
+      </c>
+      <c r="M199" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="M199" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="N199" s="1">
         <v>1</v>
@@ -17879,13 +18172,13 @@
     </row>
     <row r="200" spans="1:84" ht="24">
       <c r="A200" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>607</v>
       </c>
       <c r="C200" s="11" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D200" s="11">
         <v>6</v>
@@ -17897,7 +18190,7 @@
         <v>66</v>
       </c>
       <c r="G200" s="11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="H200" s="11"/>
       <c r="I200" s="11" t="s">
@@ -17908,7 +18201,7 @@
       </c>
       <c r="K200" s="11"/>
       <c r="L200" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="N200" s="1">
         <v>1</v>
@@ -17963,13 +18256,13 @@
     </row>
     <row r="201" spans="1:84" ht="36">
       <c r="A201" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="B201" s="1" t="s">
         <v>740</v>
       </c>
-      <c r="B201" s="1" t="s">
+      <c r="C201" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C201" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D201" s="11">
         <v>1</v>
@@ -17981,7 +18274,7 @@
         <v>44</v>
       </c>
       <c r="G201" s="11" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="H201" s="11" t="s">
         <v>548</v>
@@ -17990,10 +18283,10 @@
       <c r="J201" s="11"/>
       <c r="K201" s="11"/>
       <c r="L201" s="11" t="s">
+        <v>743</v>
+      </c>
+      <c r="M201" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="M201" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="U201" s="1">
         <f t="shared" si="38"/>
@@ -18030,13 +18323,13 @@
     </row>
     <row r="202" spans="1:84" ht="60">
       <c r="A202" s="11" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C202" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C202" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D202" s="11">
         <v>1</v>
@@ -18048,17 +18341,17 @@
         <v>29</v>
       </c>
       <c r="G202" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="H202" s="11"/>
       <c r="I202" s="11"/>
       <c r="J202" s="11"/>
       <c r="K202" s="11"/>
       <c r="L202" s="11" t="s">
+        <v>747</v>
+      </c>
+      <c r="M202" s="1" t="s">
         <v>748</v>
-      </c>
-      <c r="M202" s="1" t="s">
-        <v>749</v>
       </c>
       <c r="U202" s="1">
         <f t="shared" si="38"/>
@@ -18095,13 +18388,13 @@
     </row>
     <row r="203" spans="1:84" ht="60">
       <c r="A203" s="11" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C203" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C203" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D203" s="11">
         <v>1</v>
@@ -18113,7 +18406,7 @@
         <v>66</v>
       </c>
       <c r="G203" s="11" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="H203" s="11" t="s">
         <v>275</v>
@@ -18121,10 +18414,10 @@
       <c r="I203" s="11"/>
       <c r="J203" s="11"/>
       <c r="K203" s="11" t="s">
+        <v>751</v>
+      </c>
+      <c r="L203" s="11" t="s">
         <v>752</v>
-      </c>
-      <c r="L203" s="11" t="s">
-        <v>753</v>
       </c>
       <c r="U203" s="1">
         <f t="shared" si="38"/>
@@ -18161,13 +18454,13 @@
     </row>
     <row r="204" spans="1:84" ht="24">
       <c r="A204" s="11" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C204" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C204" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D204" s="11">
         <v>1</v>
@@ -18179,14 +18472,14 @@
         <v>29</v>
       </c>
       <c r="G204" s="11" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="H204" s="11"/>
       <c r="I204" s="11"/>
       <c r="J204" s="11"/>
       <c r="K204" s="11"/>
       <c r="L204" s="11" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="U204" s="1">
         <f t="shared" si="38"/>
@@ -18223,13 +18516,13 @@
     </row>
     <row r="205" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A205" s="13" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C205" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="C205" s="13" t="s">
-        <v>742</v>
       </c>
       <c r="D205" s="13">
         <v>2</v>
@@ -18241,7 +18534,7 @@
         <v>66</v>
       </c>
       <c r="G205" s="13" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="H205" s="13"/>
       <c r="I205" s="13"/>
@@ -18250,10 +18543,10 @@
         <v>307</v>
       </c>
       <c r="L205" s="13" t="s">
+        <v>758</v>
+      </c>
+      <c r="M205" s="16" t="s">
         <v>759</v>
-      </c>
-      <c r="M205" s="16" t="s">
-        <v>760</v>
       </c>
       <c r="N205" s="1">
         <v>1</v>
@@ -18308,13 +18601,13 @@
     </row>
     <row r="206" spans="1:84" ht="36">
       <c r="A206" s="11" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C206" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C206" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D206" s="11">
         <v>2</v>
@@ -18326,14 +18619,14 @@
         <v>29</v>
       </c>
       <c r="G206" s="11" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="H206" s="11"/>
       <c r="I206" s="11"/>
       <c r="J206" s="11"/>
       <c r="K206" s="11"/>
       <c r="L206" s="11" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="U206" s="1">
         <f t="shared" si="38"/>
@@ -18370,13 +18663,13 @@
     </row>
     <row r="207" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A207" s="11" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C207" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C207" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D207" s="11">
         <v>2</v>
@@ -18388,7 +18681,7 @@
         <v>29</v>
       </c>
       <c r="G207" s="11" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="H207" s="11" t="s">
         <v>275</v>
@@ -18397,7 +18690,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="11"/>
       <c r="L207" s="11" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="U207" s="1">
         <f t="shared" si="38"/>
@@ -18434,13 +18727,13 @@
     </row>
     <row r="208" spans="1:84" ht="60">
       <c r="A208" s="11" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C208" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C208" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D208" s="11">
         <v>2</v>
@@ -18452,17 +18745,17 @@
         <v>29</v>
       </c>
       <c r="G208" s="11" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="H208" s="11"/>
       <c r="I208" s="11"/>
       <c r="J208" s="11"/>
       <c r="K208" s="11"/>
       <c r="L208" s="11" t="s">
+        <v>768</v>
+      </c>
+      <c r="M208" s="1" t="s">
         <v>769</v>
-      </c>
-      <c r="M208" s="1" t="s">
-        <v>770</v>
       </c>
       <c r="U208" s="1">
         <f t="shared" si="38"/>
@@ -18499,13 +18792,13 @@
     </row>
     <row r="209" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A209" s="11" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C209" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C209" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D209" s="11">
         <v>2</v>
@@ -18517,7 +18810,7 @@
         <v>44</v>
       </c>
       <c r="G209" s="11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="H209" s="11"/>
       <c r="I209" s="11"/>
@@ -18526,7 +18819,7 @@
         <v>82</v>
       </c>
       <c r="L209" s="11" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="U209" s="1">
         <f t="shared" si="38"/>
@@ -18563,13 +18856,13 @@
     </row>
     <row r="210" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A210" s="11" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C210" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C210" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D210" s="11">
         <v>2</v>
@@ -18578,19 +18871,19 @@
         <v>28</v>
       </c>
       <c r="F210" s="11" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="G210" s="11" t="s">
+        <v>774</v>
+      </c>
+      <c r="H210" s="11" t="s">
         <v>775</v>
-      </c>
-      <c r="H210" s="11" t="s">
-        <v>776</v>
       </c>
       <c r="I210" s="11"/>
       <c r="J210" s="11"/>
       <c r="K210" s="11"/>
       <c r="L210" s="11" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="M210" s="12"/>
       <c r="U210" s="1">
@@ -18628,13 +18921,13 @@
     </row>
     <row r="211" spans="1:84" ht="57.75" customHeight="1">
       <c r="A211" s="11" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C211" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C211" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D211" s="11">
         <v>3</v>
@@ -18646,7 +18939,7 @@
         <v>29</v>
       </c>
       <c r="G211" s="11" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="H211" s="11" t="s">
         <v>81</v>
@@ -18655,10 +18948,10 @@
       <c r="J211" s="11"/>
       <c r="K211" s="11"/>
       <c r="L211" s="11" t="s">
+        <v>779</v>
+      </c>
+      <c r="M211" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="M211" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="U211" s="1">
         <f t="shared" si="38"/>
@@ -18695,13 +18988,13 @@
     </row>
     <row r="212" spans="1:84" ht="33.950000000000003" customHeight="1">
       <c r="A212" s="11" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C212" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C212" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D212" s="11">
         <v>3</v>
@@ -18713,14 +19006,14 @@
         <v>29</v>
       </c>
       <c r="G212" s="11" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H212" s="11"/>
       <c r="I212" s="11"/>
       <c r="J212" s="11"/>
       <c r="K212" s="11"/>
       <c r="L212" s="11" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="U212" s="1">
         <f t="shared" si="38"/>
@@ -18757,13 +19050,13 @@
     </row>
     <row r="213" spans="1:84" ht="36">
       <c r="A213" s="11" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C213" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C213" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D213" s="11">
         <v>3</v>
@@ -18775,14 +19068,14 @@
         <v>29</v>
       </c>
       <c r="G213" s="11" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="H213" s="11"/>
       <c r="I213" s="11"/>
       <c r="J213" s="11"/>
       <c r="K213" s="11"/>
       <c r="L213" s="11" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="U213" s="1">
         <f t="shared" si="38"/>
@@ -18819,13 +19112,13 @@
     </row>
     <row r="214" spans="1:84" ht="84">
       <c r="A214" s="11" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C214" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C214" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D214" s="11">
         <v>4</v>
@@ -18837,16 +19130,16 @@
         <v>29</v>
       </c>
       <c r="G214" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="H214" s="11" t="s">
         <v>789</v>
-      </c>
-      <c r="H214" s="11" t="s">
-        <v>790</v>
       </c>
       <c r="I214" s="11"/>
       <c r="J214" s="11"/>
       <c r="K214" s="11"/>
       <c r="L214" s="11" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="U214" s="1">
         <f t="shared" si="38"/>
@@ -18883,13 +19176,13 @@
     </row>
     <row r="215" spans="1:84" ht="60">
       <c r="A215" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C215" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="C215" s="13" t="s">
-        <v>742</v>
       </c>
       <c r="D215" s="13">
         <v>4</v>
@@ -18901,19 +19194,19 @@
         <v>44</v>
       </c>
       <c r="G215" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="H215" s="13"/>
       <c r="I215" s="13"/>
       <c r="J215" s="13"/>
       <c r="K215" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L215" s="13" t="s">
+        <v>793</v>
+      </c>
+      <c r="M215" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="M215" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="U215" s="1">
         <f t="shared" si="38"/>
@@ -18942,13 +19235,13 @@
     </row>
     <row r="216" spans="1:84" ht="48">
       <c r="A216" s="11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C216" s="11" t="s">
         <v>741</v>
-      </c>
-      <c r="C216" s="11" t="s">
-        <v>742</v>
       </c>
       <c r="D216" s="13">
         <v>4</v>
@@ -18960,17 +19253,17 @@
         <v>29</v>
       </c>
       <c r="G216" s="11" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="H216" s="11"/>
       <c r="I216" s="11"/>
       <c r="J216" s="11"/>
       <c r="K216" s="11"/>
       <c r="L216" s="11" t="s">
+        <v>797</v>
+      </c>
+      <c r="M216" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="M216" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="U216" s="1">
         <f t="shared" si="38"/>
@@ -18999,13 +19292,13 @@
     </row>
     <row r="217" spans="1:84" ht="48">
       <c r="A217" s="13" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C217" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="C217" s="13" t="s">
-        <v>742</v>
       </c>
       <c r="D217" s="13">
         <v>5</v>
@@ -19017,7 +19310,7 @@
         <v>29</v>
       </c>
       <c r="G217" s="13" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="H217" s="13" t="s">
         <v>155</v>
@@ -19026,7 +19319,7 @@
       <c r="J217" s="13"/>
       <c r="K217" s="13"/>
       <c r="L217" s="13" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="U217" s="1">
         <f t="shared" si="38"/>
@@ -19055,13 +19348,13 @@
     </row>
     <row r="218" spans="1:84" ht="72">
       <c r="A218" s="13" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C218" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="C218" s="13" t="s">
-        <v>742</v>
       </c>
       <c r="D218" s="13">
         <v>6</v>
@@ -19073,14 +19366,14 @@
         <v>44</v>
       </c>
       <c r="G218" s="13" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="H218" s="13"/>
       <c r="I218" s="13"/>
       <c r="J218" s="13"/>
       <c r="K218" s="13"/>
       <c r="L218" s="13" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="U218" s="1">
         <f t="shared" si="38"/>
@@ -19117,19 +19410,19 @@
     </row>
     <row r="219" spans="1:84" ht="108">
       <c r="A219" s="13" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C219" s="13" t="s">
         <v>741</v>
-      </c>
-      <c r="C219" s="13" t="s">
-        <v>742</v>
       </c>
       <c r="D219" s="13">
         <v>6</v>
       </c>
       <c r="E219" s="13" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="F219" s="13" t="s">
         <v>29</v>
@@ -19140,7 +19433,7 @@
       <c r="J219" s="13"/>
       <c r="K219" s="13"/>
       <c r="L219" s="13" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="U219" s="1">
         <f t="shared" si="38"/>
@@ -19177,13 +19470,13 @@
     </row>
     <row r="220" spans="1:84" ht="156">
       <c r="A220" s="13" t="s">
+        <v>808</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C220" s="13" t="s">
         <v>809</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>741</v>
-      </c>
-      <c r="C220" s="13" t="s">
-        <v>810</v>
       </c>
       <c r="D220" s="13">
         <v>1</v>
@@ -19195,7 +19488,7 @@
         <v>29</v>
       </c>
       <c r="G220" s="13" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="H220" s="13" t="s">
         <v>280</v>
@@ -19204,7 +19497,7 @@
       <c r="J220" s="13"/>
       <c r="K220" s="13"/>
       <c r="L220" s="13" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="U220" s="1">
         <f t="shared" si="38"/>
@@ -19233,13 +19526,13 @@
     </row>
     <row r="221" spans="1:84" ht="108">
       <c r="A221" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C221" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D221" s="13">
         <v>1</v>
@@ -19251,17 +19544,17 @@
         <v>71</v>
       </c>
       <c r="G221" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="H221" s="14"/>
       <c r="I221" s="13"/>
       <c r="J221" s="13"/>
       <c r="K221" s="13"/>
       <c r="L221" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="M221" s="16" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="U221" s="1">
         <f t="shared" si="38"/>
@@ -19298,13 +19591,13 @@
     </row>
     <row r="222" spans="1:84" ht="36">
       <c r="A222" s="11" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C222" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D222" s="11">
         <v>1</v>
@@ -19316,7 +19609,7 @@
         <v>29</v>
       </c>
       <c r="G222" s="11" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="H222" s="11" t="s">
         <v>86</v>
@@ -19325,7 +19618,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="11"/>
       <c r="L222" s="11" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="U222" s="1">
         <f t="shared" si="38"/>
@@ -19354,13 +19647,13 @@
     </row>
     <row r="223" spans="1:84" ht="72">
       <c r="A223" s="11" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C223" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D223" s="11">
         <v>1</v>
@@ -19372,7 +19665,7 @@
         <v>71</v>
       </c>
       <c r="G223" s="11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="H223" s="11" t="s">
         <v>565</v>
@@ -19381,10 +19674,10 @@
       <c r="J223" s="11"/>
       <c r="K223" s="11"/>
       <c r="L223" s="11" t="s">
+        <v>820</v>
+      </c>
+      <c r="M223" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="M223" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="BF223" s="1"/>
       <c r="BG223" s="1"/>
@@ -19397,13 +19690,13 @@
     </row>
     <row r="224" spans="1:84" ht="60">
       <c r="A224" s="11" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C224" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D224" s="11">
         <v>2</v>
@@ -19415,10 +19708,10 @@
         <v>44</v>
       </c>
       <c r="G224" s="11" t="s">
+        <v>823</v>
+      </c>
+      <c r="H224" s="11" t="s">
         <v>824</v>
-      </c>
-      <c r="H224" s="11" t="s">
-        <v>825</v>
       </c>
       <c r="I224" s="11"/>
       <c r="J224" s="11"/>
@@ -19426,10 +19719,10 @@
         <v>59</v>
       </c>
       <c r="L224" s="11" t="s">
+        <v>825</v>
+      </c>
+      <c r="M224" s="16" t="s">
         <v>826</v>
-      </c>
-      <c r="M224" s="16" t="s">
-        <v>827</v>
       </c>
       <c r="N224" s="1">
         <v>1</v>
@@ -19484,13 +19777,13 @@
     </row>
     <row r="225" spans="1:84" ht="96">
       <c r="A225" s="13" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C225" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D225" s="13">
         <v>2</v>
@@ -19502,14 +19795,14 @@
         <v>29</v>
       </c>
       <c r="G225" s="13" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H225" s="13"/>
       <c r="I225" s="13"/>
       <c r="J225" s="13"/>
       <c r="K225" s="13"/>
       <c r="L225" s="13" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="M225" s="12"/>
       <c r="U225" s="1">
@@ -19547,13 +19840,13 @@
     </row>
     <row r="226" spans="1:84" ht="78.400000000000006" customHeight="1">
       <c r="A226" s="11" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C226" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D226" s="11">
         <v>2</v>
@@ -19565,7 +19858,7 @@
         <v>29</v>
       </c>
       <c r="G226" s="11" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="H226" s="11" t="s">
         <v>275</v>
@@ -19576,7 +19869,7 @@
         <v>144</v>
       </c>
       <c r="L226" s="11" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="U226" s="1">
         <f t="shared" si="44"/>
@@ -19613,13 +19906,13 @@
     </row>
     <row r="227" spans="1:84" ht="36">
       <c r="A227" s="11" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C227" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D227" s="11">
         <v>2</v>
@@ -19631,17 +19924,17 @@
         <v>29</v>
       </c>
       <c r="G227" s="11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="H227" s="11"/>
       <c r="I227" s="11"/>
       <c r="J227" s="11"/>
       <c r="K227" s="11"/>
       <c r="L227" s="11" t="s">
+        <v>835</v>
+      </c>
+      <c r="M227" s="1" t="s">
         <v>836</v>
-      </c>
-      <c r="M227" s="1" t="s">
-        <v>837</v>
       </c>
       <c r="U227" s="1">
         <f t="shared" si="44"/>
@@ -19678,13 +19971,13 @@
     </row>
     <row r="228" spans="1:84" ht="36">
       <c r="A228" s="11" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C228" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D228" s="11">
         <v>2</v>
@@ -19696,7 +19989,7 @@
         <v>29</v>
       </c>
       <c r="G228" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="H228" s="11" t="s">
         <v>86</v>
@@ -19705,7 +19998,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="11"/>
       <c r="L228" s="11" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="U228" s="1">
         <f t="shared" si="44"/>
@@ -19742,13 +20035,13 @@
     </row>
     <row r="229" spans="1:84" ht="60">
       <c r="A229" s="13" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C229" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D229" s="13">
         <v>3</v>
@@ -19760,19 +20053,19 @@
         <v>29</v>
       </c>
       <c r="G229" s="13" t="s">
+        <v>841</v>
+      </c>
+      <c r="H229" s="13" t="s">
         <v>842</v>
-      </c>
-      <c r="H229" s="13" t="s">
-        <v>843</v>
       </c>
       <c r="I229" s="13"/>
       <c r="J229" s="13"/>
       <c r="K229" s="13"/>
       <c r="L229" s="13" t="s">
+        <v>843</v>
+      </c>
+      <c r="M229" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="M229" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="U229" s="1">
         <f t="shared" si="44"/>
@@ -19809,13 +20102,13 @@
     </row>
     <row r="230" spans="1:84" ht="60">
       <c r="A230" s="11" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C230" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D230" s="11">
         <v>3</v>
@@ -19827,19 +20120,19 @@
         <v>29</v>
       </c>
       <c r="G230" s="11" t="s">
+        <v>846</v>
+      </c>
+      <c r="H230" s="11" t="s">
         <v>847</v>
-      </c>
-      <c r="H230" s="11" t="s">
-        <v>848</v>
       </c>
       <c r="I230" s="11"/>
       <c r="J230" s="11"/>
       <c r="K230" s="11"/>
       <c r="L230" s="11" t="s">
+        <v>848</v>
+      </c>
+      <c r="M230" s="16" t="s">
         <v>849</v>
-      </c>
-      <c r="M230" s="16" t="s">
-        <v>850</v>
       </c>
       <c r="U230" s="1">
         <f t="shared" si="44"/>
@@ -19876,13 +20169,13 @@
     </row>
     <row r="231" spans="1:84" ht="96">
       <c r="A231" s="11" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C231" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D231" s="11">
         <v>3</v>
@@ -19894,7 +20187,7 @@
         <v>29</v>
       </c>
       <c r="G231" s="11" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="H231" s="11" t="s">
         <v>206</v>
@@ -19905,10 +20198,10 @@
         <v>92</v>
       </c>
       <c r="L231" s="11" t="s">
+        <v>852</v>
+      </c>
+      <c r="M231" s="1" t="s">
         <v>853</v>
-      </c>
-      <c r="M231" s="1" t="s">
-        <v>854</v>
       </c>
       <c r="N231" s="1">
         <v>1</v>
@@ -19963,13 +20256,13 @@
     </row>
     <row r="232" spans="1:84" ht="96">
       <c r="A232" s="11" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C232" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D232" s="13">
         <v>3</v>
@@ -19981,7 +20274,7 @@
         <v>44</v>
       </c>
       <c r="G232" s="11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="H232" s="11" t="s">
         <v>81</v>
@@ -19990,10 +20283,10 @@
       <c r="J232" s="11"/>
       <c r="K232" s="11"/>
       <c r="L232" s="11" t="s">
+        <v>856</v>
+      </c>
+      <c r="M232" s="16" t="s">
         <v>857</v>
-      </c>
-      <c r="M232" s="16" t="s">
-        <v>858</v>
       </c>
       <c r="U232" s="1">
         <f t="shared" si="44"/>
@@ -20030,13 +20323,13 @@
     </row>
     <row r="233" spans="1:84" ht="48">
       <c r="A233" s="11" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C233" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D233" s="11">
         <v>3</v>
@@ -20048,7 +20341,7 @@
         <v>66</v>
       </c>
       <c r="G233" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="H233" s="11" t="s">
         <v>522</v>
@@ -20057,10 +20350,10 @@
       <c r="J233" s="11"/>
       <c r="K233" s="11"/>
       <c r="L233" s="11" t="s">
+        <v>860</v>
+      </c>
+      <c r="M233" s="16" t="s">
         <v>861</v>
-      </c>
-      <c r="M233" s="16" t="s">
-        <v>862</v>
       </c>
       <c r="U233" s="1">
         <f t="shared" si="44"/>
@@ -20097,13 +20390,13 @@
     </row>
     <row r="234" spans="1:84" ht="48">
       <c r="A234" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C234" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D234" s="11">
         <v>4</v>
@@ -20115,7 +20408,7 @@
         <v>29</v>
       </c>
       <c r="G234" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="H234" s="11" t="s">
         <v>206</v>
@@ -20124,7 +20417,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="11"/>
       <c r="L234" s="11" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="U234" s="1">
         <f t="shared" si="44"/>
@@ -20161,13 +20454,13 @@
     </row>
     <row r="235" spans="1:84" ht="96">
       <c r="A235" s="11" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C235" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D235" s="11">
         <v>4</v>
@@ -20179,7 +20472,7 @@
         <v>29</v>
       </c>
       <c r="G235" s="11" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="H235" s="11" t="s">
         <v>275</v>
@@ -20188,7 +20481,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="11"/>
       <c r="L235" s="11" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="U235" s="1">
         <f t="shared" si="44"/>
@@ -20225,13 +20518,13 @@
     </row>
     <row r="236" spans="1:84" ht="60">
       <c r="A236" s="11" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C236" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D236" s="11">
         <v>4</v>
@@ -20243,17 +20536,17 @@
         <v>29</v>
       </c>
       <c r="G236" s="11" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="H236" s="11"/>
       <c r="I236" s="11"/>
       <c r="J236" s="11"/>
       <c r="K236" s="11"/>
       <c r="L236" s="11" t="s">
+        <v>870</v>
+      </c>
+      <c r="M236" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="M236" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="U236" s="1">
         <f t="shared" si="44"/>
@@ -20290,13 +20583,13 @@
     </row>
     <row r="237" spans="1:84" ht="60">
       <c r="A237" s="11" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C237" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D237" s="11">
         <v>4</v>
@@ -20308,7 +20601,7 @@
         <v>29</v>
       </c>
       <c r="G237" s="11" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="H237" s="11" t="s">
         <v>275</v>
@@ -20317,10 +20610,10 @@
       <c r="J237" s="11"/>
       <c r="K237" s="11"/>
       <c r="L237" s="11" t="s">
+        <v>874</v>
+      </c>
+      <c r="M237" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="M237" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="U237" s="1">
         <f t="shared" si="44"/>
@@ -20357,13 +20650,13 @@
     </row>
     <row r="238" spans="1:84" ht="108">
       <c r="A238" s="13" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C238" s="13" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D238" s="13">
         <v>4</v>
@@ -20375,19 +20668,19 @@
         <v>44</v>
       </c>
       <c r="G238" s="13" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="H238" s="13"/>
       <c r="I238" s="11"/>
       <c r="J238" s="11"/>
       <c r="K238" s="13" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="L238" s="11" t="s">
+        <v>878</v>
+      </c>
+      <c r="M238" s="16" t="s">
         <v>879</v>
-      </c>
-      <c r="M238" s="16" t="s">
-        <v>880</v>
       </c>
       <c r="U238" s="1">
         <f t="shared" si="44"/>
@@ -20424,32 +20717,32 @@
     </row>
     <row r="239" spans="1:84" ht="252">
       <c r="A239" s="11" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C239" s="11" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="D239" s="11">
         <v>6</v>
       </c>
       <c r="E239" s="11" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="F239" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G239" s="11" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="11"/>
       <c r="J239" s="11"/>
       <c r="K239" s="11"/>
       <c r="L239" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="U239" s="1">
         <f t="shared" si="44"/>
@@ -20486,13 +20779,13 @@
     </row>
     <row r="240" spans="1:84" ht="24">
       <c r="A240" s="11" t="s">
+        <v>884</v>
+      </c>
+      <c r="B240" s="1" t="s">
         <v>885</v>
       </c>
-      <c r="B240" s="1" t="s">
+      <c r="C240" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C240" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D240" s="20">
         <v>1</v>
@@ -20504,7 +20797,7 @@
         <v>44</v>
       </c>
       <c r="G240" s="11" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="H240" s="11" t="s">
         <v>364</v>
@@ -20513,7 +20806,7 @@
       <c r="J240" s="20"/>
       <c r="K240" s="20"/>
       <c r="L240" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="M240" s="12"/>
       <c r="U240" s="1">
@@ -20543,13 +20836,13 @@
     </row>
     <row r="241" spans="1:125" ht="72">
       <c r="A241" s="11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C241" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C241" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D241" s="20">
         <v>1</v>
@@ -20561,7 +20854,7 @@
         <v>71</v>
       </c>
       <c r="G241" s="11" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="H241" s="11" t="s">
         <v>275</v>
@@ -20570,7 +20863,7 @@
       <c r="J241" s="20"/>
       <c r="K241" s="20"/>
       <c r="L241" s="11" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="M241" s="12"/>
       <c r="U241" s="1">
@@ -20608,19 +20901,19 @@
     </row>
     <row r="242" spans="1:125" ht="24">
       <c r="A242" s="13" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C242" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="C242" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="D242" s="21">
         <v>1</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="F242" s="13" t="s">
         <v>29</v>
@@ -20631,7 +20924,7 @@
       <c r="J242" s="21"/>
       <c r="K242" s="21"/>
       <c r="L242" s="13" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="M242" s="12"/>
       <c r="U242" s="1">
@@ -20669,13 +20962,13 @@
     </row>
     <row r="243" spans="1:125" ht="48">
       <c r="A243" s="13" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C243" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="C243" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="D243" s="21">
         <v>1</v>
@@ -20687,7 +20980,7 @@
         <v>66</v>
       </c>
       <c r="G243" s="13" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
       <c r="H243" s="23"/>
       <c r="I243" s="21"/>
@@ -20696,7 +20989,7 @@
         <v>59</v>
       </c>
       <c r="L243" s="13" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="U243" s="1">
         <f t="shared" si="44"/>
@@ -20733,13 +21026,13 @@
     </row>
     <row r="244" spans="1:125" ht="48">
       <c r="A244" s="11" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C244" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C244" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D244" s="11">
         <v>1</v>
@@ -20751,14 +21044,14 @@
         <v>29</v>
       </c>
       <c r="G244" s="11" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="H244" s="11"/>
       <c r="I244" s="11"/>
       <c r="J244" s="11"/>
       <c r="K244" s="11"/>
       <c r="L244" s="11" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="U244" s="1">
         <f t="shared" si="44"/>
@@ -20795,13 +21088,13 @@
     </row>
     <row r="245" spans="1:125" ht="96">
       <c r="A245" s="11" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C245" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C245" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D245" s="20">
         <v>1</v>
@@ -20813,7 +21106,7 @@
         <v>44</v>
       </c>
       <c r="G245" s="11" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="H245" s="11" t="s">
         <v>86</v>
@@ -20824,10 +21117,10 @@
         <v>307</v>
       </c>
       <c r="L245" s="11" t="s">
+        <v>903</v>
+      </c>
+      <c r="M245" s="1" t="s">
         <v>904</v>
-      </c>
-      <c r="M245" s="1" t="s">
-        <v>905</v>
       </c>
       <c r="U245" s="1">
         <f t="shared" si="44"/>
@@ -20864,13 +21157,13 @@
     </row>
     <row r="246" spans="1:125" ht="108">
       <c r="A246" s="11" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C246" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C246" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D246" s="20">
         <v>2</v>
@@ -20882,17 +21175,17 @@
         <v>44</v>
       </c>
       <c r="G246" s="11" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="H246" s="20"/>
       <c r="I246" s="20"/>
       <c r="J246" s="20"/>
       <c r="K246" s="20"/>
       <c r="L246" s="11" t="s">
+        <v>907</v>
+      </c>
+      <c r="M246" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="M246" s="1" t="s">
-        <v>909</v>
       </c>
       <c r="U246" s="1">
         <f t="shared" si="44"/>
@@ -20929,13 +21222,13 @@
     </row>
     <row r="247" spans="1:125" ht="36">
       <c r="A247" s="11" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C247" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C247" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D247" s="20">
         <v>2</v>
@@ -20947,7 +21240,7 @@
         <v>44</v>
       </c>
       <c r="G247" s="11" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="H247" s="11" t="s">
         <v>364</v>
@@ -20956,7 +21249,7 @@
       <c r="J247" s="20"/>
       <c r="K247" s="20"/>
       <c r="L247" s="11" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="M247" s="12"/>
       <c r="U247" s="1">
@@ -20995,13 +21288,13 @@
     </row>
     <row r="248" spans="1:125" ht="48">
       <c r="A248" s="13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C248" s="13" t="s">
         <v>886</v>
-      </c>
-      <c r="C248" s="13" t="s">
-        <v>887</v>
       </c>
       <c r="D248" s="13">
         <v>2</v>
@@ -21013,7 +21306,7 @@
         <v>29</v>
       </c>
       <c r="G248" s="13" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H248" s="13" t="s">
         <v>155</v>
@@ -21022,10 +21315,10 @@
       <c r="J248" s="13"/>
       <c r="K248" s="13"/>
       <c r="L248" s="13" t="s">
+        <v>914</v>
+      </c>
+      <c r="M248" s="1" t="s">
         <v>915</v>
-      </c>
-      <c r="M248" s="1" t="s">
-        <v>916</v>
       </c>
       <c r="U248" s="1">
         <f t="shared" si="44"/>
@@ -21062,13 +21355,13 @@
     </row>
     <row r="249" spans="1:125" ht="48">
       <c r="A249" s="11" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C249" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C249" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D249" s="20">
         <v>2</v>
@@ -21080,7 +21373,7 @@
         <v>44</v>
       </c>
       <c r="G249" s="11" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="H249" s="11" t="s">
         <v>200</v>
@@ -21091,10 +21384,10 @@
         <v>144</v>
       </c>
       <c r="L249" s="11" t="s">
+        <v>918</v>
+      </c>
+      <c r="M249" s="12" t="s">
         <v>919</v>
-      </c>
-      <c r="M249" s="12" t="s">
-        <v>920</v>
       </c>
       <c r="U249" s="1">
         <f t="shared" si="44"/>
@@ -21131,13 +21424,13 @@
     </row>
     <row r="250" spans="1:125" ht="108">
       <c r="A250" s="11" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C250" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C250" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D250" s="20">
         <v>3</v>
@@ -21149,7 +21442,7 @@
         <v>44</v>
       </c>
       <c r="G250" s="11" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="H250" s="11" t="s">
         <v>86</v>
@@ -21158,7 +21451,7 @@
       <c r="J250" s="20"/>
       <c r="K250" s="20"/>
       <c r="L250" s="11" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="M250" s="12"/>
       <c r="U250" s="1">
@@ -21196,13 +21489,13 @@
     </row>
     <row r="251" spans="1:125" ht="96">
       <c r="A251" s="11" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C251" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C251" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D251" s="20">
         <v>3</v>
@@ -21214,7 +21507,7 @@
         <v>44</v>
       </c>
       <c r="G251" s="11" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="H251" s="11" t="s">
         <v>155</v>
@@ -21225,7 +21518,7 @@
         <v>307</v>
       </c>
       <c r="L251" s="11" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="M251" s="12"/>
       <c r="U251" s="1">
@@ -21263,13 +21556,13 @@
     </row>
     <row r="252" spans="1:125" ht="24">
       <c r="A252" s="11" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C252" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C252" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D252" s="20">
         <v>3</v>
@@ -21286,7 +21579,7 @@
       <c r="J252" s="20"/>
       <c r="K252" s="20"/>
       <c r="L252" s="11" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="M252" s="12"/>
       <c r="U252" s="1">
@@ -21324,13 +21617,13 @@
     </row>
     <row r="253" spans="1:125" ht="48">
       <c r="A253" s="11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C253" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C253" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D253" s="13">
         <v>3</v>
@@ -21342,7 +21635,7 @@
         <v>29</v>
       </c>
       <c r="G253" s="11" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="H253" s="11" t="s">
         <v>86</v>
@@ -21351,7 +21644,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="11"/>
       <c r="L253" s="11" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="M253" s="12"/>
       <c r="U253" s="1">
@@ -21389,13 +21682,13 @@
     </row>
     <row r="254" spans="1:125" ht="48">
       <c r="A254" s="11" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C254" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C254" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D254" s="11">
         <v>3</v>
@@ -21407,7 +21700,7 @@
         <v>44</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>86</v>
@@ -21416,7 +21709,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="M254" s="12"/>
       <c r="U254" s="1">
@@ -21454,13 +21747,13 @@
     </row>
     <row r="255" spans="1:125" ht="36">
       <c r="A255" s="11" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C255" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C255" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D255" s="20">
         <v>3</v>
@@ -21472,14 +21765,14 @@
         <v>44</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="H255" s="20"/>
       <c r="I255" s="20"/>
       <c r="J255" s="20"/>
       <c r="K255" s="20"/>
       <c r="L255" s="11" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="M255" s="12"/>
       <c r="U255" s="1">
@@ -21517,13 +21810,13 @@
     </row>
     <row r="256" spans="1:125" ht="36">
       <c r="A256" s="11" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C256" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C256" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D256" s="20">
         <v>3</v>
@@ -21535,7 +21828,7 @@
         <v>44</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="H256" s="11" t="s">
         <v>384</v>
@@ -21544,31 +21837,31 @@
       <c r="J256" s="20"/>
       <c r="K256" s="20"/>
       <c r="L256" s="11" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="M256" s="12"/>
       <c r="U256" s="1">
-        <f t="shared" ref="U256:U283" si="50">IF(AA$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AA$1-$D256),0)</f>
+        <f t="shared" ref="U256:U288" si="50">IF(AA$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AA$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="V256" s="1">
-        <f t="shared" ref="V256:V283" si="51">IF(AB$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AB$1-$D256),0)</f>
+        <f t="shared" ref="V256:V288" si="51">IF(AB$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AB$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="W256" s="1">
-        <f t="shared" ref="W256:W283" si="52">IF(AC$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AC$1-$D256),0)</f>
+        <f t="shared" ref="W256:W288" si="52">IF(AC$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AC$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="X256" s="1">
-        <f t="shared" ref="X256:X283" si="53">IF(AD$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AD$1-$D256),0)</f>
+        <f t="shared" ref="X256:X288" si="53">IF(AD$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AD$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="Y256" s="1">
-        <f t="shared" ref="Y256:Y283" si="54">IF(AE$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AE$1-$D256),0)</f>
+        <f t="shared" ref="Y256:Y288" si="54">IF(AE$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AE$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="Z256" s="1">
-        <f t="shared" ref="Z256:Z283" si="55">IF(AF$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AF$1-$D256),0)</f>
+        <f t="shared" ref="Z256:Z288" si="55">IF(AF$1&gt;=$D256,$O256+$P256*($Q256+1)/2+$R256*($S256+1)/2*(AF$1-$D256),0)</f>
         <v>0</v>
       </c>
       <c r="BF256" s="1"/>
@@ -21582,13 +21875,13 @@
     </row>
     <row r="257" spans="1:84" ht="60">
       <c r="A257" s="11" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C257" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C257" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D257" s="20">
         <v>3</v>
@@ -21600,14 +21893,14 @@
         <v>44</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="H257" s="20"/>
       <c r="I257" s="20"/>
       <c r="J257" s="20"/>
       <c r="K257" s="20"/>
       <c r="L257" s="11" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="M257" s="12"/>
       <c r="U257" s="1">
@@ -21645,13 +21938,13 @@
     </row>
     <row r="258" spans="1:84" ht="24">
       <c r="A258" s="11" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C258" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C258" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D258" s="20">
         <v>4</v>
@@ -21663,7 +21956,7 @@
         <v>44</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="H258" s="11" t="s">
         <v>86</v>
@@ -21672,10 +21965,10 @@
       <c r="J258" s="20"/>
       <c r="K258" s="20"/>
       <c r="L258" s="11" t="s">
+        <v>944</v>
+      </c>
+      <c r="M258" s="1" t="s">
         <v>945</v>
-      </c>
-      <c r="M258" s="1" t="s">
-        <v>946</v>
       </c>
       <c r="U258" s="1">
         <f t="shared" si="50"/>
@@ -21712,13 +22005,13 @@
     </row>
     <row r="259" spans="1:84" ht="24">
       <c r="A259" s="11" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C259" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C259" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D259" s="11">
         <v>4</v>
@@ -21730,19 +22023,19 @@
         <v>29</v>
       </c>
       <c r="G259" s="11" t="s">
+        <v>949</v>
+      </c>
+      <c r="H259" s="11" t="s">
         <v>950</v>
-      </c>
-      <c r="H259" s="11" t="s">
-        <v>951</v>
       </c>
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
       <c r="L259" s="11" t="s">
+        <v>951</v>
+      </c>
+      <c r="M259" s="12" t="s">
         <v>952</v>
-      </c>
-      <c r="M259" s="12" t="s">
-        <v>953</v>
       </c>
       <c r="U259" s="1">
         <f t="shared" si="50"/>
@@ -21779,13 +22072,13 @@
     </row>
     <row r="260" spans="1:84" ht="96">
       <c r="A260" s="11" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C260" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C260" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D260" s="20">
         <v>5</v>
@@ -21797,14 +22090,14 @@
         <v>44</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="H260" s="23"/>
       <c r="I260" s="20"/>
       <c r="J260" s="20"/>
       <c r="K260" s="20"/>
       <c r="L260" s="11" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="U260" s="1">
         <f t="shared" si="50"/>
@@ -21833,13 +22126,13 @@
     </row>
     <row r="261" spans="1:84" ht="108">
       <c r="A261" s="11" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C261" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C261" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D261" s="20">
         <v>5</v>
@@ -21851,14 +22144,14 @@
         <v>71</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="H261" s="20"/>
       <c r="I261" s="20"/>
       <c r="J261" s="20"/>
       <c r="K261" s="20"/>
       <c r="L261" s="11" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="M261" s="12"/>
       <c r="U261" s="1">
@@ -21896,13 +22189,13 @@
     </row>
     <row r="262" spans="1:84" ht="36">
       <c r="A262" s="11" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C262" s="11" t="s">
         <v>886</v>
-      </c>
-      <c r="C262" s="11" t="s">
-        <v>887</v>
       </c>
       <c r="D262" s="20">
         <v>6</v>
@@ -21914,7 +22207,7 @@
         <v>44</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="H262" s="11" t="s">
         <v>275</v>
@@ -21923,7 +22216,7 @@
       <c r="J262" s="20"/>
       <c r="K262" s="20"/>
       <c r="L262" s="11" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="M262" s="12"/>
       <c r="U262" s="1">
@@ -21961,13 +22254,13 @@
     </row>
     <row r="263" spans="1:84" ht="48">
       <c r="A263" s="11" t="s">
+        <v>959</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C263" s="11" t="s">
         <v>960</v>
-      </c>
-      <c r="B263" s="1" t="s">
-        <v>886</v>
-      </c>
-      <c r="C263" s="11" t="s">
-        <v>961</v>
       </c>
       <c r="D263" s="20">
         <v>1</v>
@@ -21979,7 +22272,7 @@
         <v>29</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="H263" s="11" t="s">
         <v>457</v>
@@ -21988,7 +22281,7 @@
       <c r="J263" s="20"/>
       <c r="K263" s="20"/>
       <c r="L263" s="11" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="M263" s="12"/>
       <c r="U263" s="1">
@@ -22026,13 +22319,13 @@
     </row>
     <row r="264" spans="1:84" ht="72">
       <c r="A264" s="11" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C264" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D264" s="20">
         <v>1</v>
@@ -22044,7 +22337,7 @@
         <v>44</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="H264" s="20"/>
       <c r="I264" s="20" t="s">
@@ -22055,10 +22348,10 @@
       </c>
       <c r="K264" s="11"/>
       <c r="L264" s="11" t="s">
+        <v>965</v>
+      </c>
+      <c r="M264" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="M264" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="N264" s="1">
         <v>1</v>
@@ -22113,13 +22406,13 @@
     </row>
     <row r="265" spans="1:84" ht="48">
       <c r="A265" s="11" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C265" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D265" s="11">
         <v>1</v>
@@ -22131,7 +22424,7 @@
         <v>44</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="H265" s="11" t="s">
         <v>81</v>
@@ -22144,7 +22437,7 @@
       </c>
       <c r="K265" s="11"/>
       <c r="L265" s="11" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="U265" s="1">
         <f t="shared" si="50"/>
@@ -22173,13 +22466,13 @@
     </row>
     <row r="266" spans="1:84" ht="48">
       <c r="A266" s="11" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C266" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D266" s="20">
         <v>1</v>
@@ -22191,10 +22484,10 @@
         <v>44</v>
       </c>
       <c r="G266" s="11" t="s">
+        <v>968</v>
+      </c>
+      <c r="H266" s="11" t="s">
         <v>969</v>
-      </c>
-      <c r="H266" s="11" t="s">
-        <v>970</v>
       </c>
       <c r="I266" s="20"/>
       <c r="J266" s="20"/>
@@ -22202,7 +22495,7 @@
         <v>513</v>
       </c>
       <c r="L266" s="11" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="M266" s="12"/>
       <c r="U266" s="1">
@@ -22240,13 +22533,13 @@
     </row>
     <row r="267" spans="1:84" ht="84">
       <c r="A267" s="11" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C267" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D267" s="20">
         <v>1</v>
@@ -22258,7 +22551,7 @@
         <v>29</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="H267" s="11" t="s">
         <v>86</v>
@@ -22267,10 +22560,10 @@
       <c r="J267" s="20"/>
       <c r="K267" s="20"/>
       <c r="L267" s="11" t="s">
+        <v>973</v>
+      </c>
+      <c r="M267" s="18" t="s">
         <v>974</v>
-      </c>
-      <c r="M267" s="18" t="s">
-        <v>975</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="50"/>
@@ -22307,13 +22600,13 @@
     </row>
     <row r="268" spans="1:84" ht="60">
       <c r="A268" s="11" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C268" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D268" s="11">
         <v>1</v>
@@ -22325,7 +22618,7 @@
         <v>44</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="H268" s="11" t="s">
         <v>565</v>
@@ -22334,7 +22627,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
       <c r="L268" s="11" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="M268" s="12"/>
       <c r="U268" s="1">
@@ -22372,13 +22665,13 @@
     </row>
     <row r="269" spans="1:84" ht="60">
       <c r="A269" s="11" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C269" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D269" s="20">
         <v>2</v>
@@ -22390,7 +22683,7 @@
         <v>44</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="H269" s="11" t="s">
         <v>86</v>
@@ -22399,10 +22692,10 @@
       <c r="J269" s="20"/>
       <c r="K269" s="20"/>
       <c r="L269" s="11" t="s">
+        <v>980</v>
+      </c>
+      <c r="M269" s="12" t="s">
         <v>981</v>
-      </c>
-      <c r="M269" s="12" t="s">
-        <v>982</v>
       </c>
       <c r="U269" s="1">
         <f t="shared" si="50"/>
@@ -22439,13 +22732,13 @@
     </row>
     <row r="270" spans="1:84" ht="60">
       <c r="A270" s="11" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C270" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D270" s="20">
         <v>2</v>
@@ -22457,16 +22750,16 @@
         <v>29</v>
       </c>
       <c r="G270" s="11" t="s">
+        <v>983</v>
+      </c>
+      <c r="H270" s="11" t="s">
         <v>984</v>
-      </c>
-      <c r="H270" s="11" t="s">
-        <v>985</v>
       </c>
       <c r="I270" s="20"/>
       <c r="J270" s="20"/>
       <c r="K270" s="20"/>
       <c r="L270" s="11" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="M270" s="12"/>
       <c r="U270" s="1">
@@ -22504,13 +22797,13 @@
     </row>
     <row r="271" spans="1:84" ht="36">
       <c r="A271" s="11" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C271" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D271" s="20">
         <v>2</v>
@@ -22522,7 +22815,7 @@
         <v>29</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="H271" s="11" t="s">
         <v>73</v>
@@ -22531,10 +22824,10 @@
       <c r="J271" s="20"/>
       <c r="K271" s="20"/>
       <c r="L271" s="11" t="s">
+        <v>988</v>
+      </c>
+      <c r="M271" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="M271" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="U271" s="1">
         <f t="shared" si="50"/>
@@ -22571,13 +22864,13 @@
     </row>
     <row r="272" spans="1:84" ht="60">
       <c r="A272" s="11" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C272" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D272" s="20">
         <v>3</v>
@@ -22589,7 +22882,7 @@
         <v>44</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="H272" s="11" t="s">
         <v>155</v>
@@ -22600,7 +22893,7 @@
         <v>82</v>
       </c>
       <c r="L272" s="11" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="M272" s="12"/>
       <c r="U272" s="1">
@@ -22638,13 +22931,13 @@
     </row>
     <row r="273" spans="1:84" ht="156">
       <c r="A273" s="11" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D273" s="20">
         <v>3</v>
@@ -22656,19 +22949,19 @@
         <v>44</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="H273" s="11" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="I273" s="20"/>
       <c r="J273" s="20"/>
       <c r="K273" s="20"/>
       <c r="L273" s="11" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="M273" s="1" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="U273" s="1">
         <f t="shared" si="50"/>
@@ -22705,13 +22998,13 @@
     </row>
     <row r="274" spans="1:84" ht="108">
       <c r="A274" s="11" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D274" s="20">
         <v>3</v>
@@ -22723,7 +23016,7 @@
         <v>44</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="H274" s="11" t="s">
         <v>81</v>
@@ -22736,10 +23029,10 @@
       </c>
       <c r="K274" s="20"/>
       <c r="L274" s="11" t="s">
+        <v>998</v>
+      </c>
+      <c r="M274" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="M274" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="N274" s="1">
         <v>1</v>
@@ -22794,13 +23087,13 @@
     </row>
     <row r="275" spans="1:84" ht="36">
       <c r="A275" s="11" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D275" s="20">
         <v>3</v>
@@ -22812,7 +23105,7 @@
         <v>44</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="H275" s="20"/>
       <c r="I275" s="20"/>
@@ -22821,10 +23114,10 @@
         <v>307</v>
       </c>
       <c r="L275" s="11" t="s">
+        <v>1002</v>
+      </c>
+      <c r="M275" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="M275" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="U275" s="1">
         <f t="shared" si="50"/>
@@ -22861,13 +23154,13 @@
     </row>
     <row r="276" spans="1:84" ht="48">
       <c r="A276" s="11" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D276" s="20">
         <v>4</v>
@@ -22879,7 +23172,7 @@
         <v>66</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="H276" s="20"/>
       <c r="I276" s="20"/>
@@ -22888,7 +23181,7 @@
         <v>307</v>
       </c>
       <c r="L276" s="11" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="M276" s="12"/>
       <c r="U276" s="1">
@@ -22926,13 +23219,13 @@
     </row>
     <row r="277" spans="1:84" ht="36">
       <c r="A277" s="11" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D277" s="20">
         <v>4</v>
@@ -22944,7 +23237,7 @@
         <v>29</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="H277" s="11" t="s">
         <v>548</v>
@@ -22953,7 +23246,7 @@
       <c r="J277" s="20"/>
       <c r="K277" s="20"/>
       <c r="L277" s="11" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="M277" s="12"/>
       <c r="U277" s="1">
@@ -22991,13 +23284,13 @@
     </row>
     <row r="278" spans="1:84" ht="48">
       <c r="A278" s="11" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D278" s="20">
         <v>4</v>
@@ -23009,7 +23302,7 @@
         <v>44</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="H278" s="20"/>
       <c r="I278" s="20" t="s">
@@ -23020,10 +23313,10 @@
       </c>
       <c r="K278" s="11"/>
       <c r="L278" s="11" t="s">
+        <v>1011</v>
+      </c>
+      <c r="M278" s="12" t="s">
         <v>1012</v>
-      </c>
-      <c r="M278" s="12" t="s">
-        <v>1013</v>
       </c>
       <c r="N278" s="1">
         <v>1</v>
@@ -23078,13 +23371,13 @@
     </row>
     <row r="279" spans="1:84" ht="240">
       <c r="A279" s="11" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D279" s="20">
         <v>5</v>
@@ -23096,7 +23389,7 @@
         <v>29</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="H279" s="20" t="s">
         <v>206</v>
@@ -23105,7 +23398,7 @@
       <c r="J279" s="20"/>
       <c r="K279" s="20"/>
       <c r="L279" s="11" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="U279" s="1">
         <f t="shared" si="50"/>
@@ -23134,13 +23427,13 @@
     </row>
     <row r="280" spans="1:84" ht="156">
       <c r="A280" s="11" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D280" s="20">
         <v>5</v>
@@ -23152,7 +23445,7 @@
         <v>71</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H280" s="11" t="s">
         <v>275</v>
@@ -23163,7 +23456,7 @@
         <v>307</v>
       </c>
       <c r="L280" s="11" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="M280" s="12"/>
       <c r="U280" s="1">
@@ -23193,13 +23486,13 @@
     </row>
     <row r="281" spans="1:84" ht="120">
       <c r="A281" s="11" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D281" s="20">
         <v>6</v>
@@ -23211,7 +23504,7 @@
         <v>71</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="H281" s="11" t="s">
         <v>275</v>
@@ -23220,7 +23513,7 @@
       <c r="J281" s="20"/>
       <c r="K281" s="20"/>
       <c r="L281" s="11" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="M281" s="12"/>
       <c r="U281" s="1">
@@ -23250,7 +23543,7 @@
     </row>
     <row r="282" spans="1:84" ht="252">
       <c r="A282" s="1" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>26</v>
@@ -23268,7 +23561,7 @@
         <v>44</v>
       </c>
       <c r="G282" s="1" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="I282" s="1" t="s">
         <v>36</v>
@@ -23277,10 +23570,10 @@
         <v>36</v>
       </c>
       <c r="L282" s="1" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="M282" s="1" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="U282" s="1">
         <f t="shared" si="50"/>
@@ -23307,9 +23600,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:84" ht="180">
+    <row r="283" spans="1:84" ht="204">
       <c r="A283" s="1" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>26</v>
@@ -23327,16 +23620,16 @@
         <v>44</v>
       </c>
       <c r="G283" s="1" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="K283" s="1" t="s">
         <v>82</v>
       </c>
       <c r="L283" s="1" t="s">
-        <v>1050</v>
+        <v>1068</v>
       </c>
       <c r="M283" s="1" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="U283" s="1">
         <f t="shared" si="50"/>
@@ -23361,6 +23654,1001 @@
       <c r="Z283" s="1">
         <f t="shared" si="55"/>
         <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:84" ht="228">
+      <c r="A284" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C284" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D284" s="1">
+        <v>4</v>
+      </c>
+      <c r="E284" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F284" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G284" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="K284" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="L284" s="1" t="s">
+        <v>1059</v>
+      </c>
+      <c r="U284" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V284" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W284" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X284" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y284" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z284" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:84" ht="48">
+      <c r="A285" s="1" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C285" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D285" s="1">
+        <v>3</v>
+      </c>
+      <c r="E285" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F285" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G285" s="1" t="s">
+        <v>1055</v>
+      </c>
+      <c r="I285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J285" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L285" s="1" t="s">
+        <v>1057</v>
+      </c>
+      <c r="M285" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="U285" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V285" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W285" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X285" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y285" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z285" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:84" ht="36">
+      <c r="A286" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C286" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="D286" s="1">
+        <v>5</v>
+      </c>
+      <c r="E286" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F286" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G286" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="J286" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L286" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="U286" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V286" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W286" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X286" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y286" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z286" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:84" ht="96">
+      <c r="A287" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C287" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D287" s="1">
+        <v>2</v>
+      </c>
+      <c r="E287" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F287" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G287" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H287" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L287" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="U287" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V287" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W287" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X287" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y287" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z287" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:84" ht="132">
+      <c r="A288" s="1" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C288" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D288" s="1">
+        <v>6</v>
+      </c>
+      <c r="E288" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F288" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G288" s="1" t="s">
+        <v>1067</v>
+      </c>
+      <c r="K288" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L288" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="U288" s="1">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="V288" s="1">
+        <f t="shared" si="51"/>
+        <v>0</v>
+      </c>
+      <c r="W288" s="1">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="X288" s="1">
+        <f t="shared" si="53"/>
+        <v>0</v>
+      </c>
+      <c r="Y288" s="1">
+        <f t="shared" si="54"/>
+        <v>0</v>
+      </c>
+      <c r="Z288" s="1">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:13" ht="48">
+      <c r="A289" s="1" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C289" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D289" s="1">
+        <v>5</v>
+      </c>
+      <c r="E289" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F289" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G289" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="J289" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L289" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="290" spans="1:13" ht="132">
+      <c r="A290" s="1" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C290" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D290" s="1">
+        <v>2</v>
+      </c>
+      <c r="E290" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F290" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G290" s="1" t="s">
+        <v>1070</v>
+      </c>
+      <c r="K290" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L290" s="1" t="s">
+        <v>1071</v>
+      </c>
+      <c r="M290" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="291" spans="1:13" ht="48">
+      <c r="A291" s="1" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C291" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D291" s="1">
+        <v>4</v>
+      </c>
+      <c r="E291" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F291" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G291" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I291" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L291" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="M291" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="292" spans="1:13" ht="168">
+      <c r="A292" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C292" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D292" s="1">
+        <v>6</v>
+      </c>
+      <c r="E292" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F292" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G292" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="J292" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L292" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="293" spans="1:13" ht="144">
+      <c r="A293" s="1" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C293" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D293" s="1">
+        <v>5</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F293" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G293" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="I293" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J293" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K293" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L293" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="294" spans="1:13" ht="24">
+      <c r="A294" s="1" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D294" s="1">
+        <v>2</v>
+      </c>
+      <c r="E294" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F294" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G294" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="L294" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="295" spans="1:13" ht="120">
+      <c r="A295" s="1" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C295" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D295" s="1">
+        <v>2</v>
+      </c>
+      <c r="E295" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F295" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G295" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="K295" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L295" s="1" t="s">
+        <v>1089</v>
+      </c>
+      <c r="M295" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="296" spans="1:13" ht="72">
+      <c r="A296" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C296" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D296" s="1">
+        <v>3</v>
+      </c>
+      <c r="E296" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F296" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G296" s="1" t="s">
+        <v>1091</v>
+      </c>
+      <c r="H296" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K296" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L296" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="297" spans="1:13" ht="132">
+      <c r="A297" s="1" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C297" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="D297" s="1">
+        <v>4</v>
+      </c>
+      <c r="E297" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F297" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G297" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="H297" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="K297" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="L297" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="298" spans="1:13" ht="36">
+      <c r="A298" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C298" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D298" s="1">
+        <v>3</v>
+      </c>
+      <c r="E298" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F298" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G298" s="1" t="s">
+        <v>1097</v>
+      </c>
+      <c r="I298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J298" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L298" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="M298" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="299" spans="1:13" ht="96">
+      <c r="A299" s="1" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C299" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D299" s="1">
+        <v>5</v>
+      </c>
+      <c r="E299" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F299" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L299" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="300" spans="1:13" ht="48">
+      <c r="A300" s="1" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C300" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D300" s="1">
+        <v>2</v>
+      </c>
+      <c r="E300" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F300" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G300" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="K300" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L300" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="301" spans="1:13" ht="48">
+      <c r="A301" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C301" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D301" s="1">
+        <v>2</v>
+      </c>
+      <c r="E301" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F301" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G301" s="1" t="s">
+        <v>1106</v>
+      </c>
+      <c r="H301" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K301" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="L301" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="302" spans="1:13" ht="48">
+      <c r="A302" s="1" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C302" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D302" s="1">
+        <v>1</v>
+      </c>
+      <c r="E302" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F302" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G302" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="H302" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="I302" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J302" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K302" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="L302" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="303" spans="1:13" ht="72">
+      <c r="A303" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C303" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D303" s="1">
+        <v>1</v>
+      </c>
+      <c r="E303" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F303" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G303" s="1" t="s">
+        <v>1112</v>
+      </c>
+      <c r="H303" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K303" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L303" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="304" spans="1:13" ht="72">
+      <c r="A304" s="1" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C304" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="D304" s="1">
+        <v>1</v>
+      </c>
+      <c r="E304" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="F304" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G304" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="H304" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K304" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="L304" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="305" spans="1:13" ht="48">
+      <c r="A305" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C305" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="D305" s="1">
+        <v>2</v>
+      </c>
+      <c r="E305" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F305" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G305" s="1" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H305" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J305" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L305" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="306" spans="1:13" ht="36">
+      <c r="A306" s="1" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D306" s="1">
+        <v>3</v>
+      </c>
+      <c r="E306" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F306" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G306" s="1" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H306" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="L306" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="307" spans="1:13" ht="72">
+      <c r="A307" s="1" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D307" s="1">
+        <v>2</v>
+      </c>
+      <c r="E307" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F307" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G307" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H307" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="K307" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L307" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="308" spans="1:13" ht="132">
+      <c r="A308" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C308" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D308" s="1">
+        <v>5</v>
+      </c>
+      <c r="E308" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F308" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G308" s="1" t="s">
+        <v>1127</v>
+      </c>
+      <c r="H308" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="K308" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="L308" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="309" spans="1:13" ht="60">
+      <c r="A309" s="1" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C309" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="D309" s="1">
+        <v>4</v>
+      </c>
+      <c r="E309" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F309" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G309" s="1" t="s">
+        <v>1130</v>
+      </c>
+      <c r="J309" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L309" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M309" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="310" spans="1:13" ht="36">
+      <c r="A310" s="1" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>740</v>
+      </c>
+      <c r="C310" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="D310" s="1">
+        <v>3</v>
+      </c>
+      <c r="E310" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F310" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G310" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="L310" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="311" spans="1:13" ht="84">
+      <c r="A311" s="1" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B311" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="C311" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="D311" s="1">
+        <v>1</v>
+      </c>
+      <c r="E311" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F311" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G311" s="1" t="s">
+        <v>1137</v>
+      </c>
+      <c r="H311" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="I311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J311" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="L311" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="M311" s="1" t="s">
+        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -23370,6 +24658,16 @@
     </sortState>
   </autoFilter>
   <mergeCells count="19">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
     <mergeCell ref="CE1:CE2"/>
     <mergeCell ref="DB1:DU1"/>
     <mergeCell ref="DW1:EP1"/>
@@ -23379,16 +24677,6 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="CC1:CC2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -878,7 +878,7 @@
     <t xml:space="preserve">You may bring an additional passenger \forEvery{}.</t>
   </si>
   <si>
-    <t xml:space="preserve">General Counterspell</t>
+    <t xml:space="preserve">Counterspell</t>
   </si>
   <si>
     <t xml:space="preserve">Ritual (30 seconds)</t>
@@ -887,8 +887,13 @@
     <t xml:space="preserve">finite incantatem</t>
   </si>
   <si>
-    <t xml:space="preserve">End the effects of any active spell. If the spell was cast by anyone other than yourself, the counterspell must be cast at a level exceed the original casting. 
-This spell does not work on enemy shields, curses or spells which are still being cast.  </t>
+    <t xml:space="preserve">End the ongoing effects of any active Beginner-level spell on the targeted object or being. 
+This spell does not work on shields or wards, or spells from the curses discipline.
+If a being is still actively casting a Focus spell on your chosen target, perform a spellcasting check against the Arcane Subjugation value of the spellcaster, plus a 1-point bonus per spell level of the spell they are casting. If your check succeeds, the caster loses focus and ends their spell. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For every additional spell-level dedicated to casting this spell, the maximum spell level which can be ended increases by one. 
+In addition, when contesting against an active spellcaster, gain a one-point bonus to your spellcasting check per additional level. </t>
   </si>
   <si>
     <t xml:space="preserve">Leapfrog</t>
@@ -900,10 +905,10 @@
     <t xml:space="preserve">1 minute</t>
   </si>
   <si>
-    <t xml:space="preserve">Target may leap up to 5m in any direction as a major action, and land safely whilst the spell is active.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Add an additional 5m to the maximum jump length \forEvery{}.</t>
+    <t xml:space="preserve">Target may leap up to 3m in any direction as a major action, and land safely whilst the spell is active.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Add an additional 3m to the maximum jump length \forEvery{}.</t>
   </si>
   <si>
     <t xml:space="preserve">Stutterjump</t>
@@ -1257,9 +1262,6 @@
 Only one soul may be trapped at any given time.</t>
   </si>
   <si>
-    <t xml:space="preserve">If this spell is cast as an Ascendant level spell, you may the soul to cast an Ascendant level spell.  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Blood Pact</t>
   </si>
   <si>
@@ -3817,25 +3819,9 @@
     <t xml:space="preserve">chameleo maxima</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You cast a {\it Bedazzle} spell so powerful that it exudes in an aura up to three metres around the target. Anything within this radius is subject to the bedazzlement field, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">which causes eyes to simply slide off from the warded region without the brain properly processing it, rendering the warded target almost perfectly invisible. 
+    <t xml:space="preserve">You cast a {\it Bedazzle} spell so powerful that it exudes in an aura up to three metres around the target. Anything within this radius is subject to the bedazzlement field, which causes eyes to simply slide off from the warded region without the brain properly processing it, rendering the warded target almost perfectly invisible. 
 This spell only works on Sapient beings and bests with a (relatively advanced) neural system. Alien beings such as dementors and poltergeists do not have a brain which this field can confuse. 
 If the target fails to Resist, they cannot observe or otherwise detect the warded region. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Implant Message</t>
@@ -4058,7 +4044,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4151,11 +4137,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="aakar"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -4426,41 +4407,41 @@
   <dimension ref="A1:FK1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E272" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E44" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A272" activeCellId="0" sqref="A272"/>
-      <selection pane="bottomRight" activeCell="A275" activeCellId="0" sqref="A275"/>
+      <selection pane="bottomLeft" activeCell="A44" activeCellId="0" sqref="A44"/>
+      <selection pane="bottomRight" activeCell="F45" activeCellId="0" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72265625" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="16.87"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="13.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.01"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="17.59"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="9.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="15.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="55.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="37.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="7.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="15" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="57" min="20" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="59" min="58" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="67" min="60" style="1" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="68" min="68" style="0" width="7.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="79" min="69" style="1" width="7.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="80" style="1" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="83" style="0" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="85" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="2" width="7.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="93" style="2" width="10.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="105" style="1" width="10.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="82" min="80" style="1" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="84" min="83" style="0" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="91" min="85" style="2" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="92" min="92" style="2" width="7.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="104" min="93" style="2" width="10.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="146" min="105" style="1" width="10.12"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="167" min="147" style="1" width="4.71"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="186" min="168" style="1" width="8.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="187" min="187" style="1" width="9"/>
@@ -8847,7 +8828,7 @@
       <c r="CE64" s="2"/>
       <c r="CF64" s="2"/>
     </row>
-    <row r="65" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" customFormat="false" ht="105.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="13" t="s">
         <v>261</v>
       </c>
@@ -8858,7 +8839,7 @@
         <v>199</v>
       </c>
       <c r="D65" s="13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" s="13" t="s">
         <v>262</v>
@@ -8875,6 +8856,9 @@
       <c r="K65" s="13"/>
       <c r="L65" s="13" t="s">
         <v>264</v>
+      </c>
+      <c r="M65" s="1" t="s">
+        <v>265</v>
       </c>
       <c r="U65" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D65,$O65+$P65*($Q65+1)/2+$R65*($S65+1)/2*(AA$1-$D65),0)</f>
@@ -8911,7 +8895,7 @@
     </row>
     <row r="66" customFormat="false" ht="80.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>26</v>
@@ -8929,19 +8913,19 @@
         <v>83</v>
       </c>
       <c r="G66" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H66" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I66" s="13"/>
       <c r="J66" s="13"/>
       <c r="K66" s="13"/>
       <c r="L66" s="13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="M66" s="14" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="U66" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D66,$O66+$P66*($Q66+1)/2+$R66*($S66+1)/2*(AA$1-$D66),0)</f>
@@ -8978,7 +8962,7 @@
     </row>
     <row r="67" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="15" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>26</v>
@@ -8990,25 +8974,25 @@
         <v>4</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F67" s="15" t="s">
         <v>88</v>
       </c>
       <c r="G67" s="15" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I67" s="15"/>
       <c r="J67" s="15"/>
       <c r="K67" s="15"/>
       <c r="L67" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M67" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="U67" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D67,$O67+$P67*($Q67+1)/2+$R67*($S67+1)/2*(AA$1-$D67),0)</f>
@@ -9045,7 +9029,7 @@
     </row>
     <row r="68" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>26</v>
@@ -9063,18 +9047,18 @@
         <v>35</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K68" s="1" t="s">
         <v>233</v>
       </c>
       <c r="L68" s="1" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="63.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A69" s="13" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>26</v>
@@ -9092,10 +9076,10 @@
         <v>35</v>
       </c>
       <c r="G69" s="13" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="H69" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I69" s="13"/>
       <c r="J69" s="13"/>
@@ -9103,7 +9087,7 @@
         <v>42</v>
       </c>
       <c r="L69" s="13" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M69" s="14"/>
       <c r="U69" s="1" t="n">
@@ -9133,7 +9117,7 @@
     </row>
     <row r="70" customFormat="false" ht="90" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A70" s="13" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>26</v>
@@ -9151,7 +9135,7 @@
         <v>35</v>
       </c>
       <c r="G70" s="13" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H70" s="13"/>
       <c r="I70" s="13"/>
@@ -9160,10 +9144,10 @@
         <v>42</v>
       </c>
       <c r="L70" s="13" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M70" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="N70" s="1" t="n">
         <v>1</v>
@@ -9218,7 +9202,7 @@
     </row>
     <row r="71" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A71" s="13" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>26</v>
@@ -9236,14 +9220,14 @@
         <v>35</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="H71" s="13"/>
       <c r="I71" s="13"/>
       <c r="J71" s="13"/>
       <c r="K71" s="13"/>
       <c r="L71" s="13" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M71" s="14"/>
       <c r="U71" s="1" t="n">
@@ -9281,7 +9265,7 @@
     </row>
     <row r="72" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A72" s="13" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>26</v>
@@ -9299,14 +9283,14 @@
         <v>35</v>
       </c>
       <c r="G72" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H72" s="13"/>
       <c r="I72" s="13"/>
       <c r="J72" s="13"/>
       <c r="K72" s="13"/>
       <c r="L72" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M72" s="14"/>
       <c r="U72" s="1" t="n">
@@ -9336,7 +9320,7 @@
     </row>
     <row r="73" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A73" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>26</v>
@@ -9354,16 +9338,16 @@
         <v>88</v>
       </c>
       <c r="G73" s="13" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H73" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I73" s="13"/>
       <c r="J73" s="13"/>
       <c r="K73" s="13"/>
       <c r="L73" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="M73" s="14"/>
       <c r="U73" s="1" t="n">
@@ -9393,13 +9377,13 @@
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C74" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D74" s="13" t="n">
         <v>1</v>
@@ -9411,18 +9395,18 @@
         <v>35</v>
       </c>
       <c r="G74" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H74" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I74" s="13"/>
       <c r="J74" s="13"/>
       <c r="K74" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L74" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="U74" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D74,$O74+$P74*($Q74+1)/2+$R74*($S74+1)/2*(AA$1-$D74),0)</f>
@@ -9451,13 +9435,13 @@
     </row>
     <row r="75" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="15" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D75" s="15" t="n">
         <v>1</v>
@@ -9469,7 +9453,7 @@
         <v>83</v>
       </c>
       <c r="G75" s="15" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H75" s="15"/>
       <c r="I75" s="15" t="s">
@@ -9480,10 +9464,10 @@
       </c>
       <c r="K75" s="15"/>
       <c r="L75" s="15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="M75" s="1" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="N75" s="1" t="n">
         <v>1</v>
@@ -9538,13 +9522,13 @@
     </row>
     <row r="76" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C76" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D76" s="13" t="n">
         <v>1</v>
@@ -9556,7 +9540,7 @@
         <v>35</v>
       </c>
       <c r="G76" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H76" s="13"/>
       <c r="I76" s="13" t="s">
@@ -9565,10 +9549,10 @@
       <c r="J76" s="13"/>
       <c r="K76" s="13"/>
       <c r="L76" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M76" s="18" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N76" s="1" t="n">
         <v>1</v>
@@ -9623,13 +9607,13 @@
     </row>
     <row r="77" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C77" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D77" s="13" t="n">
         <v>2</v>
@@ -9641,7 +9625,7 @@
         <v>35</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H77" s="13"/>
       <c r="I77" s="13"/>
@@ -9650,10 +9634,10 @@
         <v>132</v>
       </c>
       <c r="L77" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M77" s="18" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="N77" s="1" t="n">
         <v>1</v>
@@ -9708,13 +9692,13 @@
     </row>
     <row r="78" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="15" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D78" s="15" t="n">
         <v>2</v>
@@ -9726,16 +9710,16 @@
         <v>83</v>
       </c>
       <c r="G78" s="15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H78" s="15"/>
       <c r="I78" s="13"/>
       <c r="J78" s="13"/>
       <c r="K78" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M78" s="18"/>
       <c r="U78" s="1" t="n">
@@ -9773,13 +9757,13 @@
     </row>
     <row r="79" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A79" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D79" s="13" t="n">
         <v>2</v>
@@ -9791,19 +9775,19 @@
         <v>29</v>
       </c>
       <c r="G79" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="H79" s="17"/>
       <c r="I79" s="13"/>
       <c r="J79" s="13"/>
       <c r="K79" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="M79" s="1" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N79" s="1" t="n">
         <v>1</v>
@@ -9858,13 +9842,13 @@
     </row>
     <row r="80" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="15" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D80" s="15" t="n">
         <v>2</v>
@@ -9876,7 +9860,7 @@
         <v>35</v>
       </c>
       <c r="G80" s="15" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H80" s="15" t="s">
         <v>103</v>
@@ -9887,7 +9871,7 @@
         <v>94</v>
       </c>
       <c r="L80" s="15" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="BF80" s="1"/>
       <c r="BG80" s="1"/>
@@ -9900,13 +9884,13 @@
     </row>
     <row r="81" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="15" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D81" s="13" t="n">
         <v>2</v>
@@ -9918,7 +9902,7 @@
         <v>83</v>
       </c>
       <c r="G81" s="15" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="H81" s="13"/>
       <c r="I81" s="13" t="s">
@@ -9927,10 +9911,10 @@
       <c r="J81" s="13"/>
       <c r="K81" s="15"/>
       <c r="L81" s="15" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="M81" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="N81" s="1" t="n">
         <v>1</v>
@@ -9985,13 +9969,13 @@
     </row>
     <row r="82" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A82" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C82" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D82" s="13" t="n">
         <v>3</v>
@@ -10003,14 +9987,14 @@
         <v>29</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H82" s="13"/>
       <c r="I82" s="13"/>
       <c r="J82" s="13"/>
       <c r="K82" s="13"/>
       <c r="L82" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="U82" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D82,$O82+$P82*($Q82+1)/2+$R82*($S82+1)/2*(AA$1-$D82),0)</f>
@@ -10047,13 +10031,13 @@
     </row>
     <row r="83" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="15" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D83" s="13" t="n">
         <v>3</v>
@@ -10065,7 +10049,7 @@
         <v>83</v>
       </c>
       <c r="G83" s="15" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H83" s="13" t="s">
         <v>103</v>
@@ -10078,10 +10062,10 @@
       </c>
       <c r="K83" s="15"/>
       <c r="L83" s="15" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="M83" s="1" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N83" s="1" t="n">
         <v>1</v>
@@ -10136,13 +10120,13 @@
     </row>
     <row r="84" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C84" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D84" s="13" t="n">
         <v>3</v>
@@ -10154,7 +10138,7 @@
         <v>83</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="H84" s="13" t="s">
         <v>107</v>
@@ -10163,10 +10147,10 @@
       <c r="J84" s="13"/>
       <c r="K84" s="13"/>
       <c r="L84" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M84" s="1" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N84" s="1" t="n">
         <v>1</v>
@@ -10221,13 +10205,13 @@
     </row>
     <row r="85" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D85" s="13" t="n">
         <v>3</v>
@@ -10239,19 +10223,19 @@
         <v>35</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="H85" s="13"/>
       <c r="I85" s="13"/>
       <c r="J85" s="13"/>
       <c r="K85" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="M85" s="1" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N85" s="1" t="n">
         <v>1</v>
@@ -10306,35 +10290,35 @@
     </row>
     <row r="86" customFormat="false" ht="64.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D86" s="13" t="n">
         <v>4</v>
       </c>
       <c r="E86" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F86" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G86" s="13"/>
       <c r="H86" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I86" s="13"/>
       <c r="J86" s="13"/>
       <c r="K86" s="13"/>
       <c r="L86" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M86" s="1" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="U86" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D86,$O86+$P86*($Q86+1)/2+$R86*($S86+1)/2*(AA$1-$D86),0)</f>
@@ -10371,13 +10355,13 @@
     </row>
     <row r="87" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D87" s="13" t="n">
         <v>4</v>
@@ -10389,10 +10373,10 @@
         <v>83</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I87" s="13"/>
       <c r="J87" s="13"/>
@@ -10400,7 +10384,7 @@
         <v>132</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="U87" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D87,$O87+$P87*($Q87+1)/2+$R87*($S87+1)/2*(AA$1-$D87),0)</f>
@@ -10437,13 +10421,13 @@
     </row>
     <row r="88" customFormat="false" ht="210.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D88" s="13" t="n">
         <v>4</v>
@@ -10455,16 +10439,16 @@
         <v>35</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H88" s="13"/>
       <c r="I88" s="13"/>
       <c r="J88" s="13"/>
       <c r="K88" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="U88" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D88,$O88+$P88*($Q88+1)/2+$R88*($S88+1)/2*(AA$1-$D88),0)</f>
@@ -10501,35 +10485,35 @@
     </row>
     <row r="89" customFormat="false" ht="85.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D89" s="15" t="n">
         <v>4</v>
       </c>
       <c r="E89" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F89" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="H89" s="13"/>
       <c r="I89" s="13"/>
       <c r="J89" s="13"/>
       <c r="K89" s="13"/>
       <c r="L89" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="M89" s="18" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="U89" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D89,$O89+$P89*($Q89+1)/2+$R89*($S89+1)/2*(AA$1-$D89),0)</f>
@@ -10566,13 +10550,13 @@
     </row>
     <row r="90" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D90" s="1" t="n">
         <v>5</v>
@@ -10584,13 +10568,13 @@
         <v>35</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="J90" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L90" s="1" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="U90" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D90,$O90+$P90*($Q90+1)/2+$R90*($S90+1)/2*(AA$1-$D90),0)</f>
@@ -10619,19 +10603,19 @@
     </row>
     <row r="91" customFormat="false" ht="137.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D91" s="13" t="n">
         <v>5</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F91" s="13" t="s">
         <v>88</v>
@@ -10642,7 +10626,7 @@
       <c r="J91" s="13"/>
       <c r="K91" s="13"/>
       <c r="L91" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="U91" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D91,$O91+$P91*($Q91+1)/2+$R91*($S91+1)/2*(AA$1-$D91),0)</f>
@@ -10679,13 +10663,13 @@
     </row>
     <row r="92" customFormat="false" ht="33.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="15" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D92" s="15" t="n">
         <v>5</v>
@@ -10697,7 +10681,7 @@
         <v>83</v>
       </c>
       <c r="G92" s="15" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="H92" s="17"/>
       <c r="I92" s="15" t="s">
@@ -10708,7 +10692,7 @@
       </c>
       <c r="K92" s="15"/>
       <c r="L92" s="15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="U92" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D92,$O92+$P92*($Q92+1)/2+$R92*($S92+1)/2*(AA$1-$D92),0)</f>
@@ -10745,13 +10729,13 @@
     </row>
     <row r="93" customFormat="false" ht="82.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A93" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D93" s="13" t="n">
         <v>6</v>
@@ -10763,16 +10747,13 @@
         <v>88</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="H93" s="13"/>
       <c r="I93" s="13"/>
       <c r="J93" s="13"/>
       <c r="K93" s="13"/>
       <c r="L93" s="13" t="s">
-        <v>369</v>
-      </c>
-      <c r="M93" s="1" t="s">
         <v>370</v>
       </c>
       <c r="U93" s="1" t="n">
@@ -10805,7 +10786,7 @@
         <v>371</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C94" s="13" t="s">
         <v>372</v>
@@ -10821,7 +10802,7 @@
       </c>
       <c r="G94" s="13"/>
       <c r="H94" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I94" s="13"/>
       <c r="J94" s="13"/>
@@ -10867,7 +10848,7 @@
         <v>374</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C95" s="13" t="s">
         <v>372</v>
@@ -10883,7 +10864,7 @@
       </c>
       <c r="G95" s="13"/>
       <c r="H95" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I95" s="13"/>
       <c r="J95" s="13"/>
@@ -10932,7 +10913,7 @@
         <v>377</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C96" s="15" t="s">
         <v>372</v>
@@ -10998,7 +10979,7 @@
         <v>380</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C97" s="15" t="s">
         <v>372</v>
@@ -11016,7 +10997,7 @@
         <v>381</v>
       </c>
       <c r="H97" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I97" s="15"/>
       <c r="J97" s="15"/>
@@ -11065,7 +11046,7 @@
         <v>384</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C98" s="13" t="s">
         <v>372</v>
@@ -11152,7 +11133,7 @@
         <v>388</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C99" s="13" t="s">
         <v>372</v>
@@ -11214,7 +11195,7 @@
         <v>391</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C100" s="13" t="s">
         <v>372</v>
@@ -11276,7 +11257,7 @@
         <v>394</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C101" s="15" t="s">
         <v>372</v>
@@ -11294,7 +11275,7 @@
         <v>395</v>
       </c>
       <c r="H101" s="15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I101" s="15" t="s">
         <v>37</v>
@@ -11357,7 +11338,7 @@
         <v>398</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C102" s="13" t="s">
         <v>372</v>
@@ -11419,7 +11400,7 @@
         <v>401</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C103" s="13" t="s">
         <v>372</v>
@@ -11437,7 +11418,7 @@
         <v>402</v>
       </c>
       <c r="H103" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I103" s="13"/>
       <c r="J103" s="13"/>
@@ -11506,7 +11487,7 @@
         <v>405</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C104" s="13" t="s">
         <v>372</v>
@@ -11568,7 +11549,7 @@
         <v>408</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C105" s="13" t="s">
         <v>372</v>
@@ -11628,7 +11609,7 @@
         <v>410</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C106" s="13" t="s">
         <v>372</v>
@@ -11688,7 +11669,7 @@
         <v>413</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C107" s="13" t="s">
         <v>372</v>
@@ -11716,7 +11697,7 @@
         <v>415</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C108" s="13" t="s">
         <v>372</v>
@@ -11799,7 +11780,7 @@
       <c r="I109" s="13"/>
       <c r="J109" s="13"/>
       <c r="K109" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L109" s="13" t="s">
         <v>423</v>
@@ -12485,7 +12466,7 @@
         <v>465</v>
       </c>
       <c r="H120" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I120" s="13"/>
       <c r="J120" s="13"/>
@@ -12603,7 +12584,7 @@
         <v>3</v>
       </c>
       <c r="E122" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F122" s="13" t="s">
         <v>88</v>
@@ -12612,7 +12593,7 @@
         <v>471</v>
       </c>
       <c r="H122" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I122" s="13"/>
       <c r="J122" s="13"/>
@@ -12671,7 +12652,7 @@
       <c r="I123" s="13"/>
       <c r="J123" s="13"/>
       <c r="K123" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L123" s="13" t="s">
         <v>475</v>
@@ -12789,7 +12770,7 @@
         <v>4</v>
       </c>
       <c r="E125" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>88</v>
@@ -12798,7 +12779,7 @@
         <v>481</v>
       </c>
       <c r="H125" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I125" s="13"/>
       <c r="J125" s="13"/>
@@ -12921,7 +12902,7 @@
       <c r="I127" s="13"/>
       <c r="J127" s="13"/>
       <c r="K127" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L127" s="13" t="s">
         <v>489</v>
@@ -12974,7 +12955,7 @@
         <v>491</v>
       </c>
       <c r="H128" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I128" s="13"/>
       <c r="J128" s="13"/>
@@ -13024,7 +13005,7 @@
         <v>6</v>
       </c>
       <c r="E129" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>88</v>
@@ -13155,7 +13136,7 @@
         <v>1</v>
       </c>
       <c r="E131" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>29</v>
@@ -13554,7 +13535,7 @@
       <c r="I137" s="13"/>
       <c r="J137" s="13"/>
       <c r="K137" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L137" s="15" t="s">
         <v>525</v>
@@ -14586,7 +14567,7 @@
         <v>583</v>
       </c>
       <c r="H154" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I154" s="13"/>
       <c r="J154" s="13"/>
@@ -14907,12 +14888,12 @@
         <v>600</v>
       </c>
       <c r="H159" s="15" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I159" s="15"/>
       <c r="J159" s="15"/>
       <c r="K159" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L159" s="15" t="s">
         <v>601</v>
@@ -14973,7 +14954,7 @@
         <v>603</v>
       </c>
       <c r="H160" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I160" s="13"/>
       <c r="J160" s="13"/>
@@ -15109,7 +15090,7 @@
       <c r="I162" s="13"/>
       <c r="J162" s="13"/>
       <c r="K162" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L162" s="13" t="s">
         <v>611</v>
@@ -15170,7 +15151,7 @@
         <v>613</v>
       </c>
       <c r="H163" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="K163" s="1" t="s">
         <v>116</v>
@@ -15207,7 +15188,7 @@
       <c r="I164" s="13"/>
       <c r="J164" s="13"/>
       <c r="K164" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L164" s="13" t="s">
         <v>617</v>
@@ -15323,7 +15304,7 @@
       <c r="I166" s="13"/>
       <c r="J166" s="13"/>
       <c r="K166" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L166" s="13" t="s">
         <v>626</v>
@@ -15474,7 +15455,7 @@
       <c r="I168" s="15"/>
       <c r="J168" s="15"/>
       <c r="K168" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L168" s="15" t="s">
         <v>635</v>
@@ -15538,7 +15519,7 @@
       <c r="I169" s="15"/>
       <c r="J169" s="15"/>
       <c r="K169" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L169" s="15" t="s">
         <v>638</v>
@@ -15620,7 +15601,7 @@
         <v>641</v>
       </c>
       <c r="H170" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K170" s="1" t="s">
         <v>94</v>
@@ -15652,7 +15633,7 @@
         <v>644</v>
       </c>
       <c r="H171" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K171" s="15" t="s">
         <v>94</v>
@@ -15687,7 +15668,7 @@
         <v>107</v>
       </c>
       <c r="K172" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L172" s="1" t="s">
         <v>648</v>
@@ -15843,7 +15824,7 @@
         <v>107</v>
       </c>
       <c r="K175" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L175" s="1" t="s">
         <v>659</v>
@@ -15875,7 +15856,7 @@
       <c r="I176" s="15"/>
       <c r="J176" s="15"/>
       <c r="K176" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L176" s="15" t="s">
         <v>662</v>
@@ -16094,7 +16075,7 @@
       <c r="I179" s="13"/>
       <c r="J179" s="13"/>
       <c r="K179" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L179" s="13" t="s">
         <v>674</v>
@@ -16725,7 +16706,7 @@
         <v>712</v>
       </c>
       <c r="H190" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I190" s="13"/>
       <c r="J190" s="13"/>
@@ -16898,7 +16879,7 @@
       <c r="I193" s="13"/>
       <c r="J193" s="13"/>
       <c r="K193" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L193" s="13" t="s">
         <v>722</v>
@@ -17025,7 +17006,7 @@
         <v>727</v>
       </c>
       <c r="H195" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I195" s="13"/>
       <c r="J195" s="13"/>
@@ -17270,7 +17251,7 @@
       <c r="I199" s="15"/>
       <c r="J199" s="15"/>
       <c r="K199" s="15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L199" s="15" t="s">
         <v>740</v>
@@ -17533,7 +17514,7 @@
         <v>751</v>
       </c>
       <c r="H203" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I203" s="13" t="s">
         <v>37</v>
@@ -17612,7 +17593,7 @@
         <v>37</v>
       </c>
       <c r="K204" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L204" s="13" t="s">
         <v>755</v>
@@ -17897,7 +17878,7 @@
         <v>768</v>
       </c>
       <c r="H209" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I209" s="13"/>
       <c r="J209" s="13"/>
@@ -18281,7 +18262,7 @@
         <v>787</v>
       </c>
       <c r="H214" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I214" s="13" t="s">
         <v>37</v>
@@ -19634,7 +19615,7 @@
         <v>859</v>
       </c>
       <c r="H232" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I232" s="13"/>
       <c r="J232" s="13"/>
@@ -19935,7 +19916,7 @@
         <v>876</v>
       </c>
       <c r="H237" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I237" s="13"/>
       <c r="J237" s="13"/>
@@ -20800,7 +20781,7 @@
         <v>929</v>
       </c>
       <c r="H252" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I252" s="13"/>
       <c r="J252" s="13"/>
@@ -21202,7 +21183,7 @@
         <v>954</v>
       </c>
       <c r="H259" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I259" s="13"/>
       <c r="J259" s="13"/>
@@ -21531,7 +21512,7 @@
         <v>974</v>
       </c>
       <c r="H264" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I264" s="13"/>
       <c r="J264" s="13"/>
@@ -21752,7 +21733,7 @@
         <v>986</v>
       </c>
       <c r="H267" s="13" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I267" s="13"/>
       <c r="J267" s="13"/>
@@ -21816,7 +21797,7 @@
         <v>989</v>
       </c>
       <c r="H268" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I268" s="13"/>
       <c r="J268" s="13"/>
@@ -21945,7 +21926,7 @@
         <v>996</v>
       </c>
       <c r="H270" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I270" s="13"/>
       <c r="J270" s="13"/>
@@ -22198,7 +22179,7 @@
         <v>1013</v>
       </c>
       <c r="H274" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I274" s="22"/>
       <c r="J274" s="22"/>
@@ -22656,7 +22637,7 @@
         <v>1037</v>
       </c>
       <c r="H281" s="13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I281" s="22"/>
       <c r="J281" s="22"/>
@@ -23429,7 +23410,7 @@
         <v>1077</v>
       </c>
       <c r="H293" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I293" s="22"/>
       <c r="J293" s="22"/>
@@ -24611,7 +24592,7 @@
         <v>1139</v>
       </c>
       <c r="H310" s="22" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I310" s="22"/>
       <c r="J310" s="22"/>
@@ -24667,7 +24648,7 @@
         <v>1142</v>
       </c>
       <c r="H311" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I311" s="22"/>
       <c r="J311" s="22"/>
@@ -24726,7 +24707,7 @@
         <v>1145</v>
       </c>
       <c r="H312" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I312" s="22"/>
       <c r="J312" s="22"/>
@@ -24783,7 +24764,7 @@
         <v>1148</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="L313" s="1" t="s">
         <v>1149</v>
@@ -24876,7 +24857,7 @@
         <v>1158</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L316" s="1" t="s">
         <v>1159</v>
@@ -24887,7 +24868,7 @@
         <v>1160</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C317" s="1" t="s">
         <v>372</v>
@@ -24928,7 +24909,7 @@
         <v>88</v>
       </c>
       <c r="H318" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="L318" s="1" t="s">
         <v>1164</v>
@@ -25082,7 +25063,7 @@
         <v>1180</v>
       </c>
       <c r="K323" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L323" s="1" t="s">
         <v>1181</v>
@@ -25111,7 +25092,7 @@
         <v>1183</v>
       </c>
       <c r="H324" s="1" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I324" s="1" t="s">
         <v>37</v>
@@ -25149,7 +25130,7 @@
         <v>1186</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>1187</v>
@@ -25216,7 +25197,7 @@
         <v>1195</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K327" s="1" t="s">
         <v>233</v>
@@ -25309,7 +25290,7 @@
         <v>1205</v>
       </c>
       <c r="H330" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>233</v>
@@ -25384,7 +25365,7 @@
         <v>1214</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C333" s="1" t="s">
         <v>372</v>
@@ -25408,7 +25389,7 @@
         <v>37</v>
       </c>
       <c r="K333" s="1" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L333" s="1" t="s">
         <v>1216</v>
@@ -25422,7 +25403,7 @@
         <v>1218</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C334" s="1" t="s">
         <v>372</v>
@@ -25451,16 +25432,16 @@
         <v>1222</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="D335" s="1" t="n">
         <v>6</v>
       </c>
       <c r="E335" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F335" s="1" t="s">
         <v>88</v>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\HPRPG\CoreRulebook\Data\Spells\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4700EF50-9426-4130-BD79-E57CC0C5AEFE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26AABCC-CD75-4299-BE30-79E504B47718}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3055,14 +3055,6 @@
     <t>protego</t>
   </si>
   <si>
-    <t xml:space="preserve">This spell erects an impenetrable, ethereal shield in front of the caster which absorbs incoming attacks.
-This shield has a health of 10HP. If an attack is blocked which would cause the shield to drop to 0HP, the shield fails, and half the remaining damage is dealt to the caster. 
-The caster is not considered {\it Distracted} when casting this spell, unless attacked by an enemy that they cannot see. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The HP of the shield doubles for every additional spell level used to cast the shield </t>
-  </si>
-  <si>
     <t>Privacy Ward</t>
   </si>
   <si>
@@ -4146,6 +4138,15 @@
   </si>
   <si>
     <t xml:space="preserve">Target a sapient being, on a failed Resist, the caster is notified by a glowing aura and a soft chime whenever the target makes a statement which they know to be false. The target is unaware of the casting of this spell unless they pass a DV 15 Observation check. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">An ethereal shield blossoms from the end of your wand, protecting you from both magical and physical harm. 
+Whenever an attack is performed against you whilst the shield is active, roll 2d4 and add this value to your Resist check or your Block value, as appropriate. If a successful Resist would limit the amount of damage taken, negate it entirely instead. 
+If you fail to Resist, or the Accuracy exceeds your augmented Block value, the shield crumples and the spell is ended. The spell which broke the shield is then applied to you at half damage, with any other effects unmodified. Any other spells which hit you this round act as normal. 
+The caster is not considered {\it Distracted} when casting this spell, unless attacked by an enemy that they cannot see. </t>
+  </si>
+  <si>
+    <t>Increase the strength of the shield by 1 point \forEvery{}.</t>
   </si>
 </sst>
 </file>
@@ -4356,13 +4357,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4750,10 +4751,10 @@
   <dimension ref="A1:AMK342"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E115" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="K251" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A44" sqref="A44"/>
-      <selection pane="bottomRight" activeCell="A117" sqref="A117"/>
+      <selection pane="bottomRight" activeCell="L253" sqref="L253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75"/>
@@ -4791,46 +4792,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:167" s="6" customFormat="1" ht="24">
-      <c r="A1" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="25" t="s">
+      <c r="A1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="25" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="25" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="25" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="25" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="25" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="25" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="25" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="25" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="4" t="s">
@@ -4932,8 +4933,8 @@
       <c r="BY1" s="5"/>
       <c r="BZ1" s="5"/>
       <c r="CA1" s="5"/>
-      <c r="CC1" s="24"/>
-      <c r="CE1" s="23"/>
+      <c r="CC1" s="25"/>
+      <c r="CE1" s="24"/>
       <c r="CF1" s="7"/>
       <c r="CG1" s="8"/>
       <c r="CH1" s="8"/>
@@ -4955,82 +4956,82 @@
       <c r="CX1" s="8"/>
       <c r="CY1" s="8"/>
       <c r="CZ1" s="9"/>
-      <c r="DB1" s="24"/>
-      <c r="DC1" s="24"/>
-      <c r="DD1" s="24"/>
-      <c r="DE1" s="24"/>
-      <c r="DF1" s="24"/>
-      <c r="DG1" s="24"/>
-      <c r="DH1" s="24"/>
-      <c r="DI1" s="24"/>
-      <c r="DJ1" s="24"/>
-      <c r="DK1" s="24"/>
-      <c r="DL1" s="24"/>
-      <c r="DM1" s="24"/>
-      <c r="DN1" s="24"/>
-      <c r="DO1" s="24"/>
-      <c r="DP1" s="24"/>
-      <c r="DQ1" s="24"/>
-      <c r="DR1" s="24"/>
-      <c r="DS1" s="24"/>
-      <c r="DT1" s="24"/>
-      <c r="DU1" s="24"/>
-      <c r="DW1" s="24"/>
-      <c r="DX1" s="24"/>
-      <c r="DY1" s="24"/>
-      <c r="DZ1" s="24"/>
-      <c r="EA1" s="24"/>
-      <c r="EB1" s="24"/>
-      <c r="EC1" s="24"/>
-      <c r="ED1" s="24"/>
-      <c r="EE1" s="24"/>
-      <c r="EF1" s="24"/>
-      <c r="EG1" s="24"/>
-      <c r="EH1" s="24"/>
-      <c r="EI1" s="24"/>
-      <c r="EJ1" s="24"/>
-      <c r="EK1" s="24"/>
-      <c r="EL1" s="24"/>
-      <c r="EM1" s="24"/>
-      <c r="EN1" s="24"/>
-      <c r="EO1" s="24"/>
-      <c r="EP1" s="24"/>
-      <c r="ER1" s="24"/>
-      <c r="ES1" s="24"/>
-      <c r="ET1" s="24"/>
-      <c r="EU1" s="24"/>
-      <c r="EV1" s="24"/>
-      <c r="EW1" s="24"/>
-      <c r="EX1" s="24"/>
-      <c r="EY1" s="24"/>
-      <c r="EZ1" s="24"/>
-      <c r="FA1" s="24"/>
-      <c r="FB1" s="24"/>
-      <c r="FC1" s="24"/>
-      <c r="FD1" s="24"/>
-      <c r="FE1" s="24"/>
-      <c r="FF1" s="24"/>
-      <c r="FG1" s="24"/>
-      <c r="FH1" s="24"/>
-      <c r="FI1" s="24"/>
-      <c r="FJ1" s="24"/>
-      <c r="FK1" s="24"/>
+      <c r="DB1" s="25"/>
+      <c r="DC1" s="25"/>
+      <c r="DD1" s="25"/>
+      <c r="DE1" s="25"/>
+      <c r="DF1" s="25"/>
+      <c r="DG1" s="25"/>
+      <c r="DH1" s="25"/>
+      <c r="DI1" s="25"/>
+      <c r="DJ1" s="25"/>
+      <c r="DK1" s="25"/>
+      <c r="DL1" s="25"/>
+      <c r="DM1" s="25"/>
+      <c r="DN1" s="25"/>
+      <c r="DO1" s="25"/>
+      <c r="DP1" s="25"/>
+      <c r="DQ1" s="25"/>
+      <c r="DR1" s="25"/>
+      <c r="DS1" s="25"/>
+      <c r="DT1" s="25"/>
+      <c r="DU1" s="25"/>
+      <c r="DW1" s="25"/>
+      <c r="DX1" s="25"/>
+      <c r="DY1" s="25"/>
+      <c r="DZ1" s="25"/>
+      <c r="EA1" s="25"/>
+      <c r="EB1" s="25"/>
+      <c r="EC1" s="25"/>
+      <c r="ED1" s="25"/>
+      <c r="EE1" s="25"/>
+      <c r="EF1" s="25"/>
+      <c r="EG1" s="25"/>
+      <c r="EH1" s="25"/>
+      <c r="EI1" s="25"/>
+      <c r="EJ1" s="25"/>
+      <c r="EK1" s="25"/>
+      <c r="EL1" s="25"/>
+      <c r="EM1" s="25"/>
+      <c r="EN1" s="25"/>
+      <c r="EO1" s="25"/>
+      <c r="EP1" s="25"/>
+      <c r="ER1" s="25"/>
+      <c r="ES1" s="25"/>
+      <c r="ET1" s="25"/>
+      <c r="EU1" s="25"/>
+      <c r="EV1" s="25"/>
+      <c r="EW1" s="25"/>
+      <c r="EX1" s="25"/>
+      <c r="EY1" s="25"/>
+      <c r="EZ1" s="25"/>
+      <c r="FA1" s="25"/>
+      <c r="FB1" s="25"/>
+      <c r="FC1" s="25"/>
+      <c r="FD1" s="25"/>
+      <c r="FE1" s="25"/>
+      <c r="FF1" s="25"/>
+      <c r="FG1" s="25"/>
+      <c r="FH1" s="25"/>
+      <c r="FI1" s="25"/>
+      <c r="FJ1" s="25"/>
+      <c r="FK1" s="25"/>
     </row>
     <row r="2" spans="1:167" s="6" customFormat="1" ht="18">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="25"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="25"/>
       <c r="O2" s="4" t="s">
         <v>14</v>
       </c>
@@ -5125,9 +5126,9 @@
       <c r="BZ2" s="10"/>
       <c r="CA2" s="10"/>
       <c r="CB2" s="10"/>
-      <c r="CC2" s="24"/>
+      <c r="CC2" s="25"/>
       <c r="CD2" s="10"/>
-      <c r="CE2" s="23"/>
+      <c r="CE2" s="24"/>
       <c r="CF2" s="10"/>
       <c r="CG2" s="10"/>
       <c r="CH2" s="10"/>
@@ -5150,7 +5151,7 @@
       <c r="CY2" s="8"/>
       <c r="CZ2" s="9"/>
     </row>
-    <row r="3" spans="1:167" ht="36">
+    <row r="3" spans="1:167" ht="24">
       <c r="A3" s="11" t="s">
         <v>25</v>
       </c>
@@ -5233,7 +5234,7 @@
       <c r="CE3" s="2"/>
       <c r="CF3" s="2"/>
     </row>
-    <row r="4" spans="1:167" ht="216">
+    <row r="4" spans="1:167" ht="192">
       <c r="A4" s="13" t="s">
         <v>33</v>
       </c>
@@ -5294,7 +5295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:167" ht="156">
+    <row r="5" spans="1:167" ht="132">
       <c r="A5" s="13" t="s">
         <v>40</v>
       </c>
@@ -5652,7 +5653,7 @@
       <c r="CE9" s="2"/>
       <c r="CF9" s="2"/>
     </row>
-    <row r="10" spans="1:167" ht="36">
+    <row r="10" spans="1:167" ht="24">
       <c r="A10" s="11" t="s">
         <v>59</v>
       </c>
@@ -5953,7 +5954,7 @@
       <c r="CE13" s="2"/>
       <c r="CF13" s="2"/>
     </row>
-    <row r="14" spans="1:167" ht="24">
+    <row r="14" spans="1:167">
       <c r="A14" s="1" t="s">
         <v>74</v>
       </c>
@@ -5988,7 +5989,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:167" ht="72">
+    <row r="15" spans="1:167" ht="60">
       <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
@@ -6071,7 +6072,7 @@
       <c r="CE15" s="2"/>
       <c r="CF15" s="2"/>
     </row>
-    <row r="16" spans="1:167" ht="60">
+    <row r="16" spans="1:167" ht="48">
       <c r="A16" s="11" t="s">
         <v>82</v>
       </c>
@@ -6136,7 +6137,7 @@
       <c r="CE16" s="2"/>
       <c r="CF16" s="2"/>
     </row>
-    <row r="17" spans="1:84" ht="36">
+    <row r="17" spans="1:84" ht="24">
       <c r="A17" s="13" t="s">
         <v>87</v>
       </c>
@@ -6422,7 +6423,7 @@
       <c r="CE21" s="2"/>
       <c r="CF21" s="2"/>
     </row>
-    <row r="22" spans="1:84" ht="72">
+    <row r="22" spans="1:84" ht="60">
       <c r="A22" s="11" t="s">
         <v>109</v>
       </c>
@@ -6511,7 +6512,7 @@
       <c r="CE22" s="2"/>
       <c r="CF22" s="2"/>
     </row>
-    <row r="23" spans="1:84" ht="48">
+    <row r="23" spans="1:84" ht="36">
       <c r="A23" s="11" t="s">
         <v>113</v>
       </c>
@@ -6540,7 +6541,7 @@
         <v>116</v>
       </c>
       <c r="L23" s="11" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="M23" s="1" t="s">
         <v>117</v>
@@ -6596,7 +6597,7 @@
       <c r="CE23" s="2"/>
       <c r="CF23" s="2"/>
     </row>
-    <row r="24" spans="1:84" ht="72">
+    <row r="24" spans="1:84" ht="60">
       <c r="A24" s="11" t="s">
         <v>118</v>
       </c>
@@ -6745,7 +6746,7 @@
       <c r="CE25" s="2"/>
       <c r="CF25" s="2"/>
     </row>
-    <row r="26" spans="1:84" ht="36">
+    <row r="26" spans="1:84" ht="24">
       <c r="A26" s="11" t="s">
         <v>125</v>
       </c>
@@ -6897,7 +6898,7 @@
       <c r="CE27" s="2"/>
       <c r="CF27" s="2"/>
     </row>
-    <row r="28" spans="1:84" ht="60">
+    <row r="28" spans="1:84" ht="36">
       <c r="A28" s="11" t="s">
         <v>134</v>
       </c>
@@ -6964,7 +6965,7 @@
       <c r="CE28" s="2"/>
       <c r="CF28" s="2"/>
     </row>
-    <row r="29" spans="1:84" ht="48">
+    <row r="29" spans="1:84" ht="36">
       <c r="A29" s="11" t="s">
         <v>139</v>
       </c>
@@ -7114,7 +7115,7 @@
       <c r="CE30" s="2"/>
       <c r="CF30" s="2"/>
     </row>
-    <row r="31" spans="1:84" ht="72">
+    <row r="31" spans="1:84" ht="60">
       <c r="A31" s="11" t="s">
         <v>147</v>
       </c>
@@ -7294,7 +7295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:84" ht="24">
+    <row r="34" spans="1:84">
       <c r="A34" s="11" t="s">
         <v>157</v>
       </c>
@@ -7466,7 +7467,7 @@
       <c r="CE35" s="2"/>
       <c r="CF35" s="2"/>
     </row>
-    <row r="36" spans="1:84" ht="48">
+    <row r="36" spans="1:84" ht="36">
       <c r="A36" s="1" t="s">
         <v>165</v>
       </c>
@@ -7498,7 +7499,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="37" spans="1:84" ht="84">
+    <row r="37" spans="1:84" ht="60">
       <c r="A37" s="15" t="s">
         <v>169</v>
       </c>
@@ -7718,7 +7719,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="41" spans="1:84" ht="72">
+    <row r="41" spans="1:84" ht="60">
       <c r="A41" s="11" t="s">
         <v>181</v>
       </c>
@@ -7900,7 +7901,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="44" spans="1:84" ht="120">
+    <row r="44" spans="1:84" ht="108">
       <c r="A44" s="11" t="s">
         <v>190</v>
       </c>
@@ -8283,7 +8284,7 @@
       <c r="CE49" s="2"/>
       <c r="CF49" s="2"/>
     </row>
-    <row r="50" spans="1:84" ht="60">
+    <row r="50" spans="1:84" ht="48">
       <c r="A50" s="11" t="s">
         <v>211</v>
       </c>
@@ -8477,7 +8478,7 @@
       <c r="CE52" s="2"/>
       <c r="CF52" s="2"/>
     </row>
-    <row r="53" spans="1:84" ht="36">
+    <row r="53" spans="1:84" ht="24">
       <c r="A53" s="11" t="s">
         <v>221</v>
       </c>
@@ -8632,7 +8633,7 @@
       <c r="CE55" s="2"/>
       <c r="CF55" s="2"/>
     </row>
-    <row r="56" spans="1:84" ht="96">
+    <row r="56" spans="1:84" ht="84">
       <c r="A56" s="1" t="s">
         <v>230</v>
       </c>
@@ -8917,7 +8918,7 @@
       <c r="CE60" s="2"/>
       <c r="CF60" s="2"/>
     </row>
-    <row r="61" spans="1:84" ht="36">
+    <row r="61" spans="1:84" ht="24">
       <c r="A61" s="11" t="s">
         <v>247</v>
       </c>
@@ -9043,7 +9044,7 @@
       <c r="CE62" s="2"/>
       <c r="CF62" s="2"/>
     </row>
-    <row r="63" spans="1:84" ht="36">
+    <row r="63" spans="1:84" ht="24">
       <c r="A63" s="11" t="s">
         <v>253</v>
       </c>
@@ -9398,7 +9399,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="69" spans="1:84" ht="72">
+    <row r="69" spans="1:84" ht="60">
       <c r="A69" s="11" t="s">
         <v>279</v>
       </c>
@@ -9605,7 +9606,7 @@
       <c r="CE71" s="2"/>
       <c r="CF71" s="2"/>
     </row>
-    <row r="72" spans="1:84" ht="120">
+    <row r="72" spans="1:84" ht="108">
       <c r="A72" s="11" t="s">
         <v>289</v>
       </c>
@@ -9660,7 +9661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:84" ht="84">
+    <row r="73" spans="1:84" ht="72">
       <c r="A73" s="11" t="s">
         <v>292</v>
       </c>
@@ -9947,7 +9948,7 @@
       <c r="CE76" s="2"/>
       <c r="CF76" s="2"/>
     </row>
-    <row r="77" spans="1:84" ht="36">
+    <row r="77" spans="1:84" ht="24">
       <c r="A77" s="11" t="s">
         <v>310</v>
       </c>
@@ -10032,7 +10033,7 @@
       <c r="CE77" s="2"/>
       <c r="CF77" s="2"/>
     </row>
-    <row r="78" spans="1:84" ht="49.5">
+    <row r="78" spans="1:84" ht="37.5">
       <c r="A78" s="13" t="s">
         <v>314</v>
       </c>
@@ -10182,7 +10183,7 @@
       <c r="CE79" s="2"/>
       <c r="CF79" s="2"/>
     </row>
-    <row r="80" spans="1:84" ht="72">
+    <row r="80" spans="1:84" ht="60">
       <c r="A80" s="13" t="s">
         <v>321</v>
       </c>
@@ -10309,7 +10310,7 @@
       <c r="CE81" s="2"/>
       <c r="CF81" s="2"/>
     </row>
-    <row r="82" spans="1:84" ht="48">
+    <row r="82" spans="1:84" ht="36">
       <c r="A82" s="11" t="s">
         <v>328</v>
       </c>
@@ -10371,7 +10372,7 @@
       <c r="CE82" s="2"/>
       <c r="CF82" s="2"/>
     </row>
-    <row r="83" spans="1:84" ht="84">
+    <row r="83" spans="1:84" ht="72">
       <c r="A83" s="13" t="s">
         <v>331</v>
       </c>
@@ -10460,7 +10461,7 @@
       <c r="CE83" s="2"/>
       <c r="CF83" s="2"/>
     </row>
-    <row r="84" spans="1:84" ht="36">
+    <row r="84" spans="1:84" ht="24">
       <c r="A84" s="11" t="s">
         <v>335</v>
       </c>
@@ -10695,7 +10696,7 @@
       <c r="CE86" s="2"/>
       <c r="CF86" s="2"/>
     </row>
-    <row r="87" spans="1:84" ht="48">
+    <row r="87" spans="1:84" ht="36">
       <c r="A87" s="11" t="s">
         <v>347</v>
       </c>
@@ -10761,7 +10762,7 @@
       <c r="CE87" s="2"/>
       <c r="CF87" s="2"/>
     </row>
-    <row r="88" spans="1:84" ht="192">
+    <row r="88" spans="1:84" ht="168">
       <c r="A88" s="11" t="s">
         <v>351</v>
       </c>
@@ -10943,7 +10944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:84" ht="132">
+    <row r="91" spans="1:84" ht="108">
       <c r="A91" s="11" t="s">
         <v>362</v>
       </c>
@@ -11250,7 +11251,7 @@
       <c r="CE95" s="2"/>
       <c r="CF95" s="2"/>
     </row>
-    <row r="96" spans="1:84" ht="48">
+    <row r="96" spans="1:84" ht="36">
       <c r="A96" s="13" t="s">
         <v>376</v>
       </c>
@@ -11470,7 +11471,7 @@
       <c r="CE98" s="2"/>
       <c r="CF98" s="2"/>
     </row>
-    <row r="99" spans="1:84" ht="48">
+    <row r="99" spans="1:84" ht="36">
       <c r="A99" s="11" t="s">
         <v>387</v>
       </c>
@@ -11594,7 +11595,7 @@
       <c r="CE100" s="2"/>
       <c r="CF100" s="2"/>
     </row>
-    <row r="101" spans="1:84" ht="36">
+    <row r="101" spans="1:84" ht="24">
       <c r="A101" s="13" t="s">
         <v>393</v>
       </c>
@@ -11886,7 +11887,7 @@
       <c r="CE104" s="2"/>
       <c r="CF104" s="2"/>
     </row>
-    <row r="105" spans="1:84" ht="48">
+    <row r="105" spans="1:84" ht="36">
       <c r="A105" s="11" t="s">
         <v>407</v>
       </c>
@@ -11946,7 +11947,7 @@
       <c r="CE105" s="2"/>
       <c r="CF105" s="2"/>
     </row>
-    <row r="106" spans="1:84" ht="132">
+    <row r="106" spans="1:84" ht="120">
       <c r="A106" s="11" t="s">
         <v>409</v>
       </c>
@@ -12407,7 +12408,7 @@
       <c r="CE113" s="2"/>
       <c r="CF113" s="2"/>
     </row>
-    <row r="114" spans="1:84" ht="84">
+    <row r="114" spans="1:84" ht="72">
       <c r="A114" s="11" t="s">
         <v>441</v>
       </c>
@@ -12469,7 +12470,7 @@
       <c r="CE114" s="2"/>
       <c r="CF114" s="2"/>
     </row>
-    <row r="115" spans="1:84" ht="120">
+    <row r="115" spans="1:84" ht="108">
       <c r="A115" s="11" t="s">
         <v>444</v>
       </c>
@@ -12661,7 +12662,7 @@
       <c r="CE117" s="2"/>
       <c r="CF117" s="2"/>
     </row>
-    <row r="118" spans="1:84" ht="24">
+    <row r="118" spans="1:84">
       <c r="A118" s="11" t="s">
         <v>456</v>
       </c>
@@ -12723,7 +12724,7 @@
       <c r="CE118" s="2"/>
       <c r="CF118" s="2"/>
     </row>
-    <row r="119" spans="1:84" ht="60">
+    <row r="119" spans="1:84" ht="48">
       <c r="A119" s="11" t="s">
         <v>459</v>
       </c>
@@ -13154,7 +13155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:84" ht="120">
+    <row r="126" spans="1:84" ht="96">
       <c r="A126" s="11" t="s">
         <v>482</v>
       </c>
@@ -13274,7 +13275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:84" ht="36">
+    <row r="128" spans="1:84" ht="24">
       <c r="A128" s="11" t="s">
         <v>489</v>
       </c>
@@ -13333,7 +13334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:84" ht="120">
+    <row r="129" spans="1:84" ht="108">
       <c r="A129" s="11" t="s">
         <v>493</v>
       </c>
@@ -13526,7 +13527,7 @@
       <c r="CE131" s="2"/>
       <c r="CF131" s="2"/>
     </row>
-    <row r="132" spans="1:84" ht="120">
+    <row r="132" spans="1:84" ht="84">
       <c r="A132" s="11" t="s">
         <v>504</v>
       </c>
@@ -13640,7 +13641,7 @@
       <c r="CE133" s="2"/>
       <c r="CF133" s="2"/>
     </row>
-    <row r="134" spans="1:84" ht="72">
+    <row r="134" spans="1:84" ht="60">
       <c r="A134" s="11" t="s">
         <v>509</v>
       </c>
@@ -13702,7 +13703,7 @@
       <c r="CE134" s="2"/>
       <c r="CF134" s="2"/>
     </row>
-    <row r="135" spans="1:84" ht="48">
+    <row r="135" spans="1:84" ht="36">
       <c r="A135" s="11" t="s">
         <v>512</v>
       </c>
@@ -14197,7 +14198,7 @@
       <c r="CE141" s="2"/>
       <c r="CF141" s="2"/>
     </row>
-    <row r="142" spans="1:84" ht="120">
+    <row r="142" spans="1:84" ht="96">
       <c r="A142" s="11" t="s">
         <v>540</v>
       </c>
@@ -14233,7 +14234,7 @@
       <c r="CE142" s="2"/>
       <c r="CF142" s="2"/>
     </row>
-    <row r="143" spans="1:84" ht="36">
+    <row r="143" spans="1:84" ht="24">
       <c r="A143" s="11" t="s">
         <v>542</v>
       </c>
@@ -14363,7 +14364,7 @@
       <c r="CE144" s="2"/>
       <c r="CF144" s="2"/>
     </row>
-    <row r="145" spans="1:84" ht="60">
+    <row r="145" spans="1:84" ht="48">
       <c r="A145" s="11" t="s">
         <v>550</v>
       </c>
@@ -14536,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:84" ht="72">
+    <row r="148" spans="1:84" ht="60">
       <c r="A148" s="1" t="s">
         <v>559</v>
       </c>
@@ -14589,7 +14590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:84" ht="204">
+    <row r="149" spans="1:84" ht="180">
       <c r="A149" s="13" t="s">
         <v>562</v>
       </c>
@@ -14651,7 +14652,7 @@
       <c r="CE149" s="2"/>
       <c r="CF149" s="2"/>
     </row>
-    <row r="150" spans="1:84" ht="120">
+    <row r="150" spans="1:84" ht="108">
       <c r="A150" s="11" t="s">
         <v>565</v>
       </c>
@@ -14689,7 +14690,7 @@
       <c r="CE150" s="2"/>
       <c r="CF150" s="2"/>
     </row>
-    <row r="151" spans="1:84" ht="36">
+    <row r="151" spans="1:84" ht="24">
       <c r="A151" s="13" t="s">
         <v>569</v>
       </c>
@@ -14886,7 +14887,7 @@
       <c r="CE153" s="2"/>
       <c r="CF153" s="2"/>
     </row>
-    <row r="154" spans="1:84" ht="48">
+    <row r="154" spans="1:84" ht="36">
       <c r="A154" s="11" t="s">
         <v>581</v>
       </c>
@@ -14952,7 +14953,7 @@
       <c r="CE154" s="2"/>
       <c r="CF154" s="2"/>
     </row>
-    <row r="155" spans="1:84" ht="24">
+    <row r="155" spans="1:84">
       <c r="A155" s="11" t="s">
         <v>585</v>
       </c>
@@ -15014,7 +15015,7 @@
       <c r="CE155" s="2"/>
       <c r="CF155" s="2"/>
     </row>
-    <row r="156" spans="1:84" ht="24">
+    <row r="156" spans="1:84">
       <c r="A156" s="11" t="s">
         <v>588</v>
       </c>
@@ -15207,7 +15208,7 @@
       <c r="CE158" s="2"/>
       <c r="CF158" s="2"/>
     </row>
-    <row r="159" spans="1:84" ht="48">
+    <row r="159" spans="1:84" ht="36">
       <c r="A159" s="13" t="s">
         <v>598</v>
       </c>
@@ -15339,7 +15340,7 @@
       <c r="CE160" s="2"/>
       <c r="CF160" s="2"/>
     </row>
-    <row r="161" spans="1:84" ht="60">
+    <row r="161" spans="1:84" ht="48">
       <c r="A161" s="11" t="s">
         <v>605</v>
       </c>
@@ -15470,7 +15471,7 @@
       <c r="CE162" s="2"/>
       <c r="CF162" s="2"/>
     </row>
-    <row r="163" spans="1:84" ht="96">
+    <row r="163" spans="1:84" ht="84">
       <c r="A163" s="1" t="s">
         <v>611</v>
       </c>
@@ -15502,7 +15503,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="164" spans="1:84" ht="36">
+    <row r="164" spans="1:84" ht="24">
       <c r="A164" s="11" t="s">
         <v>614</v>
       </c>
@@ -15560,7 +15561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:84" ht="96">
+    <row r="165" spans="1:84" ht="72">
       <c r="A165" s="11" t="s">
         <v>617</v>
       </c>
@@ -15684,7 +15685,7 @@
       <c r="CE166" s="2"/>
       <c r="CF166" s="2"/>
     </row>
-    <row r="167" spans="1:84" ht="60">
+    <row r="167" spans="1:84" ht="48">
       <c r="A167" s="13" t="s">
         <v>626</v>
       </c>
@@ -15920,7 +15921,7 @@
       <c r="CE169" s="2"/>
       <c r="CF169" s="2"/>
     </row>
-    <row r="170" spans="1:84" ht="60">
+    <row r="170" spans="1:84" ht="48">
       <c r="A170" s="1" t="s">
         <v>639</v>
       </c>
@@ -16016,7 +16017,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="173" spans="1:84" ht="48">
+    <row r="173" spans="1:84" ht="36">
       <c r="A173" s="11" t="s">
         <v>648</v>
       </c>
@@ -16051,7 +16052,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="174" spans="1:84" ht="72">
+    <row r="174" spans="1:84" ht="48">
       <c r="A174" s="13" t="s">
         <v>651</v>
       </c>
@@ -16516,7 +16517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:84" ht="36">
+    <row r="181" spans="1:84" ht="24">
       <c r="A181" s="11" t="s">
         <v>678</v>
       </c>
@@ -16833,7 +16834,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="187" spans="1:84" ht="72">
+    <row r="187" spans="1:84" ht="60">
       <c r="A187" s="11" t="s">
         <v>698</v>
       </c>
@@ -17091,7 +17092,7 @@
       <c r="CE190" s="2"/>
       <c r="CF190" s="2"/>
     </row>
-    <row r="191" spans="1:84" ht="36">
+    <row r="191" spans="1:84" ht="24">
       <c r="A191" s="1" t="s">
         <v>713</v>
       </c>
@@ -17259,7 +17260,7 @@
       <c r="CE193" s="2"/>
       <c r="CF193" s="2"/>
     </row>
-    <row r="194" spans="1:84" ht="36">
+    <row r="194" spans="1:84" ht="24">
       <c r="A194" s="11" t="s">
         <v>722</v>
       </c>
@@ -17565,7 +17566,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="199" spans="1:84" ht="72">
+    <row r="199" spans="1:84" ht="60">
       <c r="A199" s="13" t="s">
         <v>737</v>
       </c>
@@ -18171,7 +18172,7 @@
       <c r="CE207" s="2"/>
       <c r="CF207" s="2"/>
     </row>
-    <row r="208" spans="1:84" ht="72">
+    <row r="208" spans="1:84" ht="60">
       <c r="A208" s="11" t="s">
         <v>764</v>
       </c>
@@ -18258,7 +18259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:84" ht="108">
+    <row r="210" spans="1:84" ht="96">
       <c r="A210" s="11" t="s">
         <v>770</v>
       </c>
@@ -18409,7 +18410,7 @@
       <c r="CE211" s="2"/>
       <c r="CF211" s="2"/>
     </row>
-    <row r="212" spans="1:84" ht="84">
+    <row r="212" spans="1:84" ht="72">
       <c r="A212" s="11" t="s">
         <v>777</v>
       </c>
@@ -18620,7 +18621,7 @@
         <v>788</v>
       </c>
     </row>
-    <row r="215" spans="1:84" ht="72">
+    <row r="215" spans="1:84" ht="60">
       <c r="A215" s="13" t="s">
         <v>789</v>
       </c>
@@ -18707,7 +18708,7 @@
       <c r="CE215" s="2"/>
       <c r="CF215" s="2"/>
     </row>
-    <row r="216" spans="1:84" ht="36">
+    <row r="216" spans="1:84" ht="24">
       <c r="A216" s="11" t="s">
         <v>793</v>
       </c>
@@ -18910,7 +18911,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="219" spans="1:84" ht="36">
+    <row r="219" spans="1:84" ht="24">
       <c r="A219" s="13" t="s">
         <v>805</v>
       </c>
@@ -19204,7 +19205,7 @@
       <c r="CE222" s="2"/>
       <c r="CF222" s="2"/>
     </row>
-    <row r="223" spans="1:84" ht="36">
+    <row r="223" spans="1:84" ht="24">
       <c r="A223" s="11" t="s">
         <v>820</v>
       </c>
@@ -19718,7 +19719,7 @@
       <c r="CE228" s="2"/>
       <c r="CF228" s="2"/>
     </row>
-    <row r="229" spans="1:84" ht="24">
+    <row r="229" spans="1:84">
       <c r="A229" s="13" t="s">
         <v>844</v>
       </c>
@@ -19869,7 +19870,7 @@
       <c r="CE230" s="2"/>
       <c r="CF230" s="2"/>
     </row>
-    <row r="231" spans="1:84" ht="60">
+    <row r="231" spans="1:84" ht="36">
       <c r="A231" s="11" t="s">
         <v>853</v>
       </c>
@@ -20062,7 +20063,7 @@
       <c r="CE233" s="2"/>
       <c r="CF233" s="2"/>
     </row>
-    <row r="234" spans="1:84" ht="48">
+    <row r="234" spans="1:84" ht="36">
       <c r="A234" s="11" t="s">
         <v>864</v>
       </c>
@@ -20235,7 +20236,7 @@
         <v>873</v>
       </c>
     </row>
-    <row r="237" spans="1:84" ht="36">
+    <row r="237" spans="1:84" ht="24">
       <c r="A237" s="11" t="s">
         <v>874</v>
       </c>
@@ -20299,7 +20300,7 @@
       <c r="CE237" s="2"/>
       <c r="CF237" s="2"/>
     </row>
-    <row r="238" spans="1:84" ht="48">
+    <row r="238" spans="1:84" ht="36">
       <c r="A238" s="13" t="s">
         <v>877</v>
       </c>
@@ -20560,10 +20561,10 @@
         <v>892</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C242" s="13" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D242" s="13">
         <v>3</v>
@@ -20798,7 +20799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:84" ht="48">
+    <row r="247" spans="1:84" ht="36">
       <c r="A247" s="13" t="s">
         <v>909</v>
       </c>
@@ -20855,7 +20856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:84" ht="36">
+    <row r="248" spans="1:84" ht="24">
       <c r="A248" s="11" t="s">
         <v>913</v>
       </c>
@@ -20973,7 +20974,7 @@
       <c r="CE249" s="2"/>
       <c r="CF249" s="2"/>
     </row>
-    <row r="250" spans="1:84" ht="84">
+    <row r="250" spans="1:84" ht="60">
       <c r="A250" s="11" t="s">
         <v>919</v>
       </c>
@@ -21121,7 +21122,7 @@
         <v>928</v>
       </c>
     </row>
-    <row r="253" spans="1:84" ht="84">
+    <row r="253" spans="1:84" ht="120">
       <c r="A253" s="11" t="s">
         <v>929</v>
       </c>
@@ -21148,10 +21149,10 @@
       <c r="J253" s="11"/>
       <c r="K253" s="11"/>
       <c r="L253" s="11" t="s">
-        <v>931</v>
+        <v>1248</v>
       </c>
       <c r="M253" s="14" t="s">
-        <v>932</v>
+        <v>1249</v>
       </c>
       <c r="U253" s="1">
         <f t="shared" ref="U253:Z254" si="79">IF(AA$1&gt;=$D253,$O253+$P253*($Q253+1)/2+$R253*($S253+1)/2*(AA$1-$D253),0)</f>
@@ -21188,7 +21189,7 @@
     </row>
     <row r="254" spans="1:84" ht="24">
       <c r="A254" s="11" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>848</v>
@@ -21206,7 +21207,7 @@
         <v>29</v>
       </c>
       <c r="G254" s="11" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="H254" s="11" t="s">
         <v>103</v>
@@ -21215,7 +21216,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="11"/>
       <c r="L254" s="11" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="U254" s="1">
         <f t="shared" si="79"/>
@@ -21244,7 +21245,7 @@
     </row>
     <row r="255" spans="1:84" ht="48">
       <c r="A255" s="11" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>848</v>
@@ -21262,7 +21263,7 @@
         <v>88</v>
       </c>
       <c r="G255" s="11" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="H255" s="11" t="s">
         <v>653</v>
@@ -21271,10 +21272,10 @@
       <c r="J255" s="11"/>
       <c r="K255" s="11"/>
       <c r="L255" s="11" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="M255" s="1" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="BF255" s="1"/>
       <c r="BG255" s="1"/>
@@ -21285,9 +21286,9 @@
       <c r="CE255" s="2"/>
       <c r="CF255" s="2"/>
     </row>
-    <row r="256" spans="1:84" ht="48">
+    <row r="256" spans="1:84" ht="36">
       <c r="A256" s="11" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>848</v>
@@ -21305,10 +21306,10 @@
         <v>35</v>
       </c>
       <c r="G256" s="11" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="H256" s="11" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="I256" s="11"/>
       <c r="J256" s="11"/>
@@ -21316,10 +21317,10 @@
         <v>68</v>
       </c>
       <c r="L256" s="11" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="M256" s="14" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="N256" s="1">
         <v>1</v>
@@ -21372,9 +21373,9 @@
       <c r="CE256" s="2"/>
       <c r="CF256" s="2"/>
     </row>
-    <row r="257" spans="1:84" ht="72">
+    <row r="257" spans="1:84" ht="60">
       <c r="A257" s="11" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>848</v>
@@ -21392,14 +21393,14 @@
         <v>29</v>
       </c>
       <c r="G257" s="11" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="H257" s="11"/>
       <c r="I257" s="11"/>
       <c r="J257" s="11"/>
       <c r="K257" s="11"/>
       <c r="L257" s="11" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="M257" s="12"/>
       <c r="U257" s="1">
@@ -21435,9 +21436,9 @@
       <c r="CE257" s="2"/>
       <c r="CF257" s="2"/>
     </row>
-    <row r="258" spans="1:84" ht="60">
+    <row r="258" spans="1:84" ht="48">
       <c r="A258" s="11" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>848</v>
@@ -21455,7 +21456,7 @@
         <v>29</v>
       </c>
       <c r="G258" s="11" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="H258" s="11" t="s">
         <v>344</v>
@@ -21466,7 +21467,7 @@
         <v>137</v>
       </c>
       <c r="L258" s="11" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="U258" s="1">
         <f t="shared" si="80"/>
@@ -21503,7 +21504,7 @@
     </row>
     <row r="259" spans="1:84" ht="36">
       <c r="A259" s="11" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>848</v>
@@ -21521,17 +21522,17 @@
         <v>29</v>
       </c>
       <c r="G259" s="11" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H259" s="15"/>
       <c r="I259" s="11"/>
       <c r="J259" s="11"/>
       <c r="K259" s="11"/>
       <c r="L259" s="11" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="M259" s="1" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="U259" s="1">
         <f t="shared" si="80"/>
@@ -21568,7 +21569,7 @@
     </row>
     <row r="260" spans="1:84" ht="24">
       <c r="A260" s="11" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>848</v>
@@ -21586,7 +21587,7 @@
         <v>29</v>
       </c>
       <c r="G260" s="11" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="H260" s="11" t="s">
         <v>103</v>
@@ -21595,7 +21596,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="11"/>
       <c r="L260" s="11" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="U260" s="1">
         <f t="shared" si="80"/>
@@ -21630,9 +21631,9 @@
       <c r="CE260" s="2"/>
       <c r="CF260" s="2"/>
     </row>
-    <row r="261" spans="1:84" ht="48">
+    <row r="261" spans="1:84" ht="36">
       <c r="A261" s="11" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>848</v>
@@ -21650,19 +21651,19 @@
         <v>29</v>
       </c>
       <c r="G261" s="11" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="H261" s="11" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="I261" s="11"/>
       <c r="J261" s="11"/>
       <c r="K261" s="11"/>
       <c r="L261" s="11" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="M261" s="1" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="U261" s="1">
         <f t="shared" si="80"/>
@@ -21697,9 +21698,9 @@
       <c r="CE261" s="2"/>
       <c r="CF261" s="2"/>
     </row>
-    <row r="262" spans="1:84" ht="48">
+    <row r="262" spans="1:84" ht="36">
       <c r="A262" s="11" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>848</v>
@@ -21717,19 +21718,19 @@
         <v>29</v>
       </c>
       <c r="G262" s="11" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="H262" s="11" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="I262" s="11"/>
       <c r="J262" s="11"/>
       <c r="K262" s="11"/>
       <c r="L262" s="11" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="M262" s="14" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="U262" s="1">
         <f t="shared" si="80"/>
@@ -21766,7 +21767,7 @@
     </row>
     <row r="263" spans="1:84" ht="72">
       <c r="A263" s="11" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>848</v>
@@ -21784,7 +21785,7 @@
         <v>29</v>
       </c>
       <c r="G263" s="11" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="H263" s="11" t="s">
         <v>273</v>
@@ -21795,10 +21796,10 @@
         <v>116</v>
       </c>
       <c r="L263" s="11" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="M263" s="1" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="N263" s="1">
         <v>1</v>
@@ -21853,7 +21854,7 @@
     </row>
     <row r="264" spans="1:84" ht="60">
       <c r="A264" s="11" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>848</v>
@@ -21871,7 +21872,7 @@
         <v>35</v>
       </c>
       <c r="G264" s="11" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="H264" s="11" t="s">
         <v>107</v>
@@ -21880,10 +21881,10 @@
       <c r="J264" s="11"/>
       <c r="K264" s="11"/>
       <c r="L264" s="11" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="M264" s="14" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="U264" s="1">
         <f t="shared" si="80"/>
@@ -21920,7 +21921,7 @@
     </row>
     <row r="265" spans="1:84" ht="36">
       <c r="A265" s="11" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>848</v>
@@ -21938,7 +21939,7 @@
         <v>83</v>
       </c>
       <c r="G265" s="11" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="H265" s="11" t="s">
         <v>593</v>
@@ -21947,10 +21948,10 @@
       <c r="J265" s="11"/>
       <c r="K265" s="11"/>
       <c r="L265" s="11" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="M265" s="14" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="U265" s="1">
         <f t="shared" si="80"/>
@@ -21987,7 +21988,7 @@
     </row>
     <row r="266" spans="1:84" ht="24">
       <c r="A266" s="11" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>848</v>
@@ -22005,7 +22006,7 @@
         <v>29</v>
       </c>
       <c r="G266" s="11" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="H266" s="11" t="s">
         <v>273</v>
@@ -22014,7 +22015,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="11"/>
       <c r="L266" s="11" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="U266" s="1">
         <f t="shared" si="80"/>
@@ -22049,9 +22050,9 @@
       <c r="CE266" s="2"/>
       <c r="CF266" s="2"/>
     </row>
-    <row r="267" spans="1:84" ht="84">
+    <row r="267" spans="1:84" ht="72">
       <c r="A267" s="11" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>848</v>
@@ -22069,7 +22070,7 @@
         <v>29</v>
       </c>
       <c r="G267" s="11" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="H267" s="11" t="s">
         <v>344</v>
@@ -22078,7 +22079,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="11"/>
       <c r="L267" s="11" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="U267" s="1">
         <f t="shared" si="80"/>
@@ -22115,7 +22116,7 @@
     </row>
     <row r="268" spans="1:84" ht="48">
       <c r="A268" s="11" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>848</v>
@@ -22133,17 +22134,17 @@
         <v>29</v>
       </c>
       <c r="G268" s="11" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="H268" s="11"/>
       <c r="I268" s="11"/>
       <c r="J268" s="11"/>
       <c r="K268" s="11"/>
       <c r="L268" s="11" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="M268" s="1" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="U268" s="1">
         <f t="shared" si="80"/>
@@ -22180,7 +22181,7 @@
     </row>
     <row r="269" spans="1:84" ht="36">
       <c r="A269" s="11" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>848</v>
@@ -22198,7 +22199,7 @@
         <v>29</v>
       </c>
       <c r="G269" s="11" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="H269" s="11" t="s">
         <v>344</v>
@@ -22207,10 +22208,10 @@
       <c r="J269" s="11"/>
       <c r="K269" s="11"/>
       <c r="L269" s="11" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="M269" s="1" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="U269" s="1">
         <f t="shared" si="80"/>
@@ -22245,9 +22246,9 @@
       <c r="CE269" s="2"/>
       <c r="CF269" s="2"/>
     </row>
-    <row r="270" spans="1:84" ht="72">
+    <row r="270" spans="1:84" ht="60">
       <c r="A270" s="11" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>848</v>
@@ -22265,7 +22266,7 @@
         <v>35</v>
       </c>
       <c r="G270" s="11" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="H270" s="11"/>
       <c r="I270" s="11"/>
@@ -22274,10 +22275,10 @@
         <v>859</v>
       </c>
       <c r="L270" s="11" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="M270" s="14" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="U270" s="1">
         <f t="shared" si="80"/>
@@ -22312,9 +22313,9 @@
       <c r="CE270" s="2"/>
       <c r="CF270" s="2"/>
     </row>
-    <row r="271" spans="1:84" ht="180">
+    <row r="271" spans="1:84" ht="156">
       <c r="A271" s="11" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>848</v>
@@ -22326,20 +22327,20 @@
         <v>6</v>
       </c>
       <c r="E271" s="11" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F271" s="11" t="s">
         <v>29</v>
       </c>
       <c r="G271" s="11" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="H271" s="11"/>
       <c r="I271" s="11"/>
       <c r="J271" s="11"/>
       <c r="K271" s="11"/>
       <c r="L271" s="11" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="U271" s="1">
         <f t="shared" si="80"/>
@@ -22376,13 +22377,13 @@
     </row>
     <row r="272" spans="1:84" ht="24">
       <c r="A272" s="11" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C272" s="11" t="s">
         <v>1002</v>
-      </c>
-      <c r="B272" s="1" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C272" s="11" t="s">
-        <v>1004</v>
       </c>
       <c r="D272" s="20">
         <v>1</v>
@@ -22394,7 +22395,7 @@
         <v>35</v>
       </c>
       <c r="G272" s="11" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="H272" s="11" t="s">
         <v>434</v>
@@ -22403,7 +22404,7 @@
       <c r="J272" s="20"/>
       <c r="K272" s="20"/>
       <c r="L272" s="11" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="M272" s="12"/>
       <c r="U272" s="1">
@@ -22431,15 +22432,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:125" ht="60">
+    <row r="273" spans="1:125" ht="48">
       <c r="A273" s="11" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C273" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D273" s="20">
         <v>1</v>
@@ -22451,7 +22452,7 @@
         <v>88</v>
       </c>
       <c r="G273" s="11" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="H273" s="11" t="s">
         <v>344</v>
@@ -22460,7 +22461,7 @@
       <c r="J273" s="20"/>
       <c r="K273" s="20"/>
       <c r="L273" s="11" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="M273" s="12"/>
       <c r="U273" s="1">
@@ -22496,15 +22497,15 @@
       <c r="CE273" s="2"/>
       <c r="CF273" s="2"/>
     </row>
-    <row r="274" spans="1:125" ht="36">
+    <row r="274" spans="1:125" ht="24">
       <c r="A274" s="11" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C274" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D274" s="20">
         <v>1</v>
@@ -22516,7 +22517,7 @@
         <v>83</v>
       </c>
       <c r="G274" s="11" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="H274" s="20"/>
       <c r="I274" s="20"/>
@@ -22525,7 +22526,7 @@
         <v>68</v>
       </c>
       <c r="L274" s="11" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="U274" s="1">
         <f t="shared" si="80"/>
@@ -22562,13 +22563,13 @@
     </row>
     <row r="275" spans="1:125" ht="24">
       <c r="A275" s="11" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C275" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D275" s="11">
         <v>1</v>
@@ -22580,14 +22581,14 @@
         <v>29</v>
       </c>
       <c r="G275" s="11" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="H275" s="11"/>
       <c r="I275" s="11"/>
       <c r="J275" s="11"/>
       <c r="K275" s="11"/>
       <c r="L275" s="11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="U275" s="1">
         <f t="shared" si="80"/>
@@ -22622,15 +22623,15 @@
       <c r="CE275" s="2"/>
       <c r="CF275" s="2"/>
     </row>
-    <row r="276" spans="1:125" ht="72">
+    <row r="276" spans="1:125" ht="60">
       <c r="A276" s="11" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C276" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D276" s="20">
         <v>1</v>
@@ -22642,7 +22643,7 @@
         <v>35</v>
       </c>
       <c r="G276" s="11" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="H276" s="11" t="s">
         <v>103</v>
@@ -22653,10 +22654,10 @@
         <v>232</v>
       </c>
       <c r="L276" s="11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="M276" s="1" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="U276" s="1">
         <f t="shared" si="80"/>
@@ -22691,15 +22692,15 @@
       <c r="CE276" s="2"/>
       <c r="CF276" s="2"/>
     </row>
-    <row r="277" spans="1:125" ht="96">
+    <row r="277" spans="1:125" ht="84">
       <c r="A277" s="11" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C277" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D277" s="20">
         <v>2</v>
@@ -22711,17 +22712,17 @@
         <v>35</v>
       </c>
       <c r="G277" s="11" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="H277" s="20"/>
       <c r="I277" s="20"/>
       <c r="J277" s="20"/>
       <c r="K277" s="20"/>
       <c r="L277" s="11" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="M277" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="U277" s="1">
         <f t="shared" si="80"/>
@@ -22758,13 +22759,13 @@
     </row>
     <row r="278" spans="1:125" ht="24">
       <c r="A278" s="11" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C278" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D278" s="20">
         <v>2</v>
@@ -22776,7 +22777,7 @@
         <v>35</v>
       </c>
       <c r="G278" s="11" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="H278" s="11" t="s">
         <v>434</v>
@@ -22785,7 +22786,7 @@
       <c r="J278" s="20"/>
       <c r="K278" s="20"/>
       <c r="L278" s="11" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="M278" s="12"/>
       <c r="U278" s="1">
@@ -22824,13 +22825,13 @@
     </row>
     <row r="279" spans="1:125" ht="48">
       <c r="A279" s="11" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C279" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D279" s="11">
         <v>2</v>
@@ -22842,7 +22843,7 @@
         <v>29</v>
       </c>
       <c r="G279" s="11" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="H279" s="11" t="s">
         <v>213</v>
@@ -22851,10 +22852,10 @@
       <c r="J279" s="11"/>
       <c r="K279" s="11"/>
       <c r="L279" s="11" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="M279" s="1" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="U279" s="1">
         <f t="shared" si="80"/>
@@ -22891,13 +22892,13 @@
     </row>
     <row r="280" spans="1:125" ht="24">
       <c r="A280" s="11" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C280" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D280" s="20">
         <v>2</v>
@@ -22909,7 +22910,7 @@
         <v>35</v>
       </c>
       <c r="G280" s="11" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="H280" s="11" t="s">
         <v>267</v>
@@ -22920,10 +22921,10 @@
         <v>137</v>
       </c>
       <c r="L280" s="11" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="M280" s="12" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="U280" s="1">
         <f t="shared" si="80"/>
@@ -22960,13 +22961,13 @@
     </row>
     <row r="281" spans="1:125" ht="72">
       <c r="A281" s="11" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D281" s="20">
         <v>3</v>
@@ -22978,7 +22979,7 @@
         <v>35</v>
       </c>
       <c r="G281" s="11" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="H281" s="11" t="s">
         <v>103</v>
@@ -22987,7 +22988,7 @@
       <c r="J281" s="20"/>
       <c r="K281" s="20"/>
       <c r="L281" s="11" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="M281" s="12"/>
       <c r="U281" s="1">
@@ -23023,15 +23024,15 @@
       <c r="CE281" s="2"/>
       <c r="CF281" s="2"/>
     </row>
-    <row r="282" spans="1:125" ht="84">
+    <row r="282" spans="1:125" ht="72">
       <c r="A282" s="11" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C282" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D282" s="20">
         <v>3</v>
@@ -23043,7 +23044,7 @@
         <v>35</v>
       </c>
       <c r="G282" s="11" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="H282" s="11" t="s">
         <v>213</v>
@@ -23054,7 +23055,7 @@
         <v>232</v>
       </c>
       <c r="L282" s="11" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="M282" s="12"/>
       <c r="U282" s="1">
@@ -23092,13 +23093,13 @@
     </row>
     <row r="283" spans="1:125" ht="36">
       <c r="A283" s="11" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C283" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D283" s="11">
         <v>3</v>
@@ -23110,7 +23111,7 @@
         <v>29</v>
       </c>
       <c r="G283" s="11" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="H283" s="11" t="s">
         <v>103</v>
@@ -23119,7 +23120,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="11"/>
       <c r="L283" s="11" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="M283" s="12"/>
       <c r="U283" s="1">
@@ -23157,13 +23158,13 @@
     </row>
     <row r="284" spans="1:125" ht="24">
       <c r="A284" s="11" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C284" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D284" s="11">
         <v>3</v>
@@ -23175,7 +23176,7 @@
         <v>35</v>
       </c>
       <c r="G284" s="11" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="H284" s="11" t="s">
         <v>103</v>
@@ -23184,7 +23185,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="11"/>
       <c r="L284" s="11" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="M284" s="12"/>
       <c r="U284" s="1">
@@ -23222,13 +23223,13 @@
     </row>
     <row r="285" spans="1:125" ht="24">
       <c r="A285" s="11" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C285" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D285" s="20">
         <v>3</v>
@@ -23240,14 +23241,14 @@
         <v>35</v>
       </c>
       <c r="G285" s="11" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="H285" s="20"/>
       <c r="I285" s="20"/>
       <c r="J285" s="20"/>
       <c r="K285" s="20"/>
       <c r="L285" s="11" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="M285" s="12"/>
       <c r="U285" s="1">
@@ -23285,13 +23286,13 @@
     </row>
     <row r="286" spans="1:125" ht="24">
       <c r="A286" s="11" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C286" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D286" s="20">
         <v>4</v>
@@ -23303,7 +23304,7 @@
         <v>35</v>
       </c>
       <c r="G286" s="11" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="H286" s="11" t="s">
         <v>454</v>
@@ -23312,7 +23313,7 @@
       <c r="J286" s="20"/>
       <c r="K286" s="20"/>
       <c r="L286" s="11" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="M286" s="12"/>
       <c r="U286" s="1">
@@ -23348,15 +23349,15 @@
       <c r="CE286" s="2"/>
       <c r="CF286" s="2"/>
     </row>
-    <row r="287" spans="1:125" ht="48">
+    <row r="287" spans="1:125" ht="36">
       <c r="A287" s="11" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C287" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D287" s="20">
         <v>2</v>
@@ -23368,14 +23369,14 @@
         <v>35</v>
       </c>
       <c r="G287" s="11" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="H287" s="20"/>
       <c r="I287" s="20"/>
       <c r="J287" s="20"/>
       <c r="K287" s="20"/>
       <c r="L287" s="11" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="M287" s="12"/>
       <c r="U287" s="1">
@@ -23413,13 +23414,13 @@
     </row>
     <row r="288" spans="1:125" ht="24">
       <c r="A288" s="11" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C288" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D288" s="20">
         <v>4</v>
@@ -23431,7 +23432,7 @@
         <v>35</v>
       </c>
       <c r="G288" s="11" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="H288" s="11" t="s">
         <v>103</v>
@@ -23440,10 +23441,10 @@
       <c r="J288" s="20"/>
       <c r="K288" s="20"/>
       <c r="L288" s="11" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="M288" s="1" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="U288" s="1">
         <f t="shared" ref="U288:U311" si="86">IF(AA$1&gt;=$D288,$O288+$P288*($Q288+1)/2+$R288*($S288+1)/2*(AA$1-$D288),0)</f>
@@ -23480,13 +23481,13 @@
     </row>
     <row r="289" spans="1:84" ht="24">
       <c r="A289" s="11" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C289" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D289" s="11">
         <v>4</v>
@@ -23498,19 +23499,19 @@
         <v>29</v>
       </c>
       <c r="G289" s="11" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="H289" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I289" s="11"/>
       <c r="J289" s="11"/>
       <c r="K289" s="11"/>
       <c r="L289" s="11" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="M289" s="12" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="U289" s="1">
         <f t="shared" si="86"/>
@@ -23545,15 +23546,15 @@
       <c r="CE289" s="2"/>
       <c r="CF289" s="2"/>
     </row>
-    <row r="290" spans="1:84" ht="72">
+    <row r="290" spans="1:84" ht="60">
       <c r="A290" s="11" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C290" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D290" s="20">
         <v>5</v>
@@ -23565,14 +23566,14 @@
         <v>35</v>
       </c>
       <c r="G290" s="11" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="H290" s="20"/>
       <c r="I290" s="20"/>
       <c r="J290" s="20"/>
       <c r="K290" s="20"/>
       <c r="L290" s="11" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="U290" s="1">
         <f t="shared" si="86"/>
@@ -23599,15 +23600,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:84" ht="168">
+    <row r="291" spans="1:84" ht="144">
       <c r="A291" s="11" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C291" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D291" s="20">
         <v>5</v>
@@ -23619,14 +23620,14 @@
         <v>88</v>
       </c>
       <c r="G291" s="11" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="H291" s="20"/>
       <c r="I291" s="20"/>
       <c r="J291" s="20"/>
       <c r="K291" s="20"/>
       <c r="L291" s="11" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="M291" s="12"/>
       <c r="U291" s="1">
@@ -23664,13 +23665,13 @@
     </row>
     <row r="292" spans="1:84" ht="24">
       <c r="A292" s="11" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C292" s="11" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D292" s="20">
         <v>6</v>
@@ -23682,7 +23683,7 @@
         <v>35</v>
       </c>
       <c r="G292" s="11" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="H292" s="11" t="s">
         <v>344</v>
@@ -23691,7 +23692,7 @@
       <c r="J292" s="20"/>
       <c r="K292" s="20"/>
       <c r="L292" s="11" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="M292" s="12"/>
       <c r="U292" s="1">
@@ -23727,15 +23728,15 @@
       <c r="CE292" s="2"/>
       <c r="CF292" s="2"/>
     </row>
-    <row r="293" spans="1:84" ht="36">
+    <row r="293" spans="1:84" ht="24">
       <c r="A293" s="11" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C293" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D293" s="20">
         <v>1</v>
@@ -23747,7 +23748,7 @@
         <v>29</v>
       </c>
       <c r="G293" s="11" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="H293" s="11" t="s">
         <v>527</v>
@@ -23756,7 +23757,7 @@
       <c r="J293" s="20"/>
       <c r="K293" s="20"/>
       <c r="L293" s="11" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="M293" s="12"/>
       <c r="U293" s="1">
@@ -23792,15 +23793,15 @@
       <c r="CE293" s="2"/>
       <c r="CF293" s="2"/>
     </row>
-    <row r="294" spans="1:84" ht="60">
+    <row r="294" spans="1:84" ht="48">
       <c r="A294" s="11" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C294" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D294" s="20">
         <v>1</v>
@@ -23812,7 +23813,7 @@
         <v>35</v>
       </c>
       <c r="G294" s="11" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="H294" s="20"/>
       <c r="I294" s="20" t="s">
@@ -23823,10 +23824,10 @@
       </c>
       <c r="K294" s="11"/>
       <c r="L294" s="11" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="M294" s="1" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="N294" s="1">
         <v>1</v>
@@ -23879,15 +23880,15 @@
       <c r="CE294" s="2"/>
       <c r="CF294" s="2"/>
     </row>
-    <row r="295" spans="1:84" ht="36">
+    <row r="295" spans="1:84" ht="24">
       <c r="A295" s="11" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C295" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D295" s="11">
         <v>1</v>
@@ -23899,7 +23900,7 @@
         <v>35</v>
       </c>
       <c r="G295" s="11" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="H295" s="11" t="s">
         <v>107</v>
@@ -23912,7 +23913,7 @@
       </c>
       <c r="K295" s="11"/>
       <c r="L295" s="11" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="U295" s="1">
         <f t="shared" si="86"/>
@@ -23939,15 +23940,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:84" ht="36">
+    <row r="296" spans="1:84" ht="24">
       <c r="A296" s="11" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C296" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D296" s="20">
         <v>1</v>
@@ -23959,10 +23960,10 @@
         <v>35</v>
       </c>
       <c r="G296" s="11" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="H296" s="11" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="I296" s="20"/>
       <c r="J296" s="20"/>
@@ -23970,7 +23971,7 @@
         <v>583</v>
       </c>
       <c r="L296" s="11" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="M296" s="12"/>
       <c r="U296" s="1">
@@ -24006,15 +24007,15 @@
       <c r="CE296" s="2"/>
       <c r="CF296" s="2"/>
     </row>
-    <row r="297" spans="1:84" ht="72">
+    <row r="297" spans="1:84" ht="60">
       <c r="A297" s="11" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C297" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D297" s="20">
         <v>1</v>
@@ -24026,7 +24027,7 @@
         <v>29</v>
       </c>
       <c r="G297" s="11" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="H297" s="11" t="s">
         <v>103</v>
@@ -24035,10 +24036,10 @@
       <c r="J297" s="20"/>
       <c r="K297" s="20"/>
       <c r="L297" s="11" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="M297" s="18" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="U297" s="1">
         <f t="shared" si="86"/>
@@ -24075,13 +24076,13 @@
     </row>
     <row r="298" spans="1:84" ht="48">
       <c r="A298" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C298" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D298" s="11">
         <v>2</v>
@@ -24093,7 +24094,7 @@
         <v>35</v>
       </c>
       <c r="G298" s="11" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="H298" s="11" t="s">
         <v>653</v>
@@ -24102,7 +24103,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="11"/>
       <c r="L298" s="11" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="M298" s="12"/>
       <c r="U298" s="1">
@@ -24140,13 +24141,13 @@
     </row>
     <row r="299" spans="1:84" ht="36">
       <c r="A299" s="11" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C299" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D299" s="20">
         <v>2</v>
@@ -24158,7 +24159,7 @@
         <v>35</v>
       </c>
       <c r="G299" s="11" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H299" s="11" t="s">
         <v>103</v>
@@ -24167,10 +24168,10 @@
       <c r="J299" s="20"/>
       <c r="K299" s="20"/>
       <c r="L299" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="M299" s="12" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="U299" s="1">
         <f t="shared" si="86"/>
@@ -24205,15 +24206,15 @@
       <c r="CE299" s="2"/>
       <c r="CF299" s="2"/>
     </row>
-    <row r="300" spans="1:84" ht="48">
+    <row r="300" spans="1:84" ht="36">
       <c r="A300" s="11" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C300" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D300" s="20">
         <v>2</v>
@@ -24225,16 +24226,16 @@
         <v>29</v>
       </c>
       <c r="G300" s="11" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="H300" s="11" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="I300" s="20"/>
       <c r="J300" s="20"/>
       <c r="K300" s="20"/>
       <c r="L300" s="11" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="M300" s="12"/>
       <c r="U300" s="1">
@@ -24272,13 +24273,13 @@
     </row>
     <row r="301" spans="1:84" ht="24">
       <c r="A301" s="11" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C301" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D301" s="20">
         <v>2</v>
@@ -24290,7 +24291,7 @@
         <v>29</v>
       </c>
       <c r="G301" s="11" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="H301" s="11" t="s">
         <v>90</v>
@@ -24299,10 +24300,10 @@
       <c r="J301" s="20"/>
       <c r="K301" s="20"/>
       <c r="L301" s="11" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="M301" s="1" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="U301" s="1">
         <f t="shared" si="86"/>
@@ -24339,13 +24340,13 @@
     </row>
     <row r="302" spans="1:84" ht="48">
       <c r="A302" s="11" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C302" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D302" s="20">
         <v>3</v>
@@ -24357,7 +24358,7 @@
         <v>35</v>
       </c>
       <c r="G302" s="11" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H302" s="11" t="s">
         <v>213</v>
@@ -24368,7 +24369,7 @@
         <v>42</v>
       </c>
       <c r="L302" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="M302" s="12"/>
       <c r="U302" s="1">
@@ -24404,15 +24405,15 @@
       <c r="CE302" s="2"/>
       <c r="CF302" s="2"/>
     </row>
-    <row r="303" spans="1:84" ht="120">
+    <row r="303" spans="1:84" ht="96">
       <c r="A303" s="11" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C303" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D303" s="20">
         <v>3</v>
@@ -24424,19 +24425,19 @@
         <v>35</v>
       </c>
       <c r="G303" s="11" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H303" s="11" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="I303" s="20"/>
       <c r="J303" s="20"/>
       <c r="K303" s="20"/>
       <c r="L303" s="11" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="M303" s="1" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="U303" s="1">
         <f t="shared" si="86"/>
@@ -24473,13 +24474,13 @@
     </row>
     <row r="304" spans="1:84" ht="60">
       <c r="A304" s="11" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C304" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D304" s="20">
         <v>3</v>
@@ -24491,7 +24492,7 @@
         <v>35</v>
       </c>
       <c r="G304" s="11" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H304" s="11" t="s">
         <v>107</v>
@@ -24504,10 +24505,10 @@
       </c>
       <c r="K304" s="20"/>
       <c r="L304" s="11" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="M304" s="1" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="N304" s="1">
         <v>1</v>
@@ -24560,15 +24561,15 @@
       <c r="CE304" s="2"/>
       <c r="CF304" s="2"/>
     </row>
-    <row r="305" spans="1:84" ht="36">
+    <row r="305" spans="1:84" ht="24">
       <c r="A305" s="11" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C305" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D305" s="20">
         <v>3</v>
@@ -24580,7 +24581,7 @@
         <v>35</v>
       </c>
       <c r="G305" s="11" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H305" s="20"/>
       <c r="I305" s="20"/>
@@ -24589,10 +24590,10 @@
         <v>232</v>
       </c>
       <c r="L305" s="11" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="M305" s="1" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="U305" s="1">
         <f t="shared" si="86"/>
@@ -24629,13 +24630,13 @@
     </row>
     <row r="306" spans="1:84" ht="36">
       <c r="A306" s="11" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C306" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D306" s="20">
         <v>4</v>
@@ -24647,7 +24648,7 @@
         <v>83</v>
       </c>
       <c r="G306" s="11" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H306" s="20"/>
       <c r="I306" s="20"/>
@@ -24656,7 +24657,7 @@
         <v>232</v>
       </c>
       <c r="L306" s="11" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="M306" s="12"/>
       <c r="U306" s="1">
@@ -24694,13 +24695,13 @@
     </row>
     <row r="307" spans="1:84" ht="24">
       <c r="A307" s="11" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C307" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D307" s="20">
         <v>4</v>
@@ -24712,7 +24713,7 @@
         <v>29</v>
       </c>
       <c r="G307" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="H307" s="11" t="s">
         <v>624</v>
@@ -24721,7 +24722,7 @@
       <c r="J307" s="20"/>
       <c r="K307" s="20"/>
       <c r="L307" s="11" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="M307" s="12"/>
       <c r="U307" s="1">
@@ -24759,13 +24760,13 @@
     </row>
     <row r="308" spans="1:84" ht="36">
       <c r="A308" s="11" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C308" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D308" s="20">
         <v>4</v>
@@ -24777,7 +24778,7 @@
         <v>35</v>
       </c>
       <c r="G308" s="11" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H308" s="20"/>
       <c r="I308" s="20" t="s">
@@ -24788,10 +24789,10 @@
       </c>
       <c r="K308" s="11"/>
       <c r="L308" s="11" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="M308" s="12" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="N308" s="1">
         <v>1</v>
@@ -24844,15 +24845,15 @@
       <c r="CE308" s="2"/>
       <c r="CF308" s="2"/>
     </row>
-    <row r="309" spans="1:84" ht="192">
+    <row r="309" spans="1:84" ht="168">
       <c r="A309" s="11" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C309" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D309" s="20">
         <v>5</v>
@@ -24864,7 +24865,7 @@
         <v>29</v>
       </c>
       <c r="G309" s="11" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H309" s="20" t="s">
         <v>273</v>
@@ -24873,7 +24874,7 @@
       <c r="J309" s="20"/>
       <c r="K309" s="20"/>
       <c r="L309" s="11" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="U309" s="1">
         <f t="shared" si="86"/>
@@ -24900,15 +24901,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:84" ht="108">
+    <row r="310" spans="1:84" ht="84">
       <c r="A310" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C310" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D310" s="20">
         <v>5</v>
@@ -24920,7 +24921,7 @@
         <v>88</v>
       </c>
       <c r="G310" s="11" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H310" s="11" t="s">
         <v>344</v>
@@ -24931,7 +24932,7 @@
         <v>232</v>
       </c>
       <c r="L310" s="11" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="M310" s="12"/>
       <c r="U310" s="1">
@@ -24961,13 +24962,13 @@
     </row>
     <row r="311" spans="1:84" ht="84">
       <c r="A311" s="11" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C311" s="11" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="D311" s="20">
         <v>6</v>
@@ -24979,7 +24980,7 @@
         <v>88</v>
       </c>
       <c r="G311" s="11" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="H311" s="11" t="s">
         <v>344</v>
@@ -24988,7 +24989,7 @@
       <c r="J311" s="20"/>
       <c r="K311" s="20"/>
       <c r="L311" s="11" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="M311" s="12"/>
       <c r="U311" s="1">
@@ -25018,13 +25019,13 @@
     </row>
     <row r="312" spans="1:84" ht="108">
       <c r="A312" s="1" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D312" s="1">
         <v>2</v>
@@ -25036,27 +25037,27 @@
         <v>88</v>
       </c>
       <c r="G312" s="1" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="H312" s="1" t="s">
         <v>267</v>
       </c>
       <c r="L312" s="1" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="M312" s="1" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="313" spans="1:84" ht="132">
       <c r="A313" s="1" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D313" s="1">
         <v>6</v>
@@ -25068,18 +25069,18 @@
         <v>35</v>
       </c>
       <c r="G313" s="1" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="K313" s="1" t="s">
         <v>232</v>
       </c>
       <c r="L313" s="1" t="s">
-        <v>1148</v>
-      </c>
-    </row>
-    <row r="314" spans="1:84" ht="60">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="314" spans="1:84" ht="48">
       <c r="A314" s="1" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>570</v>
@@ -25097,7 +25098,7 @@
         <v>29</v>
       </c>
       <c r="G314" s="1" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="H314" s="1" t="s">
         <v>439</v>
@@ -25106,12 +25107,12 @@
         <v>859</v>
       </c>
       <c r="L314" s="1" t="s">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="315" spans="1:84" ht="48">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="315" spans="1:84" ht="36">
       <c r="A315" s="1" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>848</v>
@@ -25129,18 +25130,18 @@
         <v>29</v>
       </c>
       <c r="G315" s="1" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="H315" s="1" t="s">
         <v>344</v>
       </c>
       <c r="L315" s="1" t="s">
-        <v>1154</v>
-      </c>
-    </row>
-    <row r="316" spans="1:84" ht="204">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="316" spans="1:84" ht="192">
       <c r="A316" s="1" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>296</v>
@@ -25161,12 +25162,12 @@
         <v>515</v>
       </c>
       <c r="L316" s="1" t="s">
-        <v>1156</v>
-      </c>
-    </row>
-    <row r="317" spans="1:84" ht="132">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="317" spans="1:84" ht="120">
       <c r="A317" s="1" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>419</v>
@@ -25178,7 +25179,7 @@
         <v>6</v>
       </c>
       <c r="E317" s="1" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F317" s="1" t="s">
         <v>88</v>
@@ -25187,12 +25188,12 @@
         <v>273</v>
       </c>
       <c r="L317" s="1" t="s">
-        <v>1159</v>
-      </c>
-    </row>
-    <row r="318" spans="1:84" ht="108">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="318" spans="1:84" ht="96">
       <c r="A318" s="1" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>570</v>
@@ -25210,7 +25211,7 @@
         <v>29</v>
       </c>
       <c r="G318" s="1" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="H318" s="1" t="s">
         <v>103</v>
@@ -25219,12 +25220,12 @@
         <v>116</v>
       </c>
       <c r="L318" s="1" t="s">
-        <v>1162</v>
-      </c>
-    </row>
-    <row r="319" spans="1:84" ht="72">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="319" spans="1:84" ht="60">
       <c r="A319" s="1" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>570</v>
@@ -25242,21 +25243,21 @@
         <v>29</v>
       </c>
       <c r="G319" s="22" t="s">
+        <v>1162</v>
+      </c>
+      <c r="H319" s="1" t="s">
+        <v>1163</v>
+      </c>
+      <c r="L319" s="1" t="s">
         <v>1164</v>
       </c>
-      <c r="H319" s="1" t="s">
+      <c r="M319" s="1" t="s">
         <v>1165</v>
-      </c>
-      <c r="L319" s="1" t="s">
-        <v>1166</v>
-      </c>
-      <c r="M319" s="1" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="320" spans="1:84" ht="108">
       <c r="A320" s="1" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>570</v>
@@ -25274,18 +25275,18 @@
         <v>35</v>
       </c>
       <c r="G320" s="1" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="K320" s="1" t="s">
         <v>515</v>
       </c>
       <c r="L320" s="1" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="108">
       <c r="A321" s="1" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>570</v>
@@ -25303,21 +25304,21 @@
         <v>29</v>
       </c>
       <c r="G321" s="1" t="s">
-        <v>1172</v>
+        <v>1170</v>
       </c>
       <c r="H321" s="1" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="K321" s="1" t="s">
         <v>620</v>
       </c>
       <c r="L321" s="1" t="s">
-        <v>1173</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="60">
       <c r="A322" s="1" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>570</v>
@@ -25335,18 +25336,18 @@
         <v>35</v>
       </c>
       <c r="G322" s="1" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="K322" s="1" t="s">
         <v>300</v>
       </c>
       <c r="L322" s="1" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="84">
       <c r="A323" s="1" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>705</v>
@@ -25364,7 +25365,7 @@
         <v>35</v>
       </c>
       <c r="G323" s="1" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="H323" s="1" t="s">
         <v>344</v>
@@ -25379,12 +25380,12 @@
         <v>68</v>
       </c>
       <c r="L323" s="1" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="48">
       <c r="A324" s="1" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>705</v>
@@ -25402,24 +25403,24 @@
         <v>35</v>
       </c>
       <c r="G324" s="1" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H324" s="1" t="s">
         <v>267</v>
       </c>
       <c r="K324" s="1" t="s">
+        <v>1180</v>
+      </c>
+      <c r="L324" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="M324" s="1" t="s">
         <v>1182</v>
       </c>
-      <c r="L324" s="1" t="s">
+    </row>
+    <row r="325" spans="1:13" ht="60">
+      <c r="A325" s="1" t="s">
         <v>1183</v>
-      </c>
-      <c r="M324" s="1" t="s">
-        <v>1184</v>
-      </c>
-    </row>
-    <row r="325" spans="1:13" ht="72">
-      <c r="A325" s="1" t="s">
-        <v>1185</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>705</v>
@@ -25437,21 +25438,21 @@
         <v>35</v>
       </c>
       <c r="G325" s="1" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="H325" s="1" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="K325" s="1" t="s">
         <v>131</v>
       </c>
       <c r="L325" s="1" t="s">
-        <v>1188</v>
-      </c>
-    </row>
-    <row r="326" spans="1:13" ht="60">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="326" spans="1:13" ht="48">
       <c r="A326" s="1" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>705</v>
@@ -25469,7 +25470,7 @@
         <v>35</v>
       </c>
       <c r="G326" s="1" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="H326" s="1" t="s">
         <v>267</v>
@@ -25478,12 +25479,12 @@
         <v>232</v>
       </c>
       <c r="L326" s="1" t="s">
-        <v>1191</v>
-      </c>
-    </row>
-    <row r="327" spans="1:13" ht="24">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="327" spans="1:13">
       <c r="A327" s="1" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>848</v>
@@ -25501,18 +25502,18 @@
         <v>35</v>
       </c>
       <c r="G327" s="1" t="s">
+        <v>1191</v>
+      </c>
+      <c r="L327" s="1" t="s">
+        <v>1192</v>
+      </c>
+      <c r="M327" s="1" t="s">
         <v>1193</v>
-      </c>
-      <c r="L327" s="1" t="s">
-        <v>1194</v>
-      </c>
-      <c r="M327" s="1" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="120">
       <c r="A328" s="1" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>848</v>
@@ -25530,7 +25531,7 @@
         <v>29</v>
       </c>
       <c r="G328" s="1" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="H328" s="1" t="s">
         <v>213</v>
@@ -25539,12 +25540,12 @@
         <v>116</v>
       </c>
       <c r="L328" s="1" t="s">
-        <v>1198</v>
-      </c>
-    </row>
-    <row r="329" spans="1:13" ht="252">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="329" spans="1:13" ht="228">
       <c r="A329" s="1" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>705</v>
@@ -25562,7 +25563,7 @@
         <v>83</v>
       </c>
       <c r="G329" s="1" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="H329" s="1" t="s">
         <v>267</v>
@@ -25571,12 +25572,12 @@
         <v>232</v>
       </c>
       <c r="L329" s="1" t="s">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="330" spans="1:13" ht="48">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="330" spans="1:13" ht="36">
       <c r="A330" s="1" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>705</v>
@@ -25594,18 +25595,18 @@
         <v>35</v>
       </c>
       <c r="G330" s="1" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="K330" s="1" t="s">
         <v>42</v>
       </c>
       <c r="L330" s="1" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="48">
       <c r="A331" s="1" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>705</v>
@@ -25623,21 +25624,21 @@
         <v>35</v>
       </c>
       <c r="G331" s="1" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="K331" s="1" t="s">
         <v>68</v>
       </c>
       <c r="L331" s="1" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="M331" s="1" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="48">
       <c r="A332" s="1" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>296</v>
@@ -25655,7 +25656,7 @@
         <v>35</v>
       </c>
       <c r="G332" s="1" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="I332" s="1" t="s">
         <v>37</v>
@@ -25664,15 +25665,15 @@
         <v>300</v>
       </c>
       <c r="L332" s="1" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="M332" s="1" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="48">
       <c r="A333" s="1" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>296</v>
@@ -25690,18 +25691,18 @@
         <v>29</v>
       </c>
       <c r="H333" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K333" s="1" t="s">
+        <v>1212</v>
+      </c>
+      <c r="L333" s="1" t="s">
         <v>1213</v>
-      </c>
-      <c r="K333" s="1" t="s">
-        <v>1214</v>
-      </c>
-      <c r="L333" s="1" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="96">
       <c r="A334" s="1" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>296</v>
@@ -25719,15 +25720,15 @@
         <v>88</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="L334" s="1" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="72">
       <c r="A335" s="1" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>705</v>
@@ -25745,16 +25746,16 @@
         <v>35</v>
       </c>
       <c r="G335" s="1" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="H335" s="1" t="s">
         <v>665</v>
       </c>
       <c r="K335" s="1" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="L335" s="1" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="M335" s="1" t="s">
         <v>819</v>
@@ -25762,7 +25763,7 @@
     </row>
     <row r="336" spans="1:13" ht="72">
       <c r="A336" s="1" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>705</v>
@@ -25780,18 +25781,18 @@
         <v>35</v>
       </c>
       <c r="G336" s="1" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="I336" s="1" t="s">
         <v>37</v>
       </c>
       <c r="L336" s="1" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="48">
       <c r="A337" s="1" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>848</v>
@@ -25809,18 +25810,18 @@
         <v>29</v>
       </c>
       <c r="G337" s="1" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="H337" s="1" t="s">
         <v>103</v>
       </c>
       <c r="L337" s="1" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="48">
       <c r="A338" s="1" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>848</v>
@@ -25838,21 +25839,21 @@
         <v>35</v>
       </c>
       <c r="G338" s="1" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H338" s="1" t="s">
         <v>213</v>
       </c>
       <c r="L338" s="1" t="s">
+        <v>1230</v>
+      </c>
+      <c r="M338" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="339" spans="1:13" ht="144">
+      <c r="A339" s="1" t="s">
         <v>1232</v>
-      </c>
-      <c r="M338" s="1" t="s">
-        <v>1233</v>
-      </c>
-    </row>
-    <row r="339" spans="1:13" ht="156">
-      <c r="A339" s="1" t="s">
-        <v>1234</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>26</v>
@@ -25870,24 +25871,24 @@
         <v>88</v>
       </c>
       <c r="G339" s="1" t="s">
+        <v>1234</v>
+      </c>
+      <c r="H339" s="1" t="s">
+        <v>1235</v>
+      </c>
+      <c r="L339" s="1" t="s">
         <v>1236</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>1237</v>
-      </c>
-      <c r="L339" s="1" t="s">
-        <v>1238</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="252">
       <c r="A340" s="1" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D340" s="1">
         <v>1</v>
@@ -25899,27 +25900,27 @@
         <v>35</v>
       </c>
       <c r="G340" s="1" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="H340" s="1" t="s">
         <v>267</v>
       </c>
       <c r="L340" s="1" t="s">
+        <v>1242</v>
+      </c>
+      <c r="M340" s="1" t="s">
         <v>1244</v>
-      </c>
-      <c r="M340" s="1" t="s">
-        <v>1246</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="252">
       <c r="A341" s="1" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="C341" s="1" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="D341" s="1">
         <v>1</v>
@@ -25931,7 +25932,7 @@
         <v>35</v>
       </c>
       <c r="G341" s="1" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="H341" s="1" t="s">
         <v>267</v>
@@ -25940,15 +25941,15 @@
         <v>232</v>
       </c>
       <c r="L341" s="1" t="s">
+        <v>1243</v>
+      </c>
+      <c r="M341" s="1" t="s">
         <v>1245</v>
-      </c>
-      <c r="M341" s="1" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="36">
       <c r="A342" s="1" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>419</v>
@@ -25966,28 +25967,18 @@
         <v>35</v>
       </c>
       <c r="G342" s="1" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="K342" s="1" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="L342" s="1" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A2:EP311" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
     <mergeCell ref="CE1:CE2"/>
     <mergeCell ref="DB1:DU1"/>
     <mergeCell ref="DW1:EP1"/>
@@ -25997,6 +25988,16 @@
     <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
     <mergeCell ref="CC1:CC2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="1387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3286" uniqueCount="1386">
   <si>
     <t xml:space="preserve">Name</t>
   </si>
@@ -1950,33 +1950,8 @@
     <t xml:space="preserve">panigus</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">A stream of water, a jet of flame or a trail of earth glides through the air and pools to form a giant floating sphere up to 2m in radius, hovering above the ground. The sphere twist, remolds and reforms itself violently in a display of chaotic, elemental power. 
-Any being which comes into contact with the sphere must succeed on a resist check, or be caught and absorbed into the tumultous surface of the spheroid. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Up to 5 humanoids, or 1 larger creature (if within the size of the sphere) can be restrained at any one time. At the end of each turn, a being may attempt to Resist in order to escape the sphere, which deposits them prone somewhere within 1m of there surface of the sphere. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">
+    <t xml:space="preserve">A stream of water, a jet of flame or a trail of earth glides through the air and pools to form a giant floating sphere up to 2m in radius, hovering above the ground. The sphere twist, remolds and reforms itself violently in a display of chaotic, elemental power. 
+Any being which comes into contact with the sphere must succeed on a resist check, or be caught and absorbed into the tumultous surface of the spheroid. Up to 5 humanoids, or 1 larger creature (if within the size of the sphere) can be restrained at any one time. At the end of each turn, a being may attempt to Resist in order to escape the sphere, which deposits them prone somewhere within 1m of there surface of the sphere. 
 Any being caught in the initial area, or which subsequently passes through the sphere must succeed on a Resist, or be sucked into the sphere.  Beings inside the sphere are deprived of are considered {\it Incapcitated}, able only to perform a Strength Resist check at the beginning of each turn. 
 Succeeding in a resist check deposits you prone at a random point outside the sphere. The effects experienced whilst trapped inside the sphere depend on the element used to construct it:
 \begin{spellitemize}
@@ -1989,7 +1964,6 @@
 \boldItem{Water}{Take 2d12 bludgeoning damage per turn and are deprived of Oxygen}
 \end{spellitemize}
 The sphere remains whilst the caster remains focussed, and can be moved at a speed of 3 metres per cycle, moving all trapped targets along with them. When focus is broken, the sphere remains in place for one additional turn as it disintegrates and dissipates itself, before vanishing.</t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Stonemeld</t>
@@ -2213,7 +2187,7 @@
   </si>
   <si>
     <t xml:space="preserve">Your wand emits healing rays which close small wounds as you pass your wand over them. Heal for 1d8 points of health.
-This spell cannot heal a target to more than 50\% their maximum health. If the target has a {\it Major Injury}, this is reduced to 25\%. </t>
+If the target has a {\it Major Injury}, cannot heal them above 25\% HP. </t>
   </si>
   <si>
     <t xml:space="preserve">This spell heals for an additional 1d8 damage for every additional spell level dedicated to it. </t>
@@ -2263,7 +2237,7 @@
 If target has a serious wound (i.e. a broken bone or a serious burn), this spell cannot heal beyond 75\% their maximum health.</t>
   </si>
   <si>
-    <t xml:space="preserve">Heal an additional 1d8 HP \forEvery.</t>
+    <t xml:space="preserve">Heal an additional 1d10 HP \forEvery.</t>
   </si>
   <si>
     <t xml:space="preserve">Stasis Field</t>
@@ -4488,9 +4462,6 @@
     <t xml:space="preserve">Arcane Shield</t>
   </si>
   <si>
-    <t xml:space="preserve">Insant</t>
-  </si>
-  <si>
     <t xml:space="preserve">protego</t>
   </si>
   <si>
@@ -4660,25 +4631,9 @@
     <t xml:space="preserve">protego discero</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">You summon an {\it Arcane Shield} to protect another being you can see within range. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="aakar"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Whenever an attack is performed against them whilst the shield is active, roll 2d4 +2 and add this value to theit Resist check or their Block value, as appropriate. If a successful Resist would limit the amount of damage taken, negate it entirely instead. 
+    <t xml:space="preserve">You summon an {\it Arcane Shield} to protect another being you can see within range. 
+Whenever an attack is performed against them whilst the shield is active, roll 2d4 +2 and add this value to theit Resist check or their Block value, as appropriate. If a successful Resist would limit the amount of damage taken, negate it entirely instead. 
 If the target fails to Resist, or the Accuracy exceeds the augmented Block value, the shield crumples and the spell is ended. The spell which broke the shield is then applied to at half damage, with any other effects unmodified. Any other spells which strike after this act as normal. </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">Minefield</t>
@@ -4831,7 +4786,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -4911,11 +4866,6 @@
       <name val="aakar"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="aakar"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
@@ -5103,11 +5053,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -5199,11 +5149,11 @@
   <dimension ref="A1:FK385"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E377" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="E357" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A377" activeCellId="0" sqref="A377"/>
-      <selection pane="bottomRight" activeCell="A377" activeCellId="0" sqref="A377"/>
+      <selection pane="bottomLeft" activeCell="A357" activeCellId="0" sqref="A357"/>
+      <selection pane="bottomRight" activeCell="E361" activeCellId="0" sqref="E361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -16172,7 +16122,7 @@
       <c r="CE163" s="2"/>
       <c r="CF163" s="2"/>
     </row>
-    <row r="164" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="164" customFormat="false" ht="32.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="13" t="s">
         <v>616</v>
       </c>
@@ -28824,23 +28774,23 @@
         <v>1</v>
       </c>
       <c r="E360" s="13" t="s">
-        <v>1292</v>
+        <v>28</v>
       </c>
       <c r="F360" s="13" t="s">
         <v>34</v>
       </c>
       <c r="G360" s="13" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="H360" s="13"/>
       <c r="I360" s="13"/>
       <c r="J360" s="13"/>
       <c r="K360" s="13"/>
       <c r="L360" s="13" t="s">
+        <v>1293</v>
+      </c>
+      <c r="M360" s="21" t="s">
         <v>1294</v>
-      </c>
-      <c r="M360" s="21" t="s">
-        <v>1295</v>
       </c>
       <c r="U360" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D360,$O360+$P360*($Q360+1)/2+$R360*($S360+1)/2*(AA$1-$D360),0)</f>
@@ -28869,7 +28819,7 @@
     </row>
     <row r="361" customFormat="false" ht="95.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="13" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="B361" s="1" t="s">
         <v>588</v>
@@ -28887,16 +28837,16 @@
         <v>29</v>
       </c>
       <c r="G361" s="13" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H361" s="13" t="s">
         <v>1297</v>
-      </c>
-      <c r="H361" s="13" t="s">
-        <v>1298</v>
       </c>
       <c r="I361" s="13"/>
       <c r="J361" s="13"/>
       <c r="K361" s="13"/>
       <c r="L361" s="13" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="U361" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D361,$O361+$P361*($Q361+1)/2+$R361*($S361+1)/2*(AA$1-$D361),0)</f>
@@ -28925,7 +28875,7 @@
     </row>
     <row r="362" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="1" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="B362" s="1" t="s">
         <v>588</v>
@@ -28943,7 +28893,7 @@
         <v>29</v>
       </c>
       <c r="G362" s="1" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="H362" s="1" t="s">
         <v>66</v>
@@ -28952,7 +28902,7 @@
         <v>47</v>
       </c>
       <c r="L362" s="1" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="U362" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D362,$O362+$P362*($Q362+1)/2+$R362*($S362+1)/2*(AA$1-$D362),0)</f>
@@ -28981,7 +28931,7 @@
     </row>
     <row r="363" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="13" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="B363" s="1" t="s">
         <v>588</v>
@@ -28999,7 +28949,7 @@
         <v>29</v>
       </c>
       <c r="G363" s="13" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="H363" s="13" t="s">
         <v>66</v>
@@ -29008,7 +28958,7 @@
       <c r="J363" s="13"/>
       <c r="K363" s="13"/>
       <c r="L363" s="13" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="U363" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D363,$O363+$P363*($Q363+1)/2+$R363*($S363+1)/2*(AA$1-$D363),0)</f>
@@ -29037,7 +28987,7 @@
     </row>
     <row r="364" customFormat="false" ht="43.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="1" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="B364" s="1" t="s">
         <v>588</v>
@@ -29055,16 +29005,16 @@
         <v>42</v>
       </c>
       <c r="G364" s="1" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="H364" s="1" t="s">
         <v>75</v>
       </c>
       <c r="L364" s="1" t="s">
+        <v>1307</v>
+      </c>
+      <c r="M364" s="1" t="s">
         <v>1308</v>
-      </c>
-      <c r="M364" s="1" t="s">
-        <v>1309</v>
       </c>
       <c r="U364" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D364,$O364+$P364*($Q364+1)/2+$R364*($S364+1)/2*(AA$1-$D364),0)</f>
@@ -29093,7 +29043,7 @@
     </row>
     <row r="365" customFormat="false" ht="43.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="13" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="B365" s="1" t="s">
         <v>588</v>
@@ -29111,7 +29061,7 @@
         <v>34</v>
       </c>
       <c r="G365" s="13" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="H365" s="13" t="s">
         <v>290</v>
@@ -29120,10 +29070,10 @@
       <c r="J365" s="13"/>
       <c r="K365" s="13"/>
       <c r="L365" s="13" t="s">
+        <v>1311</v>
+      </c>
+      <c r="M365" s="1" t="s">
         <v>1312</v>
-      </c>
-      <c r="M365" s="1" t="s">
-        <v>1313</v>
       </c>
       <c r="U365" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D365,$O365+$P365*($Q365+1)/2+$R365*($S365+1)/2*(AA$1-$D365),0)</f>
@@ -29152,7 +29102,7 @@
     </row>
     <row r="366" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="13" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="B366" s="1" t="s">
         <v>588</v>
@@ -29170,10 +29120,10 @@
         <v>42</v>
       </c>
       <c r="G366" s="13" t="s">
+        <v>1314</v>
+      </c>
+      <c r="H366" s="13" t="s">
         <v>1315</v>
-      </c>
-      <c r="H366" s="13" t="s">
-        <v>1316</v>
       </c>
       <c r="I366" s="13"/>
       <c r="J366" s="13"/>
@@ -29181,10 +29131,10 @@
         <v>261</v>
       </c>
       <c r="L366" s="13" t="s">
+        <v>1316</v>
+      </c>
+      <c r="M366" s="21" t="s">
         <v>1317</v>
-      </c>
-      <c r="M366" s="21" t="s">
-        <v>1318</v>
       </c>
       <c r="N366" s="1" t="n">
         <v>1</v>
@@ -29231,7 +29181,7 @@
     </row>
     <row r="367" customFormat="false" ht="95.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="13" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="B367" s="1" t="s">
         <v>588</v>
@@ -29249,14 +29199,14 @@
         <v>29</v>
       </c>
       <c r="G367" s="13" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="H367" s="13"/>
       <c r="I367" s="13"/>
       <c r="J367" s="13"/>
       <c r="K367" s="13"/>
       <c r="L367" s="13" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="M367" s="15"/>
       <c r="U367" s="1" t="n">
@@ -29286,7 +29236,7 @@
     </row>
     <row r="368" customFormat="false" ht="43.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="13" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="B368" s="1" t="s">
         <v>588</v>
@@ -29304,7 +29254,7 @@
         <v>29</v>
       </c>
       <c r="G368" s="13" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="H368" s="13" t="s">
         <v>36</v>
@@ -29315,7 +29265,7 @@
         <v>90</v>
       </c>
       <c r="L368" s="13" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="U368" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D368,$O368+$P368*($Q368+1)/2+$R368*($S368+1)/2*(AA$1-$D368),0)</f>
@@ -29344,7 +29294,7 @@
     </row>
     <row r="369" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="13" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="B369" s="1" t="s">
         <v>588</v>
@@ -29362,17 +29312,17 @@
         <v>29</v>
       </c>
       <c r="G369" s="13" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="H369" s="17"/>
       <c r="I369" s="13"/>
       <c r="J369" s="13"/>
       <c r="K369" s="13"/>
       <c r="L369" s="13" t="s">
+        <v>1326</v>
+      </c>
+      <c r="M369" s="1" t="s">
         <v>1327</v>
-      </c>
-      <c r="M369" s="1" t="s">
-        <v>1328</v>
       </c>
       <c r="U369" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D369,$O369+$P369*($Q369+1)/2+$R369*($S369+1)/2*(AA$1-$D369),0)</f>
@@ -29401,7 +29351,7 @@
     </row>
     <row r="370" customFormat="false" ht="43.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="13" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="B370" s="1" t="s">
         <v>588</v>
@@ -29419,7 +29369,7 @@
         <v>29</v>
       </c>
       <c r="G370" s="13" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="H370" s="13" t="s">
         <v>66</v>
@@ -29428,7 +29378,7 @@
       <c r="J370" s="13"/>
       <c r="K370" s="13"/>
       <c r="L370" s="13" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="U370" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D370,$O370+$P370*($Q370+1)/2+$R370*($S370+1)/2*(AA$1-$D370),0)</f>
@@ -29457,7 +29407,7 @@
     </row>
     <row r="371" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="13" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="B371" s="1" t="s">
         <v>588</v>
@@ -29475,19 +29425,19 @@
         <v>29</v>
       </c>
       <c r="G371" s="13" t="s">
+        <v>1332</v>
+      </c>
+      <c r="H371" s="13" t="s">
         <v>1333</v>
-      </c>
-      <c r="H371" s="13" t="s">
-        <v>1334</v>
       </c>
       <c r="I371" s="13"/>
       <c r="J371" s="13"/>
       <c r="K371" s="13"/>
       <c r="L371" s="13" t="s">
+        <v>1334</v>
+      </c>
+      <c r="M371" s="1" t="s">
         <v>1335</v>
-      </c>
-      <c r="M371" s="1" t="s">
-        <v>1336</v>
       </c>
       <c r="U371" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D371,$O371+$P371*($Q371+1)/2+$R371*($S371+1)/2*(AA$1-$D371),0)</f>
@@ -29516,7 +29466,7 @@
     </row>
     <row r="372" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="13" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="B372" s="1" t="s">
         <v>588</v>
@@ -29534,7 +29484,7 @@
         <v>29</v>
       </c>
       <c r="G372" s="13" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="H372" s="13" t="s">
         <v>984</v>
@@ -29542,13 +29492,13 @@
       <c r="I372" s="13"/>
       <c r="J372" s="13"/>
       <c r="K372" s="13" t="s">
+        <v>1338</v>
+      </c>
+      <c r="L372" s="13" t="s">
         <v>1339</v>
       </c>
-      <c r="L372" s="13" t="s">
+      <c r="M372" s="21" t="s">
         <v>1340</v>
-      </c>
-      <c r="M372" s="21" t="s">
-        <v>1341</v>
       </c>
       <c r="U372" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D372,$O372+$P372*($Q372+1)/2+$R372*($S372+1)/2*(AA$1-$D372),0)</f>
@@ -29577,7 +29527,7 @@
     </row>
     <row r="373" customFormat="false" ht="74.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="13" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="B373" s="1" t="s">
         <v>588</v>
@@ -29595,19 +29545,19 @@
         <v>42</v>
       </c>
       <c r="G373" s="13" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="H373" s="13"/>
       <c r="I373" s="13"/>
       <c r="J373" s="13"/>
       <c r="K373" s="13"/>
       <c r="L373" s="13" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="374" customFormat="false" ht="53.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="13" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="B374" s="1" t="s">
         <v>588</v>
@@ -29625,7 +29575,7 @@
         <v>29</v>
       </c>
       <c r="G374" s="13" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="H374" s="13" t="s">
         <v>316</v>
@@ -29636,7 +29586,7 @@
         <v>184</v>
       </c>
       <c r="L374" s="13" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="M374" s="1" t="s">
         <v>1000</v>
@@ -29686,7 +29636,7 @@
     </row>
     <row r="375" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="13" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="B375" s="1" t="s">
         <v>588</v>
@@ -29704,7 +29654,7 @@
         <v>42</v>
       </c>
       <c r="G375" s="13" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="H375" s="13" t="s">
         <v>232</v>
@@ -29713,10 +29663,10 @@
       <c r="J375" s="13"/>
       <c r="K375" s="13"/>
       <c r="L375" s="13" t="s">
+        <v>1349</v>
+      </c>
+      <c r="M375" s="21" t="s">
         <v>1350</v>
-      </c>
-      <c r="M375" s="21" t="s">
-        <v>1351</v>
       </c>
       <c r="U375" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D375,$O375+$P375*($Q375+1)/2+$R375*($S375+1)/2*(AA$1-$D375),0)</f>
@@ -29745,7 +29695,7 @@
     </row>
     <row r="376" customFormat="false" ht="64.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="13" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="B376" s="1" t="s">
         <v>588</v>
@@ -29763,7 +29713,7 @@
         <v>60</v>
       </c>
       <c r="G376" s="13" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="H376" s="13" t="s">
         <v>180</v>
@@ -29772,10 +29722,10 @@
       <c r="J376" s="13"/>
       <c r="K376" s="13"/>
       <c r="L376" s="13" t="s">
+        <v>1353</v>
+      </c>
+      <c r="M376" s="21" t="s">
         <v>1354</v>
-      </c>
-      <c r="M376" s="21" t="s">
-        <v>1355</v>
       </c>
       <c r="U376" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D376,$O376+$P376*($Q376+1)/2+$R376*($S376+1)/2*(AA$1-$D376),0)</f>
@@ -29804,7 +29754,7 @@
     </row>
     <row r="377" customFormat="false" ht="43.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="1" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="B377" s="1" t="s">
         <v>588</v>
@@ -29822,13 +29772,13 @@
         <v>29</v>
       </c>
       <c r="G377" s="1" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="H377" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L377" s="1" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="U377" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D377,$O377+$P377*($Q377+1)/2+$R377*($S377+1)/2*(AA$1-$D377),0)</f>
@@ -29857,7 +29807,7 @@
     </row>
     <row r="378" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="13" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="B378" s="1" t="s">
         <v>588</v>
@@ -29875,17 +29825,17 @@
         <v>29</v>
       </c>
       <c r="G378" s="13" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="H378" s="13"/>
       <c r="I378" s="13"/>
       <c r="J378" s="13"/>
       <c r="K378" s="13"/>
       <c r="L378" s="13" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M378" s="1" t="s">
         <v>1361</v>
-      </c>
-      <c r="M378" s="1" t="s">
-        <v>1362</v>
       </c>
       <c r="U378" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D378,$O378+$P378*($Q378+1)/2+$R378*($S378+1)/2*(AA$1-$D378),0)</f>
@@ -29914,7 +29864,7 @@
     </row>
     <row r="379" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="13" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="B379" s="1" t="s">
         <v>588</v>
@@ -29932,7 +29882,7 @@
         <v>29</v>
       </c>
       <c r="G379" s="13" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="H379" s="13" t="s">
         <v>36</v>
@@ -29941,10 +29891,10 @@
       <c r="J379" s="13"/>
       <c r="K379" s="13"/>
       <c r="L379" s="13" t="s">
+        <v>1364</v>
+      </c>
+      <c r="M379" s="1" t="s">
         <v>1365</v>
-      </c>
-      <c r="M379" s="1" t="s">
-        <v>1366</v>
       </c>
       <c r="U379" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D379,$O379+$P379*($Q379+1)/2+$R379*($S379+1)/2*(AA$1-$D379),0)</f>
@@ -29973,7 +29923,7 @@
     </row>
     <row r="380" customFormat="false" ht="43.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="1" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="B380" s="1" t="s">
         <v>588</v>
@@ -29991,18 +29941,18 @@
         <v>29</v>
       </c>
       <c r="G380" s="1" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="H380" s="1" t="s">
         <v>66</v>
       </c>
       <c r="L380" s="1" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
     </row>
     <row r="381" customFormat="false" ht="53.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="13" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="B381" s="1" t="s">
         <v>588</v>
@@ -30020,7 +29970,7 @@
         <v>42</v>
       </c>
       <c r="G381" s="13" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="H381" s="13"/>
       <c r="I381" s="13"/>
@@ -30029,10 +29979,10 @@
         <v>233</v>
       </c>
       <c r="L381" s="13" t="s">
+        <v>1371</v>
+      </c>
+      <c r="M381" s="21" t="s">
         <v>1372</v>
-      </c>
-      <c r="M381" s="21" t="s">
-        <v>1373</v>
       </c>
       <c r="U381" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D381,$O381+$P381*($Q381+1)/2+$R381*($S381+1)/2*(AA$1-$D381),0)</f>
@@ -30061,7 +30011,7 @@
     </row>
     <row r="382" customFormat="false" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="13" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="B382" s="1" t="s">
         <v>588</v>
@@ -30079,7 +30029,7 @@
         <v>29</v>
       </c>
       <c r="G382" s="13" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="H382" s="13" t="s">
         <v>316</v>
@@ -30088,7 +30038,7 @@
       <c r="J382" s="13"/>
       <c r="K382" s="13"/>
       <c r="L382" s="13" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="U382" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D382,$O382+$P382*($Q382+1)/2+$R382*($S382+1)/2*(AA$1-$D382),0)</f>
@@ -30117,7 +30067,7 @@
     </row>
     <row r="383" customFormat="false" ht="53.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="13" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="B383" s="1" t="s">
         <v>588</v>
@@ -30135,7 +30085,7 @@
         <v>29</v>
       </c>
       <c r="G383" s="13" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="H383" s="13" t="s">
         <v>36</v>
@@ -30144,7 +30094,7 @@
       <c r="J383" s="13"/>
       <c r="K383" s="13"/>
       <c r="L383" s="13" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="U383" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D383,$O383+$P383*($Q383+1)/2+$R383*($S383+1)/2*(AA$1-$D383),0)</f>
@@ -30173,7 +30123,7 @@
     </row>
     <row r="384" customFormat="false" ht="116.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="13" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="B384" s="1" t="s">
         <v>588</v>
@@ -30185,20 +30135,20 @@
         <v>6</v>
       </c>
       <c r="E384" s="13" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="F384" s="13" t="s">
         <v>29</v>
       </c>
       <c r="G384" s="13" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="H384" s="13"/>
       <c r="I384" s="13"/>
       <c r="J384" s="13"/>
       <c r="K384" s="13"/>
       <c r="L384" s="13" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="U384" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D384,$O384+$P384*($Q384+1)/2+$R384*($S384+1)/2*(AA$1-$D384),0)</f>
@@ -30227,7 +30177,7 @@
     </row>
     <row r="385" customFormat="false" ht="85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="1" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="B385" s="1" t="s">
         <v>588</v>
@@ -30245,7 +30195,7 @@
         <v>29</v>
       </c>
       <c r="G385" s="1" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="H385" s="1" t="s">
         <v>75</v>
@@ -30254,7 +30204,7 @@
         <v>159</v>
       </c>
       <c r="L385" s="1" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="U385" s="1" t="n">
         <f aca="false">IF(AA$1&gt;=$D385,$O385+$P385*($Q385+1)/2+$R385*($S385+1)/2*(AA$1-$D385),0)</f>

--- a/CoreRulebook/Data/Spells/AllSpells.xlsx
+++ b/CoreRulebook/Data/Spells/AllSpells.xlsx
@@ -1238,7 +1238,7 @@
     <t xml:space="preserve">A beam of light causes the target\apos{}s muscles to atrophy and their mind to cloud for an instant, before the effect wears off. The target must deduct 1d4 from the value of their next check. </t>
   </si>
   <si>
-    <t xml:space="preserve">Palpatation</t>
+    <t xml:space="preserve">Palpitation</t>
   </si>
   <si>
     <t xml:space="preserve">vena</t>
@@ -2411,7 +2411,7 @@
     <t xml:space="preserve">A wave of energy strikes into the target, causing 1d6 force damage, and if the target fails to Resist, pushing the target backwards up to 1 metre. </t>
   </si>
   <si>
-    <t xml:space="preserve">Each additional casting level dedicated to this spell increases the power of the energy-wave: do an additional 1d8 force damage and push the target back an extra 2 metres. </t>
+    <t xml:space="preserve">Each additional casting level dedicated to this spell increases the power of the energy-wave: do an additional 1d6 force damage and push the target back an extra 2 metres. </t>
   </si>
   <si>
     <t xml:space="preserve">Magnetising Strike</t>
@@ -5149,11 +5149,11 @@
   <dimension ref="A1:FK385"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="2" topLeftCell="E357" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="2" topLeftCell="L179" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
-      <selection pane="bottomLeft" activeCell="A357" activeCellId="0" sqref="A357"/>
-      <selection pane="bottomRight" activeCell="E361" activeCellId="0" sqref="E361"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="A179" activeCellId="0" sqref="A179"/>
+      <selection pane="bottomRight" activeCell="L183" activeCellId="0" sqref="L183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
